--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>LPL</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +665,231 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4890200</v>
+        <v>3826600</v>
       </c>
       <c r="E8" s="3">
-        <v>4496900</v>
+        <v>5201600</v>
       </c>
       <c r="F8" s="3">
-        <v>4938200</v>
+        <v>4715600</v>
       </c>
       <c r="G8" s="3">
-        <v>5836100</v>
+        <v>4336300</v>
       </c>
       <c r="H8" s="3">
-        <v>5126000</v>
+        <v>4761800</v>
       </c>
       <c r="I8" s="3">
+        <v>5627700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4942900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4713400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4767100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6270900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6136300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5833400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6355900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7142400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4636900</v>
+        <v>3601300</v>
       </c>
       <c r="E9" s="3">
-        <v>4092300</v>
+        <v>4835200</v>
       </c>
       <c r="F9" s="3">
-        <v>4406700</v>
+        <v>4471300</v>
       </c>
       <c r="G9" s="3">
-        <v>4838500</v>
+        <v>3946100</v>
       </c>
       <c r="H9" s="3">
-        <v>4379400</v>
+        <v>4249300</v>
       </c>
       <c r="I9" s="3">
+        <v>4665700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4223000</v>
+      </c>
+      <c r="K9" s="3">
         <v>4321400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4311800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5499300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5031500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4501200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4808600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5726100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>253300</v>
+        <v>225300</v>
       </c>
       <c r="E10" s="3">
-        <v>404600</v>
+        <v>366400</v>
       </c>
       <c r="F10" s="3">
-        <v>531500</v>
+        <v>244300</v>
       </c>
       <c r="G10" s="3">
-        <v>997700</v>
+        <v>390200</v>
       </c>
       <c r="H10" s="3">
-        <v>746500</v>
+        <v>512500</v>
       </c>
       <c r="I10" s="3">
+        <v>962000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>719900</v>
+      </c>
+      <c r="K10" s="3">
         <v>392100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>455400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>771700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1104800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1332200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1547400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1416200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>182900</v>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>356400</v>
+        <v>199900</v>
       </c>
       <c r="F12" s="3">
-        <v>279800</v>
+        <v>176400</v>
       </c>
       <c r="G12" s="3">
-        <v>262900</v>
+        <v>343700</v>
       </c>
       <c r="H12" s="3">
-        <v>275700</v>
+        <v>269800</v>
       </c>
       <c r="I12" s="3">
+        <v>253500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>265800</v>
+      </c>
+      <c r="K12" s="3">
         <v>247700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>239500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>291700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>251700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>274200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>255800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>276900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>121100</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="3">
-        <v>9100</v>
+        <v>1342000</v>
       </c>
       <c r="F14" s="3">
+        <v>117000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
-        <v>38600</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>28200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-3600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>21400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>22700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-7500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>50800</v>
+      <c r="D15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="3">
         <v>45800</v>
       </c>
       <c r="F15" s="3">
-        <v>45700</v>
+        <v>49000</v>
       </c>
       <c r="G15" s="3">
-        <v>40100</v>
+        <v>44200</v>
       </c>
       <c r="H15" s="3">
-        <v>38600</v>
+        <v>44000</v>
       </c>
       <c r="I15" s="3">
+        <v>38700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K15" s="3">
         <v>34500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>33400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>30800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>30800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>29900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>31300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>27900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>5378200</v>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="3">
-        <v>4815700</v>
+        <v>6885300</v>
       </c>
       <c r="F17" s="3">
-        <v>5054200</v>
+        <v>5186300</v>
       </c>
       <c r="G17" s="3">
-        <v>5640100</v>
+        <v>4643700</v>
       </c>
       <c r="H17" s="3">
-        <v>5009600</v>
+        <v>4873900</v>
       </c>
       <c r="I17" s="3">
+        <v>5439000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4830600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4933200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4849700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6228300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5621800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5147100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5454500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6321000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>-488000</v>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="3">
-        <v>-318900</v>
+        <v>-1683700</v>
       </c>
       <c r="F18" s="3">
-        <v>-116000</v>
+        <v>-470800</v>
       </c>
       <c r="G18" s="3">
-        <v>196000</v>
+        <v>-307500</v>
       </c>
       <c r="H18" s="3">
-        <v>116400</v>
+        <v>-112100</v>
       </c>
       <c r="I18" s="3">
+        <v>188800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-219800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-82600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>42700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>514500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>686300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>901500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>821400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>32000</v>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="3">
-        <v>-25100</v>
+        <v>-24700</v>
       </c>
       <c r="F20" s="3">
-        <v>23700</v>
+        <v>31100</v>
       </c>
       <c r="G20" s="3">
-        <v>15800</v>
+        <v>-24200</v>
       </c>
       <c r="H20" s="3">
-        <v>-8500</v>
+        <v>23000</v>
       </c>
       <c r="I20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>21200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>13500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>32900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>64600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-106000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>159200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>361900</v>
+      <c r="D21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="3">
-        <v>413600</v>
+        <v>-891800</v>
       </c>
       <c r="F21" s="3">
-        <v>589100</v>
+        <v>348900</v>
       </c>
       <c r="G21" s="3">
-        <v>930000</v>
+        <v>398900</v>
       </c>
       <c r="H21" s="3">
-        <v>847500</v>
+        <v>568000</v>
       </c>
       <c r="I21" s="3">
+        <v>896800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>817200</v>
+      </c>
+      <c r="K21" s="3">
         <v>496100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>703100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>835400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1281400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1436600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1439800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1628600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>48200</v>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="3">
-        <v>27600</v>
+        <v>51700</v>
       </c>
       <c r="F22" s="3">
-        <v>15700</v>
+        <v>46500</v>
       </c>
       <c r="G22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H22" s="3">
         <v>15100</v>
       </c>
-      <c r="H22" s="3">
-        <v>15300</v>
-      </c>
       <c r="I22" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K22" s="3">
         <v>18100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>20500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>18900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>22600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-504200</v>
+        <v>-238800</v>
       </c>
       <c r="E23" s="3">
-        <v>-371600</v>
+        <v>-1760100</v>
       </c>
       <c r="F23" s="3">
-        <v>-108100</v>
+        <v>-486200</v>
       </c>
       <c r="G23" s="3">
-        <v>196700</v>
+        <v>-358300</v>
       </c>
       <c r="H23" s="3">
-        <v>92600</v>
+        <v>-104200</v>
       </c>
       <c r="I23" s="3">
+        <v>189700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-285600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-80500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>38700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>526900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>732000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>772300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>958100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-132700</v>
+        <v>-77700</v>
       </c>
       <c r="E24" s="3">
-        <v>90500</v>
+        <v>-288300</v>
       </c>
       <c r="F24" s="3">
-        <v>-55500</v>
+        <v>-128000</v>
       </c>
       <c r="G24" s="3">
-        <v>68500</v>
+        <v>87300</v>
       </c>
       <c r="H24" s="3">
-        <v>77900</v>
+        <v>-53500</v>
       </c>
       <c r="I24" s="3">
+        <v>66100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-33200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-39300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>106900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>83700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>160800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>215800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>-371500</v>
+      <c r="D26" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>-462200</v>
+        <v>-1471800</v>
       </c>
       <c r="F26" s="3">
-        <v>-52600</v>
+        <v>-358200</v>
       </c>
       <c r="G26" s="3">
-        <v>128200</v>
+        <v>-445600</v>
       </c>
       <c r="H26" s="3">
-        <v>14700</v>
+        <v>-50700</v>
       </c>
       <c r="I26" s="3">
+        <v>123600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-252500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-41100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>38400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>420000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>648300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>611500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>742200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>-352300</v>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E27" s="3">
-        <v>-460600</v>
+        <v>-1458800</v>
       </c>
       <c r="F27" s="3">
-        <v>-51200</v>
+        <v>-339700</v>
       </c>
       <c r="G27" s="3">
-        <v>122800</v>
+        <v>-444200</v>
       </c>
       <c r="H27" s="3">
-        <v>2900</v>
+        <v>-49400</v>
       </c>
       <c r="I27" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-249800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-49900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>32500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>388900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>607500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>570100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>718200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>-32000</v>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="F32" s="3">
-        <v>-23700</v>
+        <v>-31100</v>
       </c>
       <c r="G32" s="3">
-        <v>-15800</v>
+        <v>24200</v>
       </c>
       <c r="H32" s="3">
-        <v>8500</v>
+        <v>-23000</v>
       </c>
       <c r="I32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>47700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-21200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-13500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-32900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-64600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>106000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-159200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
-        <v>-352300</v>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E33" s="3">
-        <v>-460600</v>
+        <v>-1458800</v>
       </c>
       <c r="F33" s="3">
-        <v>-51200</v>
+        <v>-339700</v>
       </c>
       <c r="G33" s="3">
-        <v>122800</v>
+        <v>-444200</v>
       </c>
       <c r="H33" s="3">
-        <v>2900</v>
+        <v>-49400</v>
       </c>
       <c r="I33" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-249800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-49900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>32500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>388900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>607500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>570100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>718200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
-        <v>-352300</v>
+      <c r="D35" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E35" s="3">
-        <v>-460600</v>
+        <v>-1458800</v>
       </c>
       <c r="F35" s="3">
-        <v>-51200</v>
+        <v>-339700</v>
       </c>
       <c r="G35" s="3">
-        <v>122800</v>
+        <v>-444200</v>
       </c>
       <c r="H35" s="3">
-        <v>2900</v>
+        <v>-49400</v>
       </c>
       <c r="I35" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-249800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-49900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>32500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>388900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>607500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>570100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>718200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2318100</v>
+        <v>2882300</v>
       </c>
       <c r="E41" s="3">
-        <v>2035700</v>
+        <v>2702200</v>
       </c>
       <c r="F41" s="3">
-        <v>2019500</v>
+        <v>2235400</v>
       </c>
       <c r="G41" s="3">
-        <v>1986600</v>
+        <v>1963000</v>
       </c>
       <c r="H41" s="3">
-        <v>2318600</v>
+        <v>1947400</v>
       </c>
       <c r="I41" s="3">
+        <v>1915700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2235800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2395200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2206400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2290300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1737200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1354700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1210300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1402800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1100</v>
       </c>
-      <c r="F42" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3700</v>
-      </c>
       <c r="H42" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K42" s="3">
         <v>228500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>669700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>603000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1105000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>870900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>797300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>982200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3438300</v>
+        <v>2392300</v>
       </c>
       <c r="E43" s="3">
-        <v>2436200</v>
+        <v>2960900</v>
       </c>
       <c r="F43" s="3">
-        <v>2966000</v>
+        <v>3315500</v>
       </c>
       <c r="G43" s="3">
-        <v>2532300</v>
+        <v>2349200</v>
       </c>
       <c r="H43" s="3">
-        <v>2852900</v>
+        <v>2860000</v>
       </c>
       <c r="I43" s="3">
+        <v>2441800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2751000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3073400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3055600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3965900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4359300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4020800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4095800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4598400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2290800</v>
+        <v>1871200</v>
       </c>
       <c r="E44" s="3">
-        <v>2158100</v>
+        <v>1661400</v>
       </c>
       <c r="F44" s="3">
-        <v>2209100</v>
+        <v>2209000</v>
       </c>
       <c r="G44" s="3">
-        <v>2260600</v>
+        <v>2081100</v>
       </c>
       <c r="H44" s="3">
-        <v>2173400</v>
+        <v>2130200</v>
       </c>
       <c r="I44" s="3">
+        <v>2179900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2095800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2041500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1974300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2068100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2344300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2062200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2054900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2059000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1007000</v>
+        <v>960800</v>
       </c>
       <c r="E45" s="3">
-        <v>919800</v>
+        <v>975400</v>
       </c>
       <c r="F45" s="3">
-        <v>793200</v>
+        <v>971000</v>
       </c>
       <c r="G45" s="3">
-        <v>608900</v>
+        <v>886900</v>
       </c>
       <c r="H45" s="3">
-        <v>417400</v>
+        <v>764800</v>
       </c>
       <c r="I45" s="3">
+        <v>587200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>402500</v>
+      </c>
+      <c r="K45" s="3">
         <v>423500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>408800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>289600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>428200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>485800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>524200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>393400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>9054900</v>
+        <v>8228500</v>
       </c>
       <c r="E46" s="3">
-        <v>7550900</v>
+        <v>8301100</v>
       </c>
       <c r="F46" s="3">
-        <v>7991400</v>
+        <v>8731500</v>
       </c>
       <c r="G46" s="3">
-        <v>7392100</v>
+        <v>7281200</v>
       </c>
       <c r="H46" s="3">
-        <v>7766100</v>
+        <v>7706000</v>
       </c>
       <c r="I46" s="3">
+        <v>7128100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7488700</v>
+      </c>
+      <c r="K46" s="3">
         <v>8162200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8314800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9216900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9974000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8794500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8682400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9435800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>219300</v>
+        <v>299700</v>
       </c>
       <c r="E47" s="3">
-        <v>180000</v>
+        <v>272200</v>
       </c>
       <c r="F47" s="3">
-        <v>175400</v>
+        <v>211400</v>
       </c>
       <c r="G47" s="3">
-        <v>164300</v>
+        <v>173600</v>
       </c>
       <c r="H47" s="3">
-        <v>164500</v>
+        <v>169200</v>
       </c>
       <c r="I47" s="3">
+        <v>158400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K47" s="3">
         <v>154000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>137700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>149900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>137500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>127800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>149500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>197500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>19933700</v>
+        <v>18070000</v>
       </c>
       <c r="E48" s="3">
-        <v>20110900</v>
+        <v>17891000</v>
       </c>
       <c r="F48" s="3">
-        <v>19410100</v>
+        <v>19221800</v>
       </c>
       <c r="G48" s="3">
-        <v>18144100</v>
+        <v>19392600</v>
       </c>
       <c r="H48" s="3">
-        <v>16911900</v>
+        <v>18716900</v>
       </c>
       <c r="I48" s="3">
+        <v>17496100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>16307900</v>
+      </c>
+      <c r="K48" s="3">
         <v>15987500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14721100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14257700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13203600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12466000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11656300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10828300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>816000</v>
+        <v>712500</v>
       </c>
       <c r="E49" s="3">
-        <v>782400</v>
+        <v>707500</v>
       </c>
       <c r="F49" s="3">
-        <v>828600</v>
+        <v>786900</v>
       </c>
       <c r="G49" s="3">
-        <v>829600</v>
+        <v>754400</v>
       </c>
       <c r="H49" s="3">
-        <v>833300</v>
+        <v>799000</v>
       </c>
       <c r="I49" s="3">
+        <v>800000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>803500</v>
+      </c>
+      <c r="K49" s="3">
         <v>795000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>766200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>803300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>782000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>744500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>764600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>805400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1428300</v>
+        <v>1756500</v>
       </c>
       <c r="E52" s="3">
-        <v>1280400</v>
+        <v>1643600</v>
       </c>
       <c r="F52" s="3">
-        <v>1320400</v>
+        <v>1377300</v>
       </c>
       <c r="G52" s="3">
-        <v>1337500</v>
+        <v>1234700</v>
       </c>
       <c r="H52" s="3">
-        <v>1304700</v>
+        <v>1273200</v>
       </c>
       <c r="I52" s="3">
+        <v>1289700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1258100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1314600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1256200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1232800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1239600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1188500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1071800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1128900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>31452200</v>
+        <v>29067300</v>
       </c>
       <c r="E54" s="3">
-        <v>29904600</v>
+        <v>28815400</v>
       </c>
       <c r="F54" s="3">
-        <v>29725900</v>
+        <v>30328900</v>
       </c>
       <c r="G54" s="3">
-        <v>27867600</v>
+        <v>28836600</v>
       </c>
       <c r="H54" s="3">
-        <v>26980500</v>
+        <v>28664300</v>
       </c>
       <c r="I54" s="3">
+        <v>26872300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>26016900</v>
+      </c>
+      <c r="K54" s="3">
         <v>26413100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25196000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25660500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25336700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>23321100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>22324700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>22395900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2245600</v>
+        <v>2326500</v>
       </c>
       <c r="E57" s="3">
-        <v>2364900</v>
+        <v>2120800</v>
       </c>
       <c r="F57" s="3">
-        <v>2495000</v>
+        <v>2165400</v>
       </c>
       <c r="G57" s="3">
-        <v>2593500</v>
+        <v>2280400</v>
       </c>
       <c r="H57" s="3">
-        <v>2668400</v>
+        <v>2405800</v>
       </c>
       <c r="I57" s="3">
+        <v>2500800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2573100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2494500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2354400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2530100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2607300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2150400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2193700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2589600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1612400</v>
+        <v>2344400</v>
       </c>
       <c r="E58" s="3">
-        <v>1551900</v>
+        <v>1601400</v>
       </c>
       <c r="F58" s="3">
-        <v>1343000</v>
+        <v>1554900</v>
       </c>
       <c r="G58" s="3">
-        <v>1305300</v>
+        <v>1496500</v>
       </c>
       <c r="H58" s="3">
-        <v>1721000</v>
+        <v>1295000</v>
       </c>
       <c r="I58" s="3">
+        <v>1258700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1659500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1833200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1804300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1278600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1072600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>734100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>690200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>601100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5080300</v>
+        <v>4412000</v>
       </c>
       <c r="E59" s="3">
-        <v>4668200</v>
+        <v>5175600</v>
       </c>
       <c r="F59" s="3">
-        <v>4335900</v>
+        <v>4898800</v>
       </c>
       <c r="G59" s="3">
-        <v>4463000</v>
+        <v>4501500</v>
       </c>
       <c r="H59" s="3">
-        <v>4131400</v>
+        <v>4181100</v>
       </c>
       <c r="I59" s="3">
+        <v>4303600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3983800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3878000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3862100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4092600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3429700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3088300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3298400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3161700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>8938300</v>
+        <v>9082900</v>
       </c>
       <c r="E60" s="3">
-        <v>8585100</v>
+        <v>8897800</v>
       </c>
       <c r="F60" s="3">
-        <v>8173900</v>
+        <v>8619100</v>
       </c>
       <c r="G60" s="3">
-        <v>8361800</v>
+        <v>8278400</v>
       </c>
       <c r="H60" s="3">
-        <v>8520700</v>
+        <v>7882000</v>
       </c>
       <c r="I60" s="3">
+        <v>8063100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8216400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8205600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8020800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7901200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7109600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5972800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6182300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6352400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9752000</v>
+        <v>9525000</v>
       </c>
       <c r="E61" s="3">
-        <v>8114200</v>
+        <v>9389800</v>
       </c>
       <c r="F61" s="3">
-        <v>7738200</v>
+        <v>9403700</v>
       </c>
       <c r="G61" s="3">
-        <v>5884100</v>
+        <v>7824400</v>
       </c>
       <c r="H61" s="3">
-        <v>4758300</v>
+        <v>7461900</v>
       </c>
       <c r="I61" s="3">
+        <v>5673900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4588400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4522600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3850300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3652200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3665600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3685800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3525400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3699800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>728100</v>
+        <v>283300</v>
       </c>
       <c r="E62" s="3">
-        <v>833300</v>
+        <v>412300</v>
       </c>
       <c r="F62" s="3">
-        <v>970600</v>
+        <v>702100</v>
       </c>
       <c r="G62" s="3">
-        <v>1117300</v>
+        <v>803600</v>
       </c>
       <c r="H62" s="3">
-        <v>1360100</v>
+        <v>935900</v>
       </c>
       <c r="I62" s="3">
+        <v>1077400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1311500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1477300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>871400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>923400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1213500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>823900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>278900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>227600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20412400</v>
+        <v>19858600</v>
       </c>
       <c r="E66" s="3">
-        <v>18545100</v>
+        <v>19629600</v>
       </c>
       <c r="F66" s="3">
-        <v>17906300</v>
+        <v>19683400</v>
       </c>
       <c r="G66" s="3">
-        <v>16125100</v>
+        <v>17882800</v>
       </c>
       <c r="H66" s="3">
-        <v>15391100</v>
+        <v>17266800</v>
       </c>
       <c r="I66" s="3">
+        <v>15549200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14841500</v>
+      </c>
+      <c r="K66" s="3">
         <v>14696300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13236700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13011900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12546500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10999900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10453700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10735500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>7729300</v>
+        <v>5915000</v>
       </c>
       <c r="E72" s="3">
-        <v>8082700</v>
+        <v>6077700</v>
       </c>
       <c r="F72" s="3">
-        <v>8548700</v>
+        <v>7453200</v>
       </c>
       <c r="G72" s="3">
-        <v>8601600</v>
+        <v>7794100</v>
       </c>
       <c r="H72" s="3">
+        <v>8243400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8294400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8163200</v>
+      </c>
+      <c r="K72" s="3">
         <v>8465600</v>
       </c>
-      <c r="I72" s="3">
-        <v>8465600</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8718500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9347000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>9312600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>8926100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>8509500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8103900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>11039800</v>
+        <v>9208700</v>
       </c>
       <c r="E76" s="3">
-        <v>11359500</v>
+        <v>9185800</v>
       </c>
       <c r="F76" s="3">
-        <v>11819600</v>
+        <v>10645500</v>
       </c>
       <c r="G76" s="3">
-        <v>11742500</v>
+        <v>10953800</v>
       </c>
       <c r="H76" s="3">
-        <v>11589300</v>
+        <v>11397500</v>
       </c>
       <c r="I76" s="3">
+        <v>11323100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11175400</v>
+      </c>
+      <c r="K76" s="3">
         <v>11716800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11959300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12648700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12790200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12321300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11871000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11660400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
-        <v>-352300</v>
+      <c r="D81" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E81" s="3">
-        <v>-460600</v>
+        <v>-1458800</v>
       </c>
       <c r="F81" s="3">
-        <v>-51200</v>
+        <v>-339700</v>
       </c>
       <c r="G81" s="3">
-        <v>122800</v>
+        <v>-444200</v>
       </c>
       <c r="H81" s="3">
-        <v>2900</v>
+        <v>-49400</v>
       </c>
       <c r="I81" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-249800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-49900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>32500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>388900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>607500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>570100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>718200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>817800</v>
+        <v>803900</v>
       </c>
       <c r="E83" s="3">
-        <v>757600</v>
+        <v>816700</v>
       </c>
       <c r="F83" s="3">
-        <v>681400</v>
+        <v>788600</v>
       </c>
       <c r="G83" s="3">
-        <v>718200</v>
+        <v>730600</v>
       </c>
       <c r="H83" s="3">
-        <v>739600</v>
+        <v>657100</v>
       </c>
       <c r="I83" s="3">
+        <v>692600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>713100</v>
+      </c>
+      <c r="K83" s="3">
         <v>763600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>764500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>779200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>734000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>685600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>644300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>648000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-39100</v>
+        <v>149600</v>
       </c>
       <c r="E89" s="3">
-        <v>1231500</v>
+        <v>1185100</v>
       </c>
       <c r="F89" s="3">
-        <v>-147800</v>
+        <v>-37700</v>
       </c>
       <c r="G89" s="3">
-        <v>648900</v>
+        <v>1187500</v>
       </c>
       <c r="H89" s="3">
-        <v>1237500</v>
+        <v>-142600</v>
       </c>
       <c r="I89" s="3">
+        <v>625700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1206300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>673900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1444800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1696700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1718000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1117800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1214000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1352800</v>
+        <v>-832700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1853800</v>
+        <v>-812200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1769800</v>
+        <v>-1304500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1586500</v>
+        <v>-1787600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1753600</v>
+        <v>-1706600</v>
       </c>
       <c r="I91" s="3">
+        <v>-1529800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1690900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1240800</v>
+        <v>-657100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1755000</v>
+        <v>-852000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1795100</v>
+        <v>-1196500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1684900</v>
+        <v>-1692300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1643400</v>
+        <v>-1731000</v>
       </c>
       <c r="I94" s="3">
+        <v>-1624700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1584800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-690000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4189,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1548300</v>
+        <v>612300</v>
       </c>
       <c r="E100" s="3">
-        <v>538900</v>
+        <v>171500</v>
       </c>
       <c r="F100" s="3">
-        <v>1924800</v>
+        <v>1493000</v>
       </c>
       <c r="G100" s="3">
-        <v>703200</v>
+        <v>519600</v>
       </c>
       <c r="H100" s="3">
-        <v>387000</v>
+        <v>1856000</v>
       </c>
       <c r="I100" s="3">
+        <v>678100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>373100</v>
+      </c>
+      <c r="K100" s="3">
         <v>452700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>937500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>329400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>290500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>89200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>50900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-190200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>14000</v>
+        <v>75300</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>-37700</v>
       </c>
       <c r="F101" s="3">
-        <v>51100</v>
+        <v>13500</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>-57700</v>
+        <v>49300</v>
       </c>
       <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>51600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-78400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>26200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>33000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-71800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="3">
-        <v>282500</v>
+      <c r="D102" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E102" s="3">
-        <v>16100</v>
+        <v>466800</v>
       </c>
       <c r="F102" s="3">
-        <v>32900</v>
+        <v>272400</v>
       </c>
       <c r="G102" s="3">
-        <v>-332000</v>
+        <v>15600</v>
       </c>
       <c r="H102" s="3">
-        <v>-76600</v>
+        <v>31700</v>
       </c>
       <c r="I102" s="3">
+        <v>-320100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="K102" s="3">
         <v>188800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>20300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>553100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>382400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>171400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-192600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>434500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>LPL</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -656,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +662,244 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3826600</v>
+        <v>4457900</v>
       </c>
       <c r="E8" s="3">
-        <v>5201600</v>
+        <v>3968400</v>
       </c>
       <c r="F8" s="3">
-        <v>4715600</v>
+        <v>5394200</v>
       </c>
       <c r="G8" s="3">
-        <v>4336300</v>
+        <v>4890200</v>
       </c>
       <c r="H8" s="3">
-        <v>4761800</v>
+        <v>4496900</v>
       </c>
       <c r="I8" s="3">
-        <v>5627700</v>
+        <v>4938200</v>
       </c>
       <c r="J8" s="3">
+        <v>5836100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4942900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4713400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4767100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6270900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6136300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5833400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6355900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7142400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3601300</v>
+        <v>4350200</v>
       </c>
       <c r="E9" s="3">
-        <v>4835200</v>
+        <v>3734700</v>
       </c>
       <c r="F9" s="3">
-        <v>4471300</v>
+        <v>5014300</v>
       </c>
       <c r="G9" s="3">
-        <v>3946100</v>
+        <v>4636900</v>
       </c>
       <c r="H9" s="3">
-        <v>4249300</v>
+        <v>4092300</v>
       </c>
       <c r="I9" s="3">
-        <v>4665700</v>
+        <v>4406700</v>
       </c>
       <c r="J9" s="3">
+        <v>4838500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4223000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4321400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4311800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5499300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5031500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4501200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4808600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5726100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>225300</v>
+        <v>107700</v>
       </c>
       <c r="E10" s="3">
-        <v>366400</v>
+        <v>233600</v>
       </c>
       <c r="F10" s="3">
-        <v>244300</v>
+        <v>379900</v>
       </c>
       <c r="G10" s="3">
-        <v>390200</v>
+        <v>253300</v>
       </c>
       <c r="H10" s="3">
-        <v>512500</v>
+        <v>404600</v>
       </c>
       <c r="I10" s="3">
-        <v>962000</v>
+        <v>531500</v>
       </c>
       <c r="J10" s="3">
+        <v>997700</v>
+      </c>
+      <c r="K10" s="3">
         <v>719900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>392100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>455400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>771700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1104800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1332200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1547400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1416200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
+      <c r="D12" s="3">
+        <v>241500</v>
       </c>
       <c r="E12" s="3">
-        <v>199900</v>
+        <v>224200</v>
       </c>
       <c r="F12" s="3">
-        <v>176400</v>
+        <v>207300</v>
       </c>
       <c r="G12" s="3">
-        <v>343700</v>
+        <v>182900</v>
       </c>
       <c r="H12" s="3">
-        <v>269800</v>
+        <v>356400</v>
       </c>
       <c r="I12" s="3">
-        <v>253500</v>
+        <v>279800</v>
       </c>
       <c r="J12" s="3">
+        <v>262900</v>
+      </c>
+      <c r="K12" s="3">
         <v>265800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>247700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>239500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>291700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>251700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>274200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>255800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>276900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1022,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>86300</v>
       </c>
       <c r="E14" s="3">
-        <v>1342000</v>
+        <v>8200</v>
       </c>
       <c r="F14" s="3">
-        <v>117000</v>
+        <v>1382500</v>
       </c>
       <c r="G14" s="3">
-        <v>8800</v>
+        <v>121400</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>9100</v>
       </c>
       <c r="I14" s="3">
-        <v>37400</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-7500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
+      <c r="D15" s="3">
+        <v>46000</v>
       </c>
       <c r="E15" s="3">
+        <v>46800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>47500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>50800</v>
+      </c>
+      <c r="H15" s="3">
         <v>45800</v>
       </c>
-      <c r="F15" s="3">
-        <v>49000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>44200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>44000</v>
-      </c>
       <c r="I15" s="3">
-        <v>38700</v>
+        <v>45700</v>
       </c>
       <c r="J15" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K15" s="3">
         <v>37200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>30800</v>
       </c>
       <c r="N15" s="3">
         <v>30800</v>
       </c>
       <c r="O15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="P15" s="3">
         <v>29900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>27900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
+      <c r="D17" s="3">
+        <v>4978400</v>
       </c>
       <c r="E17" s="3">
-        <v>6885300</v>
+        <v>4280500</v>
       </c>
       <c r="F17" s="3">
-        <v>5186300</v>
+        <v>7131100</v>
       </c>
       <c r="G17" s="3">
-        <v>4643700</v>
+        <v>5378400</v>
       </c>
       <c r="H17" s="3">
-        <v>4873900</v>
+        <v>4815700</v>
       </c>
       <c r="I17" s="3">
-        <v>5439000</v>
+        <v>5054400</v>
       </c>
       <c r="J17" s="3">
+        <v>5640400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4830600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4933200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4849700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6228300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5621800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5147100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5454500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6321000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>91</v>
+      <c r="D18" s="3">
+        <v>-520600</v>
       </c>
       <c r="E18" s="3">
-        <v>-1683700</v>
+        <v>-312200</v>
       </c>
       <c r="F18" s="3">
-        <v>-470800</v>
+        <v>-1736900</v>
       </c>
       <c r="G18" s="3">
-        <v>-307500</v>
+        <v>-488200</v>
       </c>
       <c r="H18" s="3">
-        <v>-112100</v>
+        <v>-318900</v>
       </c>
       <c r="I18" s="3">
-        <v>188800</v>
+        <v>-116200</v>
       </c>
       <c r="J18" s="3">
+        <v>195800</v>
+      </c>
+      <c r="K18" s="3">
         <v>112300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-219800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-82600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>514500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>686300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>901500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>821400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>91</v>
+      <c r="D20" s="3">
+        <v>20300</v>
       </c>
       <c r="E20" s="3">
-        <v>-24700</v>
+        <v>125700</v>
       </c>
       <c r="F20" s="3">
-        <v>31100</v>
+        <v>-34800</v>
       </c>
       <c r="G20" s="3">
-        <v>-24200</v>
+        <v>32300</v>
       </c>
       <c r="H20" s="3">
-        <v>23000</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
-        <v>15500</v>
+        <v>23800</v>
       </c>
       <c r="J20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-47700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>64600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>159200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>91</v>
+      <c r="D21" s="3">
+        <v>280500</v>
       </c>
       <c r="E21" s="3">
-        <v>-891800</v>
+        <v>647200</v>
       </c>
       <c r="F21" s="3">
-        <v>348900</v>
+        <v>-924800</v>
       </c>
       <c r="G21" s="3">
-        <v>398900</v>
+        <v>361900</v>
       </c>
       <c r="H21" s="3">
-        <v>568000</v>
+        <v>413600</v>
       </c>
       <c r="I21" s="3">
-        <v>896800</v>
+        <v>589100</v>
       </c>
       <c r="J21" s="3">
+        <v>930000</v>
+      </c>
+      <c r="K21" s="3">
         <v>817200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>496100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>703100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>835400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1281400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1436600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1439800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1628600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
+      <c r="D22" s="3">
+        <v>61600</v>
       </c>
       <c r="E22" s="3">
-        <v>51700</v>
+        <v>61200</v>
       </c>
       <c r="F22" s="3">
-        <v>46500</v>
+        <v>53600</v>
       </c>
       <c r="G22" s="3">
-        <v>26600</v>
+        <v>48200</v>
       </c>
       <c r="H22" s="3">
+        <v>27600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J22" s="3">
         <v>15100</v>
       </c>
-      <c r="I22" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-238800</v>
+        <v>-561900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1760100</v>
+        <v>-247700</v>
       </c>
       <c r="F23" s="3">
-        <v>-486200</v>
+        <v>-1825300</v>
       </c>
       <c r="G23" s="3">
-        <v>-358300</v>
+        <v>-504200</v>
       </c>
       <c r="H23" s="3">
-        <v>-104200</v>
+        <v>-371600</v>
       </c>
       <c r="I23" s="3">
-        <v>189700</v>
+        <v>-108100</v>
       </c>
       <c r="J23" s="3">
+        <v>196700</v>
+      </c>
+      <c r="K23" s="3">
         <v>89300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-285600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-80500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>526900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>732000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>772300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>958100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-77700</v>
+        <v>-138700</v>
       </c>
       <c r="E24" s="3">
-        <v>-288300</v>
+        <v>-80600</v>
       </c>
       <c r="F24" s="3">
-        <v>-128000</v>
+        <v>-299000</v>
       </c>
       <c r="G24" s="3">
-        <v>87300</v>
+        <v>-132700</v>
       </c>
       <c r="H24" s="3">
-        <v>-53500</v>
+        <v>90500</v>
       </c>
       <c r="I24" s="3">
-        <v>66100</v>
+        <v>-55500</v>
       </c>
       <c r="J24" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K24" s="3">
         <v>75100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-33200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-39300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>106900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>83700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>160800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>215800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>91</v>
+      <c r="D26" s="3">
+        <v>-423200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1471800</v>
+        <v>-167100</v>
       </c>
       <c r="F26" s="3">
-        <v>-358200</v>
+        <v>-1526300</v>
       </c>
       <c r="G26" s="3">
-        <v>-445600</v>
+        <v>-371500</v>
       </c>
       <c r="H26" s="3">
-        <v>-50700</v>
+        <v>-462200</v>
       </c>
       <c r="I26" s="3">
-        <v>123600</v>
+        <v>-52600</v>
       </c>
       <c r="J26" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K26" s="3">
         <v>14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-252500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>420000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>648300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>611500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>742200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>91</v>
+      <c r="D27" s="3">
+        <v>-410900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1458800</v>
+        <v>-167200</v>
       </c>
       <c r="F27" s="3">
-        <v>-339700</v>
+        <v>-1512900</v>
       </c>
       <c r="G27" s="3">
-        <v>-444200</v>
+        <v>-352300</v>
       </c>
       <c r="H27" s="3">
-        <v>-49400</v>
+        <v>-460600</v>
       </c>
       <c r="I27" s="3">
-        <v>118400</v>
+        <v>-51200</v>
       </c>
       <c r="J27" s="3">
+        <v>122800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-249800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>388900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>607500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>570100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>718200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
+      <c r="D32" s="3">
+        <v>-20300</v>
       </c>
       <c r="E32" s="3">
-        <v>24700</v>
+        <v>-125700</v>
       </c>
       <c r="F32" s="3">
-        <v>-31100</v>
+        <v>34800</v>
       </c>
       <c r="G32" s="3">
-        <v>24200</v>
+        <v>-32300</v>
       </c>
       <c r="H32" s="3">
-        <v>-23000</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
-        <v>-15500</v>
+        <v>-23800</v>
       </c>
       <c r="J32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K32" s="3">
         <v>8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>47700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-64600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>106000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-159200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
+      <c r="D33" s="3">
+        <v>-410900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1458800</v>
+        <v>-167200</v>
       </c>
       <c r="F33" s="3">
-        <v>-339700</v>
+        <v>-1512900</v>
       </c>
       <c r="G33" s="3">
-        <v>-444200</v>
+        <v>-352300</v>
       </c>
       <c r="H33" s="3">
-        <v>-49400</v>
+        <v>-460600</v>
       </c>
       <c r="I33" s="3">
-        <v>118400</v>
+        <v>-51200</v>
       </c>
       <c r="J33" s="3">
+        <v>122800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-249800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>388900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>607500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>570100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>718200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
+      <c r="D35" s="3">
+        <v>-410900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1458800</v>
+        <v>-167200</v>
       </c>
       <c r="F35" s="3">
-        <v>-339700</v>
+        <v>-1512900</v>
       </c>
       <c r="G35" s="3">
-        <v>-444200</v>
+        <v>-352300</v>
       </c>
       <c r="H35" s="3">
-        <v>-49400</v>
+        <v>-460600</v>
       </c>
       <c r="I35" s="3">
-        <v>118400</v>
+        <v>-51200</v>
       </c>
       <c r="J35" s="3">
+        <v>122800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-249800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>388900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>607500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>570100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>718200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,458 +2223,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2882300</v>
+        <v>2957500</v>
       </c>
       <c r="E41" s="3">
-        <v>2702200</v>
+        <v>2989000</v>
       </c>
       <c r="F41" s="3">
-        <v>2235400</v>
+        <v>2802200</v>
       </c>
       <c r="G41" s="3">
-        <v>1963000</v>
+        <v>2318100</v>
       </c>
       <c r="H41" s="3">
-        <v>1947400</v>
+        <v>2035700</v>
       </c>
       <c r="I41" s="3">
-        <v>1915700</v>
+        <v>2019500</v>
       </c>
       <c r="J41" s="3">
+        <v>1986600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2235800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2395200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2206400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2290300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1737200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1354700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1210300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1402800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>121900</v>
+        <v>54400</v>
       </c>
       <c r="E42" s="3">
-        <v>1200</v>
+        <v>62000</v>
       </c>
       <c r="F42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3600</v>
       </c>
-      <c r="I42" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>228500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>669700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>603000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1105000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>870900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>797300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>982200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2392300</v>
+        <v>2476600</v>
       </c>
       <c r="E43" s="3">
-        <v>2960900</v>
+        <v>2480900</v>
       </c>
       <c r="F43" s="3">
-        <v>3315500</v>
+        <v>3070600</v>
       </c>
       <c r="G43" s="3">
-        <v>2349200</v>
+        <v>3438300</v>
       </c>
       <c r="H43" s="3">
-        <v>2860000</v>
+        <v>2436200</v>
       </c>
       <c r="I43" s="3">
-        <v>2441800</v>
+        <v>2966000</v>
       </c>
       <c r="J43" s="3">
+        <v>2532300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2751000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3073400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3055600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3965900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4359300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4020800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4095800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4598400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1871200</v>
+        <v>1713100</v>
       </c>
       <c r="E44" s="3">
-        <v>1661400</v>
+        <v>1940500</v>
       </c>
       <c r="F44" s="3">
-        <v>2209000</v>
+        <v>1723000</v>
       </c>
       <c r="G44" s="3">
-        <v>2081100</v>
+        <v>2290800</v>
       </c>
       <c r="H44" s="3">
-        <v>2130200</v>
+        <v>2158100</v>
       </c>
       <c r="I44" s="3">
-        <v>2179900</v>
+        <v>2209100</v>
       </c>
       <c r="J44" s="3">
+        <v>2260600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2095800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2041500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1974300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2068100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2344300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2062200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2054900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2059000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>960800</v>
+        <v>1052500</v>
       </c>
       <c r="E45" s="3">
-        <v>975400</v>
+        <v>1060900</v>
       </c>
       <c r="F45" s="3">
-        <v>971000</v>
+        <v>1011500</v>
       </c>
       <c r="G45" s="3">
-        <v>886900</v>
+        <v>1007000</v>
       </c>
       <c r="H45" s="3">
-        <v>764800</v>
+        <v>919800</v>
       </c>
       <c r="I45" s="3">
-        <v>587200</v>
+        <v>793200</v>
       </c>
       <c r="J45" s="3">
+        <v>608900</v>
+      </c>
+      <c r="K45" s="3">
         <v>402500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>423500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>408800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>289600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>428200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>485800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>524200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>393400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8228500</v>
+        <v>8254100</v>
       </c>
       <c r="E46" s="3">
-        <v>8301100</v>
+        <v>8533300</v>
       </c>
       <c r="F46" s="3">
-        <v>8731500</v>
+        <v>8608600</v>
       </c>
       <c r="G46" s="3">
-        <v>7281200</v>
+        <v>9054900</v>
       </c>
       <c r="H46" s="3">
-        <v>7706000</v>
+        <v>7550900</v>
       </c>
       <c r="I46" s="3">
-        <v>7128100</v>
+        <v>7991400</v>
       </c>
       <c r="J46" s="3">
+        <v>7392100</v>
+      </c>
+      <c r="K46" s="3">
         <v>7488700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8162200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8314800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9216900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9974000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8794500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8682400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9435800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>299700</v>
+        <v>259000</v>
       </c>
       <c r="E47" s="3">
-        <v>272200</v>
+        <v>310800</v>
       </c>
       <c r="F47" s="3">
-        <v>211400</v>
+        <v>282200</v>
       </c>
       <c r="G47" s="3">
-        <v>173600</v>
+        <v>219300</v>
       </c>
       <c r="H47" s="3">
-        <v>169200</v>
+        <v>180000</v>
       </c>
       <c r="I47" s="3">
-        <v>158400</v>
+        <v>175400</v>
       </c>
       <c r="J47" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K47" s="3">
         <v>158600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>154000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>137700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>149900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>137500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>127800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>149500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>197500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>18070000</v>
+        <v>18249200</v>
       </c>
       <c r="E48" s="3">
-        <v>17891000</v>
+        <v>18739300</v>
       </c>
       <c r="F48" s="3">
-        <v>19221800</v>
+        <v>18553600</v>
       </c>
       <c r="G48" s="3">
-        <v>19392600</v>
+        <v>19933700</v>
       </c>
       <c r="H48" s="3">
-        <v>18716900</v>
+        <v>20110900</v>
       </c>
       <c r="I48" s="3">
-        <v>17496100</v>
+        <v>19410100</v>
       </c>
       <c r="J48" s="3">
+        <v>18144100</v>
+      </c>
+      <c r="K48" s="3">
         <v>16307900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15987500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14721100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14257700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13203600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12466000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11656300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10828300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>712500</v>
+        <v>711800</v>
       </c>
       <c r="E49" s="3">
-        <v>707500</v>
+        <v>738900</v>
       </c>
       <c r="F49" s="3">
-        <v>786900</v>
+        <v>733700</v>
       </c>
       <c r="G49" s="3">
-        <v>754400</v>
+        <v>816000</v>
       </c>
       <c r="H49" s="3">
-        <v>799000</v>
+        <v>782400</v>
       </c>
       <c r="I49" s="3">
-        <v>800000</v>
+        <v>828600</v>
       </c>
       <c r="J49" s="3">
+        <v>829600</v>
+      </c>
+      <c r="K49" s="3">
         <v>803500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>795000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>766200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>803300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>782000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>744500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>764600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>805400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2690,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1756500</v>
+        <v>1971500</v>
       </c>
       <c r="E52" s="3">
-        <v>1643600</v>
+        <v>1821500</v>
       </c>
       <c r="F52" s="3">
-        <v>1377300</v>
+        <v>1704500</v>
       </c>
       <c r="G52" s="3">
-        <v>1234700</v>
+        <v>1428300</v>
       </c>
       <c r="H52" s="3">
-        <v>1273200</v>
+        <v>1280400</v>
       </c>
       <c r="I52" s="3">
-        <v>1289700</v>
+        <v>1320400</v>
       </c>
       <c r="J52" s="3">
+        <v>1337500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1258100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1314600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1256200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1232800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1239600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1188500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1071800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1128900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2790,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29067300</v>
+        <v>29445600</v>
       </c>
       <c r="E54" s="3">
-        <v>28815400</v>
+        <v>30143900</v>
       </c>
       <c r="F54" s="3">
-        <v>30328900</v>
+        <v>29882600</v>
       </c>
       <c r="G54" s="3">
-        <v>28836600</v>
+        <v>31452200</v>
       </c>
       <c r="H54" s="3">
-        <v>28664300</v>
+        <v>29904600</v>
       </c>
       <c r="I54" s="3">
-        <v>26872300</v>
+        <v>29725900</v>
       </c>
       <c r="J54" s="3">
+        <v>27867600</v>
+      </c>
+      <c r="K54" s="3">
         <v>26016900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26413100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25196000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25660500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25336700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23321100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22324700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22395900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2326500</v>
+        <v>2911600</v>
       </c>
       <c r="E57" s="3">
-        <v>2120800</v>
+        <v>2412600</v>
       </c>
       <c r="F57" s="3">
-        <v>2165400</v>
+        <v>2199300</v>
       </c>
       <c r="G57" s="3">
-        <v>2280400</v>
+        <v>2245600</v>
       </c>
       <c r="H57" s="3">
-        <v>2405800</v>
+        <v>2364900</v>
       </c>
       <c r="I57" s="3">
-        <v>2500800</v>
+        <v>2495000</v>
       </c>
       <c r="J57" s="3">
+        <v>2593500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2573100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2494500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2354400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2530100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2607300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2150400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2193700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2589600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2344400</v>
+        <v>2632900</v>
       </c>
       <c r="E58" s="3">
-        <v>1601400</v>
+        <v>2427500</v>
       </c>
       <c r="F58" s="3">
-        <v>1554900</v>
+        <v>1660800</v>
       </c>
       <c r="G58" s="3">
-        <v>1496500</v>
+        <v>1612400</v>
       </c>
       <c r="H58" s="3">
-        <v>1295000</v>
+        <v>1551900</v>
       </c>
       <c r="I58" s="3">
-        <v>1258700</v>
+        <v>1343000</v>
       </c>
       <c r="J58" s="3">
+        <v>1305300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1659500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1833200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1804300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1278600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1072600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>734100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>690200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>601100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4412000</v>
+        <v>3830200</v>
       </c>
       <c r="E59" s="3">
-        <v>5175600</v>
+        <v>4579200</v>
       </c>
       <c r="F59" s="3">
-        <v>4898800</v>
+        <v>5367300</v>
       </c>
       <c r="G59" s="3">
-        <v>4501500</v>
+        <v>5080300</v>
       </c>
       <c r="H59" s="3">
-        <v>4181100</v>
+        <v>4668200</v>
       </c>
       <c r="I59" s="3">
-        <v>4303600</v>
+        <v>4335900</v>
       </c>
       <c r="J59" s="3">
+        <v>4463000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3983800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3878000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3862100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4092600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3429700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3088300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3298400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3161700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>9082900</v>
+        <v>9374700</v>
       </c>
       <c r="E60" s="3">
-        <v>8897800</v>
+        <v>9419300</v>
       </c>
       <c r="F60" s="3">
-        <v>8619100</v>
+        <v>9227400</v>
       </c>
       <c r="G60" s="3">
-        <v>8278400</v>
+        <v>8938300</v>
       </c>
       <c r="H60" s="3">
-        <v>7882000</v>
+        <v>8585100</v>
       </c>
       <c r="I60" s="3">
-        <v>8063100</v>
+        <v>8173900</v>
       </c>
       <c r="J60" s="3">
+        <v>8361800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8216400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8205600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8020800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7901200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7109600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5972800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6182300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6352400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9525000</v>
+        <v>9742200</v>
       </c>
       <c r="E61" s="3">
-        <v>9389800</v>
+        <v>9876300</v>
       </c>
       <c r="F61" s="3">
-        <v>9403700</v>
+        <v>9737500</v>
       </c>
       <c r="G61" s="3">
-        <v>7824400</v>
+        <v>9752000</v>
       </c>
       <c r="H61" s="3">
-        <v>7461900</v>
+        <v>8114200</v>
       </c>
       <c r="I61" s="3">
-        <v>5673900</v>
+        <v>7738200</v>
       </c>
       <c r="J61" s="3">
+        <v>5884100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4588400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4522600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3850300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3652200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3665600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3685800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3525400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3699800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>283300</v>
+        <v>164100</v>
       </c>
       <c r="E62" s="3">
-        <v>412300</v>
+        <v>295300</v>
       </c>
       <c r="F62" s="3">
-        <v>702100</v>
+        <v>427500</v>
       </c>
       <c r="G62" s="3">
-        <v>803600</v>
+        <v>728100</v>
       </c>
       <c r="H62" s="3">
-        <v>935900</v>
+        <v>833300</v>
       </c>
       <c r="I62" s="3">
-        <v>1077400</v>
+        <v>970600</v>
       </c>
       <c r="J62" s="3">
+        <v>1117300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1311500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1477300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>871400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>923400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1213500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>823900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>278900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>227600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3230,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3330,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19858600</v>
+        <v>20327900</v>
       </c>
       <c r="E66" s="3">
-        <v>19629600</v>
+        <v>20594100</v>
       </c>
       <c r="F66" s="3">
-        <v>19683400</v>
+        <v>20356600</v>
       </c>
       <c r="G66" s="3">
-        <v>17882800</v>
+        <v>20412400</v>
       </c>
       <c r="H66" s="3">
-        <v>17266800</v>
+        <v>18545100</v>
       </c>
       <c r="I66" s="3">
-        <v>15549200</v>
+        <v>17906300</v>
       </c>
       <c r="J66" s="3">
+        <v>16125100</v>
+      </c>
+      <c r="K66" s="3">
         <v>14841500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14696300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13236700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13011900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12546500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10999900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10453700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10735500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3400,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3450,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3500,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3550,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3600,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5915000</v>
+        <v>5722400</v>
       </c>
       <c r="E72" s="3">
-        <v>6077700</v>
+        <v>6134100</v>
       </c>
       <c r="F72" s="3">
-        <v>7453200</v>
+        <v>6302800</v>
       </c>
       <c r="G72" s="3">
-        <v>7794100</v>
+        <v>7729300</v>
       </c>
       <c r="H72" s="3">
-        <v>8243400</v>
+        <v>8082700</v>
       </c>
       <c r="I72" s="3">
-        <v>8294400</v>
+        <v>8548700</v>
       </c>
       <c r="J72" s="3">
+        <v>8601600</v>
+      </c>
+      <c r="K72" s="3">
         <v>8163200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8465600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8718500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9347000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9312600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8926100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8509500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8103900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3700,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3750,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3800,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9208700</v>
+        <v>9117700</v>
       </c>
       <c r="E76" s="3">
-        <v>9185800</v>
+        <v>9549800</v>
       </c>
       <c r="F76" s="3">
-        <v>10645500</v>
+        <v>9526000</v>
       </c>
       <c r="G76" s="3">
-        <v>10953800</v>
+        <v>11039800</v>
       </c>
       <c r="H76" s="3">
-        <v>11397500</v>
+        <v>11359500</v>
       </c>
       <c r="I76" s="3">
-        <v>11323100</v>
+        <v>11819600</v>
       </c>
       <c r="J76" s="3">
+        <v>11742500</v>
+      </c>
+      <c r="K76" s="3">
         <v>11175400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11716800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11959300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12648700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12790200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12321300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11871000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11660400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3900,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>91</v>
+      <c r="D81" s="3">
+        <v>-410900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1458800</v>
+        <v>-167200</v>
       </c>
       <c r="F81" s="3">
-        <v>-339700</v>
+        <v>-1512900</v>
       </c>
       <c r="G81" s="3">
-        <v>-444200</v>
+        <v>-352300</v>
       </c>
       <c r="H81" s="3">
-        <v>-49400</v>
+        <v>-460600</v>
       </c>
       <c r="I81" s="3">
-        <v>118400</v>
+        <v>-51200</v>
       </c>
       <c r="J81" s="3">
+        <v>122800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-249800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>388900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>607500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>570100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>718200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4025,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>803900</v>
+        <v>780800</v>
       </c>
       <c r="E83" s="3">
-        <v>816700</v>
+        <v>833700</v>
       </c>
       <c r="F83" s="3">
-        <v>788600</v>
+        <v>846900</v>
       </c>
       <c r="G83" s="3">
-        <v>730600</v>
+        <v>817800</v>
       </c>
       <c r="H83" s="3">
-        <v>657100</v>
+        <v>757600</v>
       </c>
       <c r="I83" s="3">
-        <v>692600</v>
+        <v>681400</v>
       </c>
       <c r="J83" s="3">
+        <v>718200</v>
+      </c>
+      <c r="K83" s="3">
         <v>713100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>763600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>764500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>779200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>734000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>685600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>644300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>648000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4125,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4175,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4225,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4275,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4325,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>149600</v>
+        <v>472900</v>
       </c>
       <c r="E89" s="3">
-        <v>1185100</v>
+        <v>155100</v>
       </c>
       <c r="F89" s="3">
-        <v>-37700</v>
+        <v>1229000</v>
       </c>
       <c r="G89" s="3">
-        <v>1187500</v>
+        <v>-39100</v>
       </c>
       <c r="H89" s="3">
-        <v>-142600</v>
+        <v>1231500</v>
       </c>
       <c r="I89" s="3">
-        <v>625700</v>
+        <v>-147800</v>
       </c>
       <c r="J89" s="3">
+        <v>648900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1193300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1206300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>673900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1444800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1696700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1718000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1117800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1214000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4395,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-832700</v>
+        <v>-673200</v>
       </c>
       <c r="E91" s="3">
-        <v>-812200</v>
+        <v>-863500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1304500</v>
+        <v>-842200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1787600</v>
+        <v>-1352800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1706600</v>
+        <v>-1853800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1529800</v>
+        <v>-1769800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1586500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4495,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4545,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-657100</v>
+        <v>-741900</v>
       </c>
       <c r="E94" s="3">
-        <v>-852000</v>
+        <v>-681400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1196500</v>
+        <v>-883600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1692300</v>
+        <v>-1240800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1731000</v>
+        <v>-1755000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1624700</v>
+        <v>-1795100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1684900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-690000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4615,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4665,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4715,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4765,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4815,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>612300</v>
+        <v>272000</v>
       </c>
       <c r="E100" s="3">
-        <v>171500</v>
+        <v>635000</v>
       </c>
       <c r="F100" s="3">
-        <v>1493000</v>
+        <v>177900</v>
       </c>
       <c r="G100" s="3">
-        <v>519600</v>
+        <v>1548300</v>
       </c>
       <c r="H100" s="3">
-        <v>1856000</v>
+        <v>538900</v>
       </c>
       <c r="I100" s="3">
-        <v>678100</v>
+        <v>1924800</v>
       </c>
       <c r="J100" s="3">
+        <v>703200</v>
+      </c>
+      <c r="K100" s="3">
         <v>373100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>452700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>937500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>329400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>290500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>89200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-190200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>75300</v>
+        <v>-34600</v>
       </c>
       <c r="E101" s="3">
-        <v>-37700</v>
+        <v>78000</v>
       </c>
       <c r="F101" s="3">
-        <v>13500</v>
+        <v>-39100</v>
       </c>
       <c r="G101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>49300</v>
-      </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>51100</v>
       </c>
       <c r="J101" s="3">
+        <v>800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-55600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>51600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-78400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>33000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>91</v>
+      <c r="D102" s="3">
+        <v>-31600</v>
       </c>
       <c r="E102" s="3">
-        <v>466800</v>
+        <v>186800</v>
       </c>
       <c r="F102" s="3">
-        <v>272400</v>
+        <v>484100</v>
       </c>
       <c r="G102" s="3">
-        <v>15600</v>
+        <v>282500</v>
       </c>
       <c r="H102" s="3">
-        <v>31700</v>
+        <v>16100</v>
       </c>
       <c r="I102" s="3">
-        <v>-320100</v>
+        <v>32900</v>
       </c>
       <c r="J102" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-73900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>188800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>553100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>382400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>171400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-192600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>434500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4457900</v>
+        <v>6131300</v>
       </c>
       <c r="E8" s="3">
-        <v>3968400</v>
+        <v>4829400</v>
       </c>
       <c r="F8" s="3">
-        <v>5394200</v>
+        <v>4299100</v>
       </c>
       <c r="G8" s="3">
-        <v>4890200</v>
+        <v>5843700</v>
       </c>
       <c r="H8" s="3">
-        <v>4496900</v>
+        <v>5297700</v>
       </c>
       <c r="I8" s="3">
-        <v>4938200</v>
+        <v>4871600</v>
       </c>
       <c r="J8" s="3">
+        <v>5349700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5836100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4942900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4713400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4767100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6270900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6136300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5833400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6355900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7142400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4350200</v>
+        <v>5362000</v>
       </c>
       <c r="E9" s="3">
-        <v>3734700</v>
+        <v>4712700</v>
       </c>
       <c r="F9" s="3">
-        <v>5014300</v>
+        <v>4045900</v>
       </c>
       <c r="G9" s="3">
-        <v>4636900</v>
+        <v>5432200</v>
       </c>
       <c r="H9" s="3">
-        <v>4092300</v>
+        <v>5023300</v>
       </c>
       <c r="I9" s="3">
-        <v>4406700</v>
+        <v>4433300</v>
       </c>
       <c r="J9" s="3">
+        <v>4773900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4838500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4223000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4321400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4311800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5499300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5031500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4501200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4808600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5726100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>107700</v>
+        <v>769300</v>
       </c>
       <c r="E10" s="3">
-        <v>233600</v>
+        <v>116700</v>
       </c>
       <c r="F10" s="3">
-        <v>379900</v>
+        <v>253100</v>
       </c>
       <c r="G10" s="3">
-        <v>253300</v>
+        <v>411600</v>
       </c>
       <c r="H10" s="3">
-        <v>404600</v>
+        <v>274500</v>
       </c>
       <c r="I10" s="3">
-        <v>531500</v>
+        <v>438300</v>
       </c>
       <c r="J10" s="3">
+        <v>575800</v>
+      </c>
+      <c r="K10" s="3">
         <v>997700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>719900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>392100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>455400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>771700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1104800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1332200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1547400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1416200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>241500</v>
+        <v>248900</v>
       </c>
       <c r="E12" s="3">
-        <v>224200</v>
+        <v>261600</v>
       </c>
       <c r="F12" s="3">
-        <v>207300</v>
+        <v>242900</v>
       </c>
       <c r="G12" s="3">
-        <v>182900</v>
+        <v>224600</v>
       </c>
       <c r="H12" s="3">
-        <v>356400</v>
+        <v>198200</v>
       </c>
       <c r="I12" s="3">
-        <v>279800</v>
+        <v>386100</v>
       </c>
       <c r="J12" s="3">
+        <v>303100</v>
+      </c>
+      <c r="K12" s="3">
         <v>262900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>265800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>247700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>239500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>291700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>251700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>274200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>255800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>276900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,114 +1042,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>86300</v>
+        <v>35000</v>
       </c>
       <c r="E14" s="3">
-        <v>8200</v>
+        <v>93400</v>
       </c>
       <c r="F14" s="3">
-        <v>1382500</v>
+        <v>8800</v>
       </c>
       <c r="G14" s="3">
-        <v>121400</v>
+        <v>1497700</v>
       </c>
       <c r="H14" s="3">
-        <v>9100</v>
+        <v>131500</v>
       </c>
       <c r="I14" s="3">
-        <v>5300</v>
+        <v>9900</v>
       </c>
       <c r="J14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K14" s="3">
         <v>38800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-3600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-7500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>46000</v>
+        <v>45900</v>
       </c>
       <c r="E15" s="3">
-        <v>46800</v>
+        <v>49900</v>
       </c>
       <c r="F15" s="3">
-        <v>47500</v>
+        <v>50700</v>
       </c>
       <c r="G15" s="3">
-        <v>50800</v>
+        <v>51400</v>
       </c>
       <c r="H15" s="3">
-        <v>45800</v>
+        <v>55100</v>
       </c>
       <c r="I15" s="3">
-        <v>45700</v>
+        <v>49600</v>
       </c>
       <c r="J15" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K15" s="3">
         <v>40100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>37200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>30800</v>
       </c>
       <c r="O15" s="3">
         <v>30800</v>
       </c>
       <c r="P15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="Q15" s="3">
         <v>29900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>27900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4978400</v>
+        <v>6016700</v>
       </c>
       <c r="E17" s="3">
-        <v>4280500</v>
+        <v>5393300</v>
       </c>
       <c r="F17" s="3">
-        <v>7131100</v>
+        <v>4637200</v>
       </c>
       <c r="G17" s="3">
-        <v>5378400</v>
+        <v>7725400</v>
       </c>
       <c r="H17" s="3">
-        <v>4815700</v>
+        <v>5826600</v>
       </c>
       <c r="I17" s="3">
-        <v>5054400</v>
+        <v>5217000</v>
       </c>
       <c r="J17" s="3">
+        <v>5475600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5640400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4830600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4933200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4849700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6228300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5621800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5147100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5454500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6321000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-520600</v>
+        <v>114600</v>
       </c>
       <c r="E18" s="3">
-        <v>-312200</v>
+        <v>-563900</v>
       </c>
       <c r="F18" s="3">
-        <v>-1736900</v>
+        <v>-338200</v>
       </c>
       <c r="G18" s="3">
-        <v>-488200</v>
+        <v>-1881600</v>
       </c>
       <c r="H18" s="3">
-        <v>-318900</v>
+        <v>-528900</v>
       </c>
       <c r="I18" s="3">
-        <v>-116200</v>
+        <v>-345400</v>
       </c>
       <c r="J18" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K18" s="3">
         <v>195800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-219800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-82600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>514500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>686300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>901500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>821400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20300</v>
+        <v>-62200</v>
       </c>
       <c r="E20" s="3">
-        <v>125700</v>
+        <v>22000</v>
       </c>
       <c r="F20" s="3">
-        <v>-34800</v>
+        <v>136200</v>
       </c>
       <c r="G20" s="3">
-        <v>32300</v>
+        <v>-37700</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>34900</v>
       </c>
       <c r="I20" s="3">
-        <v>23800</v>
+        <v>-27200</v>
       </c>
       <c r="J20" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K20" s="3">
         <v>16100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-47700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>64600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-106000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>159200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>280500</v>
+        <v>1075300</v>
       </c>
       <c r="E21" s="3">
-        <v>647200</v>
+        <v>303900</v>
       </c>
       <c r="F21" s="3">
-        <v>-924800</v>
+        <v>701100</v>
       </c>
       <c r="G21" s="3">
-        <v>361900</v>
+        <v>-1001900</v>
       </c>
       <c r="H21" s="3">
-        <v>413600</v>
+        <v>392000</v>
       </c>
       <c r="I21" s="3">
-        <v>589100</v>
+        <v>448100</v>
       </c>
       <c r="J21" s="3">
+        <v>638200</v>
+      </c>
+      <c r="K21" s="3">
         <v>930000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>817200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>496100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>703100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>835400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1281400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1436600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1439800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1628600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>61600</v>
+        <v>101900</v>
       </c>
       <c r="E22" s="3">
-        <v>61200</v>
+        <v>66800</v>
       </c>
       <c r="F22" s="3">
-        <v>53600</v>
+        <v>66300</v>
       </c>
       <c r="G22" s="3">
-        <v>48200</v>
+        <v>58000</v>
       </c>
       <c r="H22" s="3">
-        <v>27600</v>
+        <v>52200</v>
       </c>
       <c r="I22" s="3">
-        <v>15700</v>
+        <v>29900</v>
       </c>
       <c r="J22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K22" s="3">
         <v>15100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-561900</v>
+        <v>-49400</v>
       </c>
       <c r="E23" s="3">
-        <v>-247700</v>
+        <v>-608700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1825300</v>
+        <v>-268300</v>
       </c>
       <c r="G23" s="3">
-        <v>-504200</v>
+        <v>-1977400</v>
       </c>
       <c r="H23" s="3">
-        <v>-371600</v>
+        <v>-546200</v>
       </c>
       <c r="I23" s="3">
-        <v>-108100</v>
+        <v>-402600</v>
       </c>
       <c r="J23" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="K23" s="3">
         <v>196700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-285600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-80500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>526900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>732000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>772300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>958100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-138700</v>
+        <v>-59600</v>
       </c>
       <c r="E24" s="3">
-        <v>-80600</v>
+        <v>-150300</v>
       </c>
       <c r="F24" s="3">
-        <v>-299000</v>
+        <v>-87300</v>
       </c>
       <c r="G24" s="3">
-        <v>-132700</v>
+        <v>-323900</v>
       </c>
       <c r="H24" s="3">
-        <v>90500</v>
+        <v>-143800</v>
       </c>
       <c r="I24" s="3">
-        <v>-55500</v>
+        <v>98100</v>
       </c>
       <c r="J24" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="K24" s="3">
         <v>68500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-33200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-39300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>106900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>83700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>160800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>215800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-423200</v>
+        <v>10100</v>
       </c>
       <c r="E26" s="3">
-        <v>-167100</v>
+        <v>-458500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1526300</v>
+        <v>-181000</v>
       </c>
       <c r="G26" s="3">
-        <v>-371500</v>
+        <v>-1653500</v>
       </c>
       <c r="H26" s="3">
-        <v>-462200</v>
+        <v>-402400</v>
       </c>
       <c r="I26" s="3">
-        <v>-52600</v>
+        <v>-500700</v>
       </c>
       <c r="J26" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K26" s="3">
         <v>128200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-252500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>420000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>648300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>611500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>742200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-410900</v>
+        <v>27600</v>
       </c>
       <c r="E27" s="3">
-        <v>-167200</v>
+        <v>-445100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1512900</v>
+        <v>-181100</v>
       </c>
       <c r="G27" s="3">
-        <v>-352300</v>
+        <v>-1638900</v>
       </c>
       <c r="H27" s="3">
-        <v>-460600</v>
+        <v>-381600</v>
       </c>
       <c r="I27" s="3">
-        <v>-51200</v>
+        <v>-499000</v>
       </c>
       <c r="J27" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K27" s="3">
         <v>122800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-249800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>388900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>607500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>570100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>718200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-20300</v>
+        <v>62200</v>
       </c>
       <c r="E32" s="3">
-        <v>-125700</v>
+        <v>-22000</v>
       </c>
       <c r="F32" s="3">
-        <v>34800</v>
+        <v>-136200</v>
       </c>
       <c r="G32" s="3">
-        <v>-32300</v>
+        <v>37700</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>-34900</v>
       </c>
       <c r="I32" s="3">
-        <v>-23800</v>
+        <v>27200</v>
       </c>
       <c r="J32" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>47700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>106000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-159200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-410900</v>
+        <v>27600</v>
       </c>
       <c r="E33" s="3">
-        <v>-167200</v>
+        <v>-445100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1512900</v>
+        <v>-181100</v>
       </c>
       <c r="G33" s="3">
-        <v>-352300</v>
+        <v>-1638900</v>
       </c>
       <c r="H33" s="3">
-        <v>-460600</v>
+        <v>-381600</v>
       </c>
       <c r="I33" s="3">
-        <v>-51200</v>
+        <v>-499000</v>
       </c>
       <c r="J33" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K33" s="3">
         <v>122800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-249800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>388900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>607500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>570100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>718200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-410900</v>
+        <v>27600</v>
       </c>
       <c r="E35" s="3">
-        <v>-167200</v>
+        <v>-445100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1512900</v>
+        <v>-181100</v>
       </c>
       <c r="G35" s="3">
-        <v>-352300</v>
+        <v>-1638900</v>
       </c>
       <c r="H35" s="3">
-        <v>-460600</v>
+        <v>-381600</v>
       </c>
       <c r="I35" s="3">
-        <v>-51200</v>
+        <v>-499000</v>
       </c>
       <c r="J35" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K35" s="3">
         <v>122800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-249800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>388900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>607500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>570100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>718200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,485 +2310,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2957500</v>
+        <v>2993100</v>
       </c>
       <c r="E41" s="3">
-        <v>2989000</v>
+        <v>3203900</v>
       </c>
       <c r="F41" s="3">
-        <v>2802200</v>
+        <v>3238100</v>
       </c>
       <c r="G41" s="3">
-        <v>2318100</v>
+        <v>3035800</v>
       </c>
       <c r="H41" s="3">
-        <v>2035700</v>
+        <v>2511300</v>
       </c>
       <c r="I41" s="3">
-        <v>2019500</v>
+        <v>2205300</v>
       </c>
       <c r="J41" s="3">
+        <v>2187800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1986600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2235800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2395200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2206400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2290300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1737200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1354700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1210300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1402800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>54400</v>
+        <v>1300</v>
       </c>
       <c r="E42" s="3">
-        <v>62000</v>
+        <v>1300</v>
       </c>
       <c r="F42" s="3">
         <v>1300</v>
       </c>
       <c r="G42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
-        <v>1100</v>
-      </c>
       <c r="I42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K42" s="3">
         <v>3700</v>
       </c>
-      <c r="J42" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>228500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>669700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>603000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1105000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>870900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>797300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>982200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2476600</v>
+        <v>3607000</v>
       </c>
       <c r="E43" s="3">
-        <v>2480900</v>
+        <v>2712200</v>
       </c>
       <c r="F43" s="3">
-        <v>3070600</v>
+        <v>2715200</v>
       </c>
       <c r="G43" s="3">
-        <v>3438300</v>
+        <v>3326500</v>
       </c>
       <c r="H43" s="3">
-        <v>2436200</v>
+        <v>3724800</v>
       </c>
       <c r="I43" s="3">
-        <v>2966000</v>
+        <v>2639200</v>
       </c>
       <c r="J43" s="3">
+        <v>3213100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2532300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2751000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3073400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3055600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3965900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4359300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4020800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4095800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4598400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1713100</v>
+        <v>2183700</v>
       </c>
       <c r="E44" s="3">
-        <v>1940500</v>
+        <v>1855800</v>
       </c>
       <c r="F44" s="3">
-        <v>1723000</v>
+        <v>2102200</v>
       </c>
       <c r="G44" s="3">
-        <v>2290800</v>
+        <v>1866600</v>
       </c>
       <c r="H44" s="3">
-        <v>2158100</v>
+        <v>2481700</v>
       </c>
       <c r="I44" s="3">
-        <v>2209100</v>
+        <v>2338000</v>
       </c>
       <c r="J44" s="3">
+        <v>2393200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2260600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2095800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2041500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1974300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2068100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2344300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2062200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2054900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2059000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1052500</v>
+        <v>1152700</v>
       </c>
       <c r="E45" s="3">
-        <v>1060900</v>
+        <v>1168600</v>
       </c>
       <c r="F45" s="3">
-        <v>1011500</v>
+        <v>1187600</v>
       </c>
       <c r="G45" s="3">
-        <v>1007000</v>
+        <v>1095800</v>
       </c>
       <c r="H45" s="3">
-        <v>919800</v>
+        <v>1090900</v>
       </c>
       <c r="I45" s="3">
-        <v>793200</v>
+        <v>996400</v>
       </c>
       <c r="J45" s="3">
+        <v>859300</v>
+      </c>
+      <c r="K45" s="3">
         <v>608900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>402500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>423500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>408800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>289600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>428200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>485800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>524200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>393400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8254100</v>
+        <v>9937800</v>
       </c>
       <c r="E46" s="3">
-        <v>8533300</v>
+        <v>8941900</v>
       </c>
       <c r="F46" s="3">
-        <v>8608600</v>
+        <v>9244400</v>
       </c>
       <c r="G46" s="3">
-        <v>9054900</v>
+        <v>9326000</v>
       </c>
       <c r="H46" s="3">
-        <v>7550900</v>
+        <v>9809500</v>
       </c>
       <c r="I46" s="3">
-        <v>7991400</v>
+        <v>8180100</v>
       </c>
       <c r="J46" s="3">
+        <v>8657400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7392100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7488700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8162200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8314800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9216900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9974000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8794500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8682400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9435800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>259000</v>
+        <v>228200</v>
       </c>
       <c r="E47" s="3">
-        <v>310800</v>
+        <v>261200</v>
       </c>
       <c r="F47" s="3">
-        <v>282200</v>
+        <v>317400</v>
       </c>
       <c r="G47" s="3">
-        <v>219300</v>
+        <v>305800</v>
       </c>
       <c r="H47" s="3">
-        <v>180000</v>
+        <v>237500</v>
       </c>
       <c r="I47" s="3">
-        <v>175400</v>
+        <v>195000</v>
       </c>
       <c r="J47" s="3">
+        <v>190100</v>
+      </c>
+      <c r="K47" s="3">
         <v>164300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>154000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>137700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>149900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>137500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>127800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>149500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>197500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>18249200</v>
+        <v>19228200</v>
       </c>
       <c r="E48" s="3">
-        <v>18739300</v>
+        <v>19770000</v>
       </c>
       <c r="F48" s="3">
-        <v>18553600</v>
+        <v>20300900</v>
       </c>
       <c r="G48" s="3">
-        <v>19933700</v>
+        <v>20099800</v>
       </c>
       <c r="H48" s="3">
-        <v>20110900</v>
+        <v>21594800</v>
       </c>
       <c r="I48" s="3">
-        <v>19410100</v>
+        <v>21786800</v>
       </c>
       <c r="J48" s="3">
+        <v>21027600</v>
+      </c>
+      <c r="K48" s="3">
         <v>18144100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16307900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15987500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14721100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14257700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13203600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12466000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11656300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10828300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>711800</v>
+        <v>722700</v>
       </c>
       <c r="E49" s="3">
-        <v>738900</v>
+        <v>771100</v>
       </c>
       <c r="F49" s="3">
-        <v>733700</v>
+        <v>800500</v>
       </c>
       <c r="G49" s="3">
-        <v>816000</v>
+        <v>794800</v>
       </c>
       <c r="H49" s="3">
-        <v>782400</v>
+        <v>884000</v>
       </c>
       <c r="I49" s="3">
-        <v>828600</v>
+        <v>847600</v>
       </c>
       <c r="J49" s="3">
+        <v>897600</v>
+      </c>
+      <c r="K49" s="3">
         <v>829600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>803500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>795000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>766200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>803300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>782000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>744500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>764600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>805400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1971500</v>
+        <v>2185800</v>
       </c>
       <c r="E52" s="3">
-        <v>1821500</v>
+        <v>2155200</v>
       </c>
       <c r="F52" s="3">
-        <v>1704500</v>
+        <v>1992700</v>
       </c>
       <c r="G52" s="3">
-        <v>1428300</v>
+        <v>1846500</v>
       </c>
       <c r="H52" s="3">
-        <v>1280400</v>
+        <v>1547300</v>
       </c>
       <c r="I52" s="3">
-        <v>1320400</v>
+        <v>1387100</v>
       </c>
       <c r="J52" s="3">
+        <v>1430400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1337500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1258100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1314600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1256200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1232800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1239600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1188500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1071800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1128900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29445600</v>
+        <v>32302600</v>
       </c>
       <c r="E54" s="3">
-        <v>30143900</v>
+        <v>31899400</v>
       </c>
       <c r="F54" s="3">
-        <v>29882600</v>
+        <v>32655900</v>
       </c>
       <c r="G54" s="3">
-        <v>31452200</v>
+        <v>32372900</v>
       </c>
       <c r="H54" s="3">
-        <v>29904600</v>
+        <v>34073200</v>
       </c>
       <c r="I54" s="3">
-        <v>29725900</v>
+        <v>32396700</v>
       </c>
       <c r="J54" s="3">
+        <v>32203100</v>
+      </c>
+      <c r="K54" s="3">
         <v>27867600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26016900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26413100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25196000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25660500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25336700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23321100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22324700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22395900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2911600</v>
+        <v>3673800</v>
       </c>
       <c r="E57" s="3">
-        <v>2412600</v>
+        <v>3154300</v>
       </c>
       <c r="F57" s="3">
-        <v>2199300</v>
+        <v>2613700</v>
       </c>
       <c r="G57" s="3">
-        <v>2245600</v>
+        <v>2382600</v>
       </c>
       <c r="H57" s="3">
-        <v>2364900</v>
+        <v>2432700</v>
       </c>
       <c r="I57" s="3">
-        <v>2495000</v>
+        <v>2561900</v>
       </c>
       <c r="J57" s="3">
+        <v>2702900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2593500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2573100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2494500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2354400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2530100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2607300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2150400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2193700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2589600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2632900</v>
+        <v>2343000</v>
       </c>
       <c r="E58" s="3">
-        <v>2427500</v>
+        <v>2852300</v>
       </c>
       <c r="F58" s="3">
-        <v>1660800</v>
+        <v>2629800</v>
       </c>
       <c r="G58" s="3">
-        <v>1612400</v>
+        <v>1799100</v>
       </c>
       <c r="H58" s="3">
-        <v>1551900</v>
+        <v>1746800</v>
       </c>
       <c r="I58" s="3">
-        <v>1343000</v>
+        <v>1681300</v>
       </c>
       <c r="J58" s="3">
+        <v>1454900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1305300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1659500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1833200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1804300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1278600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1072600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>734100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>690200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>601100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3830200</v>
+        <v>4177300</v>
       </c>
       <c r="E59" s="3">
-        <v>4579200</v>
+        <v>4149400</v>
       </c>
       <c r="F59" s="3">
-        <v>5367300</v>
+        <v>4960700</v>
       </c>
       <c r="G59" s="3">
-        <v>5080300</v>
+        <v>5814600</v>
       </c>
       <c r="H59" s="3">
-        <v>4668200</v>
+        <v>5503600</v>
       </c>
       <c r="I59" s="3">
-        <v>4335900</v>
+        <v>5057300</v>
       </c>
       <c r="J59" s="3">
+        <v>4697300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4463000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3983800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3878000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3862100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4092600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3429700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3088300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3298400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3161700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>9374700</v>
+        <v>10194200</v>
       </c>
       <c r="E60" s="3">
-        <v>9419300</v>
+        <v>10155900</v>
       </c>
       <c r="F60" s="3">
-        <v>9227400</v>
+        <v>10204200</v>
       </c>
       <c r="G60" s="3">
-        <v>8938300</v>
+        <v>9996300</v>
       </c>
       <c r="H60" s="3">
-        <v>8585100</v>
+        <v>9683200</v>
       </c>
       <c r="I60" s="3">
-        <v>8173900</v>
+        <v>9300500</v>
       </c>
       <c r="J60" s="3">
+        <v>8855100</v>
+      </c>
+      <c r="K60" s="3">
         <v>8361800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8216400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8205600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8020800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7901200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7109600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5972800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6182300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6352400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9742200</v>
+        <v>10824400</v>
       </c>
       <c r="E61" s="3">
-        <v>9876300</v>
+        <v>10554000</v>
       </c>
       <c r="F61" s="3">
-        <v>9737500</v>
+        <v>10699300</v>
       </c>
       <c r="G61" s="3">
-        <v>9752000</v>
+        <v>10549000</v>
       </c>
       <c r="H61" s="3">
-        <v>8114200</v>
+        <v>10564700</v>
       </c>
       <c r="I61" s="3">
-        <v>7738200</v>
+        <v>8790400</v>
       </c>
       <c r="J61" s="3">
+        <v>8383100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5884100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4588400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4522600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3850300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3652200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3665600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3685800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3525400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3699800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>164100</v>
+        <v>205400</v>
       </c>
       <c r="E62" s="3">
-        <v>295300</v>
+        <v>177700</v>
       </c>
       <c r="F62" s="3">
-        <v>427500</v>
+        <v>319900</v>
       </c>
       <c r="G62" s="3">
-        <v>728100</v>
+        <v>463200</v>
       </c>
       <c r="H62" s="3">
-        <v>833300</v>
+        <v>788800</v>
       </c>
       <c r="I62" s="3">
-        <v>970600</v>
+        <v>902800</v>
       </c>
       <c r="J62" s="3">
+        <v>1051400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1117300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1311500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1477300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>871400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>923400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1213500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>823900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>278900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>227600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20327900</v>
+        <v>22355600</v>
       </c>
       <c r="E66" s="3">
-        <v>20594100</v>
+        <v>22021900</v>
       </c>
       <c r="F66" s="3">
-        <v>20356600</v>
+        <v>22310300</v>
       </c>
       <c r="G66" s="3">
-        <v>20412400</v>
+        <v>22053000</v>
       </c>
       <c r="H66" s="3">
-        <v>18545100</v>
+        <v>22113400</v>
       </c>
       <c r="I66" s="3">
-        <v>17906300</v>
+        <v>20090600</v>
       </c>
       <c r="J66" s="3">
+        <v>19398500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16125100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14841500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14696300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13236700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13011900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12546500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10999900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10453700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10735500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5722400</v>
+        <v>6226200</v>
       </c>
       <c r="E72" s="3">
-        <v>6134100</v>
+        <v>6199300</v>
       </c>
       <c r="F72" s="3">
-        <v>6302800</v>
+        <v>6645300</v>
       </c>
       <c r="G72" s="3">
-        <v>7729300</v>
+        <v>6828000</v>
       </c>
       <c r="H72" s="3">
-        <v>8082700</v>
+        <v>8373400</v>
       </c>
       <c r="I72" s="3">
-        <v>8548700</v>
+        <v>8756300</v>
       </c>
       <c r="J72" s="3">
+        <v>9261100</v>
+      </c>
+      <c r="K72" s="3">
         <v>8601600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8163200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8465600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8718500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9347000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9312600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8926100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8509500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8103900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9117700</v>
+        <v>9947100</v>
       </c>
       <c r="E76" s="3">
-        <v>9549800</v>
+        <v>9877500</v>
       </c>
       <c r="F76" s="3">
-        <v>9526000</v>
+        <v>10345600</v>
       </c>
       <c r="G76" s="3">
-        <v>11039800</v>
+        <v>10319800</v>
       </c>
       <c r="H76" s="3">
-        <v>11359500</v>
+        <v>11959800</v>
       </c>
       <c r="I76" s="3">
-        <v>11819600</v>
+        <v>12306100</v>
       </c>
       <c r="J76" s="3">
+        <v>12804600</v>
+      </c>
+      <c r="K76" s="3">
         <v>11742500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11175400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11716800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11959300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12648700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12790200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12321300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11871000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11660400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-410900</v>
+        <v>27600</v>
       </c>
       <c r="E81" s="3">
-        <v>-167200</v>
+        <v>-445100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1512900</v>
+        <v>-181100</v>
       </c>
       <c r="G81" s="3">
-        <v>-352300</v>
+        <v>-1638900</v>
       </c>
       <c r="H81" s="3">
-        <v>-460600</v>
+        <v>-381600</v>
       </c>
       <c r="I81" s="3">
-        <v>-51200</v>
+        <v>-499000</v>
       </c>
       <c r="J81" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K81" s="3">
         <v>122800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-249800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>388900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>607500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>570100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>718200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>780800</v>
+        <v>1022900</v>
       </c>
       <c r="E83" s="3">
-        <v>833700</v>
+        <v>845800</v>
       </c>
       <c r="F83" s="3">
-        <v>846900</v>
+        <v>903100</v>
       </c>
       <c r="G83" s="3">
-        <v>817800</v>
+        <v>917500</v>
       </c>
       <c r="H83" s="3">
-        <v>757600</v>
+        <v>886000</v>
       </c>
       <c r="I83" s="3">
-        <v>681400</v>
+        <v>820800</v>
       </c>
       <c r="J83" s="3">
+        <v>738200</v>
+      </c>
+      <c r="K83" s="3">
         <v>718200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>713100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>763600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>764500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>779200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>734000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>685600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>644300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>648000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>472900</v>
+        <v>400500</v>
       </c>
       <c r="E89" s="3">
-        <v>155100</v>
+        <v>512300</v>
       </c>
       <c r="F89" s="3">
-        <v>1229000</v>
+        <v>168100</v>
       </c>
       <c r="G89" s="3">
-        <v>-39100</v>
+        <v>1331400</v>
       </c>
       <c r="H89" s="3">
-        <v>1231500</v>
+        <v>-42400</v>
       </c>
       <c r="I89" s="3">
-        <v>-147800</v>
+        <v>1334100</v>
       </c>
       <c r="J89" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="K89" s="3">
         <v>648900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1193300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1206300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>673900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1444800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1696700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1718000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1117800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1214000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-673200</v>
+        <v>-307600</v>
       </c>
       <c r="E91" s="3">
-        <v>-863500</v>
+        <v>-729300</v>
       </c>
       <c r="F91" s="3">
-        <v>-842200</v>
+        <v>-935500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1352800</v>
+        <v>-912400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1853800</v>
+        <v>-1465500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1769800</v>
+        <v>-2008300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1917300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-741900</v>
+        <v>-336800</v>
       </c>
       <c r="E94" s="3">
-        <v>-681400</v>
+        <v>-803700</v>
       </c>
       <c r="F94" s="3">
-        <v>-883600</v>
+        <v>-738200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1240800</v>
+        <v>-957200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1755000</v>
+        <v>-1344200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1795100</v>
+        <v>-1901300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1944700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-690000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>272000</v>
+        <v>-298000</v>
       </c>
       <c r="E100" s="3">
-        <v>635000</v>
+        <v>294700</v>
       </c>
       <c r="F100" s="3">
-        <v>177900</v>
+        <v>687900</v>
       </c>
       <c r="G100" s="3">
-        <v>1548300</v>
+        <v>192700</v>
       </c>
       <c r="H100" s="3">
-        <v>538900</v>
+        <v>1677400</v>
       </c>
       <c r="I100" s="3">
-        <v>1924800</v>
+        <v>583800</v>
       </c>
       <c r="J100" s="3">
+        <v>2085200</v>
+      </c>
+      <c r="K100" s="3">
         <v>703200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>373100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>452700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>937500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>329400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>290500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>89200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>50900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-190200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-34600</v>
+        <v>23500</v>
       </c>
       <c r="E101" s="3">
-        <v>78000</v>
+        <v>-37400</v>
       </c>
       <c r="F101" s="3">
-        <v>-39100</v>
+        <v>84600</v>
       </c>
       <c r="G101" s="3">
-        <v>14000</v>
+        <v>-42400</v>
       </c>
       <c r="H101" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
-        <v>51100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>800</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>51600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>33000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-71800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-31600</v>
+        <v>-210800</v>
       </c>
       <c r="E102" s="3">
-        <v>186800</v>
+        <v>-34200</v>
       </c>
       <c r="F102" s="3">
-        <v>484100</v>
+        <v>202400</v>
       </c>
       <c r="G102" s="3">
-        <v>282500</v>
+        <v>524400</v>
       </c>
       <c r="H102" s="3">
-        <v>16100</v>
+        <v>306000</v>
       </c>
       <c r="I102" s="3">
-        <v>32900</v>
+        <v>17500</v>
       </c>
       <c r="J102" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-332000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-73900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>188800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>553100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>382400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>171400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-192600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>434500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,269 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6131300</v>
+        <v>6565900</v>
       </c>
       <c r="E8" s="3">
-        <v>4829400</v>
+        <v>5929100</v>
       </c>
       <c r="F8" s="3">
-        <v>4299100</v>
+        <v>4670200</v>
       </c>
       <c r="G8" s="3">
-        <v>5843700</v>
+        <v>4157300</v>
       </c>
       <c r="H8" s="3">
-        <v>5297700</v>
+        <v>5651100</v>
       </c>
       <c r="I8" s="3">
-        <v>4871600</v>
+        <v>5123100</v>
       </c>
       <c r="J8" s="3">
+        <v>4711000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5349700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5836100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4942900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4713400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4767100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6270900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6136300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5833400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6355900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7142400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5362000</v>
+        <v>5341900</v>
       </c>
       <c r="E9" s="3">
-        <v>4712700</v>
+        <v>5185200</v>
       </c>
       <c r="F9" s="3">
-        <v>4045900</v>
+        <v>4557400</v>
       </c>
       <c r="G9" s="3">
-        <v>5432200</v>
+        <v>3912600</v>
       </c>
       <c r="H9" s="3">
-        <v>5023300</v>
+        <v>5253100</v>
       </c>
       <c r="I9" s="3">
-        <v>4433300</v>
+        <v>4857700</v>
       </c>
       <c r="J9" s="3">
+        <v>4287100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4773900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4838500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4223000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4321400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4311800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5499300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5031500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4501200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4808600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5726100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>769300</v>
+        <v>1224000</v>
       </c>
       <c r="E10" s="3">
-        <v>116700</v>
+        <v>743900</v>
       </c>
       <c r="F10" s="3">
-        <v>253100</v>
+        <v>112800</v>
       </c>
       <c r="G10" s="3">
-        <v>411600</v>
+        <v>244800</v>
       </c>
       <c r="H10" s="3">
-        <v>274500</v>
+        <v>398000</v>
       </c>
       <c r="I10" s="3">
-        <v>438300</v>
+        <v>265400</v>
       </c>
       <c r="J10" s="3">
+        <v>423900</v>
+      </c>
+      <c r="K10" s="3">
         <v>575800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>997700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>719900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>392100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>455400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>771700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1104800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1332200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1547400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1416200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +945,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>248900</v>
+        <v>238300</v>
       </c>
       <c r="E12" s="3">
-        <v>261600</v>
+        <v>240700</v>
       </c>
       <c r="F12" s="3">
-        <v>242900</v>
+        <v>253000</v>
       </c>
       <c r="G12" s="3">
-        <v>224600</v>
+        <v>234900</v>
       </c>
       <c r="H12" s="3">
-        <v>198200</v>
+        <v>217200</v>
       </c>
       <c r="I12" s="3">
-        <v>386100</v>
+        <v>191600</v>
       </c>
       <c r="J12" s="3">
+        <v>373400</v>
+      </c>
+      <c r="K12" s="3">
         <v>303100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>262900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>265800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>247700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>239500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>291700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>251700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>274200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>255800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>276900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,120 +1061,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>35000</v>
+        <v>34800</v>
       </c>
       <c r="E14" s="3">
-        <v>93400</v>
+        <v>33800</v>
       </c>
       <c r="F14" s="3">
-        <v>8800</v>
+        <v>90400</v>
       </c>
       <c r="G14" s="3">
-        <v>1497700</v>
+        <v>8500</v>
       </c>
       <c r="H14" s="3">
-        <v>131500</v>
+        <v>1447900</v>
       </c>
       <c r="I14" s="3">
-        <v>9900</v>
+        <v>125700</v>
       </c>
       <c r="J14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-7500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>45900</v>
+        <v>48000</v>
       </c>
       <c r="E15" s="3">
-        <v>49900</v>
+        <v>44400</v>
       </c>
       <c r="F15" s="3">
-        <v>50700</v>
+        <v>48200</v>
       </c>
       <c r="G15" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="H15" s="3">
-        <v>55100</v>
+        <v>49700</v>
       </c>
       <c r="I15" s="3">
-        <v>49600</v>
+        <v>53300</v>
       </c>
       <c r="J15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K15" s="3">
         <v>49500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>37200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>30800</v>
       </c>
       <c r="P15" s="3">
         <v>30800</v>
       </c>
       <c r="Q15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="R15" s="3">
         <v>29900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>27900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6016700</v>
+        <v>5997400</v>
       </c>
       <c r="E17" s="3">
-        <v>5393300</v>
+        <v>5818300</v>
       </c>
       <c r="F17" s="3">
-        <v>4637200</v>
+        <v>5215500</v>
       </c>
       <c r="G17" s="3">
-        <v>7725400</v>
+        <v>4484400</v>
       </c>
       <c r="H17" s="3">
-        <v>5826600</v>
+        <v>7470300</v>
       </c>
       <c r="I17" s="3">
-        <v>5217000</v>
+        <v>5633100</v>
       </c>
       <c r="J17" s="3">
+        <v>5040400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5475600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5640400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4830600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4933200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4849700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6228300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5621800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5147100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5454500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6321000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>114600</v>
+        <v>568400</v>
       </c>
       <c r="E18" s="3">
-        <v>-563900</v>
+        <v>110800</v>
       </c>
       <c r="F18" s="3">
-        <v>-338200</v>
+        <v>-545300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1881600</v>
+        <v>-327000</v>
       </c>
       <c r="H18" s="3">
-        <v>-528900</v>
+        <v>-1819200</v>
       </c>
       <c r="I18" s="3">
-        <v>-345400</v>
+        <v>-510000</v>
       </c>
       <c r="J18" s="3">
+        <v>-329400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-125900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>195800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-219800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-82600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>514500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>686300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>901500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>821400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,288 +1342,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-62200</v>
+        <v>-97400</v>
       </c>
       <c r="E20" s="3">
-        <v>22000</v>
+        <v>-60100</v>
       </c>
       <c r="F20" s="3">
-        <v>136200</v>
+        <v>21200</v>
       </c>
       <c r="G20" s="3">
-        <v>-37700</v>
+        <v>131700</v>
       </c>
       <c r="H20" s="3">
-        <v>34900</v>
+        <v>-36900</v>
       </c>
       <c r="I20" s="3">
-        <v>-27200</v>
+        <v>32300</v>
       </c>
       <c r="J20" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K20" s="3">
         <v>25800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>64600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-106000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>159200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1075300</v>
+        <v>1429300</v>
       </c>
       <c r="E21" s="3">
-        <v>303900</v>
+        <v>1039900</v>
       </c>
       <c r="F21" s="3">
-        <v>701100</v>
+        <v>293900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1001900</v>
+        <v>678000</v>
       </c>
       <c r="H21" s="3">
-        <v>392000</v>
+        <v>-968800</v>
       </c>
       <c r="I21" s="3">
-        <v>448100</v>
+        <v>379100</v>
       </c>
       <c r="J21" s="3">
+        <v>433300</v>
+      </c>
+      <c r="K21" s="3">
         <v>638200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>930000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>817200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>496100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>703100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>835400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1281400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1436600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1439800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1628600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>101900</v>
+        <v>98800</v>
       </c>
       <c r="E22" s="3">
-        <v>66800</v>
+        <v>98500</v>
       </c>
       <c r="F22" s="3">
-        <v>66300</v>
+        <v>64600</v>
       </c>
       <c r="G22" s="3">
-        <v>58000</v>
+        <v>64200</v>
       </c>
       <c r="H22" s="3">
-        <v>52200</v>
+        <v>56100</v>
       </c>
       <c r="I22" s="3">
-        <v>29900</v>
+        <v>50500</v>
       </c>
       <c r="J22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-49400</v>
+        <v>372300</v>
       </c>
       <c r="E23" s="3">
-        <v>-608700</v>
+        <v>-47800</v>
       </c>
       <c r="F23" s="3">
-        <v>-268300</v>
+        <v>-588700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1977400</v>
+        <v>-259500</v>
       </c>
       <c r="H23" s="3">
-        <v>-546200</v>
+        <v>-1912200</v>
       </c>
       <c r="I23" s="3">
-        <v>-402600</v>
+        <v>-528200</v>
       </c>
       <c r="J23" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-117100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>196700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-285600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-80500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>526900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>732000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>772300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>958100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-59600</v>
+        <v>-174200</v>
       </c>
       <c r="E24" s="3">
-        <v>-150300</v>
+        <v>-57600</v>
       </c>
       <c r="F24" s="3">
-        <v>-87300</v>
+        <v>-145300</v>
       </c>
       <c r="G24" s="3">
-        <v>-323900</v>
+        <v>-84500</v>
       </c>
       <c r="H24" s="3">
-        <v>-143800</v>
+        <v>-313200</v>
       </c>
       <c r="I24" s="3">
-        <v>98100</v>
+        <v>-139000</v>
       </c>
       <c r="J24" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-60100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-33200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-39300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>106900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>83700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>160800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>215800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10100</v>
+        <v>546500</v>
       </c>
       <c r="E26" s="3">
-        <v>-458500</v>
+        <v>9800</v>
       </c>
       <c r="F26" s="3">
-        <v>-181000</v>
+        <v>-443400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1653500</v>
+        <v>-175000</v>
       </c>
       <c r="H26" s="3">
-        <v>-402400</v>
+        <v>-1599000</v>
       </c>
       <c r="I26" s="3">
-        <v>-500700</v>
+        <v>-389100</v>
       </c>
       <c r="J26" s="3">
+        <v>-484200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-57000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>128200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-252500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-41100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>420000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>648300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>611500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>742200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>27600</v>
+        <v>500200</v>
       </c>
       <c r="E27" s="3">
-        <v>-445100</v>
+        <v>26700</v>
       </c>
       <c r="F27" s="3">
-        <v>-181100</v>
+        <v>-430400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1638900</v>
+        <v>-175100</v>
       </c>
       <c r="H27" s="3">
-        <v>-381600</v>
+        <v>-1584900</v>
       </c>
       <c r="I27" s="3">
-        <v>-499000</v>
+        <v>-369000</v>
       </c>
       <c r="J27" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-55400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>122800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-249800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-49900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>388900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>607500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>570100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>718200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>62200</v>
+        <v>97400</v>
       </c>
       <c r="E32" s="3">
-        <v>-22000</v>
+        <v>60100</v>
       </c>
       <c r="F32" s="3">
-        <v>-136200</v>
+        <v>-21200</v>
       </c>
       <c r="G32" s="3">
-        <v>37700</v>
+        <v>-131700</v>
       </c>
       <c r="H32" s="3">
-        <v>-34900</v>
+        <v>36900</v>
       </c>
       <c r="I32" s="3">
-        <v>27200</v>
+        <v>-32300</v>
       </c>
       <c r="J32" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-64600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>106000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-159200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>27600</v>
+        <v>500200</v>
       </c>
       <c r="E33" s="3">
-        <v>-445100</v>
+        <v>26700</v>
       </c>
       <c r="F33" s="3">
-        <v>-181100</v>
+        <v>-430400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1638900</v>
+        <v>-175100</v>
       </c>
       <c r="H33" s="3">
-        <v>-381600</v>
+        <v>-1584900</v>
       </c>
       <c r="I33" s="3">
-        <v>-499000</v>
+        <v>-369000</v>
       </c>
       <c r="J33" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-55400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>122800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-249800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-49900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>388900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>607500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>570100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>718200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>27600</v>
+        <v>500200</v>
       </c>
       <c r="E35" s="3">
-        <v>-445100</v>
+        <v>26700</v>
       </c>
       <c r="F35" s="3">
-        <v>-181100</v>
+        <v>-430400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1638900</v>
+        <v>-175100</v>
       </c>
       <c r="H35" s="3">
-        <v>-381600</v>
+        <v>-1584900</v>
       </c>
       <c r="I35" s="3">
-        <v>-499000</v>
+        <v>-369000</v>
       </c>
       <c r="J35" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-55400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>122800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-249800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-49900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>388900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>607500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>570100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>718200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,69 +2396,73 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2993100</v>
+        <v>3711900</v>
       </c>
       <c r="E41" s="3">
-        <v>3203900</v>
+        <v>2894400</v>
       </c>
       <c r="F41" s="3">
-        <v>3238100</v>
+        <v>3098300</v>
       </c>
       <c r="G41" s="3">
-        <v>3035800</v>
+        <v>3131400</v>
       </c>
       <c r="H41" s="3">
-        <v>2511300</v>
+        <v>2935700</v>
       </c>
       <c r="I41" s="3">
-        <v>2205300</v>
+        <v>2428500</v>
       </c>
       <c r="J41" s="3">
+        <v>2132600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2187800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1986600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2235800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2395200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2206400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2290300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1737200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1354700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1210300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1402800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E42" s="3">
         <v>1300</v>
@@ -2382,441 +2471,465 @@
         <v>1300</v>
       </c>
       <c r="G42" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>228500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>669700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>603000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1105000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>870900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>797300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>982200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3607000</v>
+        <v>3252900</v>
       </c>
       <c r="E43" s="3">
-        <v>2712200</v>
+        <v>3488100</v>
       </c>
       <c r="F43" s="3">
-        <v>2715200</v>
+        <v>2622800</v>
       </c>
       <c r="G43" s="3">
-        <v>3326500</v>
+        <v>2625700</v>
       </c>
       <c r="H43" s="3">
-        <v>3724800</v>
+        <v>3216800</v>
       </c>
       <c r="I43" s="3">
-        <v>2639200</v>
+        <v>3602000</v>
       </c>
       <c r="J43" s="3">
+        <v>2552200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3213100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2532300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2751000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3073400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3055600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3965900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4359300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4020800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4095800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4598400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2183700</v>
+        <v>1910200</v>
       </c>
       <c r="E44" s="3">
-        <v>1855800</v>
+        <v>2111800</v>
       </c>
       <c r="F44" s="3">
-        <v>2102200</v>
+        <v>1794700</v>
       </c>
       <c r="G44" s="3">
-        <v>1866600</v>
+        <v>2032900</v>
       </c>
       <c r="H44" s="3">
-        <v>2481700</v>
+        <v>1805000</v>
       </c>
       <c r="I44" s="3">
-        <v>2338000</v>
+        <v>2399900</v>
       </c>
       <c r="J44" s="3">
+        <v>2260900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2393200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2260600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2095800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2041500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1974300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2068100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2344300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2062200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2054900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2059000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1152700</v>
+        <v>891000</v>
       </c>
       <c r="E45" s="3">
-        <v>1168600</v>
+        <v>1114700</v>
       </c>
       <c r="F45" s="3">
-        <v>1187600</v>
+        <v>1130100</v>
       </c>
       <c r="G45" s="3">
-        <v>1095800</v>
+        <v>1148500</v>
       </c>
       <c r="H45" s="3">
-        <v>1090900</v>
+        <v>1059700</v>
       </c>
       <c r="I45" s="3">
-        <v>996400</v>
+        <v>1054900</v>
       </c>
       <c r="J45" s="3">
+        <v>963600</v>
+      </c>
+      <c r="K45" s="3">
         <v>859300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>608900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>402500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>423500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>408800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>289600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>428200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>485800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>524200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>393400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>9937800</v>
+        <v>9767500</v>
       </c>
       <c r="E46" s="3">
-        <v>8941900</v>
+        <v>9610200</v>
       </c>
       <c r="F46" s="3">
-        <v>9244400</v>
+        <v>8647100</v>
       </c>
       <c r="G46" s="3">
-        <v>9326000</v>
+        <v>8939600</v>
       </c>
       <c r="H46" s="3">
-        <v>9809500</v>
+        <v>9018500</v>
       </c>
       <c r="I46" s="3">
-        <v>8180100</v>
+        <v>9486100</v>
       </c>
       <c r="J46" s="3">
+        <v>7910500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8657400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7392100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7488700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8162200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8314800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9216900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9974000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8794500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8682400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9435800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>228200</v>
+        <v>339300</v>
       </c>
       <c r="E47" s="3">
-        <v>261200</v>
+        <v>220700</v>
       </c>
       <c r="F47" s="3">
-        <v>317400</v>
+        <v>252600</v>
       </c>
       <c r="G47" s="3">
-        <v>305800</v>
+        <v>306900</v>
       </c>
       <c r="H47" s="3">
-        <v>237500</v>
+        <v>295700</v>
       </c>
       <c r="I47" s="3">
-        <v>195000</v>
+        <v>229700</v>
       </c>
       <c r="J47" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K47" s="3">
         <v>190100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>164300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>158600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>154000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>137700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>149900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>127800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>149500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>197500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>19228200</v>
+        <v>17729400</v>
       </c>
       <c r="E48" s="3">
-        <v>19770000</v>
+        <v>18594300</v>
       </c>
       <c r="F48" s="3">
-        <v>20300900</v>
+        <v>19118200</v>
       </c>
       <c r="G48" s="3">
-        <v>20099800</v>
+        <v>19631600</v>
       </c>
       <c r="H48" s="3">
-        <v>21594800</v>
+        <v>19437100</v>
       </c>
       <c r="I48" s="3">
-        <v>21786800</v>
+        <v>20882900</v>
       </c>
       <c r="J48" s="3">
+        <v>21068600</v>
+      </c>
+      <c r="K48" s="3">
         <v>21027600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18144100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16307900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15987500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14721100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14257700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13203600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12466000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11656300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10828300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>722700</v>
+        <v>897700</v>
       </c>
       <c r="E49" s="3">
-        <v>771100</v>
+        <v>698800</v>
       </c>
       <c r="F49" s="3">
-        <v>800500</v>
+        <v>745700</v>
       </c>
       <c r="G49" s="3">
-        <v>794800</v>
+        <v>774100</v>
       </c>
       <c r="H49" s="3">
-        <v>884000</v>
+        <v>768600</v>
       </c>
       <c r="I49" s="3">
-        <v>847600</v>
+        <v>854900</v>
       </c>
       <c r="J49" s="3">
+        <v>819600</v>
+      </c>
+      <c r="K49" s="3">
         <v>897600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>829600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>803500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>795000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>766200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>803300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>782000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>744500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>764600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>805400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2185800</v>
+        <v>2129100</v>
       </c>
       <c r="E52" s="3">
-        <v>2155200</v>
+        <v>2113700</v>
       </c>
       <c r="F52" s="3">
-        <v>1992700</v>
+        <v>2084100</v>
       </c>
       <c r="G52" s="3">
-        <v>1846500</v>
+        <v>1927000</v>
       </c>
       <c r="H52" s="3">
-        <v>1547300</v>
+        <v>1785700</v>
       </c>
       <c r="I52" s="3">
-        <v>1387100</v>
+        <v>1496300</v>
       </c>
       <c r="J52" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1430400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1337500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1258100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1314600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1256200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1232800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1239600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1188500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1071800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1128900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>32302600</v>
+        <v>30862900</v>
       </c>
       <c r="E54" s="3">
-        <v>31899400</v>
+        <v>31237700</v>
       </c>
       <c r="F54" s="3">
-        <v>32655900</v>
+        <v>30847700</v>
       </c>
       <c r="G54" s="3">
-        <v>32372900</v>
+        <v>31579300</v>
       </c>
       <c r="H54" s="3">
-        <v>34073200</v>
+        <v>31305600</v>
       </c>
       <c r="I54" s="3">
-        <v>32396700</v>
+        <v>32949900</v>
       </c>
       <c r="J54" s="3">
+        <v>31328700</v>
+      </c>
+      <c r="K54" s="3">
         <v>32203100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27867600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26016900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26413100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25196000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25660500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25336700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23321100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22324700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22395900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,344 +3268,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3673800</v>
+        <v>3325800</v>
       </c>
       <c r="E57" s="3">
-        <v>3154300</v>
+        <v>3552700</v>
       </c>
       <c r="F57" s="3">
-        <v>2613700</v>
+        <v>3050300</v>
       </c>
       <c r="G57" s="3">
-        <v>2382600</v>
+        <v>2527500</v>
       </c>
       <c r="H57" s="3">
-        <v>2432700</v>
+        <v>2304100</v>
       </c>
       <c r="I57" s="3">
-        <v>2561900</v>
+        <v>2352500</v>
       </c>
       <c r="J57" s="3">
+        <v>2477500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2702900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2593500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2573100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2494500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2354400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2530100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2607300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2150400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2193700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2589600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2343000</v>
+        <v>2759800</v>
       </c>
       <c r="E58" s="3">
-        <v>2852300</v>
+        <v>2265800</v>
       </c>
       <c r="F58" s="3">
-        <v>2629800</v>
+        <v>2758200</v>
       </c>
       <c r="G58" s="3">
-        <v>1799100</v>
+        <v>2543100</v>
       </c>
       <c r="H58" s="3">
-        <v>1746800</v>
+        <v>1739800</v>
       </c>
       <c r="I58" s="3">
-        <v>1681300</v>
+        <v>1689200</v>
       </c>
       <c r="J58" s="3">
+        <v>1625800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1454900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1305300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1659500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1833200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1804300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1278600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1072600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>734100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>690200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>601100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4177300</v>
+        <v>3600500</v>
       </c>
       <c r="E59" s="3">
-        <v>4149400</v>
+        <v>4039600</v>
       </c>
       <c r="F59" s="3">
-        <v>4960700</v>
+        <v>4012600</v>
       </c>
       <c r="G59" s="3">
-        <v>5814600</v>
+        <v>4797200</v>
       </c>
       <c r="H59" s="3">
-        <v>5503600</v>
+        <v>5622900</v>
       </c>
       <c r="I59" s="3">
-        <v>5057300</v>
+        <v>5322200</v>
       </c>
       <c r="J59" s="3">
+        <v>4890500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4697300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4463000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3983800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3878000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3862100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4092600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3429700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3088300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3298400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3161700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10194200</v>
+        <v>9686100</v>
       </c>
       <c r="E60" s="3">
-        <v>10155900</v>
+        <v>9858100</v>
       </c>
       <c r="F60" s="3">
-        <v>10204200</v>
+        <v>9821100</v>
       </c>
       <c r="G60" s="3">
-        <v>9996300</v>
+        <v>9867800</v>
       </c>
       <c r="H60" s="3">
-        <v>9683200</v>
+        <v>9666800</v>
       </c>
       <c r="I60" s="3">
-        <v>9300500</v>
+        <v>9363900</v>
       </c>
       <c r="J60" s="3">
+        <v>8993900</v>
+      </c>
+      <c r="K60" s="3">
         <v>8855100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8361800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8216400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8205600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8020800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7901200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7109600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5972800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6182300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6352400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10824400</v>
+        <v>9694200</v>
       </c>
       <c r="E61" s="3">
-        <v>10554000</v>
+        <v>10467500</v>
       </c>
       <c r="F61" s="3">
-        <v>10699300</v>
+        <v>10206100</v>
       </c>
       <c r="G61" s="3">
-        <v>10549000</v>
+        <v>10346600</v>
       </c>
       <c r="H61" s="3">
-        <v>10564700</v>
+        <v>10201200</v>
       </c>
       <c r="I61" s="3">
-        <v>8790400</v>
+        <v>10216400</v>
       </c>
       <c r="J61" s="3">
+        <v>8500600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8383100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5884100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4588400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4522600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3850300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3652200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3665600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3685800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3525400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3699800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>205400</v>
+        <v>274200</v>
       </c>
       <c r="E62" s="3">
-        <v>177700</v>
+        <v>198700</v>
       </c>
       <c r="F62" s="3">
-        <v>319900</v>
+        <v>171900</v>
       </c>
       <c r="G62" s="3">
-        <v>463200</v>
+        <v>309400</v>
       </c>
       <c r="H62" s="3">
-        <v>788800</v>
+        <v>447900</v>
       </c>
       <c r="I62" s="3">
-        <v>902800</v>
+        <v>762800</v>
       </c>
       <c r="J62" s="3">
+        <v>873000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1051400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1117300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1311500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1477300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>871400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>923400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1213500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>823900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>278900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>227600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22355600</v>
+        <v>20830000</v>
       </c>
       <c r="E66" s="3">
-        <v>22021900</v>
+        <v>21618600</v>
       </c>
       <c r="F66" s="3">
-        <v>22310300</v>
+        <v>21295900</v>
       </c>
       <c r="G66" s="3">
-        <v>22053000</v>
+        <v>21574700</v>
       </c>
       <c r="H66" s="3">
-        <v>22113400</v>
+        <v>21326000</v>
       </c>
       <c r="I66" s="3">
-        <v>20090600</v>
+        <v>21384400</v>
       </c>
       <c r="J66" s="3">
+        <v>19428300</v>
+      </c>
+      <c r="K66" s="3">
         <v>19398500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16125100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14841500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14696300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13236700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13011900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12546500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10999900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10453700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10735500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6226200</v>
+        <v>6621400</v>
       </c>
       <c r="E72" s="3">
-        <v>6199300</v>
+        <v>6020900</v>
       </c>
       <c r="F72" s="3">
-        <v>6645300</v>
+        <v>5994900</v>
       </c>
       <c r="G72" s="3">
-        <v>6828000</v>
+        <v>6426200</v>
       </c>
       <c r="H72" s="3">
-        <v>8373400</v>
+        <v>6602900</v>
       </c>
       <c r="I72" s="3">
-        <v>8756300</v>
+        <v>8097300</v>
       </c>
       <c r="J72" s="3">
+        <v>8467600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9261100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8601600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8163200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8465600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8718500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9347000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9312600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8926100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8509500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8103900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9947100</v>
+        <v>10032900</v>
       </c>
       <c r="E76" s="3">
-        <v>9877500</v>
+        <v>9619100</v>
       </c>
       <c r="F76" s="3">
-        <v>10345600</v>
+        <v>9551800</v>
       </c>
       <c r="G76" s="3">
-        <v>10319800</v>
+        <v>10004600</v>
       </c>
       <c r="H76" s="3">
-        <v>11959800</v>
+        <v>9979600</v>
       </c>
       <c r="I76" s="3">
-        <v>12306100</v>
+        <v>11565500</v>
       </c>
       <c r="J76" s="3">
+        <v>11900400</v>
+      </c>
+      <c r="K76" s="3">
         <v>12804600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11742500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11175400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11716800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11959300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12648700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12790200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12321300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11871000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11660400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>27600</v>
+        <v>500200</v>
       </c>
       <c r="E81" s="3">
-        <v>-445100</v>
+        <v>26700</v>
       </c>
       <c r="F81" s="3">
-        <v>-181100</v>
+        <v>-430400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1638900</v>
+        <v>-175100</v>
       </c>
       <c r="H81" s="3">
-        <v>-381600</v>
+        <v>-1584900</v>
       </c>
       <c r="I81" s="3">
-        <v>-499000</v>
+        <v>-369000</v>
       </c>
       <c r="J81" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-55400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>122800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-249800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-49900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>388900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>607500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>570100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>718200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1022900</v>
+        <v>958200</v>
       </c>
       <c r="E83" s="3">
-        <v>845800</v>
+        <v>989200</v>
       </c>
       <c r="F83" s="3">
-        <v>903100</v>
+        <v>817900</v>
       </c>
       <c r="G83" s="3">
-        <v>917500</v>
+        <v>873300</v>
       </c>
       <c r="H83" s="3">
-        <v>886000</v>
+        <v>887300</v>
       </c>
       <c r="I83" s="3">
-        <v>820800</v>
+        <v>856800</v>
       </c>
       <c r="J83" s="3">
+        <v>793700</v>
+      </c>
+      <c r="K83" s="3">
         <v>738200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>718200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>713100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>763600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>764500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>779200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>734000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>685600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>644300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>648000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>400500</v>
+        <v>967300</v>
       </c>
       <c r="E89" s="3">
-        <v>512300</v>
+        <v>387300</v>
       </c>
       <c r="F89" s="3">
-        <v>168100</v>
+        <v>495400</v>
       </c>
       <c r="G89" s="3">
-        <v>1331400</v>
+        <v>162500</v>
       </c>
       <c r="H89" s="3">
-        <v>-42400</v>
+        <v>1287500</v>
       </c>
       <c r="I89" s="3">
-        <v>1334100</v>
+        <v>-41000</v>
       </c>
       <c r="J89" s="3">
+        <v>1290100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-160200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>648900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1193300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1206300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>673900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1444800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1696700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1718000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1117800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1214000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-307600</v>
+        <v>-383800</v>
       </c>
       <c r="E91" s="3">
-        <v>-729300</v>
+        <v>-297500</v>
       </c>
       <c r="F91" s="3">
-        <v>-935500</v>
+        <v>-705200</v>
       </c>
       <c r="G91" s="3">
-        <v>-912400</v>
+        <v>-904600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1465500</v>
+        <v>-882300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2008300</v>
+        <v>-1417200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1942100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-336800</v>
+        <v>-224200</v>
       </c>
       <c r="E94" s="3">
-        <v>-803700</v>
+        <v>-325700</v>
       </c>
       <c r="F94" s="3">
-        <v>-738200</v>
+        <v>-777200</v>
       </c>
       <c r="G94" s="3">
-        <v>-957200</v>
+        <v>-713900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1344200</v>
+        <v>-925700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1901300</v>
+        <v>-1299900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1838600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-690000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5136,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,172 +5546,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-298000</v>
+        <v>158000</v>
       </c>
       <c r="E100" s="3">
-        <v>294700</v>
+        <v>-288200</v>
       </c>
       <c r="F100" s="3">
-        <v>687900</v>
+        <v>285000</v>
       </c>
       <c r="G100" s="3">
-        <v>192700</v>
+        <v>665300</v>
       </c>
       <c r="H100" s="3">
-        <v>1677400</v>
+        <v>186300</v>
       </c>
       <c r="I100" s="3">
-        <v>583800</v>
+        <v>1622100</v>
       </c>
       <c r="J100" s="3">
+        <v>564500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2085200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>703200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>373100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>452700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>937500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>329400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>290500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>89200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>50900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-190200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>23500</v>
+        <v>-83600</v>
       </c>
       <c r="E101" s="3">
-        <v>-37400</v>
+        <v>22800</v>
       </c>
       <c r="F101" s="3">
-        <v>84600</v>
+        <v>-36200</v>
       </c>
       <c r="G101" s="3">
-        <v>-42400</v>
+        <v>81800</v>
       </c>
       <c r="H101" s="3">
-        <v>15200</v>
+        <v>-41000</v>
       </c>
       <c r="I101" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>55400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-55600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>51600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-78400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>33000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-71800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-210800</v>
+        <v>817500</v>
       </c>
       <c r="E102" s="3">
-        <v>-34200</v>
+        <v>-203900</v>
       </c>
       <c r="F102" s="3">
-        <v>202400</v>
+        <v>-33100</v>
       </c>
       <c r="G102" s="3">
-        <v>524400</v>
+        <v>195700</v>
       </c>
       <c r="H102" s="3">
-        <v>306000</v>
+        <v>507200</v>
       </c>
       <c r="I102" s="3">
-        <v>17500</v>
+        <v>295900</v>
       </c>
       <c r="J102" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K102" s="3">
         <v>35600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-332000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-73900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>188800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>553100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>382400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>171400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-192600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>434500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,269 +662,282 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6565900</v>
+        <v>6125700</v>
       </c>
       <c r="E8" s="3">
-        <v>5929100</v>
+        <v>6640500</v>
       </c>
       <c r="F8" s="3">
-        <v>4670200</v>
+        <v>5996500</v>
       </c>
       <c r="G8" s="3">
-        <v>4157300</v>
+        <v>4723200</v>
       </c>
       <c r="H8" s="3">
-        <v>5651100</v>
+        <v>4204600</v>
       </c>
       <c r="I8" s="3">
-        <v>5123100</v>
+        <v>5715300</v>
       </c>
       <c r="J8" s="3">
+        <v>5181300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4711000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5349700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5836100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4942900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4713400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4767100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6270900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6136300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5833400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6355900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7142400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5341900</v>
+        <v>5029700</v>
       </c>
       <c r="E9" s="3">
-        <v>5185200</v>
+        <v>5402600</v>
       </c>
       <c r="F9" s="3">
-        <v>4557400</v>
+        <v>5244100</v>
       </c>
       <c r="G9" s="3">
-        <v>3912600</v>
+        <v>4609200</v>
       </c>
       <c r="H9" s="3">
-        <v>5253100</v>
+        <v>3957000</v>
       </c>
       <c r="I9" s="3">
-        <v>4857700</v>
+        <v>5312800</v>
       </c>
       <c r="J9" s="3">
+        <v>4912900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4287100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4773900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4838500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4223000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4321400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4311800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5499300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5031500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4501200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4808600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5726100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1224000</v>
+        <v>1096000</v>
       </c>
       <c r="E10" s="3">
-        <v>743900</v>
+        <v>1237900</v>
       </c>
       <c r="F10" s="3">
-        <v>112800</v>
+        <v>752400</v>
       </c>
       <c r="G10" s="3">
-        <v>244800</v>
+        <v>114100</v>
       </c>
       <c r="H10" s="3">
-        <v>398000</v>
+        <v>247600</v>
       </c>
       <c r="I10" s="3">
-        <v>265400</v>
+        <v>402500</v>
       </c>
       <c r="J10" s="3">
+        <v>268400</v>
+      </c>
+      <c r="K10" s="3">
         <v>423900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>575800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>997700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>719900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>392100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>455400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>771700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1104800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1332200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1547400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1416200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,67 +959,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>238300</v>
+        <v>245400</v>
       </c>
       <c r="E12" s="3">
-        <v>240700</v>
+        <v>241000</v>
       </c>
       <c r="F12" s="3">
-        <v>253000</v>
+        <v>243500</v>
       </c>
       <c r="G12" s="3">
-        <v>234900</v>
+        <v>255900</v>
       </c>
       <c r="H12" s="3">
-        <v>217200</v>
+        <v>237600</v>
       </c>
       <c r="I12" s="3">
-        <v>191600</v>
+        <v>219700</v>
       </c>
       <c r="J12" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K12" s="3">
         <v>373400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>303100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>262900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>265800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>247700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>239500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>291700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>251700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>274200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>255800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>276900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,126 +1081,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>34800</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3">
-        <v>33800</v>
+        <v>35200</v>
       </c>
       <c r="F14" s="3">
-        <v>90400</v>
+        <v>34200</v>
       </c>
       <c r="G14" s="3">
-        <v>8500</v>
+        <v>91400</v>
       </c>
       <c r="H14" s="3">
-        <v>1447900</v>
+        <v>8600</v>
       </c>
       <c r="I14" s="3">
-        <v>125700</v>
+        <v>1464400</v>
       </c>
       <c r="J14" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-7500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>48800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>49600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>50300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K15" s="3">
         <v>48000</v>
       </c>
-      <c r="E15" s="3">
-        <v>44400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>48200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>49000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>49700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>53300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>37200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>30800</v>
       </c>
       <c r="Q15" s="3">
         <v>30800</v>
       </c>
       <c r="R15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="S15" s="3">
         <v>29900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>27900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5997400</v>
+        <v>5667000</v>
       </c>
       <c r="E17" s="3">
-        <v>5818300</v>
+        <v>6065600</v>
       </c>
       <c r="F17" s="3">
-        <v>5215500</v>
+        <v>5884400</v>
       </c>
       <c r="G17" s="3">
-        <v>4484400</v>
+        <v>5274800</v>
       </c>
       <c r="H17" s="3">
-        <v>7470300</v>
+        <v>4535300</v>
       </c>
       <c r="I17" s="3">
-        <v>5633100</v>
+        <v>7555200</v>
       </c>
       <c r="J17" s="3">
+        <v>5697100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5040400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5475600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5640400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4830600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4933200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4849700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6228300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5621800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5147100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5454500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6321000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>568400</v>
+        <v>458600</v>
       </c>
       <c r="E18" s="3">
-        <v>110800</v>
+        <v>574900</v>
       </c>
       <c r="F18" s="3">
-        <v>-545300</v>
+        <v>112100</v>
       </c>
       <c r="G18" s="3">
-        <v>-327000</v>
+        <v>-551500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1819200</v>
+        <v>-330700</v>
       </c>
       <c r="I18" s="3">
-        <v>-510000</v>
+        <v>-1839900</v>
       </c>
       <c r="J18" s="3">
+        <v>-515800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-329400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-125900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>195800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-219800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-82600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>514500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>686300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>901500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>821400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-97400</v>
+        <v>-68800</v>
       </c>
       <c r="E20" s="3">
-        <v>-60100</v>
+        <v>-98500</v>
       </c>
       <c r="F20" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>133200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>25800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="P20" s="3">
         <v>21200</v>
       </c>
-      <c r="G20" s="3">
-        <v>131700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>32300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>25800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>16100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-47700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>21200</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>64600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-106000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>159200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1429300</v>
+        <v>1366100</v>
       </c>
       <c r="E21" s="3">
-        <v>1039900</v>
+        <v>1445500</v>
       </c>
       <c r="F21" s="3">
-        <v>293900</v>
+        <v>1051700</v>
       </c>
       <c r="G21" s="3">
-        <v>678000</v>
+        <v>297200</v>
       </c>
       <c r="H21" s="3">
-        <v>-968800</v>
+        <v>685700</v>
       </c>
       <c r="I21" s="3">
-        <v>379100</v>
+        <v>-979800</v>
       </c>
       <c r="J21" s="3">
+        <v>383400</v>
+      </c>
+      <c r="K21" s="3">
         <v>433300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>638200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>930000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>817200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>496100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>703100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>835400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1281400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1436600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1439800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1628600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>98800</v>
+        <v>102100</v>
       </c>
       <c r="E22" s="3">
-        <v>98500</v>
+        <v>99900</v>
       </c>
       <c r="F22" s="3">
-        <v>64600</v>
+        <v>99600</v>
       </c>
       <c r="G22" s="3">
-        <v>64200</v>
+        <v>65300</v>
       </c>
       <c r="H22" s="3">
-        <v>56100</v>
+        <v>64900</v>
       </c>
       <c r="I22" s="3">
-        <v>50500</v>
+        <v>56800</v>
       </c>
       <c r="J22" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K22" s="3">
         <v>28900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>22600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>372300</v>
+        <v>287700</v>
       </c>
       <c r="E23" s="3">
-        <v>-47800</v>
+        <v>376500</v>
       </c>
       <c r="F23" s="3">
-        <v>-588700</v>
+        <v>-48400</v>
       </c>
       <c r="G23" s="3">
-        <v>-259500</v>
+        <v>-595400</v>
       </c>
       <c r="H23" s="3">
-        <v>-1912200</v>
+        <v>-262400</v>
       </c>
       <c r="I23" s="3">
-        <v>-528200</v>
+        <v>-1933900</v>
       </c>
       <c r="J23" s="3">
+        <v>-534200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-389300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-117100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>196700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-285600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-80500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>526900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>732000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>772300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>958100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-174200</v>
+        <v>51200</v>
       </c>
       <c r="E24" s="3">
-        <v>-57600</v>
+        <v>-176100</v>
       </c>
       <c r="F24" s="3">
-        <v>-145300</v>
+        <v>-58300</v>
       </c>
       <c r="G24" s="3">
-        <v>-84500</v>
+        <v>-147000</v>
       </c>
       <c r="H24" s="3">
-        <v>-313200</v>
+        <v>-85400</v>
       </c>
       <c r="I24" s="3">
-        <v>-139000</v>
+        <v>-316800</v>
       </c>
       <c r="J24" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="K24" s="3">
         <v>94800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-60100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-33200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>106900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>83700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>160800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>215800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>546500</v>
+        <v>236600</v>
       </c>
       <c r="E26" s="3">
-        <v>9800</v>
+        <v>552700</v>
       </c>
       <c r="F26" s="3">
-        <v>-443400</v>
+        <v>9900</v>
       </c>
       <c r="G26" s="3">
-        <v>-175000</v>
+        <v>-448400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1599000</v>
+        <v>-177000</v>
       </c>
       <c r="I26" s="3">
-        <v>-389100</v>
+        <v>-1617200</v>
       </c>
       <c r="J26" s="3">
+        <v>-393600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-484200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-57000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>128200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-252500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-41100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>420000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>648300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>611500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>742200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>500200</v>
+        <v>202900</v>
       </c>
       <c r="E27" s="3">
-        <v>26700</v>
+        <v>505900</v>
       </c>
       <c r="F27" s="3">
-        <v>-430400</v>
+        <v>27000</v>
       </c>
       <c r="G27" s="3">
-        <v>-175100</v>
+        <v>-435300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1584900</v>
+        <v>-177100</v>
       </c>
       <c r="I27" s="3">
-        <v>-369000</v>
+        <v>-1602900</v>
       </c>
       <c r="J27" s="3">
+        <v>-373200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-482600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-55400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-249800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-49900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>388900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>607500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>570100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>718200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1994,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>97400</v>
+        <v>68800</v>
       </c>
       <c r="E32" s="3">
-        <v>60100</v>
+        <v>98500</v>
       </c>
       <c r="F32" s="3">
+        <v>60800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>31000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>47700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-21200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-131700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>36900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>31000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>8200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>47700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-64600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>106000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-159200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>500200</v>
+        <v>202900</v>
       </c>
       <c r="E33" s="3">
-        <v>26700</v>
+        <v>505900</v>
       </c>
       <c r="F33" s="3">
-        <v>-430400</v>
+        <v>27000</v>
       </c>
       <c r="G33" s="3">
-        <v>-175100</v>
+        <v>-435300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1584900</v>
+        <v>-177100</v>
       </c>
       <c r="I33" s="3">
-        <v>-369000</v>
+        <v>-1602900</v>
       </c>
       <c r="J33" s="3">
+        <v>-373200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-482600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-55400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-249800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-49900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>388900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>607500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>570100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>718200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>500200</v>
+        <v>202900</v>
       </c>
       <c r="E35" s="3">
-        <v>26700</v>
+        <v>505900</v>
       </c>
       <c r="F35" s="3">
-        <v>-430400</v>
+        <v>27000</v>
       </c>
       <c r="G35" s="3">
-        <v>-175100</v>
+        <v>-435300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1584900</v>
+        <v>-177100</v>
       </c>
       <c r="I35" s="3">
-        <v>-369000</v>
+        <v>-1602900</v>
       </c>
       <c r="J35" s="3">
+        <v>-373200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-482600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-55400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-249800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-49900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>388900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>607500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>570100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>718200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,539 +2483,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3711900</v>
+        <v>3474600</v>
       </c>
       <c r="E41" s="3">
-        <v>2894400</v>
+        <v>3754100</v>
       </c>
       <c r="F41" s="3">
-        <v>3098300</v>
+        <v>2927300</v>
       </c>
       <c r="G41" s="3">
-        <v>3131400</v>
+        <v>3133500</v>
       </c>
       <c r="H41" s="3">
-        <v>2935700</v>
+        <v>3167000</v>
       </c>
       <c r="I41" s="3">
-        <v>2428500</v>
+        <v>2969000</v>
       </c>
       <c r="J41" s="3">
+        <v>2456100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2132600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2187800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1986600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2235800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2395200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2206400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2290300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1737200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1354700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1210300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1402800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1600</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1300</v>
       </c>
       <c r="F42" s="3">
         <v>1300</v>
       </c>
       <c r="G42" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H42" s="3">
         <v>1300</v>
       </c>
       <c r="I42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>228500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>669700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>603000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1105000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>870900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>797300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>982200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3252900</v>
+        <v>3967600</v>
       </c>
       <c r="E43" s="3">
-        <v>3488100</v>
+        <v>3289800</v>
       </c>
       <c r="F43" s="3">
-        <v>2622800</v>
+        <v>3527700</v>
       </c>
       <c r="G43" s="3">
-        <v>2625700</v>
+        <v>2652600</v>
       </c>
       <c r="H43" s="3">
-        <v>3216800</v>
+        <v>2655500</v>
       </c>
       <c r="I43" s="3">
-        <v>3602000</v>
+        <v>3253300</v>
       </c>
       <c r="J43" s="3">
+        <v>3642900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2552200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3213100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2532300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2751000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3073400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3055600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3965900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4359300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4020800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4095800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4598400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1910200</v>
+        <v>2093000</v>
       </c>
       <c r="E44" s="3">
-        <v>2111800</v>
+        <v>1931900</v>
       </c>
       <c r="F44" s="3">
-        <v>1794700</v>
+        <v>2135800</v>
       </c>
       <c r="G44" s="3">
-        <v>2032900</v>
+        <v>1815100</v>
       </c>
       <c r="H44" s="3">
-        <v>1805000</v>
+        <v>2056000</v>
       </c>
       <c r="I44" s="3">
-        <v>2399900</v>
+        <v>1825500</v>
       </c>
       <c r="J44" s="3">
+        <v>2427200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2260900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2393200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2260600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2095800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2041500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1974300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2068100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2344300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2062200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2054900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2059000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>891000</v>
+        <v>1288200</v>
       </c>
       <c r="E45" s="3">
-        <v>1114700</v>
+        <v>901100</v>
       </c>
       <c r="F45" s="3">
-        <v>1130100</v>
+        <v>1127400</v>
       </c>
       <c r="G45" s="3">
-        <v>1148500</v>
+        <v>1143000</v>
       </c>
       <c r="H45" s="3">
-        <v>1059700</v>
+        <v>1161500</v>
       </c>
       <c r="I45" s="3">
-        <v>1054900</v>
+        <v>1071700</v>
       </c>
       <c r="J45" s="3">
+        <v>1066900</v>
+      </c>
+      <c r="K45" s="3">
         <v>963600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>859300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>608900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>402500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>423500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>408800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>289600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>428200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>485800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>524200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>393400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>9767500</v>
+        <v>10825200</v>
       </c>
       <c r="E46" s="3">
-        <v>9610200</v>
+        <v>9878500</v>
       </c>
       <c r="F46" s="3">
-        <v>8647100</v>
+        <v>9719400</v>
       </c>
       <c r="G46" s="3">
-        <v>8939600</v>
+        <v>8745400</v>
       </c>
       <c r="H46" s="3">
-        <v>9018500</v>
+        <v>9041200</v>
       </c>
       <c r="I46" s="3">
-        <v>9486100</v>
+        <v>9121000</v>
       </c>
       <c r="J46" s="3">
+        <v>9593900</v>
+      </c>
+      <c r="K46" s="3">
         <v>7910500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8657400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7392100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7488700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8162200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8314800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9216900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9974000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8794500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8682400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9435800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>339300</v>
+        <v>312200</v>
       </c>
       <c r="E47" s="3">
-        <v>220700</v>
+        <v>343100</v>
       </c>
       <c r="F47" s="3">
-        <v>252600</v>
+        <v>223200</v>
       </c>
       <c r="G47" s="3">
-        <v>306900</v>
+        <v>255500</v>
       </c>
       <c r="H47" s="3">
-        <v>295700</v>
+        <v>310400</v>
       </c>
       <c r="I47" s="3">
-        <v>229700</v>
+        <v>299000</v>
       </c>
       <c r="J47" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K47" s="3">
         <v>188600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>190100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>164300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>158600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>154000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>137700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>149900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>127800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>149500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>197500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>17729400</v>
+        <v>17981300</v>
       </c>
       <c r="E48" s="3">
-        <v>18594300</v>
+        <v>17930900</v>
       </c>
       <c r="F48" s="3">
-        <v>19118200</v>
+        <v>18805600</v>
       </c>
       <c r="G48" s="3">
-        <v>19631600</v>
+        <v>19335400</v>
       </c>
       <c r="H48" s="3">
-        <v>19437100</v>
+        <v>19854700</v>
       </c>
       <c r="I48" s="3">
-        <v>20882900</v>
+        <v>19658000</v>
       </c>
       <c r="J48" s="3">
+        <v>21120200</v>
+      </c>
+      <c r="K48" s="3">
         <v>21068600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21027600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18144100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16307900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15987500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14721100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14257700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13203600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12466000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11656300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10828300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>897700</v>
+        <v>1120500</v>
       </c>
       <c r="E49" s="3">
-        <v>698800</v>
+        <v>907900</v>
       </c>
       <c r="F49" s="3">
-        <v>745700</v>
+        <v>706800</v>
       </c>
       <c r="G49" s="3">
-        <v>774100</v>
+        <v>754200</v>
       </c>
       <c r="H49" s="3">
-        <v>768600</v>
+        <v>782900</v>
       </c>
       <c r="I49" s="3">
-        <v>854900</v>
+        <v>777400</v>
       </c>
       <c r="J49" s="3">
+        <v>864600</v>
+      </c>
+      <c r="K49" s="3">
         <v>819600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>897600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>829600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>803500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>795000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>766200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>803300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>782000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>744500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>764600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>805400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2129100</v>
+        <v>2154700</v>
       </c>
       <c r="E52" s="3">
-        <v>2113700</v>
+        <v>2153300</v>
       </c>
       <c r="F52" s="3">
-        <v>2084100</v>
+        <v>2137800</v>
       </c>
       <c r="G52" s="3">
-        <v>1927000</v>
+        <v>2107800</v>
       </c>
       <c r="H52" s="3">
-        <v>1785700</v>
+        <v>1948900</v>
       </c>
       <c r="I52" s="3">
-        <v>1496300</v>
+        <v>1806000</v>
       </c>
       <c r="J52" s="3">
+        <v>1513300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1341400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1430400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1337500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1258100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1314600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1256200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1232800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1239600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1188500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1071800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1128900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>30862900</v>
+        <v>32393800</v>
       </c>
       <c r="E54" s="3">
-        <v>31237700</v>
+        <v>31213700</v>
       </c>
       <c r="F54" s="3">
-        <v>30847700</v>
+        <v>31592700</v>
       </c>
       <c r="G54" s="3">
-        <v>31579300</v>
+        <v>31198300</v>
       </c>
       <c r="H54" s="3">
-        <v>31305600</v>
+        <v>31938200</v>
       </c>
       <c r="I54" s="3">
-        <v>32949900</v>
+        <v>31661400</v>
       </c>
       <c r="J54" s="3">
+        <v>33324300</v>
+      </c>
+      <c r="K54" s="3">
         <v>31328700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32203100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27867600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26016900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26413100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25196000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25660500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25336700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23321100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22324700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22395900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3269,362 +3399,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3325800</v>
+        <v>3537700</v>
       </c>
       <c r="E57" s="3">
-        <v>3552700</v>
+        <v>3363600</v>
       </c>
       <c r="F57" s="3">
-        <v>3050300</v>
+        <v>3593100</v>
       </c>
       <c r="G57" s="3">
-        <v>2527500</v>
+        <v>3084900</v>
       </c>
       <c r="H57" s="3">
-        <v>2304100</v>
+        <v>2556300</v>
       </c>
       <c r="I57" s="3">
-        <v>2352500</v>
+        <v>2330300</v>
       </c>
       <c r="J57" s="3">
+        <v>2379300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2477500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2702900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2593500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2573100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2494500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2354400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2530100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2607300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2150400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2193700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2589600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2759800</v>
+        <v>3303200</v>
       </c>
       <c r="E58" s="3">
-        <v>2265800</v>
+        <v>2791200</v>
       </c>
       <c r="F58" s="3">
-        <v>2758200</v>
+        <v>2291500</v>
       </c>
       <c r="G58" s="3">
-        <v>2543100</v>
+        <v>2789600</v>
       </c>
       <c r="H58" s="3">
-        <v>1739800</v>
+        <v>2572000</v>
       </c>
       <c r="I58" s="3">
-        <v>1689200</v>
+        <v>1759600</v>
       </c>
       <c r="J58" s="3">
+        <v>1708400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1625800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1454900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1305300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1659500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1833200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1804300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1278600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1072600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>734100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>690200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>601100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3600500</v>
+        <v>3837400</v>
       </c>
       <c r="E59" s="3">
-        <v>4039600</v>
+        <v>3641400</v>
       </c>
       <c r="F59" s="3">
-        <v>4012600</v>
+        <v>4085500</v>
       </c>
       <c r="G59" s="3">
-        <v>4797200</v>
+        <v>4058200</v>
       </c>
       <c r="H59" s="3">
-        <v>5622900</v>
+        <v>4851700</v>
       </c>
       <c r="I59" s="3">
-        <v>5322200</v>
+        <v>5686800</v>
       </c>
       <c r="J59" s="3">
+        <v>5382700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4890500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4697300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4463000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3983800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3878000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3862100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4092600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3429700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3088300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3298400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3161700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>9686100</v>
+        <v>10678300</v>
       </c>
       <c r="E60" s="3">
-        <v>9858100</v>
+        <v>9796200</v>
       </c>
       <c r="F60" s="3">
-        <v>9821100</v>
+        <v>9970100</v>
       </c>
       <c r="G60" s="3">
-        <v>9867800</v>
+        <v>9932700</v>
       </c>
       <c r="H60" s="3">
-        <v>9666800</v>
+        <v>9980000</v>
       </c>
       <c r="I60" s="3">
-        <v>9363900</v>
+        <v>9776600</v>
       </c>
       <c r="J60" s="3">
+        <v>9470400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8993900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8855100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8361800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8216400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8205600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8020800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7901200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7109600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5972800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6182300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6352400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9694200</v>
+        <v>9510700</v>
       </c>
       <c r="E61" s="3">
-        <v>10467500</v>
+        <v>9804300</v>
       </c>
       <c r="F61" s="3">
-        <v>10206100</v>
+        <v>10586500</v>
       </c>
       <c r="G61" s="3">
-        <v>10346600</v>
+        <v>10322100</v>
       </c>
       <c r="H61" s="3">
-        <v>10201200</v>
+        <v>10464200</v>
       </c>
       <c r="I61" s="3">
-        <v>10216400</v>
+        <v>10317200</v>
       </c>
       <c r="J61" s="3">
+        <v>10332500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8500600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8383100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5884100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4588400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4522600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3850300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3652200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3665600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3685800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3525400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3699800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>274200</v>
+        <v>422000</v>
       </c>
       <c r="E62" s="3">
-        <v>198700</v>
+        <v>277300</v>
       </c>
       <c r="F62" s="3">
-        <v>171900</v>
+        <v>200900</v>
       </c>
       <c r="G62" s="3">
-        <v>309400</v>
+        <v>173800</v>
       </c>
       <c r="H62" s="3">
-        <v>447900</v>
+        <v>312900</v>
       </c>
       <c r="I62" s="3">
-        <v>762800</v>
+        <v>453000</v>
       </c>
       <c r="J62" s="3">
+        <v>771400</v>
+      </c>
+      <c r="K62" s="3">
         <v>873000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1051400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1117300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1311500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1477300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>871400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>923400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1213500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>823900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>278900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>227600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20830000</v>
+        <v>21872300</v>
       </c>
       <c r="E66" s="3">
-        <v>21618600</v>
+        <v>21066700</v>
       </c>
       <c r="F66" s="3">
-        <v>21295900</v>
+        <v>21864200</v>
       </c>
       <c r="G66" s="3">
-        <v>21574700</v>
+        <v>21537900</v>
       </c>
       <c r="H66" s="3">
-        <v>21326000</v>
+        <v>21819900</v>
       </c>
       <c r="I66" s="3">
-        <v>21384400</v>
+        <v>21568300</v>
       </c>
       <c r="J66" s="3">
+        <v>21627400</v>
+      </c>
+      <c r="K66" s="3">
         <v>19428300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19398500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16125100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14841500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14696300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13236700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13011900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12546500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10999900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10453700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10735500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6621400</v>
+        <v>6896400</v>
       </c>
       <c r="E72" s="3">
-        <v>6020900</v>
+        <v>6696600</v>
       </c>
       <c r="F72" s="3">
-        <v>5994900</v>
+        <v>6089400</v>
       </c>
       <c r="G72" s="3">
-        <v>6426200</v>
+        <v>6063000</v>
       </c>
       <c r="H72" s="3">
-        <v>6602900</v>
+        <v>6499200</v>
       </c>
       <c r="I72" s="3">
-        <v>8097300</v>
+        <v>6677900</v>
       </c>
       <c r="J72" s="3">
+        <v>8189400</v>
+      </c>
+      <c r="K72" s="3">
         <v>8467600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9261100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8601600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8163200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8465600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8718500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9347000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9312600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8926100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8509500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8103900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10032900</v>
+        <v>10521600</v>
       </c>
       <c r="E76" s="3">
-        <v>9619100</v>
+        <v>10146900</v>
       </c>
       <c r="F76" s="3">
-        <v>9551800</v>
+        <v>9728500</v>
       </c>
       <c r="G76" s="3">
-        <v>10004600</v>
+        <v>9660400</v>
       </c>
       <c r="H76" s="3">
-        <v>9979600</v>
+        <v>10118200</v>
       </c>
       <c r="I76" s="3">
-        <v>11565500</v>
+        <v>10093000</v>
       </c>
       <c r="J76" s="3">
+        <v>11696900</v>
+      </c>
+      <c r="K76" s="3">
         <v>11900400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12804600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11742500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11175400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11716800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11959300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12648700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12790200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12321300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11871000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11660400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>500200</v>
+        <v>202900</v>
       </c>
       <c r="E81" s="3">
-        <v>26700</v>
+        <v>505900</v>
       </c>
       <c r="F81" s="3">
-        <v>-430400</v>
+        <v>27000</v>
       </c>
       <c r="G81" s="3">
-        <v>-175100</v>
+        <v>-435300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1584900</v>
+        <v>-177100</v>
       </c>
       <c r="I81" s="3">
-        <v>-369000</v>
+        <v>-1602900</v>
       </c>
       <c r="J81" s="3">
+        <v>-373200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-482600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-55400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-249800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-49900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>388900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>607500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>570100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>718200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4618,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>958200</v>
+        <v>976300</v>
       </c>
       <c r="E83" s="3">
-        <v>989200</v>
+        <v>969100</v>
       </c>
       <c r="F83" s="3">
-        <v>817900</v>
+        <v>1000400</v>
       </c>
       <c r="G83" s="3">
-        <v>873300</v>
+        <v>827200</v>
       </c>
       <c r="H83" s="3">
-        <v>887300</v>
+        <v>883300</v>
       </c>
       <c r="I83" s="3">
-        <v>856800</v>
+        <v>897400</v>
       </c>
       <c r="J83" s="3">
+        <v>866500</v>
+      </c>
+      <c r="K83" s="3">
         <v>793700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>738200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>718200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>713100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>763600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>764500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>779200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>734000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>685600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>644300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>648000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>967300</v>
+        <v>856400</v>
       </c>
       <c r="E89" s="3">
-        <v>387300</v>
+        <v>978300</v>
       </c>
       <c r="F89" s="3">
-        <v>495400</v>
+        <v>391700</v>
       </c>
       <c r="G89" s="3">
-        <v>162500</v>
+        <v>501000</v>
       </c>
       <c r="H89" s="3">
-        <v>1287500</v>
+        <v>164400</v>
       </c>
       <c r="I89" s="3">
-        <v>-41000</v>
+        <v>1302100</v>
       </c>
       <c r="J89" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1290100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-160200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>648900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1193300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1206300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>673900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1444800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1696700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1718000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1117800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1214000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5054,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-383800</v>
+        <v>-507600</v>
       </c>
       <c r="E91" s="3">
-        <v>-297500</v>
+        <v>-388100</v>
       </c>
       <c r="F91" s="3">
-        <v>-705200</v>
+        <v>-300900</v>
       </c>
       <c r="G91" s="3">
-        <v>-904600</v>
+        <v>-713300</v>
       </c>
       <c r="H91" s="3">
-        <v>-882300</v>
+        <v>-914900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1417200</v>
+        <v>-892400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1433300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-224200</v>
+        <v>-1018900</v>
       </c>
       <c r="E94" s="3">
-        <v>-325700</v>
+        <v>-226800</v>
       </c>
       <c r="F94" s="3">
-        <v>-777200</v>
+        <v>-329400</v>
       </c>
       <c r="G94" s="3">
-        <v>-713900</v>
+        <v>-786000</v>
       </c>
       <c r="H94" s="3">
-        <v>-925700</v>
+        <v>-722000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1299900</v>
+        <v>-936200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1314600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-690000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5313,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5372,8 +5606,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5549,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>158000</v>
+        <v>-204600</v>
       </c>
       <c r="E100" s="3">
-        <v>-288200</v>
+        <v>159800</v>
       </c>
       <c r="F100" s="3">
-        <v>285000</v>
+        <v>-291500</v>
       </c>
       <c r="G100" s="3">
-        <v>665300</v>
+        <v>288200</v>
       </c>
       <c r="H100" s="3">
-        <v>186300</v>
+        <v>672800</v>
       </c>
       <c r="I100" s="3">
-        <v>1622100</v>
+        <v>188400</v>
       </c>
       <c r="J100" s="3">
+        <v>1640500</v>
+      </c>
+      <c r="K100" s="3">
         <v>564500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2085200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>703200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>373100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>452700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>937500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>329400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>290500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>89200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>50900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-190200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-83600</v>
+        <v>87600</v>
       </c>
       <c r="E101" s="3">
-        <v>22800</v>
+        <v>-84600</v>
       </c>
       <c r="F101" s="3">
-        <v>-36200</v>
+        <v>23000</v>
       </c>
       <c r="G101" s="3">
-        <v>81800</v>
+        <v>-36600</v>
       </c>
       <c r="H101" s="3">
-        <v>-41000</v>
+        <v>82700</v>
       </c>
       <c r="I101" s="3">
-        <v>14700</v>
+        <v>-41500</v>
       </c>
       <c r="J101" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>55400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-55600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>51600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>33000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-71800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>817500</v>
+        <v>-279500</v>
       </c>
       <c r="E102" s="3">
-        <v>-203900</v>
+        <v>826800</v>
       </c>
       <c r="F102" s="3">
-        <v>-33100</v>
+        <v>-206200</v>
       </c>
       <c r="G102" s="3">
-        <v>195700</v>
+        <v>-33400</v>
       </c>
       <c r="H102" s="3">
-        <v>507200</v>
+        <v>197900</v>
       </c>
       <c r="I102" s="3">
-        <v>295900</v>
+        <v>512900</v>
       </c>
       <c r="J102" s="3">
+        <v>299300</v>
+      </c>
+      <c r="K102" s="3">
         <v>16900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-332000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-73900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>188800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>553100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>382400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>171400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-192600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>434500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,295 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6125700</v>
+        <v>5920700</v>
       </c>
       <c r="E8" s="3">
-        <v>6640500</v>
+        <v>5850300</v>
       </c>
       <c r="F8" s="3">
-        <v>5996500</v>
+        <v>6342000</v>
       </c>
       <c r="G8" s="3">
-        <v>4723200</v>
+        <v>5727000</v>
       </c>
       <c r="H8" s="3">
-        <v>4204600</v>
+        <v>4511000</v>
       </c>
       <c r="I8" s="3">
-        <v>5715300</v>
+        <v>4015600</v>
       </c>
       <c r="J8" s="3">
+        <v>5458400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5181300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4711000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5349700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5836100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4942900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4713400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4767100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6270900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6136300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5833400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6355900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7142400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5029700</v>
+        <v>4688200</v>
       </c>
       <c r="E9" s="3">
-        <v>5402600</v>
+        <v>4803600</v>
       </c>
       <c r="F9" s="3">
-        <v>5244100</v>
+        <v>5159800</v>
       </c>
       <c r="G9" s="3">
-        <v>4609200</v>
+        <v>5008500</v>
       </c>
       <c r="H9" s="3">
-        <v>3957000</v>
+        <v>4402000</v>
       </c>
       <c r="I9" s="3">
-        <v>5312800</v>
+        <v>3779200</v>
       </c>
       <c r="J9" s="3">
+        <v>5074000</v>
+      </c>
+      <c r="K9" s="3">
         <v>4912900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4287100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4773900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4838500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4223000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4321400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4311800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5499300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5031500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4501200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4808600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5726100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1096000</v>
+        <v>1232500</v>
       </c>
       <c r="E10" s="3">
-        <v>1237900</v>
+        <v>1046700</v>
       </c>
       <c r="F10" s="3">
-        <v>752400</v>
+        <v>1182300</v>
       </c>
       <c r="G10" s="3">
-        <v>114100</v>
+        <v>718500</v>
       </c>
       <c r="H10" s="3">
-        <v>247600</v>
+        <v>109000</v>
       </c>
       <c r="I10" s="3">
-        <v>402500</v>
+        <v>236400</v>
       </c>
       <c r="J10" s="3">
+        <v>384400</v>
+      </c>
+      <c r="K10" s="3">
         <v>268400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>423900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>575800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>997700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>719900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>392100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>455400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>771700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1104800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1332200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1547400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1416200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,70 +973,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>245400</v>
+        <v>250800</v>
       </c>
       <c r="E12" s="3">
-        <v>241000</v>
+        <v>234400</v>
       </c>
       <c r="F12" s="3">
-        <v>243500</v>
+        <v>230100</v>
       </c>
       <c r="G12" s="3">
-        <v>255900</v>
+        <v>232500</v>
       </c>
       <c r="H12" s="3">
-        <v>237600</v>
+        <v>244400</v>
       </c>
       <c r="I12" s="3">
-        <v>219700</v>
+        <v>226900</v>
       </c>
       <c r="J12" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K12" s="3">
         <v>193800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>373400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>303100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>262900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>265800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>247700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>239500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>291700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>251700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>274200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>255800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>276900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,132 +1101,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E14" s="3">
-        <v>35200</v>
+        <v>6600</v>
       </c>
       <c r="F14" s="3">
-        <v>34200</v>
+        <v>33600</v>
       </c>
       <c r="G14" s="3">
-        <v>91400</v>
+        <v>32700</v>
       </c>
       <c r="H14" s="3">
-        <v>8600</v>
+        <v>87300</v>
       </c>
       <c r="I14" s="3">
-        <v>1464400</v>
+        <v>8300</v>
       </c>
       <c r="J14" s="3">
+        <v>1398600</v>
+      </c>
+      <c r="K14" s="3">
         <v>127100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-3600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-7500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>56100</v>
+        <v>56700</v>
       </c>
       <c r="E15" s="3">
-        <v>48500</v>
+        <v>53600</v>
       </c>
       <c r="F15" s="3">
-        <v>44900</v>
+        <v>46300</v>
       </c>
       <c r="G15" s="3">
-        <v>48800</v>
+        <v>42900</v>
       </c>
       <c r="H15" s="3">
-        <v>49600</v>
+        <v>46600</v>
       </c>
       <c r="I15" s="3">
-        <v>50300</v>
+        <v>47400</v>
       </c>
       <c r="J15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K15" s="3">
         <v>53900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>37200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>30800</v>
       </c>
       <c r="R15" s="3">
         <v>30800</v>
       </c>
       <c r="S15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="T15" s="3">
         <v>29900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>27900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5667000</v>
+        <v>5332100</v>
       </c>
       <c r="E17" s="3">
-        <v>6065600</v>
+        <v>5412300</v>
       </c>
       <c r="F17" s="3">
-        <v>5884400</v>
+        <v>5793000</v>
       </c>
       <c r="G17" s="3">
-        <v>5274800</v>
+        <v>5619900</v>
       </c>
       <c r="H17" s="3">
-        <v>4535300</v>
+        <v>5037700</v>
       </c>
       <c r="I17" s="3">
-        <v>7555200</v>
+        <v>4331500</v>
       </c>
       <c r="J17" s="3">
+        <v>7215600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5697100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5040400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5475600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5640400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4830600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4933200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4849700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6228300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5621800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5147100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5454500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6321000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>458600</v>
+        <v>588700</v>
       </c>
       <c r="E18" s="3">
-        <v>574900</v>
+        <v>438000</v>
       </c>
       <c r="F18" s="3">
-        <v>112100</v>
+        <v>549000</v>
       </c>
       <c r="G18" s="3">
-        <v>-551500</v>
+        <v>107100</v>
       </c>
       <c r="H18" s="3">
-        <v>-330700</v>
+        <v>-526700</v>
       </c>
       <c r="I18" s="3">
-        <v>-1839900</v>
+        <v>-315900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1757200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-515800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-329400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-125900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>195800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-219800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-82600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>514500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>686300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>901500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>821400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,318 +1410,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-68800</v>
+        <v>-29200</v>
       </c>
       <c r="E20" s="3">
-        <v>-98500</v>
+        <v>-65700</v>
       </c>
       <c r="F20" s="3">
-        <v>-60800</v>
+        <v>-94000</v>
       </c>
       <c r="G20" s="3">
-        <v>21500</v>
+        <v>-58100</v>
       </c>
       <c r="H20" s="3">
-        <v>133200</v>
+        <v>20500</v>
       </c>
       <c r="I20" s="3">
-        <v>-37300</v>
+        <v>127200</v>
       </c>
       <c r="J20" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="K20" s="3">
         <v>32700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-31000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-47700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>64600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-106000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>159200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1366100</v>
+        <v>1468400</v>
       </c>
       <c r="E21" s="3">
-        <v>1445500</v>
+        <v>1304700</v>
       </c>
       <c r="F21" s="3">
-        <v>1051700</v>
+        <v>1380500</v>
       </c>
       <c r="G21" s="3">
-        <v>297200</v>
+        <v>1004400</v>
       </c>
       <c r="H21" s="3">
-        <v>685700</v>
+        <v>283800</v>
       </c>
       <c r="I21" s="3">
-        <v>-979800</v>
+        <v>654900</v>
       </c>
       <c r="J21" s="3">
+        <v>-935800</v>
+      </c>
+      <c r="K21" s="3">
         <v>383400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>433300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>638200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>930000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>817200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>496100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>703100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>835400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1281400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1436600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1439800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1628600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>102100</v>
+        <v>92000</v>
       </c>
       <c r="E22" s="3">
-        <v>99900</v>
+        <v>97500</v>
       </c>
       <c r="F22" s="3">
-        <v>99600</v>
+        <v>95400</v>
       </c>
       <c r="G22" s="3">
-        <v>65300</v>
+        <v>95200</v>
       </c>
       <c r="H22" s="3">
-        <v>64900</v>
+        <v>62400</v>
       </c>
       <c r="I22" s="3">
-        <v>56800</v>
+        <v>62000</v>
       </c>
       <c r="J22" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K22" s="3">
         <v>51100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>22600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>287700</v>
+        <v>467500</v>
       </c>
       <c r="E23" s="3">
-        <v>376500</v>
+        <v>274800</v>
       </c>
       <c r="F23" s="3">
-        <v>-48400</v>
+        <v>359600</v>
       </c>
       <c r="G23" s="3">
-        <v>-595400</v>
+        <v>-46200</v>
       </c>
       <c r="H23" s="3">
-        <v>-262400</v>
+        <v>-568600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1933900</v>
+        <v>-250600</v>
       </c>
       <c r="J23" s="3">
+        <v>-1847000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-534200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-389300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-117100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>196700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-285600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-80500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>526900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>732000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>772300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>958100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>51200</v>
+        <v>107300</v>
       </c>
       <c r="E24" s="3">
-        <v>-176100</v>
+        <v>48900</v>
       </c>
       <c r="F24" s="3">
-        <v>-58300</v>
+        <v>-168200</v>
       </c>
       <c r="G24" s="3">
-        <v>-147000</v>
+        <v>-55600</v>
       </c>
       <c r="H24" s="3">
-        <v>-85400</v>
+        <v>-140300</v>
       </c>
       <c r="I24" s="3">
-        <v>-316800</v>
+        <v>-81600</v>
       </c>
       <c r="J24" s="3">
+        <v>-302500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-140600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-60100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-33200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>106900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>83700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>160800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>215800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>236600</v>
+        <v>360300</v>
       </c>
       <c r="E26" s="3">
-        <v>552700</v>
+        <v>225900</v>
       </c>
       <c r="F26" s="3">
-        <v>9900</v>
+        <v>527800</v>
       </c>
       <c r="G26" s="3">
-        <v>-448400</v>
+        <v>9500</v>
       </c>
       <c r="H26" s="3">
-        <v>-177000</v>
+        <v>-428300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1617200</v>
+        <v>-169100</v>
       </c>
       <c r="J26" s="3">
+        <v>-1544500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-393600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-484200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-57000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>128200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-252500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>420000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>648300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>611500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>742200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>202900</v>
+        <v>308600</v>
       </c>
       <c r="E27" s="3">
-        <v>505900</v>
+        <v>193800</v>
       </c>
       <c r="F27" s="3">
-        <v>27000</v>
+        <v>483100</v>
       </c>
       <c r="G27" s="3">
-        <v>-435300</v>
+        <v>25800</v>
       </c>
       <c r="H27" s="3">
-        <v>-177100</v>
+        <v>-415800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1602900</v>
+        <v>-169100</v>
       </c>
       <c r="J27" s="3">
+        <v>-1530900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-373200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-482600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-55400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-249800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>388900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>607500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>570100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>718200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2058,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>68800</v>
+        <v>29200</v>
       </c>
       <c r="E32" s="3">
-        <v>98500</v>
+        <v>65700</v>
       </c>
       <c r="F32" s="3">
-        <v>60800</v>
+        <v>94000</v>
       </c>
       <c r="G32" s="3">
-        <v>-21500</v>
+        <v>58100</v>
       </c>
       <c r="H32" s="3">
-        <v>-133200</v>
+        <v>-20500</v>
       </c>
       <c r="I32" s="3">
-        <v>37300</v>
+        <v>-127200</v>
       </c>
       <c r="J32" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>31000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>47700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-64600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>106000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-159200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>202900</v>
+        <v>308600</v>
       </c>
       <c r="E33" s="3">
-        <v>505900</v>
+        <v>193800</v>
       </c>
       <c r="F33" s="3">
-        <v>27000</v>
+        <v>483100</v>
       </c>
       <c r="G33" s="3">
-        <v>-435300</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
-        <v>-177100</v>
+        <v>-415800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1602900</v>
+        <v>-169100</v>
       </c>
       <c r="J33" s="3">
+        <v>-1530900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-373200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-482600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-55400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-249800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>388900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>607500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>570100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>718200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>202900</v>
+        <v>308600</v>
       </c>
       <c r="E35" s="3">
-        <v>505900</v>
+        <v>193800</v>
       </c>
       <c r="F35" s="3">
-        <v>27000</v>
+        <v>483100</v>
       </c>
       <c r="G35" s="3">
-        <v>-435300</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
-        <v>-177100</v>
+        <v>-415800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1602900</v>
+        <v>-169100</v>
       </c>
       <c r="J35" s="3">
+        <v>-1530900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-373200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-482600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-55400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-249800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>388900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>607500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>570100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>718200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,566 +2570,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3474600</v>
+        <v>3072100</v>
       </c>
       <c r="E41" s="3">
-        <v>3754100</v>
+        <v>3318400</v>
       </c>
       <c r="F41" s="3">
-        <v>2927300</v>
+        <v>3585400</v>
       </c>
       <c r="G41" s="3">
-        <v>3133500</v>
+        <v>2795700</v>
       </c>
       <c r="H41" s="3">
-        <v>3167000</v>
+        <v>2992700</v>
       </c>
       <c r="I41" s="3">
-        <v>2969000</v>
+        <v>3024600</v>
       </c>
       <c r="J41" s="3">
+        <v>2835600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2456100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2132600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2187800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1986600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2235800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2395200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2206400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2290300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1737200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1354700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1210300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1402800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F42" s="3">
         <v>1600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>228500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>669700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>603000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1105000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>870900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>797300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>982200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3967600</v>
+        <v>3669200</v>
       </c>
       <c r="E43" s="3">
-        <v>3289800</v>
+        <v>3789300</v>
       </c>
       <c r="F43" s="3">
-        <v>3527700</v>
+        <v>3142000</v>
       </c>
       <c r="G43" s="3">
-        <v>2652600</v>
+        <v>3369200</v>
       </c>
       <c r="H43" s="3">
-        <v>2655500</v>
+        <v>2533400</v>
       </c>
       <c r="I43" s="3">
-        <v>3253300</v>
+        <v>2536100</v>
       </c>
       <c r="J43" s="3">
+        <v>3107100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3642900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2552200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3213100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2532300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2751000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3073400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3055600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3965900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4359300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4020800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4095800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4598400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2093000</v>
+        <v>2314400</v>
       </c>
       <c r="E44" s="3">
-        <v>1931900</v>
+        <v>1998900</v>
       </c>
       <c r="F44" s="3">
-        <v>2135800</v>
+        <v>1845100</v>
       </c>
       <c r="G44" s="3">
-        <v>1815100</v>
+        <v>2039800</v>
       </c>
       <c r="H44" s="3">
-        <v>2056000</v>
+        <v>1733500</v>
       </c>
       <c r="I44" s="3">
-        <v>1825500</v>
+        <v>1963600</v>
       </c>
       <c r="J44" s="3">
+        <v>1743500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2427200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2260900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2393200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2260600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2095800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2041500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1974300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2068100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2344300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2062200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2054900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2059000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1288200</v>
+        <v>1250100</v>
       </c>
       <c r="E45" s="3">
-        <v>901100</v>
+        <v>1230300</v>
       </c>
       <c r="F45" s="3">
-        <v>1127400</v>
+        <v>860600</v>
       </c>
       <c r="G45" s="3">
-        <v>1143000</v>
+        <v>1076700</v>
       </c>
       <c r="H45" s="3">
-        <v>1161500</v>
+        <v>1091600</v>
       </c>
       <c r="I45" s="3">
-        <v>1071700</v>
+        <v>1109300</v>
       </c>
       <c r="J45" s="3">
+        <v>1023600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1066900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>963600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>859300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>608900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>402500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>423500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>408800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>289600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>428200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>485800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>524200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>393400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10825200</v>
+        <v>10308000</v>
       </c>
       <c r="E46" s="3">
-        <v>9878500</v>
+        <v>10338700</v>
       </c>
       <c r="F46" s="3">
-        <v>9719400</v>
+        <v>9434500</v>
       </c>
       <c r="G46" s="3">
-        <v>8745400</v>
+        <v>9282600</v>
       </c>
       <c r="H46" s="3">
-        <v>9041200</v>
+        <v>8352300</v>
       </c>
       <c r="I46" s="3">
-        <v>9121000</v>
+        <v>8634900</v>
       </c>
       <c r="J46" s="3">
+        <v>8711100</v>
+      </c>
+      <c r="K46" s="3">
         <v>9593900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7910500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8657400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7392100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7488700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8162200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8314800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9216900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9974000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8794500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8682400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9435800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>312200</v>
+        <v>271400</v>
       </c>
       <c r="E47" s="3">
-        <v>343100</v>
+        <v>298200</v>
       </c>
       <c r="F47" s="3">
-        <v>223200</v>
+        <v>327700</v>
       </c>
       <c r="G47" s="3">
-        <v>255500</v>
+        <v>213100</v>
       </c>
       <c r="H47" s="3">
-        <v>310400</v>
+        <v>244000</v>
       </c>
       <c r="I47" s="3">
-        <v>299000</v>
+        <v>296400</v>
       </c>
       <c r="J47" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K47" s="3">
         <v>232300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>188600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>190100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>164300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>158600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>154000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>149900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>127800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>149500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>197500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>17981300</v>
+        <v>17198300</v>
       </c>
       <c r="E48" s="3">
-        <v>17930900</v>
+        <v>17173100</v>
       </c>
       <c r="F48" s="3">
-        <v>18805600</v>
+        <v>17125000</v>
       </c>
       <c r="G48" s="3">
-        <v>19335400</v>
+        <v>17960400</v>
       </c>
       <c r="H48" s="3">
-        <v>19854700</v>
+        <v>18466400</v>
       </c>
       <c r="I48" s="3">
-        <v>19658000</v>
+        <v>18962400</v>
       </c>
       <c r="J48" s="3">
+        <v>18774500</v>
+      </c>
+      <c r="K48" s="3">
         <v>21120200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21068600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21027600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18144100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16307900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15987500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14721100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14257700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13203600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12466000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11656300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10828300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1120500</v>
+        <v>1052200</v>
       </c>
       <c r="E49" s="3">
-        <v>907900</v>
+        <v>1070200</v>
       </c>
       <c r="F49" s="3">
-        <v>706800</v>
+        <v>867100</v>
       </c>
       <c r="G49" s="3">
-        <v>754200</v>
+        <v>675000</v>
       </c>
       <c r="H49" s="3">
-        <v>782900</v>
+        <v>720300</v>
       </c>
       <c r="I49" s="3">
-        <v>777400</v>
+        <v>747700</v>
       </c>
       <c r="J49" s="3">
+        <v>742400</v>
+      </c>
+      <c r="K49" s="3">
         <v>864600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>819600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>897600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>829600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>803500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>795000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>766200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>803300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>782000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>744500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>764600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>805400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2154700</v>
+        <v>2045300</v>
       </c>
       <c r="E52" s="3">
-        <v>2153300</v>
+        <v>2057800</v>
       </c>
       <c r="F52" s="3">
-        <v>2137800</v>
+        <v>2056500</v>
       </c>
       <c r="G52" s="3">
-        <v>2107800</v>
+        <v>2041700</v>
       </c>
       <c r="H52" s="3">
-        <v>1948900</v>
+        <v>2013100</v>
       </c>
       <c r="I52" s="3">
-        <v>1806000</v>
+        <v>1861300</v>
       </c>
       <c r="J52" s="3">
+        <v>1724800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1513300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1341400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1430400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1337500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1258100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1314600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1256200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1232800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1239600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1188500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1071800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1128900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>32393800</v>
+        <v>30875100</v>
       </c>
       <c r="E54" s="3">
-        <v>31213700</v>
+        <v>30937900</v>
       </c>
       <c r="F54" s="3">
-        <v>31592700</v>
+        <v>29810800</v>
       </c>
       <c r="G54" s="3">
-        <v>31198300</v>
+        <v>30172800</v>
       </c>
       <c r="H54" s="3">
-        <v>31938200</v>
+        <v>29796100</v>
       </c>
       <c r="I54" s="3">
-        <v>31661400</v>
+        <v>30502700</v>
       </c>
       <c r="J54" s="3">
+        <v>30238400</v>
+      </c>
+      <c r="K54" s="3">
         <v>33324300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31328700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32203100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27867600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26016900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26413100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25196000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25660500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25336700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23321100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22324700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22395900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,380 +3530,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3537700</v>
+        <v>3176100</v>
       </c>
       <c r="E57" s="3">
-        <v>3363600</v>
+        <v>3378700</v>
       </c>
       <c r="F57" s="3">
-        <v>3593100</v>
+        <v>3212400</v>
       </c>
       <c r="G57" s="3">
-        <v>3084900</v>
+        <v>3431600</v>
       </c>
       <c r="H57" s="3">
-        <v>2556300</v>
+        <v>2946300</v>
       </c>
       <c r="I57" s="3">
-        <v>2330300</v>
+        <v>2441400</v>
       </c>
       <c r="J57" s="3">
+        <v>2225500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2379300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2477500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2702900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2593500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2573100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2494500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2354400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2530100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2607300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2150400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2193700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2589600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3303200</v>
+        <v>3772600</v>
       </c>
       <c r="E58" s="3">
-        <v>2791200</v>
+        <v>3154800</v>
       </c>
       <c r="F58" s="3">
-        <v>2291500</v>
+        <v>2665700</v>
       </c>
       <c r="G58" s="3">
-        <v>2789600</v>
+        <v>2188500</v>
       </c>
       <c r="H58" s="3">
-        <v>2572000</v>
+        <v>2664200</v>
       </c>
       <c r="I58" s="3">
-        <v>1759600</v>
+        <v>2456400</v>
       </c>
       <c r="J58" s="3">
+        <v>1680500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1708400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1625800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1454900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1305300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1659500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1833200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1804300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1278600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1072600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>734100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>690200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>601100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3837400</v>
+        <v>3788000</v>
       </c>
       <c r="E59" s="3">
-        <v>3641400</v>
+        <v>3664900</v>
       </c>
       <c r="F59" s="3">
-        <v>4085500</v>
+        <v>3477800</v>
       </c>
       <c r="G59" s="3">
-        <v>4058200</v>
+        <v>3901900</v>
       </c>
       <c r="H59" s="3">
-        <v>4851700</v>
+        <v>3875800</v>
       </c>
       <c r="I59" s="3">
-        <v>5686800</v>
+        <v>4633700</v>
       </c>
       <c r="J59" s="3">
+        <v>5431200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5382700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4890500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4697300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4463000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3983800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3878000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3862100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4092600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3429700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3088300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3298400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3161700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10678300</v>
+        <v>10736700</v>
       </c>
       <c r="E60" s="3">
-        <v>9796200</v>
+        <v>10198400</v>
       </c>
       <c r="F60" s="3">
-        <v>9970100</v>
+        <v>9355900</v>
       </c>
       <c r="G60" s="3">
-        <v>9932700</v>
+        <v>9522000</v>
       </c>
       <c r="H60" s="3">
-        <v>9980000</v>
+        <v>9486300</v>
       </c>
       <c r="I60" s="3">
-        <v>9776600</v>
+        <v>9531400</v>
       </c>
       <c r="J60" s="3">
+        <v>9337200</v>
+      </c>
+      <c r="K60" s="3">
         <v>9470400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8993900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8855100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8361800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8216400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8205600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8020800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7901200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7109600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5972800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6182300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6352400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9510700</v>
+        <v>8045400</v>
       </c>
       <c r="E61" s="3">
-        <v>9804300</v>
+        <v>9083300</v>
       </c>
       <c r="F61" s="3">
-        <v>10586500</v>
+        <v>9363700</v>
       </c>
       <c r="G61" s="3">
-        <v>10322100</v>
+        <v>10110700</v>
       </c>
       <c r="H61" s="3">
-        <v>10464200</v>
+        <v>9858100</v>
       </c>
       <c r="I61" s="3">
-        <v>10317200</v>
+        <v>9993900</v>
       </c>
       <c r="J61" s="3">
+        <v>9853500</v>
+      </c>
+      <c r="K61" s="3">
         <v>10332500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8500600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8383100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5884100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4588400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4522600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3850300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3652200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3665600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3685800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3525400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3699800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>422000</v>
+        <v>396400</v>
       </c>
       <c r="E62" s="3">
-        <v>277300</v>
+        <v>403100</v>
       </c>
       <c r="F62" s="3">
-        <v>200900</v>
+        <v>264800</v>
       </c>
       <c r="G62" s="3">
-        <v>173800</v>
+        <v>191900</v>
       </c>
       <c r="H62" s="3">
-        <v>312900</v>
+        <v>166000</v>
       </c>
       <c r="I62" s="3">
-        <v>453000</v>
+        <v>298800</v>
       </c>
       <c r="J62" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K62" s="3">
         <v>771400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>873000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1051400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1117300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1311500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1477300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>871400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>923400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1213500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>823900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>278900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>227600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21872300</v>
+        <v>20452700</v>
       </c>
       <c r="E66" s="3">
-        <v>21066700</v>
+        <v>20889200</v>
       </c>
       <c r="F66" s="3">
-        <v>21864200</v>
+        <v>20119900</v>
       </c>
       <c r="G66" s="3">
-        <v>21537900</v>
+        <v>20881600</v>
       </c>
       <c r="H66" s="3">
-        <v>21819900</v>
+        <v>20569900</v>
       </c>
       <c r="I66" s="3">
-        <v>21568300</v>
+        <v>20839200</v>
       </c>
       <c r="J66" s="3">
+        <v>20599000</v>
+      </c>
+      <c r="K66" s="3">
         <v>21627400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19428300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19398500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16125100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14841500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14696300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13236700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13011900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12546500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10999900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10453700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10735500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6896400</v>
+        <v>6893000</v>
       </c>
       <c r="E72" s="3">
-        <v>6696600</v>
+        <v>6586500</v>
       </c>
       <c r="F72" s="3">
-        <v>6089400</v>
+        <v>6395700</v>
       </c>
       <c r="G72" s="3">
-        <v>6063000</v>
+        <v>5815700</v>
       </c>
       <c r="H72" s="3">
-        <v>6499200</v>
+        <v>5790500</v>
       </c>
       <c r="I72" s="3">
-        <v>6677900</v>
+        <v>6207100</v>
       </c>
       <c r="J72" s="3">
+        <v>6377800</v>
+      </c>
+      <c r="K72" s="3">
         <v>8189400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8467600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9261100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8601600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8163200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8465600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8718500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9347000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9312600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8926100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8509500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8103900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10521600</v>
+        <v>10422500</v>
       </c>
       <c r="E76" s="3">
-        <v>10146900</v>
+        <v>10048700</v>
       </c>
       <c r="F76" s="3">
-        <v>9728500</v>
+        <v>9690900</v>
       </c>
       <c r="G76" s="3">
-        <v>9660400</v>
+        <v>9291200</v>
       </c>
       <c r="H76" s="3">
-        <v>10118200</v>
+        <v>9226200</v>
       </c>
       <c r="I76" s="3">
-        <v>10093000</v>
+        <v>9663500</v>
       </c>
       <c r="J76" s="3">
+        <v>9639400</v>
+      </c>
+      <c r="K76" s="3">
         <v>11696900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11900400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12804600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11742500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11175400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11716800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11959300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12648700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12790200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12321300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11871000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11660400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>202900</v>
+        <v>308600</v>
       </c>
       <c r="E81" s="3">
-        <v>505900</v>
+        <v>193800</v>
       </c>
       <c r="F81" s="3">
-        <v>27000</v>
+        <v>483100</v>
       </c>
       <c r="G81" s="3">
-        <v>-435300</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
-        <v>-177100</v>
+        <v>-415800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1602900</v>
+        <v>-169100</v>
       </c>
       <c r="J81" s="3">
+        <v>-1530900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-373200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-482600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-55400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-249800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>388900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>607500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>570100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>718200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>976300</v>
+        <v>908800</v>
       </c>
       <c r="E83" s="3">
-        <v>969100</v>
+        <v>932400</v>
       </c>
       <c r="F83" s="3">
-        <v>1000400</v>
+        <v>925500</v>
       </c>
       <c r="G83" s="3">
-        <v>827200</v>
+        <v>955400</v>
       </c>
       <c r="H83" s="3">
-        <v>883300</v>
+        <v>790100</v>
       </c>
       <c r="I83" s="3">
-        <v>897400</v>
+        <v>843600</v>
       </c>
       <c r="J83" s="3">
+        <v>857000</v>
+      </c>
+      <c r="K83" s="3">
         <v>866500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>793700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>738200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>718200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>713100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>763600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>764500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>779200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>734000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>685600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>644300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>648000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>856400</v>
+        <v>1230200</v>
       </c>
       <c r="E89" s="3">
-        <v>978300</v>
+        <v>817900</v>
       </c>
       <c r="F89" s="3">
-        <v>391700</v>
+        <v>934400</v>
       </c>
       <c r="G89" s="3">
-        <v>501000</v>
+        <v>374100</v>
       </c>
       <c r="H89" s="3">
-        <v>164400</v>
+        <v>478500</v>
       </c>
       <c r="I89" s="3">
-        <v>1302100</v>
+        <v>157000</v>
       </c>
       <c r="J89" s="3">
+        <v>1243600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-41400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1290100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-160200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>648900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1193300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1206300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>673900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1444800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1696700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1718000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1117800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1214000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-507600</v>
+        <v>-735000</v>
       </c>
       <c r="E91" s="3">
-        <v>-388100</v>
+        <v>-484800</v>
       </c>
       <c r="F91" s="3">
-        <v>-300900</v>
+        <v>-370700</v>
       </c>
       <c r="G91" s="3">
-        <v>-713300</v>
+        <v>-287400</v>
       </c>
       <c r="H91" s="3">
-        <v>-914900</v>
+        <v>-681200</v>
       </c>
       <c r="I91" s="3">
-        <v>-892400</v>
+        <v>-873800</v>
       </c>
       <c r="J91" s="3">
+        <v>-852300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1018900</v>
+        <v>-991100</v>
       </c>
       <c r="E94" s="3">
-        <v>-226800</v>
+        <v>-973100</v>
       </c>
       <c r="F94" s="3">
-        <v>-329400</v>
+        <v>-216600</v>
       </c>
       <c r="G94" s="3">
-        <v>-786000</v>
+        <v>-314600</v>
       </c>
       <c r="H94" s="3">
-        <v>-722000</v>
+        <v>-750700</v>
       </c>
       <c r="I94" s="3">
-        <v>-936200</v>
+        <v>-689500</v>
       </c>
       <c r="J94" s="3">
+        <v>-894100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-690000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,8 +5780,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5609,8 +5843,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-204600</v>
+        <v>-522500</v>
       </c>
       <c r="E100" s="3">
-        <v>159800</v>
+        <v>-195400</v>
       </c>
       <c r="F100" s="3">
-        <v>-291500</v>
+        <v>152600</v>
       </c>
       <c r="G100" s="3">
-        <v>288200</v>
+        <v>-278400</v>
       </c>
       <c r="H100" s="3">
-        <v>672800</v>
+        <v>275200</v>
       </c>
       <c r="I100" s="3">
-        <v>188400</v>
+        <v>642600</v>
       </c>
       <c r="J100" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K100" s="3">
         <v>1640500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>564500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2085200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>703200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>373100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>452700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>937500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>329400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>290500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>89200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>50900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-190200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>87600</v>
+        <v>37100</v>
       </c>
       <c r="E101" s="3">
-        <v>-84600</v>
+        <v>83600</v>
       </c>
       <c r="F101" s="3">
-        <v>23000</v>
+        <v>-80800</v>
       </c>
       <c r="G101" s="3">
-        <v>-36600</v>
+        <v>22000</v>
       </c>
       <c r="H101" s="3">
-        <v>82700</v>
+        <v>-35000</v>
       </c>
       <c r="I101" s="3">
-        <v>-41500</v>
+        <v>79000</v>
       </c>
       <c r="J101" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="K101" s="3">
         <v>14900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>55400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-55600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>51600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-78400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>33000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-71800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-279500</v>
+        <v>-246300</v>
       </c>
       <c r="E102" s="3">
-        <v>826800</v>
+        <v>-267000</v>
       </c>
       <c r="F102" s="3">
-        <v>-206200</v>
+        <v>789600</v>
       </c>
       <c r="G102" s="3">
-        <v>-33400</v>
+        <v>-196900</v>
       </c>
       <c r="H102" s="3">
-        <v>197900</v>
+        <v>-31900</v>
       </c>
       <c r="I102" s="3">
-        <v>512900</v>
+        <v>189000</v>
       </c>
       <c r="J102" s="3">
+        <v>489900</v>
+      </c>
+      <c r="K102" s="3">
         <v>299300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-332000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-73900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>188800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>553100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>382400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>171400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-192600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>434500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,295 +662,308 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5920700</v>
+        <v>6067500</v>
       </c>
       <c r="E8" s="3">
-        <v>5850300</v>
+        <v>11632600</v>
       </c>
       <c r="F8" s="3">
-        <v>6342000</v>
+        <v>5781500</v>
       </c>
       <c r="G8" s="3">
-        <v>5727000</v>
+        <v>6267400</v>
       </c>
       <c r="H8" s="3">
-        <v>4511000</v>
+        <v>5659600</v>
       </c>
       <c r="I8" s="3">
-        <v>4015600</v>
+        <v>4457900</v>
       </c>
       <c r="J8" s="3">
+        <v>3968400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5458400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5181300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4711000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5349700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5836100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4942900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4713400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4767100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6270900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6136300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5833400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6355900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7142400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4688200</v>
+        <v>4968800</v>
       </c>
       <c r="E9" s="3">
-        <v>4803600</v>
+        <v>9380100</v>
       </c>
       <c r="F9" s="3">
-        <v>5159800</v>
+        <v>4747100</v>
       </c>
       <c r="G9" s="3">
-        <v>5008500</v>
+        <v>5099100</v>
       </c>
       <c r="H9" s="3">
-        <v>4402000</v>
+        <v>4949500</v>
       </c>
       <c r="I9" s="3">
-        <v>3779200</v>
+        <v>4350200</v>
       </c>
       <c r="J9" s="3">
+        <v>3734700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5074000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4912900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4287100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4773900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4838500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4223000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4321400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4311800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5499300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5031500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4501200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4808600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5726100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1232500</v>
+        <v>1098700</v>
       </c>
       <c r="E10" s="3">
-        <v>1046700</v>
+        <v>2252500</v>
       </c>
       <c r="F10" s="3">
-        <v>1182300</v>
+        <v>1034400</v>
       </c>
       <c r="G10" s="3">
-        <v>718500</v>
+        <v>1168300</v>
       </c>
       <c r="H10" s="3">
-        <v>109000</v>
+        <v>710100</v>
       </c>
       <c r="I10" s="3">
-        <v>236400</v>
+        <v>107700</v>
       </c>
       <c r="J10" s="3">
+        <v>233600</v>
+      </c>
+      <c r="K10" s="3">
         <v>384400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>268400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>423900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>575800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>997700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>719900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>392100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>455400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>771700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1104800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1332200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1547400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1416200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,73 +987,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>250800</v>
+        <v>266600</v>
       </c>
       <c r="E12" s="3">
-        <v>234400</v>
+        <v>479500</v>
       </c>
       <c r="F12" s="3">
-        <v>230100</v>
+        <v>231700</v>
       </c>
       <c r="G12" s="3">
-        <v>232500</v>
+        <v>227400</v>
       </c>
       <c r="H12" s="3">
-        <v>244400</v>
+        <v>229800</v>
       </c>
       <c r="I12" s="3">
-        <v>226900</v>
+        <v>241500</v>
       </c>
       <c r="J12" s="3">
+        <v>224200</v>
+      </c>
+      <c r="K12" s="3">
         <v>209800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>193800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>373400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>303100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>262900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>265800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>247700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>239500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>291700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>251700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>274200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>255800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>276900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,138 +1121,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="E14" s="3">
-        <v>6600</v>
+        <v>13600</v>
       </c>
       <c r="F14" s="3">
-        <v>33600</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="H14" s="3">
-        <v>87300</v>
+        <v>32300</v>
       </c>
       <c r="I14" s="3">
-        <v>8300</v>
+        <v>86300</v>
       </c>
       <c r="J14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K14" s="3">
         <v>1398600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>127100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-3600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-7500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>56700</v>
+        <v>58900</v>
       </c>
       <c r="E15" s="3">
-        <v>53600</v>
+        <v>109100</v>
       </c>
       <c r="F15" s="3">
-        <v>46300</v>
+        <v>53000</v>
       </c>
       <c r="G15" s="3">
-        <v>42900</v>
+        <v>45800</v>
       </c>
       <c r="H15" s="3">
-        <v>46600</v>
+        <v>42400</v>
       </c>
       <c r="I15" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="J15" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K15" s="3">
         <v>48000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>37200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>30800</v>
       </c>
       <c r="S15" s="3">
         <v>30800</v>
       </c>
       <c r="T15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="U15" s="3">
         <v>29900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>27900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5332100</v>
+        <v>5629800</v>
       </c>
       <c r="E17" s="3">
-        <v>5412300</v>
+        <v>10618000</v>
       </c>
       <c r="F17" s="3">
-        <v>5793000</v>
+        <v>5348700</v>
       </c>
       <c r="G17" s="3">
-        <v>5619900</v>
+        <v>5724800</v>
       </c>
       <c r="H17" s="3">
-        <v>5037700</v>
+        <v>5553800</v>
       </c>
       <c r="I17" s="3">
-        <v>4331500</v>
+        <v>4978400</v>
       </c>
       <c r="J17" s="3">
+        <v>4280500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7215600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5697100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5040400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5475600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5640400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4830600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4933200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4849700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6228300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5621800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5147100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5454500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6321000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>588700</v>
+        <v>437700</v>
       </c>
       <c r="E18" s="3">
-        <v>438000</v>
+        <v>1014600</v>
       </c>
       <c r="F18" s="3">
-        <v>549000</v>
+        <v>432900</v>
       </c>
       <c r="G18" s="3">
-        <v>107100</v>
+        <v>542600</v>
       </c>
       <c r="H18" s="3">
-        <v>-526700</v>
+        <v>105800</v>
       </c>
       <c r="I18" s="3">
-        <v>-315900</v>
+        <v>-520600</v>
       </c>
       <c r="J18" s="3">
+        <v>-312200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-515800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-329400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-125900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>195800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-219800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-82600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>514500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>686300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>901500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>821400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-29200</v>
+        <v>173600</v>
       </c>
       <c r="E20" s="3">
-        <v>-65700</v>
+        <v>-93800</v>
       </c>
       <c r="F20" s="3">
-        <v>-94000</v>
+        <v>-65000</v>
       </c>
       <c r="G20" s="3">
-        <v>-58100</v>
+        <v>-92900</v>
       </c>
       <c r="H20" s="3">
-        <v>20500</v>
+        <v>-57400</v>
       </c>
       <c r="I20" s="3">
-        <v>127200</v>
+        <v>20300</v>
       </c>
       <c r="J20" s="3">
+        <v>125700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-35700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-47700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>64600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-106000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>159200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1468400</v>
+        <v>1591700</v>
       </c>
       <c r="E21" s="3">
-        <v>1304700</v>
+        <v>2740500</v>
       </c>
       <c r="F21" s="3">
-        <v>1380500</v>
+        <v>1289400</v>
       </c>
       <c r="G21" s="3">
-        <v>1004400</v>
+        <v>1364300</v>
       </c>
       <c r="H21" s="3">
-        <v>283800</v>
+        <v>992600</v>
       </c>
       <c r="I21" s="3">
-        <v>654900</v>
+        <v>280500</v>
       </c>
       <c r="J21" s="3">
+        <v>647200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-935800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>383400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>433300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>638200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>930000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>817200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>496100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>703100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>835400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1281400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1436600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1439800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1628600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>92000</v>
+        <v>100500</v>
       </c>
       <c r="E22" s="3">
-        <v>97500</v>
+        <v>187300</v>
       </c>
       <c r="F22" s="3">
-        <v>95400</v>
+        <v>96300</v>
       </c>
       <c r="G22" s="3">
-        <v>95200</v>
+        <v>94300</v>
       </c>
       <c r="H22" s="3">
-        <v>62400</v>
+        <v>94000</v>
       </c>
       <c r="I22" s="3">
-        <v>62000</v>
+        <v>61600</v>
       </c>
       <c r="J22" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K22" s="3">
         <v>54200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>22600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>467500</v>
+        <v>510800</v>
       </c>
       <c r="E23" s="3">
-        <v>274800</v>
+        <v>733600</v>
       </c>
       <c r="F23" s="3">
-        <v>359600</v>
+        <v>271600</v>
       </c>
       <c r="G23" s="3">
-        <v>-46200</v>
+        <v>355400</v>
       </c>
       <c r="H23" s="3">
-        <v>-568600</v>
+        <v>-45600</v>
       </c>
       <c r="I23" s="3">
-        <v>-250600</v>
+        <v>-561900</v>
       </c>
       <c r="J23" s="3">
+        <v>-247700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-534200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-389300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-117100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>196700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-285600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-80500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>526900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>732000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>772300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>958100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>107300</v>
+        <v>121500</v>
       </c>
       <c r="E24" s="3">
-        <v>48900</v>
+        <v>154300</v>
       </c>
       <c r="F24" s="3">
-        <v>-168200</v>
+        <v>48300</v>
       </c>
       <c r="G24" s="3">
-        <v>-55600</v>
+        <v>-166300</v>
       </c>
       <c r="H24" s="3">
-        <v>-140300</v>
+        <v>-55000</v>
       </c>
       <c r="I24" s="3">
-        <v>-81600</v>
+        <v>-138700</v>
       </c>
       <c r="J24" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-302500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-140600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-60100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>106900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>83700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>160800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>215800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>360300</v>
+        <v>389300</v>
       </c>
       <c r="E26" s="3">
-        <v>225900</v>
+        <v>579300</v>
       </c>
       <c r="F26" s="3">
-        <v>527800</v>
+        <v>223300</v>
       </c>
       <c r="G26" s="3">
-        <v>9500</v>
+        <v>521600</v>
       </c>
       <c r="H26" s="3">
-        <v>-428300</v>
+        <v>9300</v>
       </c>
       <c r="I26" s="3">
-        <v>-169100</v>
+        <v>-423200</v>
       </c>
       <c r="J26" s="3">
+        <v>-167100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-393600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-484200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-57000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>128200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-252500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-41100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>420000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>648300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>611500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>742200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>308600</v>
+        <v>352400</v>
       </c>
       <c r="E27" s="3">
-        <v>193800</v>
+        <v>496500</v>
       </c>
       <c r="F27" s="3">
-        <v>483100</v>
+        <v>191500</v>
       </c>
       <c r="G27" s="3">
-        <v>25800</v>
+        <v>477500</v>
       </c>
       <c r="H27" s="3">
-        <v>-415800</v>
+        <v>25500</v>
       </c>
       <c r="I27" s="3">
-        <v>-169100</v>
+        <v>-410900</v>
       </c>
       <c r="J27" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-373200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-482600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-55400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>122800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-249800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-49900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>388900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>607500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>570100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>718200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>29200</v>
+        <v>-173600</v>
       </c>
       <c r="E32" s="3">
-        <v>65700</v>
+        <v>93800</v>
       </c>
       <c r="F32" s="3">
-        <v>94000</v>
+        <v>65000</v>
       </c>
       <c r="G32" s="3">
-        <v>58100</v>
+        <v>92900</v>
       </c>
       <c r="H32" s="3">
-        <v>-20500</v>
+        <v>57400</v>
       </c>
       <c r="I32" s="3">
-        <v>-127200</v>
+        <v>-20300</v>
       </c>
       <c r="J32" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="K32" s="3">
         <v>35700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>47700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-64600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>106000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-159200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>308600</v>
+        <v>352400</v>
       </c>
       <c r="E33" s="3">
-        <v>193800</v>
+        <v>496500</v>
       </c>
       <c r="F33" s="3">
-        <v>483100</v>
+        <v>191500</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>477500</v>
       </c>
       <c r="H33" s="3">
-        <v>-415800</v>
+        <v>25500</v>
       </c>
       <c r="I33" s="3">
-        <v>-169100</v>
+        <v>-410900</v>
       </c>
       <c r="J33" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-373200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-482600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-55400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-249800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-49900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>388900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>607500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>570100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>718200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>308600</v>
+        <v>352400</v>
       </c>
       <c r="E35" s="3">
-        <v>193800</v>
+        <v>496500</v>
       </c>
       <c r="F35" s="3">
-        <v>483100</v>
+        <v>191500</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>477500</v>
       </c>
       <c r="H35" s="3">
-        <v>-415800</v>
+        <v>25500</v>
       </c>
       <c r="I35" s="3">
-        <v>-169100</v>
+        <v>-410900</v>
       </c>
       <c r="J35" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-373200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-482600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-55400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-249800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-49900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>388900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>607500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>570100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>718200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,87 +2657,91 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3072100</v>
+        <v>2921200</v>
       </c>
       <c r="E41" s="3">
-        <v>3318400</v>
+        <v>3036000</v>
       </c>
       <c r="F41" s="3">
-        <v>3585400</v>
+        <v>3279400</v>
       </c>
       <c r="G41" s="3">
-        <v>2795700</v>
+        <v>3543200</v>
       </c>
       <c r="H41" s="3">
-        <v>2992700</v>
+        <v>2762900</v>
       </c>
       <c r="I41" s="3">
-        <v>3024600</v>
+        <v>2957500</v>
       </c>
       <c r="J41" s="3">
+        <v>2989000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2835600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2456100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2132600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2187800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1986600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2235800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2395200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2206400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2290300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1737200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1354700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1210300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1402800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E42" s="3">
         <v>2100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3">
-        <v>1600</v>
-      </c>
       <c r="G42" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H42" s="3">
         <v>1200</v>
@@ -2660,504 +2750,528 @@
         <v>1200</v>
       </c>
       <c r="J42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>228500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>669700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>603000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1105000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>870900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>797300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>982200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3669200</v>
+        <v>3693300</v>
       </c>
       <c r="E43" s="3">
-        <v>3789300</v>
+        <v>3626000</v>
       </c>
       <c r="F43" s="3">
-        <v>3142000</v>
+        <v>3744700</v>
       </c>
       <c r="G43" s="3">
-        <v>3369200</v>
+        <v>3105000</v>
       </c>
       <c r="H43" s="3">
-        <v>2533400</v>
+        <v>3329500</v>
       </c>
       <c r="I43" s="3">
-        <v>2536100</v>
+        <v>2503600</v>
       </c>
       <c r="J43" s="3">
+        <v>2506300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3107100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3642900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2552200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3213100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2532300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2751000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3073400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3055600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3965900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4359300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4020800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4095800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4598400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2314400</v>
+        <v>3007500</v>
       </c>
       <c r="E44" s="3">
-        <v>1998900</v>
+        <v>2287200</v>
       </c>
       <c r="F44" s="3">
-        <v>1845100</v>
+        <v>1975400</v>
       </c>
       <c r="G44" s="3">
-        <v>2039800</v>
+        <v>1823400</v>
       </c>
       <c r="H44" s="3">
-        <v>1733500</v>
+        <v>2015800</v>
       </c>
       <c r="I44" s="3">
-        <v>1963600</v>
+        <v>1713100</v>
       </c>
       <c r="J44" s="3">
+        <v>1940500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1743500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2427200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2260900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2393200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2260600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2095800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2041500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1974300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2068100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2344300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2062200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2054900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2059000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1250100</v>
+        <v>1335300</v>
       </c>
       <c r="E45" s="3">
-        <v>1230300</v>
+        <v>1235400</v>
       </c>
       <c r="F45" s="3">
-        <v>860600</v>
+        <v>1215800</v>
       </c>
       <c r="G45" s="3">
-        <v>1076700</v>
+        <v>850500</v>
       </c>
       <c r="H45" s="3">
-        <v>1091600</v>
+        <v>1064000</v>
       </c>
       <c r="I45" s="3">
-        <v>1109300</v>
+        <v>1078700</v>
       </c>
       <c r="J45" s="3">
+        <v>1096300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1023600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1066900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>963600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>859300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>608900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>402500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>423500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>408800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>289600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>428200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>485800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>524200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>393400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10308000</v>
+        <v>10959100</v>
       </c>
       <c r="E46" s="3">
-        <v>10338700</v>
+        <v>10186700</v>
       </c>
       <c r="F46" s="3">
-        <v>9434500</v>
+        <v>10217000</v>
       </c>
       <c r="G46" s="3">
-        <v>9282600</v>
+        <v>9323600</v>
       </c>
       <c r="H46" s="3">
-        <v>8352300</v>
+        <v>9173400</v>
       </c>
       <c r="I46" s="3">
-        <v>8634900</v>
+        <v>8254100</v>
       </c>
       <c r="J46" s="3">
+        <v>8533300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8711100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9593900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7910500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8657400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7392100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7488700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8162200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8314800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9216900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9974000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8794500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8682400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9435800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>271400</v>
+        <v>297800</v>
       </c>
       <c r="E47" s="3">
-        <v>298200</v>
+        <v>268200</v>
       </c>
       <c r="F47" s="3">
-        <v>327700</v>
+        <v>294600</v>
       </c>
       <c r="G47" s="3">
-        <v>213100</v>
+        <v>323800</v>
       </c>
       <c r="H47" s="3">
-        <v>244000</v>
+        <v>210600</v>
       </c>
       <c r="I47" s="3">
-        <v>296400</v>
+        <v>241100</v>
       </c>
       <c r="J47" s="3">
+        <v>293000</v>
+      </c>
+      <c r="K47" s="3">
         <v>285600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>232300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>188600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>190100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>164300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>158600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>154000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>149900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>137500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>127800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>149500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>197500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>17198300</v>
+        <v>17067100</v>
       </c>
       <c r="E48" s="3">
-        <v>17173100</v>
+        <v>16995900</v>
       </c>
       <c r="F48" s="3">
-        <v>17125000</v>
+        <v>16971100</v>
       </c>
       <c r="G48" s="3">
-        <v>17960400</v>
+        <v>16923500</v>
       </c>
       <c r="H48" s="3">
-        <v>18466400</v>
+        <v>17749100</v>
       </c>
       <c r="I48" s="3">
-        <v>18962400</v>
+        <v>18249200</v>
       </c>
       <c r="J48" s="3">
+        <v>18739300</v>
+      </c>
+      <c r="K48" s="3">
         <v>18774500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21120200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21068600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21027600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18144100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16307900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15987500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14721100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14257700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13203600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12466000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11656300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10828300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1052200</v>
+        <v>1297400</v>
       </c>
       <c r="E49" s="3">
-        <v>1070200</v>
+        <v>1039800</v>
       </c>
       <c r="F49" s="3">
-        <v>867100</v>
+        <v>1057600</v>
       </c>
       <c r="G49" s="3">
-        <v>675000</v>
+        <v>856900</v>
       </c>
       <c r="H49" s="3">
-        <v>720300</v>
+        <v>667100</v>
       </c>
       <c r="I49" s="3">
-        <v>747700</v>
+        <v>711800</v>
       </c>
       <c r="J49" s="3">
+        <v>738900</v>
+      </c>
+      <c r="K49" s="3">
         <v>742400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>864600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>819600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>897600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>829600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>803500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>795000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>766200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>803300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>782000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>744500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>764600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>805400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3286,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2045300</v>
+        <v>1967900</v>
       </c>
       <c r="E52" s="3">
-        <v>2057800</v>
+        <v>2021300</v>
       </c>
       <c r="F52" s="3">
-        <v>2056500</v>
+        <v>2033600</v>
       </c>
       <c r="G52" s="3">
-        <v>2041700</v>
+        <v>2032300</v>
       </c>
       <c r="H52" s="3">
-        <v>2013100</v>
+        <v>2017700</v>
       </c>
       <c r="I52" s="3">
-        <v>1861300</v>
+        <v>1989400</v>
       </c>
       <c r="J52" s="3">
+        <v>1839400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1724800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1513300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1341400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1430400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1337500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1258100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1314600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1256200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1232800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1239600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1188500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1071800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1128900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>30875100</v>
+        <v>31589200</v>
       </c>
       <c r="E54" s="3">
-        <v>30937900</v>
+        <v>30511900</v>
       </c>
       <c r="F54" s="3">
-        <v>29810800</v>
+        <v>30573900</v>
       </c>
       <c r="G54" s="3">
-        <v>30172800</v>
+        <v>29460100</v>
       </c>
       <c r="H54" s="3">
-        <v>29796100</v>
+        <v>29817800</v>
       </c>
       <c r="I54" s="3">
-        <v>30502700</v>
+        <v>29445600</v>
       </c>
       <c r="J54" s="3">
+        <v>30143900</v>
+      </c>
+      <c r="K54" s="3">
         <v>30238400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33324300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31328700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32203100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27867600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26016900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26413100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25196000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25660500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25336700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23321100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22324700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22395900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3531,398 +3661,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3176100</v>
+        <v>3636700</v>
       </c>
       <c r="E57" s="3">
-        <v>3378700</v>
+        <v>3138700</v>
       </c>
       <c r="F57" s="3">
-        <v>3212400</v>
+        <v>3338900</v>
       </c>
       <c r="G57" s="3">
-        <v>3431600</v>
+        <v>3174600</v>
       </c>
       <c r="H57" s="3">
-        <v>2946300</v>
+        <v>3391200</v>
       </c>
       <c r="I57" s="3">
-        <v>2441400</v>
+        <v>2911600</v>
       </c>
       <c r="J57" s="3">
+        <v>2412600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2225500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2379300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2477500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2702900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2593500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2573100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2494500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2354400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2530100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2607300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2150400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2193700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2589600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3772600</v>
+        <v>4162600</v>
       </c>
       <c r="E58" s="3">
-        <v>3154800</v>
+        <v>3728200</v>
       </c>
       <c r="F58" s="3">
-        <v>2665700</v>
+        <v>3117700</v>
       </c>
       <c r="G58" s="3">
-        <v>2188500</v>
+        <v>2634400</v>
       </c>
       <c r="H58" s="3">
-        <v>2664200</v>
+        <v>2162800</v>
       </c>
       <c r="I58" s="3">
-        <v>2456400</v>
+        <v>2632900</v>
       </c>
       <c r="J58" s="3">
+        <v>2427500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1680500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1708400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1625800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1454900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1305300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1659500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1833200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1804300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1278600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1072600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>734100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>690200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>601100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3788000</v>
+        <v>3680500</v>
       </c>
       <c r="E59" s="3">
-        <v>3664900</v>
+        <v>3743500</v>
       </c>
       <c r="F59" s="3">
-        <v>3477800</v>
+        <v>3621800</v>
       </c>
       <c r="G59" s="3">
-        <v>3901900</v>
+        <v>3436900</v>
       </c>
       <c r="H59" s="3">
-        <v>3875800</v>
+        <v>3856000</v>
       </c>
       <c r="I59" s="3">
-        <v>4633700</v>
+        <v>3830200</v>
       </c>
       <c r="J59" s="3">
+        <v>4579200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5431200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5382700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4890500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4697300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4463000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3983800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3878000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3862100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4092600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3429700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3088300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3298400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3161700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10736700</v>
+        <v>11479800</v>
       </c>
       <c r="E60" s="3">
-        <v>10198400</v>
+        <v>10610400</v>
       </c>
       <c r="F60" s="3">
-        <v>9355900</v>
+        <v>10078400</v>
       </c>
       <c r="G60" s="3">
-        <v>9522000</v>
+        <v>9245800</v>
       </c>
       <c r="H60" s="3">
-        <v>9486300</v>
+        <v>9410000</v>
       </c>
       <c r="I60" s="3">
-        <v>9531400</v>
+        <v>9374700</v>
       </c>
       <c r="J60" s="3">
+        <v>9419300</v>
+      </c>
+      <c r="K60" s="3">
         <v>9337200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9470400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8993900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8855100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8361800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8216400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8205600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8020800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7901200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7109600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5972800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6182300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6352400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8045400</v>
+        <v>7217100</v>
       </c>
       <c r="E61" s="3">
-        <v>9083300</v>
+        <v>7950700</v>
       </c>
       <c r="F61" s="3">
-        <v>9363700</v>
+        <v>8976400</v>
       </c>
       <c r="G61" s="3">
-        <v>10110700</v>
+        <v>9253500</v>
       </c>
       <c r="H61" s="3">
-        <v>9858100</v>
+        <v>9991700</v>
       </c>
       <c r="I61" s="3">
-        <v>9993900</v>
+        <v>9742200</v>
       </c>
       <c r="J61" s="3">
+        <v>9876300</v>
+      </c>
+      <c r="K61" s="3">
         <v>9853500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10332500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8500600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8383100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5884100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4588400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4522600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3850300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3652200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3665600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3685800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3525400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3699800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>396400</v>
+        <v>618600</v>
       </c>
       <c r="E62" s="3">
-        <v>403100</v>
+        <v>391700</v>
       </c>
       <c r="F62" s="3">
-        <v>264800</v>
+        <v>398300</v>
       </c>
       <c r="G62" s="3">
-        <v>191900</v>
+        <v>261700</v>
       </c>
       <c r="H62" s="3">
-        <v>166000</v>
+        <v>189600</v>
       </c>
       <c r="I62" s="3">
-        <v>298800</v>
+        <v>164100</v>
       </c>
       <c r="J62" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K62" s="3">
         <v>432600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>771400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>873000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1051400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1117300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1311500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1477300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>871400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>923400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1213500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>823900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>278900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>227600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20452700</v>
+        <v>20671300</v>
       </c>
       <c r="E66" s="3">
-        <v>20889200</v>
+        <v>20212000</v>
       </c>
       <c r="F66" s="3">
-        <v>20119900</v>
+        <v>20643500</v>
       </c>
       <c r="G66" s="3">
-        <v>20881600</v>
+        <v>19883200</v>
       </c>
       <c r="H66" s="3">
-        <v>20569900</v>
+        <v>20635900</v>
       </c>
       <c r="I66" s="3">
-        <v>20839200</v>
+        <v>20327900</v>
       </c>
       <c r="J66" s="3">
+        <v>20594100</v>
+      </c>
+      <c r="K66" s="3">
         <v>20599000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21627400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19428300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19398500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16125100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14841500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14696300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13236700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13011900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12546500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10999900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10453700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10735500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6893000</v>
+        <v>7162400</v>
       </c>
       <c r="E72" s="3">
-        <v>6586500</v>
+        <v>6811900</v>
       </c>
       <c r="F72" s="3">
-        <v>6395700</v>
+        <v>6509000</v>
       </c>
       <c r="G72" s="3">
-        <v>5815700</v>
+        <v>6320400</v>
       </c>
       <c r="H72" s="3">
-        <v>5790500</v>
+        <v>5747300</v>
       </c>
       <c r="I72" s="3">
-        <v>6207100</v>
+        <v>5722400</v>
       </c>
       <c r="J72" s="3">
+        <v>6134100</v>
+      </c>
+      <c r="K72" s="3">
         <v>6377800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8189400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8467600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9261100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8601600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8163200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8465600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8718500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9347000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9312600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8926100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8509500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8103900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10422500</v>
+        <v>10917900</v>
       </c>
       <c r="E76" s="3">
-        <v>10048700</v>
+        <v>10299900</v>
       </c>
       <c r="F76" s="3">
-        <v>9690900</v>
+        <v>9930500</v>
       </c>
       <c r="G76" s="3">
-        <v>9291200</v>
+        <v>9576900</v>
       </c>
       <c r="H76" s="3">
-        <v>9226200</v>
+        <v>9181900</v>
       </c>
       <c r="I76" s="3">
-        <v>9663500</v>
+        <v>9117700</v>
       </c>
       <c r="J76" s="3">
+        <v>9549800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9639400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11696900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11900400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12804600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11742500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11175400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11716800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11959300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12648700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12790200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12321300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11871000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11660400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>308600</v>
+        <v>352400</v>
       </c>
       <c r="E81" s="3">
-        <v>193800</v>
+        <v>496500</v>
       </c>
       <c r="F81" s="3">
-        <v>483100</v>
+        <v>191500</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>477500</v>
       </c>
       <c r="H81" s="3">
-        <v>-415800</v>
+        <v>25500</v>
       </c>
       <c r="I81" s="3">
-        <v>-169100</v>
+        <v>-410900</v>
       </c>
       <c r="J81" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-373200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-482600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-55400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-249800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-49900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>388900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>607500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>570100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>718200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>908800</v>
+        <v>980400</v>
       </c>
       <c r="E83" s="3">
-        <v>932400</v>
+        <v>1819600</v>
       </c>
       <c r="F83" s="3">
-        <v>925500</v>
+        <v>921500</v>
       </c>
       <c r="G83" s="3">
-        <v>955400</v>
+        <v>914600</v>
       </c>
       <c r="H83" s="3">
-        <v>790100</v>
+        <v>944200</v>
       </c>
       <c r="I83" s="3">
-        <v>843600</v>
+        <v>780800</v>
       </c>
       <c r="J83" s="3">
+        <v>833700</v>
+      </c>
+      <c r="K83" s="3">
         <v>857000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>866500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>793700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>738200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>718200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>713100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>763600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>764500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>779200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>734000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>685600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>644300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>648000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1230200</v>
+        <v>1107600</v>
       </c>
       <c r="E89" s="3">
-        <v>817900</v>
+        <v>2024000</v>
       </c>
       <c r="F89" s="3">
-        <v>934400</v>
+        <v>808300</v>
       </c>
       <c r="G89" s="3">
-        <v>374100</v>
+        <v>923400</v>
       </c>
       <c r="H89" s="3">
-        <v>478500</v>
+        <v>369700</v>
       </c>
       <c r="I89" s="3">
-        <v>157000</v>
+        <v>472900</v>
       </c>
       <c r="J89" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1243600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1290100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-160200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>648900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1193300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1206300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>673900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1444800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1696700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1718000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1117800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1214000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5496,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-735000</v>
+        <v>-723000</v>
       </c>
       <c r="E91" s="3">
-        <v>-484800</v>
+        <v>-1205500</v>
       </c>
       <c r="F91" s="3">
-        <v>-370700</v>
+        <v>-479100</v>
       </c>
       <c r="G91" s="3">
-        <v>-287400</v>
+        <v>-366300</v>
       </c>
       <c r="H91" s="3">
-        <v>-681200</v>
+        <v>-284000</v>
       </c>
       <c r="I91" s="3">
-        <v>-873800</v>
+        <v>-673200</v>
       </c>
       <c r="J91" s="3">
+        <v>-863500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-852300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-991100</v>
+        <v>-811300</v>
       </c>
       <c r="E94" s="3">
-        <v>-973100</v>
+        <v>-1941000</v>
       </c>
       <c r="F94" s="3">
-        <v>-216600</v>
+        <v>-961600</v>
       </c>
       <c r="G94" s="3">
-        <v>-314600</v>
+        <v>-214000</v>
       </c>
       <c r="H94" s="3">
-        <v>-750700</v>
+        <v>-310900</v>
       </c>
       <c r="I94" s="3">
-        <v>-689500</v>
+        <v>-741900</v>
       </c>
       <c r="J94" s="3">
+        <v>-681400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-894100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-690000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5846,8 +6080,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6041,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-522500</v>
+        <v>-521200</v>
       </c>
       <c r="E100" s="3">
-        <v>-195400</v>
+        <v>-709500</v>
       </c>
       <c r="F100" s="3">
-        <v>152600</v>
+        <v>-193100</v>
       </c>
       <c r="G100" s="3">
-        <v>-278400</v>
+        <v>150800</v>
       </c>
       <c r="H100" s="3">
-        <v>275200</v>
+        <v>-275100</v>
       </c>
       <c r="I100" s="3">
-        <v>642600</v>
+        <v>272000</v>
       </c>
       <c r="J100" s="3">
+        <v>635000</v>
+      </c>
+      <c r="K100" s="3">
         <v>180000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1640500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>564500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2085200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>703200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>373100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>452700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>937500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>329400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>290500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>89200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>50900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-190200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>37100</v>
+        <v>110100</v>
       </c>
       <c r="E101" s="3">
-        <v>83600</v>
+        <v>119300</v>
       </c>
       <c r="F101" s="3">
-        <v>-80800</v>
+        <v>82600</v>
       </c>
       <c r="G101" s="3">
-        <v>22000</v>
+        <v>-79800</v>
       </c>
       <c r="H101" s="3">
-        <v>-35000</v>
+        <v>21700</v>
       </c>
       <c r="I101" s="3">
-        <v>79000</v>
+        <v>-34600</v>
       </c>
       <c r="J101" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-39600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>55400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-55600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>51600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-78400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>26200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>33000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-71800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-246300</v>
+        <v>-114800</v>
       </c>
       <c r="E102" s="3">
-        <v>-267000</v>
+        <v>-507200</v>
       </c>
       <c r="F102" s="3">
-        <v>789600</v>
+        <v>-263800</v>
       </c>
       <c r="G102" s="3">
-        <v>-196900</v>
+        <v>780300</v>
       </c>
       <c r="H102" s="3">
-        <v>-31900</v>
+        <v>-194600</v>
       </c>
       <c r="I102" s="3">
-        <v>189000</v>
+        <v>-31600</v>
       </c>
       <c r="J102" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K102" s="3">
         <v>489900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>299300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-332000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-73900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>188800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>553100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>382400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>171400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-192600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>434500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,308 +662,320 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6067500</v>
+        <v>7133300</v>
       </c>
       <c r="E8" s="3">
-        <v>11632600</v>
+        <v>5850800</v>
       </c>
       <c r="F8" s="3">
-        <v>5781500</v>
+        <v>11217100</v>
       </c>
       <c r="G8" s="3">
-        <v>6267400</v>
+        <v>5575000</v>
       </c>
       <c r="H8" s="3">
-        <v>5659600</v>
+        <v>6069000</v>
       </c>
       <c r="I8" s="3">
-        <v>4457900</v>
+        <v>5457500</v>
       </c>
       <c r="J8" s="3">
+        <v>4298700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3968400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5458400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5181300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4711000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5349700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5836100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4942900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4713400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4767100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6270900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6136300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5833400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6355900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7142400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4968800</v>
+        <v>6067600</v>
       </c>
       <c r="E9" s="3">
-        <v>9380100</v>
+        <v>4791300</v>
       </c>
       <c r="F9" s="3">
-        <v>4747100</v>
+        <v>9045100</v>
       </c>
       <c r="G9" s="3">
-        <v>5099100</v>
+        <v>4577500</v>
       </c>
       <c r="H9" s="3">
-        <v>4949500</v>
+        <v>4948400</v>
       </c>
       <c r="I9" s="3">
-        <v>4350200</v>
+        <v>4772800</v>
       </c>
       <c r="J9" s="3">
+        <v>4194900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3734700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5074000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4912900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4287100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4773900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4838500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4223000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4321400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4311800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5499300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5031500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4501200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4808600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5726100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1098700</v>
+        <v>1065600</v>
       </c>
       <c r="E10" s="3">
-        <v>2252500</v>
+        <v>1059500</v>
       </c>
       <c r="F10" s="3">
-        <v>1034400</v>
+        <v>2172000</v>
       </c>
       <c r="G10" s="3">
-        <v>1168300</v>
+        <v>997500</v>
       </c>
       <c r="H10" s="3">
-        <v>710100</v>
+        <v>1120700</v>
       </c>
       <c r="I10" s="3">
-        <v>107700</v>
+        <v>684700</v>
       </c>
       <c r="J10" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K10" s="3">
         <v>233600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>384400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>268400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>423900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>575800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>997700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>719900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>392100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>455400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>771700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1104800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1332200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1547400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1416200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,76 +1000,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>266600</v>
+        <v>270400</v>
       </c>
       <c r="E12" s="3">
-        <v>479500</v>
+        <v>257100</v>
       </c>
       <c r="F12" s="3">
-        <v>231700</v>
+        <v>462400</v>
       </c>
       <c r="G12" s="3">
-        <v>227400</v>
+        <v>223400</v>
       </c>
       <c r="H12" s="3">
-        <v>229800</v>
+        <v>219300</v>
       </c>
       <c r="I12" s="3">
-        <v>241500</v>
+        <v>221600</v>
       </c>
       <c r="J12" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K12" s="3">
         <v>224200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>209800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>193800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>373400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>303100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>262900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>265800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>247700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>239500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>291700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>251700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>274200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>255800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>276900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,144 +1140,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>16600</v>
       </c>
       <c r="E14" s="3">
-        <v>13600</v>
+        <v>6300</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
+        <v>13100</v>
       </c>
       <c r="G14" s="3">
-        <v>33200</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="I14" s="3">
-        <v>86300</v>
+        <v>31100</v>
       </c>
       <c r="J14" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1398600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>127100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-3600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>21400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-7500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>58900</v>
+        <v>54400</v>
       </c>
       <c r="E15" s="3">
-        <v>109100</v>
+        <v>56800</v>
       </c>
       <c r="F15" s="3">
-        <v>53000</v>
+        <v>105200</v>
       </c>
       <c r="G15" s="3">
-        <v>45800</v>
+        <v>51100</v>
       </c>
       <c r="H15" s="3">
-        <v>42400</v>
+        <v>44100</v>
       </c>
       <c r="I15" s="3">
-        <v>46000</v>
+        <v>40900</v>
       </c>
       <c r="J15" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K15" s="3">
         <v>46800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>53900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>40100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>37200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>34500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>30800</v>
       </c>
       <c r="T15" s="3">
         <v>30800</v>
       </c>
       <c r="U15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="V15" s="3">
         <v>29900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>31300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>27900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5629800</v>
+        <v>6763000</v>
       </c>
       <c r="E17" s="3">
-        <v>10618000</v>
+        <v>5428700</v>
       </c>
       <c r="F17" s="3">
-        <v>5348700</v>
+        <v>10238800</v>
       </c>
       <c r="G17" s="3">
-        <v>5724800</v>
+        <v>5157600</v>
       </c>
       <c r="H17" s="3">
-        <v>5553800</v>
+        <v>5551800</v>
       </c>
       <c r="I17" s="3">
-        <v>4978400</v>
+        <v>5355500</v>
       </c>
       <c r="J17" s="3">
+        <v>4800600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4280500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7215600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5697100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5040400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5475600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5640400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4830600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4933200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4849700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6228300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5621800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5147100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5454500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6321000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>437700</v>
+        <v>370300</v>
       </c>
       <c r="E18" s="3">
-        <v>1014600</v>
+        <v>422100</v>
       </c>
       <c r="F18" s="3">
-        <v>432900</v>
+        <v>978400</v>
       </c>
       <c r="G18" s="3">
-        <v>542600</v>
+        <v>417400</v>
       </c>
       <c r="H18" s="3">
-        <v>105800</v>
+        <v>517300</v>
       </c>
       <c r="I18" s="3">
-        <v>-520600</v>
+        <v>102000</v>
       </c>
       <c r="J18" s="3">
+        <v>-502000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-312200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-515800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-329400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-125900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>195800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-219800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-82600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>514500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>686300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>901500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>821400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,348 +1477,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>173600</v>
+        <v>-103800</v>
       </c>
       <c r="E20" s="3">
-        <v>-93800</v>
+        <v>167400</v>
       </c>
       <c r="F20" s="3">
-        <v>-65000</v>
+        <v>-90400</v>
       </c>
       <c r="G20" s="3">
-        <v>-92900</v>
+        <v>-62600</v>
       </c>
       <c r="H20" s="3">
-        <v>-57400</v>
+        <v>-89600</v>
       </c>
       <c r="I20" s="3">
-        <v>20300</v>
+        <v>-55300</v>
       </c>
       <c r="J20" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K20" s="3">
         <v>125700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-31000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-47700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>64600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-106000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>159200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1591700</v>
+        <v>1212000</v>
       </c>
       <c r="E21" s="3">
-        <v>2740500</v>
+        <v>1534900</v>
       </c>
       <c r="F21" s="3">
-        <v>1289400</v>
+        <v>2642600</v>
       </c>
       <c r="G21" s="3">
-        <v>1364300</v>
+        <v>1243300</v>
       </c>
       <c r="H21" s="3">
-        <v>992600</v>
+        <v>1309600</v>
       </c>
       <c r="I21" s="3">
-        <v>280500</v>
+        <v>957100</v>
       </c>
       <c r="J21" s="3">
+        <v>270500</v>
+      </c>
+      <c r="K21" s="3">
         <v>647200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-935800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>383400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>433300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>638200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>930000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>817200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>496100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>703100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>835400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1281400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1436600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1439800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1628600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100500</v>
+        <v>74100</v>
       </c>
       <c r="E22" s="3">
-        <v>187300</v>
+        <v>96900</v>
       </c>
       <c r="F22" s="3">
-        <v>96300</v>
+        <v>180600</v>
       </c>
       <c r="G22" s="3">
-        <v>94300</v>
+        <v>92900</v>
       </c>
       <c r="H22" s="3">
-        <v>94000</v>
+        <v>90900</v>
       </c>
       <c r="I22" s="3">
-        <v>61600</v>
+        <v>90700</v>
       </c>
       <c r="J22" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K22" s="3">
         <v>61200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>22600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>510800</v>
+        <v>192300</v>
       </c>
       <c r="E23" s="3">
-        <v>733600</v>
+        <v>492600</v>
       </c>
       <c r="F23" s="3">
-        <v>271600</v>
+        <v>707400</v>
       </c>
       <c r="G23" s="3">
-        <v>355400</v>
+        <v>261900</v>
       </c>
       <c r="H23" s="3">
-        <v>-45600</v>
+        <v>336700</v>
       </c>
       <c r="I23" s="3">
-        <v>-561900</v>
+        <v>-44000</v>
       </c>
       <c r="J23" s="3">
+        <v>-541800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-247700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-534200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-389300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-117100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>196700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-285600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-80500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>526900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>732000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>772300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>958100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>121500</v>
+        <v>46200</v>
       </c>
       <c r="E24" s="3">
-        <v>154300</v>
+        <v>117200</v>
       </c>
       <c r="F24" s="3">
-        <v>48300</v>
+        <v>148800</v>
       </c>
       <c r="G24" s="3">
-        <v>-166300</v>
+        <v>46600</v>
       </c>
       <c r="H24" s="3">
-        <v>-55000</v>
+        <v>-161800</v>
       </c>
       <c r="I24" s="3">
-        <v>-138700</v>
+        <v>-53000</v>
       </c>
       <c r="J24" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-80600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-302500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-140600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-60100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>75100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-33200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>106900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>83700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>160800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>215800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>389300</v>
+        <v>146100</v>
       </c>
       <c r="E26" s="3">
-        <v>579300</v>
+        <v>375400</v>
       </c>
       <c r="F26" s="3">
-        <v>223300</v>
+        <v>558600</v>
       </c>
       <c r="G26" s="3">
-        <v>521600</v>
+        <v>215300</v>
       </c>
       <c r="H26" s="3">
-        <v>9300</v>
+        <v>498500</v>
       </c>
       <c r="I26" s="3">
-        <v>-423200</v>
+        <v>9000</v>
       </c>
       <c r="J26" s="3">
+        <v>-408100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-167100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-393600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-484200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-57000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>128200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-252500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-41100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>420000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>648300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>611500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>742200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>352400</v>
+        <v>142200</v>
       </c>
       <c r="E27" s="3">
-        <v>496500</v>
+        <v>339800</v>
       </c>
       <c r="F27" s="3">
-        <v>191500</v>
+        <v>478800</v>
       </c>
       <c r="G27" s="3">
-        <v>477500</v>
+        <v>184700</v>
       </c>
       <c r="H27" s="3">
-        <v>25500</v>
+        <v>455900</v>
       </c>
       <c r="I27" s="3">
-        <v>-410900</v>
+        <v>24600</v>
       </c>
       <c r="J27" s="3">
+        <v>-396200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-167200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-373200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-482600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-55400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>122800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-249800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-49900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>388900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>607500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>570100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>718200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2125,8 +2185,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-173600</v>
+        <v>103800</v>
       </c>
       <c r="E32" s="3">
-        <v>93800</v>
+        <v>-167400</v>
       </c>
       <c r="F32" s="3">
-        <v>65000</v>
+        <v>90400</v>
       </c>
       <c r="G32" s="3">
-        <v>92900</v>
+        <v>62600</v>
       </c>
       <c r="H32" s="3">
-        <v>57400</v>
+        <v>89600</v>
       </c>
       <c r="I32" s="3">
-        <v>-20300</v>
+        <v>55300</v>
       </c>
       <c r="J32" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-125700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>31000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>47700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-64600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>106000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-159200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>352400</v>
+        <v>142200</v>
       </c>
       <c r="E33" s="3">
-        <v>496500</v>
+        <v>339800</v>
       </c>
       <c r="F33" s="3">
-        <v>191500</v>
+        <v>478800</v>
       </c>
       <c r="G33" s="3">
-        <v>477500</v>
+        <v>184700</v>
       </c>
       <c r="H33" s="3">
-        <v>25500</v>
+        <v>455900</v>
       </c>
       <c r="I33" s="3">
-        <v>-410900</v>
+        <v>24600</v>
       </c>
       <c r="J33" s="3">
+        <v>-396200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-167200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-373200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-482600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-55400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-249800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-49900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>388900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>607500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>570100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>718200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>352400</v>
+        <v>142200</v>
       </c>
       <c r="E35" s="3">
-        <v>496500</v>
+        <v>339800</v>
       </c>
       <c r="F35" s="3">
-        <v>191500</v>
+        <v>478800</v>
       </c>
       <c r="G35" s="3">
-        <v>477500</v>
+        <v>184700</v>
       </c>
       <c r="H35" s="3">
-        <v>25500</v>
+        <v>455900</v>
       </c>
       <c r="I35" s="3">
-        <v>-410900</v>
+        <v>24600</v>
       </c>
       <c r="J35" s="3">
+        <v>-396200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-167200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-373200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-482600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-55400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-249800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-49900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>388900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>607500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>570100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>718200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2658,93 +2743,97 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2921200</v>
+        <v>2868700</v>
       </c>
       <c r="E41" s="3">
-        <v>3036000</v>
+        <v>2816900</v>
       </c>
       <c r="F41" s="3">
-        <v>3279400</v>
+        <v>2927600</v>
       </c>
       <c r="G41" s="3">
-        <v>3543200</v>
+        <v>3162300</v>
       </c>
       <c r="H41" s="3">
-        <v>2762900</v>
+        <v>3416700</v>
       </c>
       <c r="I41" s="3">
-        <v>2957500</v>
+        <v>2664200</v>
       </c>
       <c r="J41" s="3">
+        <v>2851900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2989000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2835600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2456100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2132600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2187800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1986600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2235800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2395200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2206400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2290300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1737200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1354700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1210300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1402800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1800</v>
+        <v>3400</v>
       </c>
       <c r="E42" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="F42" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H42" s="3">
         <v>1500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1200</v>
       </c>
       <c r="I42" s="3">
         <v>1200</v>
@@ -2753,525 +2842,549 @@
         <v>1200</v>
       </c>
       <c r="K42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>228500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>669700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>603000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1105000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>870900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>797300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>982200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3693300</v>
+        <v>3828100</v>
       </c>
       <c r="E43" s="3">
-        <v>3626000</v>
+        <v>3561400</v>
       </c>
       <c r="F43" s="3">
-        <v>3744700</v>
+        <v>3496500</v>
       </c>
       <c r="G43" s="3">
-        <v>3105000</v>
+        <v>3611000</v>
       </c>
       <c r="H43" s="3">
-        <v>3329500</v>
+        <v>2994100</v>
       </c>
       <c r="I43" s="3">
-        <v>2503600</v>
+        <v>3210600</v>
       </c>
       <c r="J43" s="3">
+        <v>2414100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2506300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3107100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3642900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2552200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3213100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2532300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2751000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3073400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3055600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3965900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4359300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4020800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4095800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4598400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3007500</v>
+        <v>2713800</v>
       </c>
       <c r="E44" s="3">
-        <v>2287200</v>
+        <v>2900100</v>
       </c>
       <c r="F44" s="3">
-        <v>1975400</v>
+        <v>2205500</v>
       </c>
       <c r="G44" s="3">
-        <v>1823400</v>
+        <v>1904900</v>
       </c>
       <c r="H44" s="3">
-        <v>2015800</v>
+        <v>1758200</v>
       </c>
       <c r="I44" s="3">
-        <v>1713100</v>
+        <v>1943800</v>
       </c>
       <c r="J44" s="3">
+        <v>1651900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1940500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1743500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2427200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2260900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2393200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2260600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2095800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2041500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1974300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2068100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2344300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2062200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2054900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2059000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1335300</v>
+        <v>1267500</v>
       </c>
       <c r="E45" s="3">
-        <v>1235400</v>
+        <v>1287600</v>
       </c>
       <c r="F45" s="3">
-        <v>1215800</v>
+        <v>1191300</v>
       </c>
       <c r="G45" s="3">
-        <v>850500</v>
+        <v>1172400</v>
       </c>
       <c r="H45" s="3">
-        <v>1064000</v>
+        <v>820100</v>
       </c>
       <c r="I45" s="3">
-        <v>1078700</v>
+        <v>1026000</v>
       </c>
       <c r="J45" s="3">
+        <v>1040200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1096300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1023600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1066900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>963600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>859300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>608900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>402500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>423500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>408800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>289600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>428200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>485800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>524200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>393400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10959100</v>
+        <v>10681500</v>
       </c>
       <c r="E46" s="3">
-        <v>10186700</v>
+        <v>10567700</v>
       </c>
       <c r="F46" s="3">
-        <v>10217000</v>
+        <v>9822900</v>
       </c>
       <c r="G46" s="3">
-        <v>9323600</v>
+        <v>9852100</v>
       </c>
       <c r="H46" s="3">
-        <v>9173400</v>
+        <v>8990600</v>
       </c>
       <c r="I46" s="3">
-        <v>8254100</v>
+        <v>8845700</v>
       </c>
       <c r="J46" s="3">
+        <v>7959300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8533300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8711100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9593900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7910500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8657400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7392100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7488700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8162200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8314800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9216900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9974000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8794500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8682400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9435800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>297800</v>
+        <v>268500</v>
       </c>
       <c r="E47" s="3">
-        <v>268200</v>
+        <v>287100</v>
       </c>
       <c r="F47" s="3">
-        <v>294600</v>
+        <v>258600</v>
       </c>
       <c r="G47" s="3">
-        <v>323800</v>
+        <v>284100</v>
       </c>
       <c r="H47" s="3">
-        <v>210600</v>
+        <v>312300</v>
       </c>
       <c r="I47" s="3">
-        <v>241100</v>
+        <v>203100</v>
       </c>
       <c r="J47" s="3">
+        <v>232500</v>
+      </c>
+      <c r="K47" s="3">
         <v>293000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>285600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>232300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>188600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>190100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>164300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>158600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>154000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>149900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>137500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>127800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>149500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>197500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>17067100</v>
+        <v>16652300</v>
       </c>
       <c r="E48" s="3">
-        <v>16995900</v>
+        <v>16457500</v>
       </c>
       <c r="F48" s="3">
-        <v>16971100</v>
+        <v>16388900</v>
       </c>
       <c r="G48" s="3">
-        <v>16923500</v>
+        <v>16365000</v>
       </c>
       <c r="H48" s="3">
-        <v>17749100</v>
+        <v>16671800</v>
       </c>
       <c r="I48" s="3">
-        <v>18249200</v>
+        <v>17115200</v>
       </c>
       <c r="J48" s="3">
+        <v>17597400</v>
+      </c>
+      <c r="K48" s="3">
         <v>18739300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18774500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21120200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21068600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21027600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18144100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16307900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15987500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14721100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14257700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13203600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12466000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11656300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10828300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1297400</v>
+        <v>1332400</v>
       </c>
       <c r="E49" s="3">
-        <v>1039800</v>
+        <v>1251000</v>
       </c>
       <c r="F49" s="3">
-        <v>1057600</v>
+        <v>1002700</v>
       </c>
       <c r="G49" s="3">
-        <v>856900</v>
+        <v>1019800</v>
       </c>
       <c r="H49" s="3">
-        <v>667100</v>
+        <v>836000</v>
       </c>
       <c r="I49" s="3">
-        <v>711800</v>
+        <v>643200</v>
       </c>
       <c r="J49" s="3">
+        <v>686400</v>
+      </c>
+      <c r="K49" s="3">
         <v>738900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>742400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>864600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>819600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>897600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>829600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>803500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>795000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>766200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>803300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>782000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>744500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>764600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>805400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3406,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1967900</v>
+        <v>1970400</v>
       </c>
       <c r="E52" s="3">
-        <v>2021300</v>
+        <v>1897600</v>
       </c>
       <c r="F52" s="3">
-        <v>2033600</v>
+        <v>1949100</v>
       </c>
       <c r="G52" s="3">
-        <v>2032300</v>
+        <v>1961000</v>
       </c>
       <c r="H52" s="3">
-        <v>2017700</v>
+        <v>1961200</v>
       </c>
       <c r="I52" s="3">
-        <v>1989400</v>
+        <v>1945600</v>
       </c>
       <c r="J52" s="3">
+        <v>1918400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1839400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1724800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1513300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1341400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1430400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1337500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1258100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1314600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1256200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1232800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1239600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1188500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1071800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1128900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>31589200</v>
+        <v>30905200</v>
       </c>
       <c r="E54" s="3">
-        <v>30511900</v>
+        <v>30461000</v>
       </c>
       <c r="F54" s="3">
-        <v>30573900</v>
+        <v>29422200</v>
       </c>
       <c r="G54" s="3">
-        <v>29460100</v>
+        <v>29482000</v>
       </c>
       <c r="H54" s="3">
-        <v>29817800</v>
+        <v>28403500</v>
       </c>
       <c r="I54" s="3">
-        <v>29445600</v>
+        <v>28752900</v>
       </c>
       <c r="J54" s="3">
+        <v>28393900</v>
+      </c>
+      <c r="K54" s="3">
         <v>30143900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30238400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33324300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31328700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32203100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27867600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26016900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26413100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25196000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25660500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25336700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23321100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22324700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22395900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,416 +3791,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3636700</v>
+        <v>3899400</v>
       </c>
       <c r="E57" s="3">
-        <v>3138700</v>
+        <v>3506800</v>
       </c>
       <c r="F57" s="3">
-        <v>3338900</v>
+        <v>3026600</v>
       </c>
       <c r="G57" s="3">
-        <v>3174600</v>
+        <v>3219700</v>
       </c>
       <c r="H57" s="3">
-        <v>3391200</v>
+        <v>3061200</v>
       </c>
       <c r="I57" s="3">
-        <v>2911600</v>
+        <v>3270100</v>
       </c>
       <c r="J57" s="3">
+        <v>2807600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2412600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2225500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2379300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2477500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2702900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2593500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2573100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2494500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2354400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2530100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2607300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2150400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2193700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2589600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4162600</v>
+        <v>3278700</v>
       </c>
       <c r="E58" s="3">
-        <v>3728200</v>
+        <v>4014000</v>
       </c>
       <c r="F58" s="3">
-        <v>3117700</v>
+        <v>3595100</v>
       </c>
       <c r="G58" s="3">
-        <v>2634400</v>
+        <v>3006300</v>
       </c>
       <c r="H58" s="3">
-        <v>2162800</v>
+        <v>2540300</v>
       </c>
       <c r="I58" s="3">
-        <v>2632900</v>
+        <v>2085500</v>
       </c>
       <c r="J58" s="3">
+        <v>2538800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2427500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1680500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1708400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1625800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1454900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1305300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1659500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1833200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1804300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1278600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1072600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>734100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>690200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>601100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3680500</v>
+        <v>4157800</v>
       </c>
       <c r="E59" s="3">
-        <v>3743500</v>
+        <v>3549000</v>
       </c>
       <c r="F59" s="3">
-        <v>3621800</v>
+        <v>3609800</v>
       </c>
       <c r="G59" s="3">
-        <v>3436900</v>
+        <v>3492400</v>
       </c>
       <c r="H59" s="3">
-        <v>3856000</v>
+        <v>3314100</v>
       </c>
       <c r="I59" s="3">
-        <v>3830200</v>
+        <v>3718300</v>
       </c>
       <c r="J59" s="3">
+        <v>3693400</v>
+      </c>
+      <c r="K59" s="3">
         <v>4579200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5431200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5382700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4890500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4697300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4463000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3983800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3878000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3862100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4092600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3429700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3088300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3298400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3161700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11479800</v>
+        <v>11335800</v>
       </c>
       <c r="E60" s="3">
-        <v>10610400</v>
+        <v>11069800</v>
       </c>
       <c r="F60" s="3">
-        <v>10078400</v>
+        <v>10231500</v>
       </c>
       <c r="G60" s="3">
-        <v>9245800</v>
+        <v>9718400</v>
       </c>
       <c r="H60" s="3">
-        <v>9410000</v>
+        <v>8915600</v>
       </c>
       <c r="I60" s="3">
-        <v>9374700</v>
+        <v>9073900</v>
       </c>
       <c r="J60" s="3">
+        <v>9039900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9419300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9337200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9470400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8993900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8855100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8361800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8216400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8205600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8020800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7901200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7109600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5972800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6182300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6352400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>7217100</v>
+        <v>7047300</v>
       </c>
       <c r="E61" s="3">
-        <v>7950700</v>
+        <v>6959300</v>
       </c>
       <c r="F61" s="3">
-        <v>8976400</v>
+        <v>7666800</v>
       </c>
       <c r="G61" s="3">
-        <v>9253500</v>
+        <v>8655800</v>
       </c>
       <c r="H61" s="3">
-        <v>9991700</v>
+        <v>8923000</v>
       </c>
       <c r="I61" s="3">
-        <v>9742200</v>
+        <v>9634900</v>
       </c>
       <c r="J61" s="3">
+        <v>9394200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9876300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9853500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10332500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8500600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8383100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5884100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4588400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4522600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3850300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3652200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3665600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3685800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3525400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3699800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>618600</v>
+        <v>564400</v>
       </c>
       <c r="E62" s="3">
-        <v>391700</v>
+        <v>596500</v>
       </c>
       <c r="F62" s="3">
-        <v>398300</v>
+        <v>377700</v>
       </c>
       <c r="G62" s="3">
-        <v>261700</v>
+        <v>384100</v>
       </c>
       <c r="H62" s="3">
-        <v>189600</v>
+        <v>252300</v>
       </c>
       <c r="I62" s="3">
-        <v>164100</v>
+        <v>182900</v>
       </c>
       <c r="J62" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K62" s="3">
         <v>295300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>432600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>771400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>873000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1051400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1117300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1311500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1477300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>871400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>923400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1213500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>823900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>278900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>227600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20671300</v>
+        <v>20278900</v>
       </c>
       <c r="E66" s="3">
-        <v>20212000</v>
+        <v>19933100</v>
       </c>
       <c r="F66" s="3">
-        <v>20643500</v>
+        <v>19490200</v>
       </c>
       <c r="G66" s="3">
-        <v>19883200</v>
+        <v>19906200</v>
       </c>
       <c r="H66" s="3">
-        <v>20635900</v>
+        <v>19173100</v>
       </c>
       <c r="I66" s="3">
-        <v>20327900</v>
+        <v>19898900</v>
       </c>
       <c r="J66" s="3">
+        <v>19601900</v>
+      </c>
+      <c r="K66" s="3">
         <v>20594100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20599000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21627400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19428300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19398500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16125100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14841500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14696300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13236700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13011900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12546500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10999900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10453700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10735500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>7162400</v>
+        <v>6918600</v>
       </c>
       <c r="E72" s="3">
-        <v>6811900</v>
+        <v>6906600</v>
       </c>
       <c r="F72" s="3">
-        <v>6509000</v>
+        <v>6568600</v>
       </c>
       <c r="G72" s="3">
-        <v>6320400</v>
+        <v>6276500</v>
       </c>
       <c r="H72" s="3">
-        <v>5747300</v>
+        <v>6090200</v>
       </c>
       <c r="I72" s="3">
-        <v>5722400</v>
+        <v>5542000</v>
       </c>
       <c r="J72" s="3">
+        <v>5518000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6134100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6377800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8189400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8467600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9261100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8601600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8163200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8465600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8718500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9347000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9312600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8926100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8509500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8103900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10917900</v>
+        <v>10626300</v>
       </c>
       <c r="E76" s="3">
-        <v>10299900</v>
+        <v>10528000</v>
       </c>
       <c r="F76" s="3">
-        <v>9930500</v>
+        <v>9932000</v>
       </c>
       <c r="G76" s="3">
-        <v>9576900</v>
+        <v>9575800</v>
       </c>
       <c r="H76" s="3">
-        <v>9181900</v>
+        <v>9230400</v>
       </c>
       <c r="I76" s="3">
-        <v>9117700</v>
+        <v>8854000</v>
       </c>
       <c r="J76" s="3">
+        <v>8792000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9549800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9639400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11696900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11900400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12804600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11742500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11175400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11716800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11959300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12648700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12790200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12321300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11871000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11660400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>352400</v>
+        <v>142200</v>
       </c>
       <c r="E81" s="3">
-        <v>496500</v>
+        <v>339800</v>
       </c>
       <c r="F81" s="3">
-        <v>191500</v>
+        <v>478800</v>
       </c>
       <c r="G81" s="3">
-        <v>477500</v>
+        <v>184700</v>
       </c>
       <c r="H81" s="3">
-        <v>25500</v>
+        <v>455900</v>
       </c>
       <c r="I81" s="3">
-        <v>-410900</v>
+        <v>24600</v>
       </c>
       <c r="J81" s="3">
+        <v>-396200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-167200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-373200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-482600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-55400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-249800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-49900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>388900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>607500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>570100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>718200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>980400</v>
+        <v>945500</v>
       </c>
       <c r="E83" s="3">
-        <v>1819600</v>
+        <v>945400</v>
       </c>
       <c r="F83" s="3">
-        <v>921500</v>
+        <v>1754600</v>
       </c>
       <c r="G83" s="3">
-        <v>914600</v>
+        <v>888600</v>
       </c>
       <c r="H83" s="3">
-        <v>944200</v>
+        <v>882000</v>
       </c>
       <c r="I83" s="3">
-        <v>780800</v>
+        <v>910500</v>
       </c>
       <c r="J83" s="3">
+        <v>752900</v>
+      </c>
+      <c r="K83" s="3">
         <v>833700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>857000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>866500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>793700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>738200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>718200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>713100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>763600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>764500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>779200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>734000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>685600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>644300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>648000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1107600</v>
+        <v>1640500</v>
       </c>
       <c r="E89" s="3">
-        <v>2024000</v>
+        <v>1068100</v>
       </c>
       <c r="F89" s="3">
-        <v>808300</v>
+        <v>1951700</v>
       </c>
       <c r="G89" s="3">
-        <v>923400</v>
+        <v>779400</v>
       </c>
       <c r="H89" s="3">
-        <v>369700</v>
+        <v>890400</v>
       </c>
       <c r="I89" s="3">
-        <v>472900</v>
+        <v>356500</v>
       </c>
       <c r="J89" s="3">
+        <v>456000</v>
+      </c>
+      <c r="K89" s="3">
         <v>155100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1243600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1290100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-160200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>648900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1193300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1206300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>673900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1444800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1696700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1718000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1117800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1214000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-723000</v>
+        <v>-684900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1205500</v>
+        <v>-697200</v>
       </c>
       <c r="F91" s="3">
-        <v>-479100</v>
+        <v>-1162400</v>
       </c>
       <c r="G91" s="3">
-        <v>-366300</v>
+        <v>-462000</v>
       </c>
       <c r="H91" s="3">
-        <v>-284000</v>
+        <v>-353200</v>
       </c>
       <c r="I91" s="3">
-        <v>-673200</v>
+        <v>-273800</v>
       </c>
       <c r="J91" s="3">
+        <v>-649100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-863500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-852300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-811300</v>
+        <v>-799000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1941000</v>
+        <v>-782400</v>
       </c>
       <c r="F94" s="3">
-        <v>-961600</v>
+        <v>-1871700</v>
       </c>
       <c r="G94" s="3">
-        <v>-214000</v>
+        <v>-927300</v>
       </c>
       <c r="H94" s="3">
-        <v>-310900</v>
+        <v>-206400</v>
       </c>
       <c r="I94" s="3">
-        <v>-741900</v>
+        <v>-299800</v>
       </c>
       <c r="J94" s="3">
+        <v>-715400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-681400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-894100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-690000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6015,8 +6247,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6083,8 +6316,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6287,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-521200</v>
+        <v>-810900</v>
       </c>
       <c r="E100" s="3">
-        <v>-709500</v>
+        <v>-502500</v>
       </c>
       <c r="F100" s="3">
-        <v>-193100</v>
+        <v>-684100</v>
       </c>
       <c r="G100" s="3">
-        <v>150800</v>
+        <v>-186200</v>
       </c>
       <c r="H100" s="3">
-        <v>-275100</v>
+        <v>145400</v>
       </c>
       <c r="I100" s="3">
-        <v>272000</v>
+        <v>-265300</v>
       </c>
       <c r="J100" s="3">
+        <v>262300</v>
+      </c>
+      <c r="K100" s="3">
         <v>635000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>180000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1640500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>564500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2085200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>703200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>373100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>452700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>937500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>329400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>290500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>89200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>50900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-190200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>110100</v>
+        <v>21200</v>
       </c>
       <c r="E101" s="3">
-        <v>119300</v>
+        <v>106200</v>
       </c>
       <c r="F101" s="3">
-        <v>82600</v>
+        <v>115000</v>
       </c>
       <c r="G101" s="3">
-        <v>-79800</v>
+        <v>79700</v>
       </c>
       <c r="H101" s="3">
-        <v>21700</v>
+        <v>-77000</v>
       </c>
       <c r="I101" s="3">
-        <v>-34600</v>
+        <v>20900</v>
       </c>
       <c r="J101" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K101" s="3">
         <v>78000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-39600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>55400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-55600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-78400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>26200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>33000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-71800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-114800</v>
+        <v>51800</v>
       </c>
       <c r="E102" s="3">
-        <v>-507200</v>
+        <v>-110700</v>
       </c>
       <c r="F102" s="3">
-        <v>-263800</v>
+        <v>-489100</v>
       </c>
       <c r="G102" s="3">
-        <v>780300</v>
+        <v>-254400</v>
       </c>
       <c r="H102" s="3">
-        <v>-194600</v>
+        <v>752500</v>
       </c>
       <c r="I102" s="3">
-        <v>-31600</v>
+        <v>-187700</v>
       </c>
       <c r="J102" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K102" s="3">
         <v>186800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>489900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>299300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-332000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>188800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>553100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>382400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>171400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-192600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>434500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7133300</v>
+        <v>6781000</v>
       </c>
       <c r="E8" s="3">
-        <v>5850800</v>
+        <v>5561900</v>
       </c>
       <c r="F8" s="3">
-        <v>11217100</v>
+        <v>10663200</v>
       </c>
       <c r="G8" s="3">
-        <v>5575000</v>
+        <v>5299700</v>
       </c>
       <c r="H8" s="3">
-        <v>6069000</v>
+        <v>5769300</v>
       </c>
       <c r="I8" s="3">
-        <v>5457500</v>
+        <v>5188000</v>
       </c>
       <c r="J8" s="3">
-        <v>4298700</v>
+        <v>4086400</v>
       </c>
       <c r="K8" s="3">
         <v>3968400</v>
@@ -838,25 +838,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6067600</v>
+        <v>5768000</v>
       </c>
       <c r="E9" s="3">
-        <v>4791300</v>
+        <v>4554700</v>
       </c>
       <c r="F9" s="3">
-        <v>9045100</v>
+        <v>8598400</v>
       </c>
       <c r="G9" s="3">
-        <v>4577500</v>
+        <v>4351500</v>
       </c>
       <c r="H9" s="3">
-        <v>4948400</v>
+        <v>4704000</v>
       </c>
       <c r="I9" s="3">
-        <v>4772800</v>
+        <v>4537100</v>
       </c>
       <c r="J9" s="3">
-        <v>4194900</v>
+        <v>3987700</v>
       </c>
       <c r="K9" s="3">
         <v>3734700</v>
@@ -909,25 +909,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1065600</v>
+        <v>1013000</v>
       </c>
       <c r="E10" s="3">
-        <v>1059500</v>
+        <v>1007100</v>
       </c>
       <c r="F10" s="3">
-        <v>2172000</v>
+        <v>2064800</v>
       </c>
       <c r="G10" s="3">
-        <v>997500</v>
+        <v>948200</v>
       </c>
       <c r="H10" s="3">
-        <v>1120700</v>
+        <v>1065300</v>
       </c>
       <c r="I10" s="3">
-        <v>684700</v>
+        <v>650900</v>
       </c>
       <c r="J10" s="3">
-        <v>103800</v>
+        <v>98700</v>
       </c>
       <c r="K10" s="3">
         <v>233600</v>
@@ -1007,25 +1007,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>270400</v>
+        <v>257000</v>
       </c>
       <c r="E12" s="3">
-        <v>257100</v>
+        <v>244400</v>
       </c>
       <c r="F12" s="3">
-        <v>462400</v>
+        <v>439600</v>
       </c>
       <c r="G12" s="3">
-        <v>223400</v>
+        <v>212300</v>
       </c>
       <c r="H12" s="3">
-        <v>219300</v>
+        <v>208500</v>
       </c>
       <c r="I12" s="3">
-        <v>221600</v>
+        <v>210600</v>
       </c>
       <c r="J12" s="3">
-        <v>232900</v>
+        <v>221400</v>
       </c>
       <c r="K12" s="3">
         <v>224200</v>
@@ -1149,25 +1149,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16600</v>
+        <v>15700</v>
       </c>
       <c r="E14" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="G14" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="3">
-        <v>32000</v>
+        <v>30400</v>
       </c>
       <c r="I14" s="3">
-        <v>31100</v>
+        <v>29600</v>
       </c>
       <c r="J14" s="3">
-        <v>83200</v>
+        <v>79100</v>
       </c>
       <c r="K14" s="3">
         <v>8200</v>
@@ -1220,25 +1220,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>54400</v>
+        <v>51700</v>
       </c>
       <c r="E15" s="3">
-        <v>56800</v>
+        <v>54000</v>
       </c>
       <c r="F15" s="3">
-        <v>105200</v>
+        <v>100000</v>
       </c>
       <c r="G15" s="3">
-        <v>51100</v>
+        <v>48600</v>
       </c>
       <c r="H15" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="I15" s="3">
-        <v>40900</v>
+        <v>38900</v>
       </c>
       <c r="J15" s="3">
-        <v>44400</v>
+        <v>42200</v>
       </c>
       <c r="K15" s="3">
         <v>46800</v>
@@ -1315,25 +1315,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6763000</v>
+        <v>6429000</v>
       </c>
       <c r="E17" s="3">
-        <v>5428700</v>
+        <v>5160600</v>
       </c>
       <c r="F17" s="3">
-        <v>10238800</v>
+        <v>9733100</v>
       </c>
       <c r="G17" s="3">
-        <v>5157600</v>
+        <v>4902900</v>
       </c>
       <c r="H17" s="3">
-        <v>5551800</v>
+        <v>5277600</v>
       </c>
       <c r="I17" s="3">
-        <v>5355500</v>
+        <v>5091000</v>
       </c>
       <c r="J17" s="3">
-        <v>4800600</v>
+        <v>4563600</v>
       </c>
       <c r="K17" s="3">
         <v>4280500</v>
@@ -1386,25 +1386,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>370300</v>
+        <v>352000</v>
       </c>
       <c r="E18" s="3">
-        <v>422100</v>
+        <v>401200</v>
       </c>
       <c r="F18" s="3">
-        <v>978400</v>
+        <v>930100</v>
       </c>
       <c r="G18" s="3">
-        <v>417400</v>
+        <v>396800</v>
       </c>
       <c r="H18" s="3">
-        <v>517300</v>
+        <v>491700</v>
       </c>
       <c r="I18" s="3">
-        <v>102000</v>
+        <v>97000</v>
       </c>
       <c r="J18" s="3">
-        <v>-502000</v>
+        <v>-477200</v>
       </c>
       <c r="K18" s="3">
         <v>-312200</v>
@@ -1484,25 +1484,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-103800</v>
+        <v>-98700</v>
       </c>
       <c r="E20" s="3">
-        <v>167400</v>
+        <v>159100</v>
       </c>
       <c r="F20" s="3">
-        <v>-90400</v>
+        <v>-86000</v>
       </c>
       <c r="G20" s="3">
-        <v>-62600</v>
+        <v>-59500</v>
       </c>
       <c r="H20" s="3">
-        <v>-89600</v>
+        <v>-85200</v>
       </c>
       <c r="I20" s="3">
-        <v>-55300</v>
+        <v>-52600</v>
       </c>
       <c r="J20" s="3">
-        <v>19600</v>
+        <v>18600</v>
       </c>
       <c r="K20" s="3">
         <v>125700</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1212000</v>
+        <v>1152200</v>
       </c>
       <c r="E21" s="3">
-        <v>1534900</v>
+        <v>1459100</v>
       </c>
       <c r="F21" s="3">
-        <v>2642600</v>
+        <v>2512100</v>
       </c>
       <c r="G21" s="3">
-        <v>1243300</v>
+        <v>1181900</v>
       </c>
       <c r="H21" s="3">
-        <v>1309600</v>
+        <v>1244900</v>
       </c>
       <c r="I21" s="3">
-        <v>957100</v>
+        <v>909900</v>
       </c>
       <c r="J21" s="3">
-        <v>270500</v>
+        <v>257100</v>
       </c>
       <c r="K21" s="3">
         <v>647200</v>
@@ -1626,25 +1626,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>74100</v>
+        <v>70500</v>
       </c>
       <c r="E22" s="3">
-        <v>96900</v>
+        <v>92100</v>
       </c>
       <c r="F22" s="3">
-        <v>180600</v>
+        <v>171600</v>
       </c>
       <c r="G22" s="3">
-        <v>92900</v>
+        <v>88300</v>
       </c>
       <c r="H22" s="3">
-        <v>90900</v>
+        <v>86400</v>
       </c>
       <c r="I22" s="3">
-        <v>90700</v>
+        <v>86200</v>
       </c>
       <c r="J22" s="3">
-        <v>59400</v>
+        <v>56500</v>
       </c>
       <c r="K22" s="3">
         <v>61200</v>
@@ -1697,25 +1697,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>192300</v>
+        <v>182800</v>
       </c>
       <c r="E23" s="3">
-        <v>492600</v>
+        <v>468200</v>
       </c>
       <c r="F23" s="3">
-        <v>707400</v>
+        <v>672500</v>
       </c>
       <c r="G23" s="3">
-        <v>261900</v>
+        <v>248900</v>
       </c>
       <c r="H23" s="3">
-        <v>336700</v>
+        <v>320100</v>
       </c>
       <c r="I23" s="3">
-        <v>-44000</v>
+        <v>-41800</v>
       </c>
       <c r="J23" s="3">
-        <v>-541800</v>
+        <v>-515100</v>
       </c>
       <c r="K23" s="3">
         <v>-247700</v>
@@ -1768,25 +1768,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>46200</v>
+        <v>43900</v>
       </c>
       <c r="E24" s="3">
-        <v>117200</v>
+        <v>111400</v>
       </c>
       <c r="F24" s="3">
-        <v>148800</v>
+        <v>141400</v>
       </c>
       <c r="G24" s="3">
-        <v>46600</v>
+        <v>44300</v>
       </c>
       <c r="H24" s="3">
-        <v>-161800</v>
+        <v>-153800</v>
       </c>
       <c r="I24" s="3">
-        <v>-53000</v>
+        <v>-50400</v>
       </c>
       <c r="J24" s="3">
-        <v>-133700</v>
+        <v>-127100</v>
       </c>
       <c r="K24" s="3">
         <v>-80600</v>
@@ -1910,25 +1910,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>146100</v>
+        <v>138900</v>
       </c>
       <c r="E26" s="3">
-        <v>375400</v>
+        <v>356900</v>
       </c>
       <c r="F26" s="3">
-        <v>558600</v>
+        <v>531000</v>
       </c>
       <c r="G26" s="3">
-        <v>215300</v>
+        <v>204700</v>
       </c>
       <c r="H26" s="3">
-        <v>498500</v>
+        <v>473900</v>
       </c>
       <c r="I26" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="J26" s="3">
-        <v>-408100</v>
+        <v>-387900</v>
       </c>
       <c r="K26" s="3">
         <v>-167100</v>
@@ -1981,25 +1981,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>142200</v>
+        <v>135200</v>
       </c>
       <c r="E27" s="3">
-        <v>339800</v>
+        <v>323000</v>
       </c>
       <c r="F27" s="3">
-        <v>478800</v>
+        <v>455100</v>
       </c>
       <c r="G27" s="3">
-        <v>184700</v>
+        <v>175600</v>
       </c>
       <c r="H27" s="3">
-        <v>455900</v>
+        <v>433400</v>
       </c>
       <c r="I27" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="J27" s="3">
-        <v>-396200</v>
+        <v>-376600</v>
       </c>
       <c r="K27" s="3">
         <v>-167200</v>
@@ -2336,25 +2336,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>103800</v>
+        <v>98700</v>
       </c>
       <c r="E32" s="3">
-        <v>-167400</v>
+        <v>-159100</v>
       </c>
       <c r="F32" s="3">
-        <v>90400</v>
+        <v>86000</v>
       </c>
       <c r="G32" s="3">
-        <v>62600</v>
+        <v>59500</v>
       </c>
       <c r="H32" s="3">
-        <v>89600</v>
+        <v>85200</v>
       </c>
       <c r="I32" s="3">
-        <v>55300</v>
+        <v>52600</v>
       </c>
       <c r="J32" s="3">
-        <v>-19600</v>
+        <v>-18600</v>
       </c>
       <c r="K32" s="3">
         <v>-125700</v>
@@ -2407,25 +2407,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>142200</v>
+        <v>135200</v>
       </c>
       <c r="E33" s="3">
-        <v>339800</v>
+        <v>323000</v>
       </c>
       <c r="F33" s="3">
-        <v>478800</v>
+        <v>455100</v>
       </c>
       <c r="G33" s="3">
-        <v>184700</v>
+        <v>175600</v>
       </c>
       <c r="H33" s="3">
-        <v>455900</v>
+        <v>433400</v>
       </c>
       <c r="I33" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="J33" s="3">
-        <v>-396200</v>
+        <v>-376600</v>
       </c>
       <c r="K33" s="3">
         <v>-167200</v>
@@ -2549,25 +2549,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>142200</v>
+        <v>135200</v>
       </c>
       <c r="E35" s="3">
-        <v>339800</v>
+        <v>323000</v>
       </c>
       <c r="F35" s="3">
-        <v>478800</v>
+        <v>455100</v>
       </c>
       <c r="G35" s="3">
-        <v>184700</v>
+        <v>175600</v>
       </c>
       <c r="H35" s="3">
-        <v>455900</v>
+        <v>433400</v>
       </c>
       <c r="I35" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="J35" s="3">
-        <v>-396200</v>
+        <v>-376600</v>
       </c>
       <c r="K35" s="3">
         <v>-167200</v>
@@ -2750,25 +2750,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2868700</v>
+        <v>2727000</v>
       </c>
       <c r="E41" s="3">
-        <v>2816900</v>
+        <v>2677800</v>
       </c>
       <c r="F41" s="3">
-        <v>2927600</v>
+        <v>2783000</v>
       </c>
       <c r="G41" s="3">
-        <v>3162300</v>
+        <v>3006100</v>
       </c>
       <c r="H41" s="3">
-        <v>3416700</v>
+        <v>3247900</v>
       </c>
       <c r="I41" s="3">
-        <v>2664200</v>
+        <v>2532600</v>
       </c>
       <c r="J41" s="3">
-        <v>2851900</v>
+        <v>2711000</v>
       </c>
       <c r="K41" s="3">
         <v>2989000</v>
@@ -2821,25 +2821,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E42" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K42" s="3">
         <v>1200</v>
@@ -2892,25 +2892,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3828100</v>
+        <v>3639100</v>
       </c>
       <c r="E43" s="3">
-        <v>3561400</v>
+        <v>3385500</v>
       </c>
       <c r="F43" s="3">
-        <v>3496500</v>
+        <v>3323800</v>
       </c>
       <c r="G43" s="3">
-        <v>3611000</v>
+        <v>3432700</v>
       </c>
       <c r="H43" s="3">
-        <v>2994100</v>
+        <v>2846200</v>
       </c>
       <c r="I43" s="3">
-        <v>3210600</v>
+        <v>3052100</v>
       </c>
       <c r="J43" s="3">
-        <v>2414100</v>
+        <v>2294900</v>
       </c>
       <c r="K43" s="3">
         <v>2506300</v>
@@ -2963,25 +2963,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2713800</v>
+        <v>2579800</v>
       </c>
       <c r="E44" s="3">
-        <v>2900100</v>
+        <v>2756900</v>
       </c>
       <c r="F44" s="3">
-        <v>2205500</v>
+        <v>2096600</v>
       </c>
       <c r="G44" s="3">
-        <v>1904900</v>
+        <v>1810800</v>
       </c>
       <c r="H44" s="3">
-        <v>1758200</v>
+        <v>1671400</v>
       </c>
       <c r="I44" s="3">
-        <v>1943800</v>
+        <v>1847800</v>
       </c>
       <c r="J44" s="3">
-        <v>1651900</v>
+        <v>1570300</v>
       </c>
       <c r="K44" s="3">
         <v>1940500</v>
@@ -3034,25 +3034,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1267500</v>
+        <v>1204900</v>
       </c>
       <c r="E45" s="3">
-        <v>1287600</v>
+        <v>1224000</v>
       </c>
       <c r="F45" s="3">
-        <v>1191300</v>
+        <v>1132500</v>
       </c>
       <c r="G45" s="3">
-        <v>1172400</v>
+        <v>1114500</v>
       </c>
       <c r="H45" s="3">
-        <v>820100</v>
+        <v>779600</v>
       </c>
       <c r="I45" s="3">
-        <v>1026000</v>
+        <v>975400</v>
       </c>
       <c r="J45" s="3">
-        <v>1040200</v>
+        <v>988800</v>
       </c>
       <c r="K45" s="3">
         <v>1096300</v>
@@ -3105,25 +3105,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10681500</v>
+        <v>10154000</v>
       </c>
       <c r="E46" s="3">
-        <v>10567700</v>
+        <v>10045800</v>
       </c>
       <c r="F46" s="3">
-        <v>9822900</v>
+        <v>9337800</v>
       </c>
       <c r="G46" s="3">
-        <v>9852100</v>
+        <v>9365600</v>
       </c>
       <c r="H46" s="3">
-        <v>8990600</v>
+        <v>8546600</v>
       </c>
       <c r="I46" s="3">
-        <v>8845700</v>
+        <v>8408900</v>
       </c>
       <c r="J46" s="3">
-        <v>7959300</v>
+        <v>7566200</v>
       </c>
       <c r="K46" s="3">
         <v>8533300</v>
@@ -3176,25 +3176,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>268500</v>
+        <v>255300</v>
       </c>
       <c r="E47" s="3">
-        <v>287100</v>
+        <v>272900</v>
       </c>
       <c r="F47" s="3">
-        <v>258600</v>
+        <v>245900</v>
       </c>
       <c r="G47" s="3">
-        <v>284100</v>
+        <v>270100</v>
       </c>
       <c r="H47" s="3">
-        <v>312300</v>
+        <v>296900</v>
       </c>
       <c r="I47" s="3">
-        <v>203100</v>
+        <v>193100</v>
       </c>
       <c r="J47" s="3">
-        <v>232500</v>
+        <v>221000</v>
       </c>
       <c r="K47" s="3">
         <v>293000</v>
@@ -3247,25 +3247,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>16652300</v>
+        <v>15830000</v>
       </c>
       <c r="E48" s="3">
-        <v>16457500</v>
+        <v>15644800</v>
       </c>
       <c r="F48" s="3">
-        <v>16388900</v>
+        <v>15579600</v>
       </c>
       <c r="G48" s="3">
-        <v>16365000</v>
+        <v>15556800</v>
       </c>
       <c r="H48" s="3">
-        <v>16671800</v>
+        <v>15848500</v>
       </c>
       <c r="I48" s="3">
-        <v>17115200</v>
+        <v>16270000</v>
       </c>
       <c r="J48" s="3">
-        <v>17597400</v>
+        <v>16728400</v>
       </c>
       <c r="K48" s="3">
         <v>18739300</v>
@@ -3318,25 +3318,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1332400</v>
+        <v>1266600</v>
       </c>
       <c r="E49" s="3">
-        <v>1251000</v>
+        <v>1189200</v>
       </c>
       <c r="F49" s="3">
-        <v>1002700</v>
+        <v>953200</v>
       </c>
       <c r="G49" s="3">
-        <v>1019800</v>
+        <v>969400</v>
       </c>
       <c r="H49" s="3">
-        <v>836000</v>
+        <v>794800</v>
       </c>
       <c r="I49" s="3">
-        <v>643200</v>
+        <v>611500</v>
       </c>
       <c r="J49" s="3">
-        <v>686400</v>
+        <v>652500</v>
       </c>
       <c r="K49" s="3">
         <v>738900</v>
@@ -3531,25 +3531,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1970400</v>
+        <v>1873100</v>
       </c>
       <c r="E52" s="3">
-        <v>1897600</v>
+        <v>1803900</v>
       </c>
       <c r="F52" s="3">
-        <v>1949100</v>
+        <v>1852800</v>
       </c>
       <c r="G52" s="3">
-        <v>1961000</v>
+        <v>1864100</v>
       </c>
       <c r="H52" s="3">
-        <v>1961200</v>
+        <v>1864300</v>
       </c>
       <c r="I52" s="3">
-        <v>1945600</v>
+        <v>1849500</v>
       </c>
       <c r="J52" s="3">
-        <v>1918400</v>
+        <v>1823600</v>
       </c>
       <c r="K52" s="3">
         <v>1839400</v>
@@ -3673,25 +3673,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>30905200</v>
+        <v>29379000</v>
       </c>
       <c r="E54" s="3">
-        <v>30461000</v>
+        <v>28956800</v>
       </c>
       <c r="F54" s="3">
-        <v>29422200</v>
+        <v>27969200</v>
       </c>
       <c r="G54" s="3">
-        <v>29482000</v>
+        <v>28026100</v>
       </c>
       <c r="H54" s="3">
-        <v>28403500</v>
+        <v>27000800</v>
       </c>
       <c r="I54" s="3">
-        <v>28752900</v>
+        <v>27333000</v>
       </c>
       <c r="J54" s="3">
-        <v>28393900</v>
+        <v>26991800</v>
       </c>
       <c r="K54" s="3">
         <v>30143900</v>
@@ -3798,25 +3798,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3899400</v>
+        <v>3706800</v>
       </c>
       <c r="E57" s="3">
-        <v>3506800</v>
+        <v>3333600</v>
       </c>
       <c r="F57" s="3">
-        <v>3026600</v>
+        <v>2877200</v>
       </c>
       <c r="G57" s="3">
-        <v>3219700</v>
+        <v>3060700</v>
       </c>
       <c r="H57" s="3">
-        <v>3061200</v>
+        <v>2910100</v>
       </c>
       <c r="I57" s="3">
-        <v>3270100</v>
+        <v>3108600</v>
       </c>
       <c r="J57" s="3">
-        <v>2807600</v>
+        <v>2669000</v>
       </c>
       <c r="K57" s="3">
         <v>2412600</v>
@@ -3869,25 +3869,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3278700</v>
+        <v>3116700</v>
       </c>
       <c r="E58" s="3">
-        <v>4014000</v>
+        <v>3815700</v>
       </c>
       <c r="F58" s="3">
-        <v>3595100</v>
+        <v>3417500</v>
       </c>
       <c r="G58" s="3">
-        <v>3006300</v>
+        <v>2857900</v>
       </c>
       <c r="H58" s="3">
-        <v>2540300</v>
+        <v>2414800</v>
       </c>
       <c r="I58" s="3">
-        <v>2085500</v>
+        <v>1982600</v>
       </c>
       <c r="J58" s="3">
-        <v>2538800</v>
+        <v>2413500</v>
       </c>
       <c r="K58" s="3">
         <v>2427500</v>
@@ -3940,25 +3940,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4157800</v>
+        <v>3952400</v>
       </c>
       <c r="E59" s="3">
-        <v>3549000</v>
+        <v>3373800</v>
       </c>
       <c r="F59" s="3">
-        <v>3609800</v>
+        <v>3431500</v>
       </c>
       <c r="G59" s="3">
-        <v>3492400</v>
+        <v>3320000</v>
       </c>
       <c r="H59" s="3">
-        <v>3314100</v>
+        <v>3150500</v>
       </c>
       <c r="I59" s="3">
-        <v>3718300</v>
+        <v>3534600</v>
       </c>
       <c r="J59" s="3">
-        <v>3693400</v>
+        <v>3511000</v>
       </c>
       <c r="K59" s="3">
         <v>4579200</v>
@@ -4011,25 +4011,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11335800</v>
+        <v>10776000</v>
       </c>
       <c r="E60" s="3">
-        <v>11069800</v>
+        <v>10523100</v>
       </c>
       <c r="F60" s="3">
-        <v>10231500</v>
+        <v>9726200</v>
       </c>
       <c r="G60" s="3">
-        <v>9718400</v>
+        <v>9238500</v>
       </c>
       <c r="H60" s="3">
-        <v>8915600</v>
+        <v>8475300</v>
       </c>
       <c r="I60" s="3">
-        <v>9073900</v>
+        <v>8625800</v>
       </c>
       <c r="J60" s="3">
-        <v>9039900</v>
+        <v>8593500</v>
       </c>
       <c r="K60" s="3">
         <v>9419300</v>
@@ -4082,25 +4082,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>7047300</v>
+        <v>6699300</v>
       </c>
       <c r="E61" s="3">
-        <v>6959300</v>
+        <v>6615700</v>
       </c>
       <c r="F61" s="3">
-        <v>7666800</v>
+        <v>7288200</v>
       </c>
       <c r="G61" s="3">
-        <v>8655800</v>
+        <v>8228400</v>
       </c>
       <c r="H61" s="3">
-        <v>8923000</v>
+        <v>8482400</v>
       </c>
       <c r="I61" s="3">
-        <v>9634900</v>
+        <v>9159100</v>
       </c>
       <c r="J61" s="3">
-        <v>9394200</v>
+        <v>8930300</v>
       </c>
       <c r="K61" s="3">
         <v>9876300</v>
@@ -4153,25 +4153,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>564400</v>
+        <v>536500</v>
       </c>
       <c r="E62" s="3">
-        <v>596500</v>
+        <v>567000</v>
       </c>
       <c r="F62" s="3">
-        <v>377700</v>
+        <v>359100</v>
       </c>
       <c r="G62" s="3">
-        <v>384100</v>
+        <v>365100</v>
       </c>
       <c r="H62" s="3">
-        <v>252300</v>
+        <v>239900</v>
       </c>
       <c r="I62" s="3">
-        <v>182900</v>
+        <v>173800</v>
       </c>
       <c r="J62" s="3">
-        <v>158200</v>
+        <v>150400</v>
       </c>
       <c r="K62" s="3">
         <v>295300</v>
@@ -4437,25 +4437,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20278900</v>
+        <v>19277500</v>
       </c>
       <c r="E66" s="3">
-        <v>19933100</v>
+        <v>18948700</v>
       </c>
       <c r="F66" s="3">
-        <v>19490200</v>
+        <v>18527700</v>
       </c>
       <c r="G66" s="3">
-        <v>19906200</v>
+        <v>18923200</v>
       </c>
       <c r="H66" s="3">
-        <v>19173100</v>
+        <v>18226300</v>
       </c>
       <c r="I66" s="3">
-        <v>19898900</v>
+        <v>18916300</v>
       </c>
       <c r="J66" s="3">
-        <v>19601900</v>
+        <v>18633900</v>
       </c>
       <c r="K66" s="3">
         <v>20594100</v>
@@ -4819,25 +4819,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6918600</v>
+        <v>6577000</v>
       </c>
       <c r="E72" s="3">
-        <v>6906600</v>
+        <v>6565600</v>
       </c>
       <c r="F72" s="3">
-        <v>6568600</v>
+        <v>6244200</v>
       </c>
       <c r="G72" s="3">
-        <v>6276500</v>
+        <v>5966600</v>
       </c>
       <c r="H72" s="3">
-        <v>6090200</v>
+        <v>5789500</v>
       </c>
       <c r="I72" s="3">
-        <v>5542000</v>
+        <v>5268300</v>
       </c>
       <c r="J72" s="3">
-        <v>5518000</v>
+        <v>5245500</v>
       </c>
       <c r="K72" s="3">
         <v>6134100</v>
@@ -5103,25 +5103,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10626300</v>
+        <v>10101500</v>
       </c>
       <c r="E76" s="3">
-        <v>10528000</v>
+        <v>10008100</v>
       </c>
       <c r="F76" s="3">
-        <v>9932000</v>
+        <v>9441500</v>
       </c>
       <c r="G76" s="3">
-        <v>9575800</v>
+        <v>9102900</v>
       </c>
       <c r="H76" s="3">
-        <v>9230400</v>
+        <v>8774600</v>
       </c>
       <c r="I76" s="3">
-        <v>8854000</v>
+        <v>8416700</v>
       </c>
       <c r="J76" s="3">
-        <v>8792000</v>
+        <v>8357900</v>
       </c>
       <c r="K76" s="3">
         <v>9549800</v>
@@ -5321,25 +5321,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>142200</v>
+        <v>135200</v>
       </c>
       <c r="E81" s="3">
-        <v>339800</v>
+        <v>323000</v>
       </c>
       <c r="F81" s="3">
-        <v>478800</v>
+        <v>455100</v>
       </c>
       <c r="G81" s="3">
-        <v>184700</v>
+        <v>175600</v>
       </c>
       <c r="H81" s="3">
-        <v>455900</v>
+        <v>433400</v>
       </c>
       <c r="I81" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="J81" s="3">
-        <v>-396200</v>
+        <v>-376600</v>
       </c>
       <c r="K81" s="3">
         <v>-167200</v>
@@ -5419,25 +5419,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>945500</v>
+        <v>898800</v>
       </c>
       <c r="E83" s="3">
-        <v>945400</v>
+        <v>898700</v>
       </c>
       <c r="F83" s="3">
-        <v>1754600</v>
+        <v>1668000</v>
       </c>
       <c r="G83" s="3">
-        <v>888600</v>
+        <v>844700</v>
       </c>
       <c r="H83" s="3">
-        <v>882000</v>
+        <v>838400</v>
       </c>
       <c r="I83" s="3">
-        <v>910500</v>
+        <v>865500</v>
       </c>
       <c r="J83" s="3">
-        <v>752900</v>
+        <v>715700</v>
       </c>
       <c r="K83" s="3">
         <v>833700</v>
@@ -5845,25 +5845,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1640500</v>
+        <v>1559500</v>
       </c>
       <c r="E89" s="3">
-        <v>1068100</v>
+        <v>1015300</v>
       </c>
       <c r="F89" s="3">
-        <v>1951700</v>
+        <v>1855300</v>
       </c>
       <c r="G89" s="3">
-        <v>779400</v>
+        <v>740900</v>
       </c>
       <c r="H89" s="3">
-        <v>890400</v>
+        <v>846400</v>
       </c>
       <c r="I89" s="3">
-        <v>356500</v>
+        <v>338800</v>
       </c>
       <c r="J89" s="3">
-        <v>456000</v>
+        <v>433500</v>
       </c>
       <c r="K89" s="3">
         <v>155100</v>
@@ -5943,25 +5943,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-684900</v>
+        <v>-651100</v>
       </c>
       <c r="E91" s="3">
-        <v>-697200</v>
+        <v>-662800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1162400</v>
+        <v>-1105000</v>
       </c>
       <c r="G91" s="3">
-        <v>-462000</v>
+        <v>-439200</v>
       </c>
       <c r="H91" s="3">
-        <v>-353200</v>
+        <v>-335800</v>
       </c>
       <c r="I91" s="3">
-        <v>-273800</v>
+        <v>-260300</v>
       </c>
       <c r="J91" s="3">
-        <v>-649100</v>
+        <v>-617100</v>
       </c>
       <c r="K91" s="3">
         <v>-863500</v>
@@ -6156,25 +6156,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-799000</v>
+        <v>-759600</v>
       </c>
       <c r="E94" s="3">
-        <v>-782400</v>
+        <v>-743700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1871700</v>
+        <v>-1779300</v>
       </c>
       <c r="G94" s="3">
-        <v>-927300</v>
+        <v>-881500</v>
       </c>
       <c r="H94" s="3">
-        <v>-206400</v>
+        <v>-196200</v>
       </c>
       <c r="I94" s="3">
-        <v>-299800</v>
+        <v>-285000</v>
       </c>
       <c r="J94" s="3">
-        <v>-715400</v>
+        <v>-680100</v>
       </c>
       <c r="K94" s="3">
         <v>-681400</v>
@@ -6538,25 +6538,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-810900</v>
+        <v>-770900</v>
       </c>
       <c r="E100" s="3">
-        <v>-502500</v>
+        <v>-477700</v>
       </c>
       <c r="F100" s="3">
-        <v>-684100</v>
+        <v>-650300</v>
       </c>
       <c r="G100" s="3">
-        <v>-186200</v>
+        <v>-177000</v>
       </c>
       <c r="H100" s="3">
-        <v>145400</v>
+        <v>138200</v>
       </c>
       <c r="I100" s="3">
-        <v>-265300</v>
+        <v>-252200</v>
       </c>
       <c r="J100" s="3">
-        <v>262300</v>
+        <v>249300</v>
       </c>
       <c r="K100" s="3">
         <v>635000</v>
@@ -6609,25 +6609,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="E101" s="3">
-        <v>106200</v>
+        <v>100900</v>
       </c>
       <c r="F101" s="3">
-        <v>115000</v>
+        <v>109300</v>
       </c>
       <c r="G101" s="3">
-        <v>79700</v>
+        <v>75700</v>
       </c>
       <c r="H101" s="3">
-        <v>-77000</v>
+        <v>-73200</v>
       </c>
       <c r="I101" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="J101" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="K101" s="3">
         <v>78000</v>
@@ -6680,25 +6680,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>51800</v>
+        <v>49200</v>
       </c>
       <c r="E102" s="3">
-        <v>-110700</v>
+        <v>-105200</v>
       </c>
       <c r="F102" s="3">
-        <v>-489100</v>
+        <v>-464900</v>
       </c>
       <c r="G102" s="3">
-        <v>-254400</v>
+        <v>-241800</v>
       </c>
       <c r="H102" s="3">
-        <v>752500</v>
+        <v>715300</v>
       </c>
       <c r="I102" s="3">
-        <v>-187700</v>
+        <v>-178400</v>
       </c>
       <c r="J102" s="3">
-        <v>-30400</v>
+        <v>-28900</v>
       </c>
       <c r="K102" s="3">
         <v>186800</v>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,320 +662,346 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6781000</v>
+        <v>4205500</v>
       </c>
       <c r="E8" s="3">
-        <v>5561900</v>
+        <v>4853600</v>
       </c>
       <c r="F8" s="3">
-        <v>10663200</v>
+        <v>6604900</v>
       </c>
       <c r="G8" s="3">
-        <v>5299700</v>
+        <v>5417400</v>
       </c>
       <c r="H8" s="3">
-        <v>5769300</v>
+        <v>5224200</v>
       </c>
       <c r="I8" s="3">
+        <v>5162100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5619500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5188000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4086400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3968400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5458400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5181300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4711000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5349700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5836100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4942900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4713400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4767100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6270900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6136300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5833400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6355900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>7142400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5768000</v>
+        <v>3998800</v>
       </c>
       <c r="E9" s="3">
-        <v>4554700</v>
+        <v>4240300</v>
       </c>
       <c r="F9" s="3">
-        <v>8598400</v>
+        <v>5618200</v>
       </c>
       <c r="G9" s="3">
-        <v>4351500</v>
+        <v>4436400</v>
       </c>
       <c r="H9" s="3">
-        <v>4704000</v>
+        <v>4136300</v>
       </c>
       <c r="I9" s="3">
+        <v>4238200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4581800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4537100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3987700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3734700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5074000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4912900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4287100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4773900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4838500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4223000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4321400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4311800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>5499300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5031500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4501200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4808600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5726100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1013000</v>
+        <v>206700</v>
       </c>
       <c r="E10" s="3">
-        <v>1007100</v>
+        <v>613400</v>
       </c>
       <c r="F10" s="3">
-        <v>2064800</v>
+        <v>986700</v>
       </c>
       <c r="G10" s="3">
-        <v>948200</v>
+        <v>981000</v>
       </c>
       <c r="H10" s="3">
-        <v>1065300</v>
+        <v>1087800</v>
       </c>
       <c r="I10" s="3">
+        <v>923900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1037700</v>
+      </c>
+      <c r="K10" s="3">
         <v>650900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>98700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>233600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>384400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>268400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>423900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>575800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>997700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>719900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>392100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>455400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>771700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1104800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1332200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1547400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1416200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,79 +1027,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>257000</v>
+        <v>238600</v>
       </c>
       <c r="E12" s="3">
-        <v>244400</v>
+        <v>242000</v>
       </c>
       <c r="F12" s="3">
-        <v>439600</v>
+        <v>250300</v>
       </c>
       <c r="G12" s="3">
-        <v>212300</v>
+        <v>238000</v>
       </c>
       <c r="H12" s="3">
-        <v>208500</v>
+        <v>221300</v>
       </c>
       <c r="I12" s="3">
+        <v>206800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>203100</v>
+      </c>
+      <c r="K12" s="3">
         <v>210600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>221400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>224200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>209800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>193800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>373400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>303100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>262900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>265800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>247700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>239500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>291700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>251700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>274200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>255800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>276900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,150 +1177,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>15700</v>
+        <v>4400</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>12500</v>
+        <v>15300</v>
       </c>
       <c r="G14" s="3">
         <v>5900</v>
       </c>
       <c r="H14" s="3">
-        <v>30400</v>
+        <v>5500</v>
       </c>
       <c r="I14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J14" s="3">
         <v>29600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>29600</v>
+      </c>
+      <c r="L14" s="3">
         <v>79100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1398600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>127100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>38800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>28200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-3600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>21400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>22700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>51700</v>
+        <v>49600</v>
       </c>
       <c r="E15" s="3">
-        <v>54000</v>
+        <v>50000</v>
       </c>
       <c r="F15" s="3">
-        <v>100000</v>
+        <v>50300</v>
       </c>
       <c r="G15" s="3">
-        <v>48600</v>
+        <v>52600</v>
       </c>
       <c r="H15" s="3">
-        <v>42000</v>
+        <v>50100</v>
       </c>
       <c r="I15" s="3">
+        <v>47300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K15" s="3">
         <v>38900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>42200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>46800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>48000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>53900</v>
       </c>
       <c r="N15" s="3">
         <v>48000</v>
       </c>
       <c r="O15" s="3">
+        <v>53900</v>
+      </c>
+      <c r="P15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>49500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>40100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>37200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>34500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>33400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>30800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>30800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>29900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>31300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>27900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1361,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6429000</v>
+        <v>4576100</v>
       </c>
       <c r="E17" s="3">
-        <v>5160600</v>
+        <v>4825300</v>
       </c>
       <c r="F17" s="3">
-        <v>9733100</v>
+        <v>6262000</v>
       </c>
       <c r="G17" s="3">
-        <v>4902900</v>
+        <v>5026600</v>
       </c>
       <c r="H17" s="3">
-        <v>5277600</v>
+        <v>4704500</v>
       </c>
       <c r="I17" s="3">
+        <v>4775300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5140500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5091000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4563600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4280500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7215600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5697100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5040400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5475600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5640400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4830600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4933200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4849700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6228300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5621800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5147100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5454500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6321000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>352000</v>
+        <v>-370700</v>
       </c>
       <c r="E18" s="3">
-        <v>401200</v>
+        <v>28300</v>
       </c>
       <c r="F18" s="3">
-        <v>930100</v>
+        <v>342900</v>
       </c>
       <c r="G18" s="3">
-        <v>396800</v>
+        <v>390800</v>
       </c>
       <c r="H18" s="3">
-        <v>491700</v>
+        <v>519700</v>
       </c>
       <c r="I18" s="3">
+        <v>386800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K18" s="3">
         <v>97000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-477200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-312200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-515800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-329400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-125900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>195800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>112300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-219800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-82600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>42700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>514500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>686300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>901500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>821400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,363 +1544,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-98700</v>
+        <v>55600</v>
       </c>
       <c r="E20" s="3">
-        <v>159100</v>
+        <v>63900</v>
       </c>
       <c r="F20" s="3">
-        <v>-86000</v>
+        <v>-96100</v>
       </c>
       <c r="G20" s="3">
-        <v>-59500</v>
+        <v>155000</v>
       </c>
       <c r="H20" s="3">
-        <v>-85200</v>
+        <v>-25700</v>
       </c>
       <c r="I20" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-52600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>18600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>125700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-35700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>32700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>25800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>16100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-47700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>21200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>13500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>32900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>64600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-106000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>159200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1152200</v>
+        <v>547500</v>
       </c>
       <c r="E21" s="3">
-        <v>1459100</v>
+        <v>971600</v>
       </c>
       <c r="F21" s="3">
-        <v>2512100</v>
+        <v>1122200</v>
       </c>
       <c r="G21" s="3">
-        <v>1181900</v>
+        <v>1421200</v>
       </c>
       <c r="H21" s="3">
-        <v>1244900</v>
+        <v>1295900</v>
       </c>
       <c r="I21" s="3">
+        <v>1151500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1212600</v>
+      </c>
+      <c r="K21" s="3">
         <v>909900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>257100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>647200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-935800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>383400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>433300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>638200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>930000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>817200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>496100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>703100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>835400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1281400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1436600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1439800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1628600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>70500</v>
+        <v>69000</v>
       </c>
       <c r="E22" s="3">
-        <v>92100</v>
+        <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>171600</v>
+        <v>68700</v>
       </c>
       <c r="G22" s="3">
-        <v>88300</v>
+        <v>89700</v>
       </c>
       <c r="H22" s="3">
-        <v>86400</v>
+        <v>81200</v>
       </c>
       <c r="I22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K22" s="3">
         <v>86200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>56500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>61200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>54200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>51100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>28900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>15100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>14800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>18100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>19100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>17500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>20500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>18900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>23200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>22600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>182800</v>
+        <v>-384100</v>
       </c>
       <c r="E23" s="3">
-        <v>468200</v>
+        <v>28100</v>
       </c>
       <c r="F23" s="3">
-        <v>672500</v>
+        <v>178100</v>
       </c>
       <c r="G23" s="3">
-        <v>248900</v>
+        <v>456100</v>
       </c>
       <c r="H23" s="3">
-        <v>320100</v>
+        <v>412800</v>
       </c>
       <c r="I23" s="3">
+        <v>242800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>311800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-41800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-515100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-247700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-534200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-389300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-117100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>196700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>89300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-285600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-80500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>38700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>526900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>732000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>772300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>958100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>43900</v>
+        <v>-97500</v>
       </c>
       <c r="E24" s="3">
-        <v>111400</v>
+        <v>-12600</v>
       </c>
       <c r="F24" s="3">
-        <v>141400</v>
+        <v>42800</v>
       </c>
       <c r="G24" s="3">
-        <v>44300</v>
+        <v>108500</v>
       </c>
       <c r="H24" s="3">
-        <v>-153800</v>
+        <v>94700</v>
       </c>
       <c r="I24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-149800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-50400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-127100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-80600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-302500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-140600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>94800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-60100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>68500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>75100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-33200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-39300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>106900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>83700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>160800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>215800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,150 +2002,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>138900</v>
+        <v>-286500</v>
       </c>
       <c r="E26" s="3">
-        <v>356900</v>
+        <v>40700</v>
       </c>
       <c r="F26" s="3">
-        <v>531000</v>
+        <v>135300</v>
       </c>
       <c r="G26" s="3">
-        <v>204700</v>
+        <v>347600</v>
       </c>
       <c r="H26" s="3">
-        <v>473900</v>
+        <v>318100</v>
       </c>
       <c r="I26" s="3">
+        <v>199600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>461600</v>
+      </c>
+      <c r="K26" s="3">
         <v>8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-387900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-167100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-393600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-484200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-57000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>128200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-252500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-41100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>38400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>420000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>648300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>611500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>742200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>135200</v>
+        <v>-303500</v>
       </c>
       <c r="E27" s="3">
-        <v>323000</v>
+        <v>15000</v>
       </c>
       <c r="F27" s="3">
-        <v>455100</v>
+        <v>131700</v>
       </c>
       <c r="G27" s="3">
-        <v>175600</v>
+        <v>314600</v>
       </c>
       <c r="H27" s="3">
-        <v>433400</v>
+        <v>272500</v>
       </c>
       <c r="I27" s="3">
+        <v>171200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K27" s="3">
         <v>23400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-376600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-167200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-373200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-482600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-55400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>122800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-249800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-49900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>32500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>388900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>607500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>570100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>718200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,8 +2233,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2188,8 +2310,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2259,8 +2387,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,150 +2464,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>98700</v>
+        <v>-55600</v>
       </c>
       <c r="E32" s="3">
-        <v>-159100</v>
+        <v>-63900</v>
       </c>
       <c r="F32" s="3">
-        <v>86000</v>
+        <v>96100</v>
       </c>
       <c r="G32" s="3">
-        <v>59500</v>
+        <v>-155000</v>
       </c>
       <c r="H32" s="3">
-        <v>85200</v>
+        <v>25700</v>
       </c>
       <c r="I32" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K32" s="3">
         <v>52600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-18600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-125700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>35700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-32700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-25800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>47700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-21200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-13500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-32900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-64600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>106000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-159200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>135200</v>
+        <v>-303500</v>
       </c>
       <c r="E33" s="3">
-        <v>323000</v>
+        <v>15000</v>
       </c>
       <c r="F33" s="3">
-        <v>455100</v>
+        <v>131700</v>
       </c>
       <c r="G33" s="3">
-        <v>175600</v>
+        <v>314600</v>
       </c>
       <c r="H33" s="3">
-        <v>433400</v>
+        <v>272500</v>
       </c>
       <c r="I33" s="3">
+        <v>171200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K33" s="3">
         <v>23400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-376600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-167200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-373200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-482600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-55400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>122800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-249800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-49900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>32500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>388900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>607500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>570100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>718200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2543,155 +2695,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>135200</v>
+        <v>-303500</v>
       </c>
       <c r="E35" s="3">
-        <v>323000</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="3">
-        <v>455100</v>
+        <v>131700</v>
       </c>
       <c r="G35" s="3">
-        <v>175600</v>
+        <v>314600</v>
       </c>
       <c r="H35" s="3">
-        <v>433400</v>
+        <v>272500</v>
       </c>
       <c r="I35" s="3">
+        <v>171200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K35" s="3">
         <v>23400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-376600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-167200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-373200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-482600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-55400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>122800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-249800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-49900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>32500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>388900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>607500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>570100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>718200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2717,8 +2887,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2744,647 +2916,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2727000</v>
+        <v>2055500</v>
       </c>
       <c r="E41" s="3">
-        <v>2677800</v>
+        <v>2523800</v>
       </c>
       <c r="F41" s="3">
-        <v>2783000</v>
+        <v>2656200</v>
       </c>
       <c r="G41" s="3">
-        <v>3006100</v>
+        <v>2608200</v>
       </c>
       <c r="H41" s="3">
-        <v>3247900</v>
+        <v>2710700</v>
       </c>
       <c r="I41" s="3">
+        <v>2928000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3163600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2532600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2711000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2989000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2835600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2456100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2132600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2187800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1986600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2235800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2395200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2206400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2290300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1737200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1354700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1210300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1402800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3200</v>
+        <v>214400</v>
       </c>
       <c r="E42" s="3">
         <v>1600</v>
       </c>
       <c r="F42" s="3">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
       </c>
       <c r="H42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J42" s="3">
         <v>1400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>228500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>669700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>603000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1105000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>870900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>797300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>982200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3639100</v>
+        <v>2239400</v>
       </c>
       <c r="E43" s="3">
-        <v>3385500</v>
+        <v>2928900</v>
       </c>
       <c r="F43" s="3">
-        <v>3323800</v>
+        <v>3544500</v>
       </c>
       <c r="G43" s="3">
-        <v>3432700</v>
+        <v>3297600</v>
       </c>
       <c r="H43" s="3">
-        <v>2846200</v>
+        <v>3237500</v>
       </c>
       <c r="I43" s="3">
+        <v>3343500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2772300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3052100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2294900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2506300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3107100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3642900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2552200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3213100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2532300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2751000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3073400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3055600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3965900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>4359300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4020800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4095800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4598400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2579800</v>
+        <v>3541800</v>
       </c>
       <c r="E44" s="3">
-        <v>2756900</v>
+        <v>3172200</v>
       </c>
       <c r="F44" s="3">
-        <v>2096600</v>
+        <v>2512800</v>
       </c>
       <c r="G44" s="3">
-        <v>1810800</v>
+        <v>2685200</v>
       </c>
       <c r="H44" s="3">
-        <v>1671400</v>
+        <v>2042100</v>
       </c>
       <c r="I44" s="3">
+        <v>1763800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1847800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1570300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1940500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1743500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2427200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2260900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2393200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2260600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2095800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2041500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1974300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2068100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2344300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2062200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2054900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2059000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1204900</v>
+        <v>941400</v>
       </c>
       <c r="E45" s="3">
-        <v>1224000</v>
+        <v>1226900</v>
       </c>
       <c r="F45" s="3">
-        <v>1132500</v>
+        <v>1173600</v>
       </c>
       <c r="G45" s="3">
-        <v>1114500</v>
+        <v>1192200</v>
       </c>
       <c r="H45" s="3">
-        <v>779600</v>
+        <v>1103100</v>
       </c>
       <c r="I45" s="3">
+        <v>1085500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>759400</v>
+      </c>
+      <c r="K45" s="3">
         <v>975400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>988800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1096300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1023600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1066900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>963600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>859300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>608900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>402500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>423500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>408800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>289600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>428200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>485800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>524200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>393400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10154000</v>
+        <v>8992600</v>
       </c>
       <c r="E46" s="3">
-        <v>10045800</v>
+        <v>9853300</v>
       </c>
       <c r="F46" s="3">
-        <v>9337800</v>
+        <v>9890300</v>
       </c>
       <c r="G46" s="3">
-        <v>9365600</v>
+        <v>9784900</v>
       </c>
       <c r="H46" s="3">
-        <v>8546600</v>
+        <v>9095300</v>
       </c>
       <c r="I46" s="3">
+        <v>9122400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8324600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8408900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7566200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8533300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8711100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9593900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7910500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8657400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7392100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7488700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8162200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8314800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9216900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9974000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8794500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8682400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>9435800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>255300</v>
+        <v>452600</v>
       </c>
       <c r="E47" s="3">
-        <v>272900</v>
+        <v>237500</v>
       </c>
       <c r="F47" s="3">
-        <v>245900</v>
+        <v>248700</v>
       </c>
       <c r="G47" s="3">
-        <v>270100</v>
+        <v>265800</v>
       </c>
       <c r="H47" s="3">
-        <v>296900</v>
+        <v>239500</v>
       </c>
       <c r="I47" s="3">
+        <v>263100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>289100</v>
+      </c>
+      <c r="K47" s="3">
         <v>193100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>221000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>293000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>285600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>232300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>188600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>190100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>164300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>158600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>154000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>137700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>149900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>137500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>127800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>149500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>197500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>15830000</v>
+        <v>16079000</v>
       </c>
       <c r="E48" s="3">
-        <v>15644800</v>
+        <v>15523500</v>
       </c>
       <c r="F48" s="3">
-        <v>15579600</v>
+        <v>15418800</v>
       </c>
       <c r="G48" s="3">
-        <v>15556800</v>
+        <v>15238500</v>
       </c>
       <c r="H48" s="3">
-        <v>15848500</v>
+        <v>15174900</v>
       </c>
       <c r="I48" s="3">
+        <v>15152800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>15436900</v>
+      </c>
+      <c r="K48" s="3">
         <v>16270000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16728400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18739300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18774500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>21120200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>21068600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21027600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>18144100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>16307900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>15987500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14721100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>14257700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13203600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>12466000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>11656300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>10828300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1266600</v>
+        <v>1301000</v>
       </c>
       <c r="E49" s="3">
-        <v>1189200</v>
+        <v>1218700</v>
       </c>
       <c r="F49" s="3">
-        <v>953200</v>
+        <v>1233700</v>
       </c>
       <c r="G49" s="3">
-        <v>969400</v>
+        <v>1158400</v>
       </c>
       <c r="H49" s="3">
-        <v>794800</v>
+        <v>928400</v>
       </c>
       <c r="I49" s="3">
+        <v>944300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>774100</v>
+      </c>
+      <c r="K49" s="3">
         <v>611500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>652500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>738900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>742400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>864600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>819600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>897600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>829600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>803500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>795000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>766200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>803300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>782000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>744500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>764600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>805400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3682,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3525,79 +3759,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1873100</v>
+        <v>1903900</v>
       </c>
       <c r="E52" s="3">
-        <v>1803900</v>
+        <v>1867400</v>
       </c>
       <c r="F52" s="3">
-        <v>1852800</v>
+        <v>1824400</v>
       </c>
       <c r="G52" s="3">
-        <v>1864100</v>
+        <v>1757100</v>
       </c>
       <c r="H52" s="3">
-        <v>1864300</v>
+        <v>1804700</v>
       </c>
       <c r="I52" s="3">
+        <v>1815700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1815900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1849500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1823600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1839400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1724800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1513300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1341400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1430400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1337500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1258100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1314600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1256200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1232800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1239600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1188500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1071800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1128900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,79 +3913,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29379000</v>
+        <v>28729100</v>
       </c>
       <c r="E54" s="3">
-        <v>28956800</v>
+        <v>28700400</v>
       </c>
       <c r="F54" s="3">
-        <v>27969200</v>
+        <v>28615900</v>
       </c>
       <c r="G54" s="3">
-        <v>28026100</v>
+        <v>28204600</v>
       </c>
       <c r="H54" s="3">
-        <v>27000800</v>
+        <v>27242800</v>
       </c>
       <c r="I54" s="3">
+        <v>27298200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>26299500</v>
+      </c>
+      <c r="K54" s="3">
         <v>27333000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26991800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>30143900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>30238400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>33324300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31328700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>32203100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>27867600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>26016900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>26413100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>25196000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>25660500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>25336700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>23321100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>22324700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>22395900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3765,8 +4023,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3792,434 +4052,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3706800</v>
+        <v>3368500</v>
       </c>
       <c r="E57" s="3">
-        <v>3333600</v>
+        <v>3952700</v>
       </c>
       <c r="F57" s="3">
-        <v>2877200</v>
+        <v>3610500</v>
       </c>
       <c r="G57" s="3">
-        <v>3060700</v>
+        <v>3247100</v>
       </c>
       <c r="H57" s="3">
-        <v>2910100</v>
+        <v>2802400</v>
       </c>
       <c r="I57" s="3">
+        <v>2981200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2834500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3108600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2669000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2412600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2225500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2379300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2477500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2702900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2593500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2573100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2494500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2354400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2530100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2607300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2150400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2193700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2589600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3116700</v>
+        <v>4543500</v>
       </c>
       <c r="E58" s="3">
-        <v>3815700</v>
+        <v>3641400</v>
       </c>
       <c r="F58" s="3">
-        <v>3417500</v>
+        <v>3035800</v>
       </c>
       <c r="G58" s="3">
-        <v>2857900</v>
+        <v>3716600</v>
       </c>
       <c r="H58" s="3">
-        <v>2414800</v>
+        <v>3328800</v>
       </c>
       <c r="I58" s="3">
+        <v>2783600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2352100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1982600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2413500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2427500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1680500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1708400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1625800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1454900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1305300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1659500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1833200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1804300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1278600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1072600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>734100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>690200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>601100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3952400</v>
+        <v>3319700</v>
       </c>
       <c r="E59" s="3">
-        <v>3373800</v>
+        <v>3307500</v>
       </c>
       <c r="F59" s="3">
-        <v>3431500</v>
+        <v>3849800</v>
       </c>
       <c r="G59" s="3">
-        <v>3320000</v>
+        <v>3286100</v>
       </c>
       <c r="H59" s="3">
-        <v>3150500</v>
+        <v>3342400</v>
       </c>
       <c r="I59" s="3">
+        <v>3233700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3068600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3534600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3511000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4579200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5431200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5382700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4890500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4697300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4463000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3983800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3878000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3862100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4092600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3429700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3088300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3298400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3161700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10776000</v>
+        <v>11231700</v>
       </c>
       <c r="E60" s="3">
-        <v>10523100</v>
+        <v>10901600</v>
       </c>
       <c r="F60" s="3">
-        <v>9726200</v>
+        <v>10496100</v>
       </c>
       <c r="G60" s="3">
-        <v>9238500</v>
+        <v>10249800</v>
       </c>
       <c r="H60" s="3">
-        <v>8475300</v>
+        <v>9473600</v>
       </c>
       <c r="I60" s="3">
+        <v>8998600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8255200</v>
+      </c>
+      <c r="K60" s="3">
         <v>8625800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8593500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9419300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9337200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9470400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8993900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8855100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8361800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8216400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8205600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8020800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7901200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7109600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5972800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6182300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6352400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6699300</v>
+        <v>6014000</v>
       </c>
       <c r="E61" s="3">
-        <v>6615700</v>
+        <v>6218900</v>
       </c>
       <c r="F61" s="3">
-        <v>7288200</v>
+        <v>6525300</v>
       </c>
       <c r="G61" s="3">
-        <v>8228400</v>
+        <v>6443800</v>
       </c>
       <c r="H61" s="3">
-        <v>8482400</v>
+        <v>7098900</v>
       </c>
       <c r="I61" s="3">
+        <v>8014600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8262100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9159100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8930300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9876300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9853500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10332500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8500600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8383100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5884100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4588400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4522600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3850300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3652200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3665600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3685800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3525400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>3699800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>536500</v>
+        <v>510600</v>
       </c>
       <c r="E62" s="3">
-        <v>567000</v>
+        <v>511900</v>
       </c>
       <c r="F62" s="3">
-        <v>359100</v>
+        <v>522600</v>
       </c>
       <c r="G62" s="3">
-        <v>365100</v>
+        <v>552300</v>
       </c>
       <c r="H62" s="3">
-        <v>239900</v>
+        <v>349800</v>
       </c>
       <c r="I62" s="3">
+        <v>355600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K62" s="3">
         <v>173800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>150400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>295300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>432600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>771400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>873000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1051400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1117300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1311500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1477300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>871400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>923400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1213500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>823900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>278900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>227600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4289,8 +4587,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,8 +4664,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,79 +4741,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19277500</v>
+        <v>19031800</v>
       </c>
       <c r="E66" s="3">
-        <v>18948700</v>
+        <v>18915400</v>
       </c>
       <c r="F66" s="3">
-        <v>18527700</v>
+        <v>18776700</v>
       </c>
       <c r="G66" s="3">
-        <v>18923200</v>
+        <v>18456500</v>
       </c>
       <c r="H66" s="3">
-        <v>18226300</v>
+        <v>18046500</v>
       </c>
       <c r="I66" s="3">
+        <v>18431700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>17752900</v>
+      </c>
+      <c r="K66" s="3">
         <v>18916300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18633900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20594100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20599000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21627400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19428300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19398500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16125100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14841500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14696300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>13236700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13011900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12546500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10999900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>10453700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10735500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4529,8 +4851,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4600,8 +4924,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4671,8 +5001,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4742,8 +5078,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4813,79 +5155,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6577000</v>
+        <v>6054700</v>
       </c>
       <c r="E72" s="3">
-        <v>6565600</v>
+        <v>6243900</v>
       </c>
       <c r="F72" s="3">
-        <v>6244200</v>
+        <v>6406100</v>
       </c>
       <c r="G72" s="3">
-        <v>5966600</v>
+        <v>6395000</v>
       </c>
       <c r="H72" s="3">
-        <v>5789500</v>
+        <v>6082000</v>
       </c>
       <c r="I72" s="3">
+        <v>5811600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5639100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5268300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5245500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6134100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6377800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>8189400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>8467600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9261100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8601600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8163200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8465600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8718500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9347000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9312600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>8926100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>8509500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>8103900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4955,8 +5309,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5026,8 +5386,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5097,79 +5463,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10101500</v>
+        <v>9697300</v>
       </c>
       <c r="E76" s="3">
-        <v>10008100</v>
+        <v>9784900</v>
       </c>
       <c r="F76" s="3">
-        <v>9441500</v>
+        <v>9839100</v>
       </c>
       <c r="G76" s="3">
-        <v>9102900</v>
+        <v>9748100</v>
       </c>
       <c r="H76" s="3">
-        <v>8774600</v>
+        <v>9196300</v>
       </c>
       <c r="I76" s="3">
+        <v>8866500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8546600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8416700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8357900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9549800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9639400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11696900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11900400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12804600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11742500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11175400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11716800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11959300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12648700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12790200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>12321300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11871000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>11660400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5239,155 +5617,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>135200</v>
+        <v>-303500</v>
       </c>
       <c r="E81" s="3">
-        <v>323000</v>
+        <v>15000</v>
       </c>
       <c r="F81" s="3">
-        <v>455100</v>
+        <v>131700</v>
       </c>
       <c r="G81" s="3">
-        <v>175600</v>
+        <v>314600</v>
       </c>
       <c r="H81" s="3">
-        <v>433400</v>
+        <v>272500</v>
       </c>
       <c r="I81" s="3">
+        <v>171200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K81" s="3">
         <v>23400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-376600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-167200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-373200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-482600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-55400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>122800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-249800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-49900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>32500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>388900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>607500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>570100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>718200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5413,79 +5809,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>898800</v>
+        <v>862500</v>
       </c>
       <c r="E83" s="3">
-        <v>898700</v>
+        <v>879400</v>
       </c>
       <c r="F83" s="3">
-        <v>1668000</v>
+        <v>875500</v>
       </c>
       <c r="G83" s="3">
-        <v>844700</v>
+        <v>875400</v>
       </c>
       <c r="H83" s="3">
-        <v>838400</v>
+        <v>801900</v>
       </c>
       <c r="I83" s="3">
+        <v>822700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>816600</v>
+      </c>
+      <c r="K83" s="3">
         <v>865500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>715700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>833700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>857000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>866500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>793700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>738200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>718200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>713100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>763600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>764500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>779200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>734000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>685600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>644300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>648000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5555,8 +5959,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5626,8 +6036,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5697,8 +6113,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5768,8 +6190,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5839,79 +6267,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1559500</v>
+        <v>306100</v>
       </c>
       <c r="E89" s="3">
-        <v>1015300</v>
+        <v>521500</v>
       </c>
       <c r="F89" s="3">
-        <v>1855300</v>
+        <v>1519000</v>
       </c>
       <c r="G89" s="3">
-        <v>740900</v>
+        <v>989000</v>
       </c>
       <c r="H89" s="3">
-        <v>846400</v>
+        <v>1085500</v>
       </c>
       <c r="I89" s="3">
+        <v>721700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>824400</v>
+      </c>
+      <c r="K89" s="3">
         <v>338800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>433500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>155100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1243600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-41400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1290100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-160200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>648900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1193300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1206300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>673900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1444800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1696700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1718000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1117800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1214000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5937,79 +6377,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-651100</v>
+        <v>-825100</v>
       </c>
       <c r="E91" s="3">
-        <v>-662800</v>
+        <v>-837900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1105000</v>
+        <v>-634200</v>
       </c>
       <c r="G91" s="3">
-        <v>-439200</v>
+        <v>-645600</v>
       </c>
       <c r="H91" s="3">
-        <v>-335800</v>
+        <v>-648500</v>
       </c>
       <c r="I91" s="3">
+        <v>-427800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-327100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-260300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-617100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-863500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-852300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6079,8 +6527,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6150,79 +6604,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-759600</v>
+        <v>-1087800</v>
       </c>
       <c r="E94" s="3">
-        <v>-743700</v>
+        <v>-898000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1779300</v>
+        <v>-739800</v>
       </c>
       <c r="G94" s="3">
-        <v>-881500</v>
+        <v>-724400</v>
       </c>
       <c r="H94" s="3">
-        <v>-196200</v>
+        <v>-874500</v>
       </c>
       <c r="I94" s="3">
+        <v>-858600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-285000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-680100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-681400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-894100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-690000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6248,8 +6714,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6319,8 +6787,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6390,8 +6864,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6461,8 +6941,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6532,217 +7018,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-770900</v>
+        <v>281600</v>
       </c>
       <c r="E100" s="3">
-        <v>-477700</v>
+        <v>206000</v>
       </c>
       <c r="F100" s="3">
-        <v>-650300</v>
+        <v>-750800</v>
       </c>
       <c r="G100" s="3">
-        <v>-177000</v>
+        <v>-465300</v>
       </c>
       <c r="H100" s="3">
-        <v>138200</v>
+        <v>-461100</v>
       </c>
       <c r="I100" s="3">
+        <v>-172400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>134700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-252200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>249300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>635000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>180000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1640500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>564500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2085200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>703200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>373100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>452700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>937500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>329400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>290500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>89200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>50900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-190200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>20200</v>
+        <v>31700</v>
       </c>
       <c r="E101" s="3">
-        <v>100900</v>
+        <v>38100</v>
       </c>
       <c r="F101" s="3">
-        <v>109300</v>
+        <v>19700</v>
       </c>
       <c r="G101" s="3">
-        <v>75700</v>
+        <v>98300</v>
       </c>
       <c r="H101" s="3">
-        <v>-73200</v>
+        <v>32700</v>
       </c>
       <c r="I101" s="3">
+        <v>73800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="K101" s="3">
         <v>19900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-31700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>78000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-39600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>14900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>55400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-55600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>51600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-78400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>26200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>33000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-71800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>100700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>49200</v>
+        <v>-468400</v>
       </c>
       <c r="E102" s="3">
-        <v>-105200</v>
+        <v>-132400</v>
       </c>
       <c r="F102" s="3">
-        <v>-464900</v>
+        <v>48000</v>
       </c>
       <c r="G102" s="3">
-        <v>-241800</v>
+        <v>-102500</v>
       </c>
       <c r="H102" s="3">
-        <v>715300</v>
+        <v>-217300</v>
       </c>
       <c r="I102" s="3">
+        <v>-235600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>696700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-178400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-28900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>186800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>489900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>299300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>16900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>35600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-332000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-73900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>188800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>20300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>553100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>382400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>171400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-192600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>434500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -775,25 +775,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4205500</v>
+        <v>4149400</v>
       </c>
       <c r="E8" s="3">
-        <v>4853600</v>
+        <v>4788900</v>
       </c>
       <c r="F8" s="3">
-        <v>6604900</v>
+        <v>6516800</v>
       </c>
       <c r="G8" s="3">
-        <v>5417400</v>
+        <v>5345200</v>
       </c>
       <c r="H8" s="3">
-        <v>5224200</v>
+        <v>5154500</v>
       </c>
       <c r="I8" s="3">
-        <v>5162100</v>
+        <v>5093200</v>
       </c>
       <c r="J8" s="3">
-        <v>5619500</v>
+        <v>5544600</v>
       </c>
       <c r="K8" s="3">
         <v>5188000</v>
@@ -852,25 +852,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3998800</v>
+        <v>3945500</v>
       </c>
       <c r="E9" s="3">
-        <v>4240300</v>
+        <v>4183700</v>
       </c>
       <c r="F9" s="3">
-        <v>5618200</v>
+        <v>5543300</v>
       </c>
       <c r="G9" s="3">
-        <v>4436400</v>
+        <v>4377300</v>
       </c>
       <c r="H9" s="3">
-        <v>4136300</v>
+        <v>4081200</v>
       </c>
       <c r="I9" s="3">
-        <v>4238200</v>
+        <v>4181700</v>
       </c>
       <c r="J9" s="3">
-        <v>4581800</v>
+        <v>4520700</v>
       </c>
       <c r="K9" s="3">
         <v>4537100</v>
@@ -929,25 +929,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>206700</v>
+        <v>203900</v>
       </c>
       <c r="E10" s="3">
-        <v>613400</v>
+        <v>605200</v>
       </c>
       <c r="F10" s="3">
-        <v>986700</v>
+        <v>973500</v>
       </c>
       <c r="G10" s="3">
-        <v>981000</v>
+        <v>967900</v>
       </c>
       <c r="H10" s="3">
-        <v>1087800</v>
+        <v>1073300</v>
       </c>
       <c r="I10" s="3">
-        <v>923900</v>
+        <v>911600</v>
       </c>
       <c r="J10" s="3">
-        <v>1037700</v>
+        <v>1023800</v>
       </c>
       <c r="K10" s="3">
         <v>650900</v>
@@ -1035,25 +1035,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>238600</v>
+        <v>235500</v>
       </c>
       <c r="E12" s="3">
-        <v>242000</v>
+        <v>238800</v>
       </c>
       <c r="F12" s="3">
-        <v>250300</v>
+        <v>247000</v>
       </c>
       <c r="G12" s="3">
-        <v>238000</v>
+        <v>234800</v>
       </c>
       <c r="H12" s="3">
-        <v>221300</v>
+        <v>218400</v>
       </c>
       <c r="I12" s="3">
-        <v>206800</v>
+        <v>204100</v>
       </c>
       <c r="J12" s="3">
-        <v>203100</v>
+        <v>200400</v>
       </c>
       <c r="K12" s="3">
         <v>210600</v>
@@ -1189,25 +1189,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="G14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I14" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J14" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="K14" s="3">
         <v>29600</v>
@@ -1266,25 +1266,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>49600</v>
+        <v>49000</v>
       </c>
       <c r="E15" s="3">
-        <v>50000</v>
+        <v>49300</v>
       </c>
       <c r="F15" s="3">
-        <v>50300</v>
+        <v>49700</v>
       </c>
       <c r="G15" s="3">
-        <v>52600</v>
+        <v>51900</v>
       </c>
       <c r="H15" s="3">
-        <v>50100</v>
+        <v>49400</v>
       </c>
       <c r="I15" s="3">
-        <v>47300</v>
+        <v>46700</v>
       </c>
       <c r="J15" s="3">
-        <v>40900</v>
+        <v>40300</v>
       </c>
       <c r="K15" s="3">
         <v>38900</v>
@@ -1369,25 +1369,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4576100</v>
+        <v>4515100</v>
       </c>
       <c r="E17" s="3">
-        <v>4825300</v>
+        <v>4761000</v>
       </c>
       <c r="F17" s="3">
-        <v>6262000</v>
+        <v>6178500</v>
       </c>
       <c r="G17" s="3">
-        <v>5026600</v>
+        <v>4959600</v>
       </c>
       <c r="H17" s="3">
-        <v>4704500</v>
+        <v>4641700</v>
       </c>
       <c r="I17" s="3">
-        <v>4775300</v>
+        <v>4711600</v>
       </c>
       <c r="J17" s="3">
-        <v>5140500</v>
+        <v>5072000</v>
       </c>
       <c r="K17" s="3">
         <v>5091000</v>
@@ -1446,25 +1446,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-370700</v>
+        <v>-365700</v>
       </c>
       <c r="E18" s="3">
-        <v>28300</v>
+        <v>27900</v>
       </c>
       <c r="F18" s="3">
-        <v>342900</v>
+        <v>338300</v>
       </c>
       <c r="G18" s="3">
-        <v>390800</v>
+        <v>385600</v>
       </c>
       <c r="H18" s="3">
-        <v>519700</v>
+        <v>512800</v>
       </c>
       <c r="I18" s="3">
-        <v>386800</v>
+        <v>381600</v>
       </c>
       <c r="J18" s="3">
-        <v>478900</v>
+        <v>472600</v>
       </c>
       <c r="K18" s="3">
         <v>97000</v>
@@ -1552,25 +1552,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>55600</v>
+        <v>54900</v>
       </c>
       <c r="E20" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="F20" s="3">
-        <v>-96100</v>
+        <v>-94900</v>
       </c>
       <c r="G20" s="3">
-        <v>155000</v>
+        <v>152900</v>
       </c>
       <c r="H20" s="3">
-        <v>-25700</v>
+        <v>-25400</v>
       </c>
       <c r="I20" s="3">
-        <v>-58000</v>
+        <v>-57200</v>
       </c>
       <c r="J20" s="3">
-        <v>-83000</v>
+        <v>-81900</v>
       </c>
       <c r="K20" s="3">
         <v>-52600</v>
@@ -1629,25 +1629,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>547500</v>
+        <v>540200</v>
       </c>
       <c r="E21" s="3">
-        <v>971600</v>
+        <v>958600</v>
       </c>
       <c r="F21" s="3">
-        <v>1122200</v>
+        <v>1107300</v>
       </c>
       <c r="G21" s="3">
-        <v>1421200</v>
+        <v>1402200</v>
       </c>
       <c r="H21" s="3">
-        <v>1295900</v>
+        <v>1278600</v>
       </c>
       <c r="I21" s="3">
-        <v>1151500</v>
+        <v>1136200</v>
       </c>
       <c r="J21" s="3">
-        <v>1212600</v>
+        <v>1196400</v>
       </c>
       <c r="K21" s="3">
         <v>909900</v>
@@ -1706,25 +1706,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>69000</v>
+        <v>68100</v>
       </c>
       <c r="E22" s="3">
-        <v>64200</v>
+        <v>63300</v>
       </c>
       <c r="F22" s="3">
-        <v>68700</v>
+        <v>67700</v>
       </c>
       <c r="G22" s="3">
-        <v>89700</v>
+        <v>88500</v>
       </c>
       <c r="H22" s="3">
-        <v>81200</v>
+        <v>80100</v>
       </c>
       <c r="I22" s="3">
-        <v>86000</v>
+        <v>84900</v>
       </c>
       <c r="J22" s="3">
-        <v>84200</v>
+        <v>83100</v>
       </c>
       <c r="K22" s="3">
         <v>86200</v>
@@ -1783,25 +1783,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-384100</v>
+        <v>-378900</v>
       </c>
       <c r="E23" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="F23" s="3">
-        <v>178100</v>
+        <v>175700</v>
       </c>
       <c r="G23" s="3">
-        <v>456100</v>
+        <v>450000</v>
       </c>
       <c r="H23" s="3">
-        <v>412800</v>
+        <v>407300</v>
       </c>
       <c r="I23" s="3">
-        <v>242800</v>
+        <v>239500</v>
       </c>
       <c r="J23" s="3">
-        <v>311800</v>
+        <v>307600</v>
       </c>
       <c r="K23" s="3">
         <v>-41800</v>
@@ -1860,25 +1860,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-97500</v>
+        <v>-96200</v>
       </c>
       <c r="E24" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="F24" s="3">
-        <v>42800</v>
+        <v>42200</v>
       </c>
       <c r="G24" s="3">
-        <v>108500</v>
+        <v>107000</v>
       </c>
       <c r="H24" s="3">
-        <v>94700</v>
+        <v>93500</v>
       </c>
       <c r="I24" s="3">
-        <v>43200</v>
+        <v>42600</v>
       </c>
       <c r="J24" s="3">
-        <v>-149800</v>
+        <v>-147800</v>
       </c>
       <c r="K24" s="3">
         <v>-50400</v>
@@ -2014,25 +2014,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-286500</v>
+        <v>-282700</v>
       </c>
       <c r="E26" s="3">
-        <v>40700</v>
+        <v>40200</v>
       </c>
       <c r="F26" s="3">
-        <v>135300</v>
+        <v>133500</v>
       </c>
       <c r="G26" s="3">
-        <v>347600</v>
+        <v>343000</v>
       </c>
       <c r="H26" s="3">
-        <v>318100</v>
+        <v>313900</v>
       </c>
       <c r="I26" s="3">
-        <v>199600</v>
+        <v>196900</v>
       </c>
       <c r="J26" s="3">
-        <v>461600</v>
+        <v>455400</v>
       </c>
       <c r="K26" s="3">
         <v>8600</v>
@@ -2091,25 +2091,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-303500</v>
+        <v>-299400</v>
       </c>
       <c r="E27" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F27" s="3">
-        <v>131700</v>
+        <v>129900</v>
       </c>
       <c r="G27" s="3">
-        <v>314600</v>
+        <v>310500</v>
       </c>
       <c r="H27" s="3">
-        <v>272500</v>
+        <v>268900</v>
       </c>
       <c r="I27" s="3">
-        <v>171200</v>
+        <v>169000</v>
       </c>
       <c r="J27" s="3">
-        <v>422200</v>
+        <v>416500</v>
       </c>
       <c r="K27" s="3">
         <v>23400</v>
@@ -2476,25 +2476,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-55600</v>
+        <v>-54900</v>
       </c>
       <c r="E32" s="3">
-        <v>-63900</v>
+        <v>-63100</v>
       </c>
       <c r="F32" s="3">
-        <v>96100</v>
+        <v>94900</v>
       </c>
       <c r="G32" s="3">
-        <v>-155000</v>
+        <v>-152900</v>
       </c>
       <c r="H32" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="I32" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="J32" s="3">
-        <v>83000</v>
+        <v>81900</v>
       </c>
       <c r="K32" s="3">
         <v>52600</v>
@@ -2553,25 +2553,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-303500</v>
+        <v>-299400</v>
       </c>
       <c r="E33" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F33" s="3">
-        <v>131700</v>
+        <v>129900</v>
       </c>
       <c r="G33" s="3">
-        <v>314600</v>
+        <v>310500</v>
       </c>
       <c r="H33" s="3">
-        <v>272500</v>
+        <v>268900</v>
       </c>
       <c r="I33" s="3">
-        <v>171200</v>
+        <v>169000</v>
       </c>
       <c r="J33" s="3">
-        <v>422200</v>
+        <v>416500</v>
       </c>
       <c r="K33" s="3">
         <v>23400</v>
@@ -2707,25 +2707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-303500</v>
+        <v>-299400</v>
       </c>
       <c r="E35" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F35" s="3">
-        <v>131700</v>
+        <v>129900</v>
       </c>
       <c r="G35" s="3">
-        <v>314600</v>
+        <v>310500</v>
       </c>
       <c r="H35" s="3">
-        <v>272500</v>
+        <v>268900</v>
       </c>
       <c r="I35" s="3">
-        <v>171200</v>
+        <v>169000</v>
       </c>
       <c r="J35" s="3">
-        <v>422200</v>
+        <v>416500</v>
       </c>
       <c r="K35" s="3">
         <v>23400</v>
@@ -2924,25 +2924,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2055500</v>
+        <v>2028100</v>
       </c>
       <c r="E41" s="3">
-        <v>2523800</v>
+        <v>2490200</v>
       </c>
       <c r="F41" s="3">
-        <v>2656200</v>
+        <v>2620800</v>
       </c>
       <c r="G41" s="3">
-        <v>2608200</v>
+        <v>2573500</v>
       </c>
       <c r="H41" s="3">
-        <v>2710700</v>
+        <v>2674600</v>
       </c>
       <c r="I41" s="3">
-        <v>2928000</v>
+        <v>2889000</v>
       </c>
       <c r="J41" s="3">
-        <v>3163600</v>
+        <v>3121400</v>
       </c>
       <c r="K41" s="3">
         <v>2532600</v>
@@ -3001,13 +3001,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>214400</v>
+        <v>211600</v>
       </c>
       <c r="E42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
@@ -3019,7 +3019,7 @@
         <v>1500</v>
       </c>
       <c r="J42" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K42" s="3">
         <v>1100</v>
@@ -3078,25 +3078,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2239400</v>
+        <v>2209600</v>
       </c>
       <c r="E43" s="3">
-        <v>2928900</v>
+        <v>2889900</v>
       </c>
       <c r="F43" s="3">
-        <v>3544500</v>
+        <v>3497300</v>
       </c>
       <c r="G43" s="3">
-        <v>3297600</v>
+        <v>3253600</v>
       </c>
       <c r="H43" s="3">
-        <v>3237500</v>
+        <v>3194300</v>
       </c>
       <c r="I43" s="3">
-        <v>3343500</v>
+        <v>3298900</v>
       </c>
       <c r="J43" s="3">
-        <v>2772300</v>
+        <v>2735400</v>
       </c>
       <c r="K43" s="3">
         <v>3052100</v>
@@ -3155,25 +3155,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3541800</v>
+        <v>3494600</v>
       </c>
       <c r="E44" s="3">
-        <v>3172200</v>
+        <v>3129900</v>
       </c>
       <c r="F44" s="3">
-        <v>2512800</v>
+        <v>2479300</v>
       </c>
       <c r="G44" s="3">
-        <v>2685200</v>
+        <v>2649400</v>
       </c>
       <c r="H44" s="3">
-        <v>2042100</v>
+        <v>2014900</v>
       </c>
       <c r="I44" s="3">
-        <v>1763800</v>
+        <v>1740200</v>
       </c>
       <c r="J44" s="3">
-        <v>1628000</v>
+        <v>1606300</v>
       </c>
       <c r="K44" s="3">
         <v>1847800</v>
@@ -3232,25 +3232,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>941400</v>
+        <v>928800</v>
       </c>
       <c r="E45" s="3">
-        <v>1226900</v>
+        <v>1210500</v>
       </c>
       <c r="F45" s="3">
-        <v>1173600</v>
+        <v>1158000</v>
       </c>
       <c r="G45" s="3">
-        <v>1192200</v>
+        <v>1176300</v>
       </c>
       <c r="H45" s="3">
-        <v>1103100</v>
+        <v>1088400</v>
       </c>
       <c r="I45" s="3">
-        <v>1085500</v>
+        <v>1071100</v>
       </c>
       <c r="J45" s="3">
-        <v>759400</v>
+        <v>749200</v>
       </c>
       <c r="K45" s="3">
         <v>975400</v>
@@ -3309,25 +3309,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8992600</v>
+        <v>8872700</v>
       </c>
       <c r="E46" s="3">
-        <v>9853300</v>
+        <v>9722000</v>
       </c>
       <c r="F46" s="3">
-        <v>9890300</v>
+        <v>9758400</v>
       </c>
       <c r="G46" s="3">
-        <v>9784900</v>
+        <v>9654400</v>
       </c>
       <c r="H46" s="3">
-        <v>9095300</v>
+        <v>8974000</v>
       </c>
       <c r="I46" s="3">
-        <v>9122400</v>
+        <v>9000700</v>
       </c>
       <c r="J46" s="3">
-        <v>8324600</v>
+        <v>8213600</v>
       </c>
       <c r="K46" s="3">
         <v>8408900</v>
@@ -3386,25 +3386,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>452600</v>
+        <v>446600</v>
       </c>
       <c r="E47" s="3">
-        <v>237500</v>
+        <v>234300</v>
       </c>
       <c r="F47" s="3">
-        <v>248700</v>
+        <v>245300</v>
       </c>
       <c r="G47" s="3">
-        <v>265800</v>
+        <v>262300</v>
       </c>
       <c r="H47" s="3">
-        <v>239500</v>
+        <v>236300</v>
       </c>
       <c r="I47" s="3">
-        <v>263100</v>
+        <v>259600</v>
       </c>
       <c r="J47" s="3">
-        <v>289100</v>
+        <v>285300</v>
       </c>
       <c r="K47" s="3">
         <v>193100</v>
@@ -3463,25 +3463,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>16079000</v>
+        <v>15864600</v>
       </c>
       <c r="E48" s="3">
-        <v>15523500</v>
+        <v>15316500</v>
       </c>
       <c r="F48" s="3">
-        <v>15418800</v>
+        <v>15213300</v>
       </c>
       <c r="G48" s="3">
-        <v>15238500</v>
+        <v>15035300</v>
       </c>
       <c r="H48" s="3">
-        <v>15174900</v>
+        <v>14972600</v>
       </c>
       <c r="I48" s="3">
-        <v>15152800</v>
+        <v>14950700</v>
       </c>
       <c r="J48" s="3">
-        <v>15436900</v>
+        <v>15231100</v>
       </c>
       <c r="K48" s="3">
         <v>16270000</v>
@@ -3540,25 +3540,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1301000</v>
+        <v>1283600</v>
       </c>
       <c r="E49" s="3">
-        <v>1218700</v>
+        <v>1202400</v>
       </c>
       <c r="F49" s="3">
-        <v>1233700</v>
+        <v>1217200</v>
       </c>
       <c r="G49" s="3">
-        <v>1158400</v>
+        <v>1142900</v>
       </c>
       <c r="H49" s="3">
-        <v>928400</v>
+        <v>916000</v>
       </c>
       <c r="I49" s="3">
-        <v>944300</v>
+        <v>931700</v>
       </c>
       <c r="J49" s="3">
-        <v>774100</v>
+        <v>763800</v>
       </c>
       <c r="K49" s="3">
         <v>611500</v>
@@ -3771,25 +3771,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1903900</v>
+        <v>1878500</v>
       </c>
       <c r="E52" s="3">
-        <v>1867400</v>
+        <v>1842500</v>
       </c>
       <c r="F52" s="3">
-        <v>1824400</v>
+        <v>1800100</v>
       </c>
       <c r="G52" s="3">
-        <v>1757100</v>
+        <v>1733600</v>
       </c>
       <c r="H52" s="3">
-        <v>1804700</v>
+        <v>1780600</v>
       </c>
       <c r="I52" s="3">
-        <v>1815700</v>
+        <v>1791500</v>
       </c>
       <c r="J52" s="3">
-        <v>1815900</v>
+        <v>1791700</v>
       </c>
       <c r="K52" s="3">
         <v>1849500</v>
@@ -3925,25 +3925,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28729100</v>
+        <v>28346000</v>
       </c>
       <c r="E54" s="3">
-        <v>28700400</v>
+        <v>28317700</v>
       </c>
       <c r="F54" s="3">
-        <v>28615900</v>
+        <v>28234300</v>
       </c>
       <c r="G54" s="3">
-        <v>28204600</v>
+        <v>27828600</v>
       </c>
       <c r="H54" s="3">
-        <v>27242800</v>
+        <v>26879500</v>
       </c>
       <c r="I54" s="3">
-        <v>27298200</v>
+        <v>26934200</v>
       </c>
       <c r="J54" s="3">
-        <v>26299500</v>
+        <v>25948800</v>
       </c>
       <c r="K54" s="3">
         <v>27333000</v>
@@ -4060,25 +4060,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3368500</v>
+        <v>3323600</v>
       </c>
       <c r="E57" s="3">
-        <v>3952700</v>
+        <v>3900000</v>
       </c>
       <c r="F57" s="3">
-        <v>3610500</v>
+        <v>3562400</v>
       </c>
       <c r="G57" s="3">
-        <v>3247100</v>
+        <v>3203800</v>
       </c>
       <c r="H57" s="3">
-        <v>2802400</v>
+        <v>2765100</v>
       </c>
       <c r="I57" s="3">
-        <v>2981200</v>
+        <v>2941400</v>
       </c>
       <c r="J57" s="3">
-        <v>2834500</v>
+        <v>2796700</v>
       </c>
       <c r="K57" s="3">
         <v>3108600</v>
@@ -4137,25 +4137,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4543500</v>
+        <v>4482900</v>
       </c>
       <c r="E58" s="3">
-        <v>3641400</v>
+        <v>3592900</v>
       </c>
       <c r="F58" s="3">
-        <v>3035800</v>
+        <v>2995300</v>
       </c>
       <c r="G58" s="3">
-        <v>3716600</v>
+        <v>3667100</v>
       </c>
       <c r="H58" s="3">
-        <v>3328800</v>
+        <v>3284400</v>
       </c>
       <c r="I58" s="3">
-        <v>2783600</v>
+        <v>2746500</v>
       </c>
       <c r="J58" s="3">
-        <v>2352100</v>
+        <v>2320800</v>
       </c>
       <c r="K58" s="3">
         <v>1982600</v>
@@ -4214,25 +4214,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3319700</v>
+        <v>3275400</v>
       </c>
       <c r="E59" s="3">
-        <v>3307500</v>
+        <v>3263400</v>
       </c>
       <c r="F59" s="3">
-        <v>3849800</v>
+        <v>3798500</v>
       </c>
       <c r="G59" s="3">
-        <v>3286100</v>
+        <v>3242300</v>
       </c>
       <c r="H59" s="3">
-        <v>3342400</v>
+        <v>3297800</v>
       </c>
       <c r="I59" s="3">
-        <v>3233700</v>
+        <v>3190600</v>
       </c>
       <c r="J59" s="3">
-        <v>3068600</v>
+        <v>3027700</v>
       </c>
       <c r="K59" s="3">
         <v>3534600</v>
@@ -4291,25 +4291,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11231700</v>
+        <v>11081900</v>
       </c>
       <c r="E60" s="3">
-        <v>10901600</v>
+        <v>10756200</v>
       </c>
       <c r="F60" s="3">
-        <v>10496100</v>
+        <v>10356200</v>
       </c>
       <c r="G60" s="3">
-        <v>10249800</v>
+        <v>10113100</v>
       </c>
       <c r="H60" s="3">
-        <v>9473600</v>
+        <v>9347300</v>
       </c>
       <c r="I60" s="3">
-        <v>8998600</v>
+        <v>8878600</v>
       </c>
       <c r="J60" s="3">
-        <v>8255200</v>
+        <v>8145100</v>
       </c>
       <c r="K60" s="3">
         <v>8625800</v>
@@ -4368,25 +4368,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6014000</v>
+        <v>5933800</v>
       </c>
       <c r="E61" s="3">
-        <v>6218900</v>
+        <v>6136000</v>
       </c>
       <c r="F61" s="3">
-        <v>6525300</v>
+        <v>6438300</v>
       </c>
       <c r="G61" s="3">
-        <v>6443800</v>
+        <v>6357900</v>
       </c>
       <c r="H61" s="3">
-        <v>7098900</v>
+        <v>7004200</v>
       </c>
       <c r="I61" s="3">
-        <v>8014600</v>
+        <v>7907800</v>
       </c>
       <c r="J61" s="3">
-        <v>8262100</v>
+        <v>8151900</v>
       </c>
       <c r="K61" s="3">
         <v>9159100</v>
@@ -4445,25 +4445,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>510600</v>
+        <v>503800</v>
       </c>
       <c r="E62" s="3">
-        <v>511900</v>
+        <v>505100</v>
       </c>
       <c r="F62" s="3">
-        <v>522600</v>
+        <v>515600</v>
       </c>
       <c r="G62" s="3">
-        <v>552300</v>
+        <v>544900</v>
       </c>
       <c r="H62" s="3">
-        <v>349800</v>
+        <v>345100</v>
       </c>
       <c r="I62" s="3">
-        <v>355600</v>
+        <v>350900</v>
       </c>
       <c r="J62" s="3">
-        <v>233700</v>
+        <v>230500</v>
       </c>
       <c r="K62" s="3">
         <v>173800</v>
@@ -4753,25 +4753,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19031800</v>
+        <v>18778000</v>
       </c>
       <c r="E66" s="3">
-        <v>18915400</v>
+        <v>18663200</v>
       </c>
       <c r="F66" s="3">
-        <v>18776700</v>
+        <v>18526400</v>
       </c>
       <c r="G66" s="3">
-        <v>18456500</v>
+        <v>18210400</v>
       </c>
       <c r="H66" s="3">
-        <v>18046500</v>
+        <v>17805800</v>
       </c>
       <c r="I66" s="3">
-        <v>18431700</v>
+        <v>18185900</v>
       </c>
       <c r="J66" s="3">
-        <v>17752900</v>
+        <v>17516200</v>
       </c>
       <c r="K66" s="3">
         <v>18916300</v>
@@ -5167,25 +5167,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6054700</v>
+        <v>5974000</v>
       </c>
       <c r="E72" s="3">
-        <v>6243900</v>
+        <v>6160600</v>
       </c>
       <c r="F72" s="3">
-        <v>6406100</v>
+        <v>6320700</v>
       </c>
       <c r="G72" s="3">
-        <v>6395000</v>
+        <v>6309800</v>
       </c>
       <c r="H72" s="3">
-        <v>6082000</v>
+        <v>6000900</v>
       </c>
       <c r="I72" s="3">
-        <v>5811600</v>
+        <v>5734100</v>
       </c>
       <c r="J72" s="3">
-        <v>5639100</v>
+        <v>5563900</v>
       </c>
       <c r="K72" s="3">
         <v>5268300</v>
@@ -5475,25 +5475,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9697300</v>
+        <v>9568000</v>
       </c>
       <c r="E76" s="3">
-        <v>9784900</v>
+        <v>9654500</v>
       </c>
       <c r="F76" s="3">
-        <v>9839100</v>
+        <v>9708000</v>
       </c>
       <c r="G76" s="3">
-        <v>9748100</v>
+        <v>9618100</v>
       </c>
       <c r="H76" s="3">
-        <v>9196300</v>
+        <v>9073700</v>
       </c>
       <c r="I76" s="3">
-        <v>8866500</v>
+        <v>8748300</v>
       </c>
       <c r="J76" s="3">
-        <v>8546600</v>
+        <v>8432700</v>
       </c>
       <c r="K76" s="3">
         <v>8416700</v>
@@ -5711,25 +5711,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-303500</v>
+        <v>-299400</v>
       </c>
       <c r="E81" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F81" s="3">
-        <v>131700</v>
+        <v>129900</v>
       </c>
       <c r="G81" s="3">
-        <v>314600</v>
+        <v>310500</v>
       </c>
       <c r="H81" s="3">
-        <v>272500</v>
+        <v>268900</v>
       </c>
       <c r="I81" s="3">
-        <v>171200</v>
+        <v>169000</v>
       </c>
       <c r="J81" s="3">
-        <v>422200</v>
+        <v>416500</v>
       </c>
       <c r="K81" s="3">
         <v>23400</v>
@@ -5817,25 +5817,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>862500</v>
+        <v>851000</v>
       </c>
       <c r="E83" s="3">
-        <v>879400</v>
+        <v>867600</v>
       </c>
       <c r="F83" s="3">
-        <v>875500</v>
+        <v>863800</v>
       </c>
       <c r="G83" s="3">
-        <v>875400</v>
+        <v>863700</v>
       </c>
       <c r="H83" s="3">
-        <v>801900</v>
+        <v>791200</v>
       </c>
       <c r="I83" s="3">
-        <v>822700</v>
+        <v>811800</v>
       </c>
       <c r="J83" s="3">
-        <v>816600</v>
+        <v>805800</v>
       </c>
       <c r="K83" s="3">
         <v>865500</v>
@@ -6279,25 +6279,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>306100</v>
+        <v>302100</v>
       </c>
       <c r="E89" s="3">
-        <v>521500</v>
+        <v>514500</v>
       </c>
       <c r="F89" s="3">
-        <v>1519000</v>
+        <v>1498700</v>
       </c>
       <c r="G89" s="3">
-        <v>989000</v>
+        <v>975800</v>
       </c>
       <c r="H89" s="3">
-        <v>1085500</v>
+        <v>1071000</v>
       </c>
       <c r="I89" s="3">
-        <v>721700</v>
+        <v>712000</v>
       </c>
       <c r="J89" s="3">
-        <v>824400</v>
+        <v>813400</v>
       </c>
       <c r="K89" s="3">
         <v>338800</v>
@@ -6385,25 +6385,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-825100</v>
+        <v>-814100</v>
       </c>
       <c r="E91" s="3">
-        <v>-837900</v>
+        <v>-826700</v>
       </c>
       <c r="F91" s="3">
-        <v>-634200</v>
+        <v>-625700</v>
       </c>
       <c r="G91" s="3">
-        <v>-645600</v>
+        <v>-637000</v>
       </c>
       <c r="H91" s="3">
-        <v>-648500</v>
+        <v>-639900</v>
       </c>
       <c r="I91" s="3">
-        <v>-427800</v>
+        <v>-422100</v>
       </c>
       <c r="J91" s="3">
-        <v>-327100</v>
+        <v>-322700</v>
       </c>
       <c r="K91" s="3">
         <v>-260300</v>
@@ -6616,25 +6616,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1087800</v>
+        <v>-1073300</v>
       </c>
       <c r="E94" s="3">
-        <v>-898000</v>
+        <v>-886000</v>
       </c>
       <c r="F94" s="3">
-        <v>-739800</v>
+        <v>-730000</v>
       </c>
       <c r="G94" s="3">
-        <v>-724400</v>
+        <v>-714800</v>
       </c>
       <c r="H94" s="3">
-        <v>-874500</v>
+        <v>-862800</v>
       </c>
       <c r="I94" s="3">
-        <v>-858600</v>
+        <v>-847100</v>
       </c>
       <c r="J94" s="3">
-        <v>-191100</v>
+        <v>-188600</v>
       </c>
       <c r="K94" s="3">
         <v>-285000</v>
@@ -7030,25 +7030,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>281600</v>
+        <v>277800</v>
       </c>
       <c r="E100" s="3">
-        <v>206000</v>
+        <v>203300</v>
       </c>
       <c r="F100" s="3">
-        <v>-750800</v>
+        <v>-740800</v>
       </c>
       <c r="G100" s="3">
-        <v>-465300</v>
+        <v>-459100</v>
       </c>
       <c r="H100" s="3">
-        <v>-461100</v>
+        <v>-454900</v>
       </c>
       <c r="I100" s="3">
-        <v>-172400</v>
+        <v>-170100</v>
       </c>
       <c r="J100" s="3">
-        <v>134700</v>
+        <v>132900</v>
       </c>
       <c r="K100" s="3">
         <v>-252200</v>
@@ -7107,25 +7107,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>31700</v>
+        <v>31300</v>
       </c>
       <c r="E101" s="3">
-        <v>38100</v>
+        <v>37600</v>
       </c>
       <c r="F101" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="G101" s="3">
-        <v>98300</v>
+        <v>97000</v>
       </c>
       <c r="H101" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="I101" s="3">
-        <v>73800</v>
+        <v>72800</v>
       </c>
       <c r="J101" s="3">
-        <v>-71300</v>
+        <v>-70300</v>
       </c>
       <c r="K101" s="3">
         <v>19900</v>
@@ -7184,25 +7184,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-468400</v>
+        <v>-462100</v>
       </c>
       <c r="E102" s="3">
-        <v>-132400</v>
+        <v>-130600</v>
       </c>
       <c r="F102" s="3">
-        <v>48000</v>
+        <v>47300</v>
       </c>
       <c r="G102" s="3">
-        <v>-102500</v>
+        <v>-101100</v>
       </c>
       <c r="H102" s="3">
-        <v>-217300</v>
+        <v>-214400</v>
       </c>
       <c r="I102" s="3">
-        <v>-235600</v>
+        <v>-232400</v>
       </c>
       <c r="J102" s="3">
-        <v>696700</v>
+        <v>687400</v>
       </c>
       <c r="K102" s="3">
         <v>-178400</v>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,346 +662,371 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4149400</v>
+        <v>5476200</v>
       </c>
       <c r="E8" s="3">
-        <v>4788900</v>
+        <v>5078500</v>
       </c>
       <c r="F8" s="3">
-        <v>6516800</v>
+        <v>4205500</v>
       </c>
       <c r="G8" s="3">
-        <v>5345200</v>
+        <v>4853600</v>
       </c>
       <c r="H8" s="3">
-        <v>5154500</v>
+        <v>6604900</v>
       </c>
       <c r="I8" s="3">
+        <v>5417400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5224200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5093200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5544600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5188000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4086400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3968400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5458400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5181300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4711000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5349700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5836100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4942900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4713400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4767100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6270900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6136300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>5833400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>6355900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>7142400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3945500</v>
+        <v>5491300</v>
       </c>
       <c r="E9" s="3">
-        <v>4183700</v>
+        <v>5040400</v>
       </c>
       <c r="F9" s="3">
-        <v>5543300</v>
+        <v>3998800</v>
       </c>
       <c r="G9" s="3">
-        <v>4377300</v>
+        <v>4240300</v>
       </c>
       <c r="H9" s="3">
-        <v>4081200</v>
+        <v>5618200</v>
       </c>
       <c r="I9" s="3">
+        <v>4436100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4136300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4181700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4520700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4537100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3987700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3734700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5074000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4912900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4287100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4773900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4838500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4223000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4321400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4311800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5499300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>5031500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>4501200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>4808600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>5726100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>203900</v>
+        <v>-15100</v>
       </c>
       <c r="E10" s="3">
-        <v>605200</v>
+        <v>38100</v>
       </c>
       <c r="F10" s="3">
-        <v>973500</v>
+        <v>206700</v>
       </c>
       <c r="G10" s="3">
-        <v>967900</v>
+        <v>613400</v>
       </c>
       <c r="H10" s="3">
-        <v>1073300</v>
+        <v>986700</v>
       </c>
       <c r="I10" s="3">
+        <v>981300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1087800</v>
+      </c>
+      <c r="K10" s="3">
         <v>911600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1023800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>650900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>98700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>233600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>384400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>268400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>423900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>575800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>997700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>719900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>392100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>455400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>771700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1104800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1332200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1547400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1416200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,85 +1054,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>235500</v>
+        <v>294000</v>
       </c>
       <c r="E12" s="3">
-        <v>238800</v>
+        <v>262200</v>
       </c>
       <c r="F12" s="3">
-        <v>247000</v>
+        <v>238600</v>
       </c>
       <c r="G12" s="3">
-        <v>234800</v>
+        <v>242000</v>
       </c>
       <c r="H12" s="3">
-        <v>218400</v>
+        <v>250300</v>
       </c>
       <c r="I12" s="3">
+        <v>238000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>221300</v>
+      </c>
+      <c r="K12" s="3">
         <v>204100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>210600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>221400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>224200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>209800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>193800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>373400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>303100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>262900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>265800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>247700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>239500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>291700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>251700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>274200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>255800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>276900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,162 +1216,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4300</v>
+        <v>1038000</v>
       </c>
       <c r="E14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
-        <v>15100</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>29300</v>
+      </c>
+      <c r="M14" s="3">
+        <v>29600</v>
+      </c>
+      <c r="N14" s="3">
+        <v>79100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1398600</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>127100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J14" s="3">
-        <v>29300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>29600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>79100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1398600</v>
-      </c>
-      <c r="O14" s="3">
-        <v>127100</v>
-      </c>
-      <c r="P14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>38800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>28200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-3600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>21400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>22700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>49000</v>
+        <v>47800</v>
       </c>
       <c r="E15" s="3">
-        <v>49300</v>
+        <v>50400</v>
       </c>
       <c r="F15" s="3">
-        <v>49700</v>
+        <v>49600</v>
       </c>
       <c r="G15" s="3">
-        <v>51900</v>
+        <v>50000</v>
       </c>
       <c r="H15" s="3">
-        <v>49400</v>
+        <v>50300</v>
       </c>
       <c r="I15" s="3">
+        <v>52600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K15" s="3">
         <v>46700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>40300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>38900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>42200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>46800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>48000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>53900</v>
       </c>
       <c r="P15" s="3">
         <v>48000</v>
       </c>
       <c r="Q15" s="3">
+        <v>53900</v>
+      </c>
+      <c r="R15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="S15" s="3">
         <v>49500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>40100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>37200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>34500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>33400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>30800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>30800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>29900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>31300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>27900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1414,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4515100</v>
+        <v>7171000</v>
       </c>
       <c r="E17" s="3">
-        <v>4761000</v>
+        <v>5656000</v>
       </c>
       <c r="F17" s="3">
-        <v>6178500</v>
+        <v>4576100</v>
       </c>
       <c r="G17" s="3">
-        <v>4959600</v>
+        <v>4825300</v>
       </c>
       <c r="H17" s="3">
-        <v>4641700</v>
+        <v>6262000</v>
       </c>
       <c r="I17" s="3">
+        <v>5026300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4704500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4711600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5072000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5091000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4563600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4280500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7215600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5697100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5040400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5475600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5640400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4830600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4933200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4849700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>6228300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5621800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5147100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5454500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>6321000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-365700</v>
+        <v>-1694800</v>
       </c>
       <c r="E18" s="3">
-        <v>27900</v>
+        <v>-577500</v>
       </c>
       <c r="F18" s="3">
-        <v>338300</v>
+        <v>-370700</v>
       </c>
       <c r="G18" s="3">
-        <v>385600</v>
+        <v>28300</v>
       </c>
       <c r="H18" s="3">
-        <v>512800</v>
+        <v>342900</v>
       </c>
       <c r="I18" s="3">
+        <v>391100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>519700</v>
+      </c>
+      <c r="K18" s="3">
         <v>381600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>472600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-477200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-312200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-515800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-329400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-125900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>195800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>112300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-219800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-82600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>42700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>514500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>686300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>901500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>821400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,393 +1611,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>54900</v>
+        <v>397800</v>
       </c>
       <c r="E20" s="3">
-        <v>63100</v>
+        <v>-166800</v>
       </c>
       <c r="F20" s="3">
-        <v>-94900</v>
+        <v>55600</v>
       </c>
       <c r="G20" s="3">
-        <v>152900</v>
+        <v>63900</v>
       </c>
       <c r="H20" s="3">
-        <v>-25400</v>
+        <v>-96100</v>
       </c>
       <c r="I20" s="3">
+        <v>155000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-57200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-81900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-52600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>18600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>125700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-35700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>32700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>25800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>16100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-8200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-47700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>21200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>13500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>32900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>64600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-106000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>159200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>540200</v>
+        <v>-483700</v>
       </c>
       <c r="E21" s="3">
-        <v>958600</v>
+        <v>118600</v>
       </c>
       <c r="F21" s="3">
-        <v>1107300</v>
+        <v>547500</v>
       </c>
       <c r="G21" s="3">
-        <v>1402200</v>
+        <v>971600</v>
       </c>
       <c r="H21" s="3">
-        <v>1278600</v>
+        <v>1122200</v>
       </c>
       <c r="I21" s="3">
+        <v>1421500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1295900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1136200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1196400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>909900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>257100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>647200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-935800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>383400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>433300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>638200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>930000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>817200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>496100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>703100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>835400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1281400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1436600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1439800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1628600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>68100</v>
+        <v>97900</v>
       </c>
       <c r="E22" s="3">
-        <v>63300</v>
+        <v>79800</v>
       </c>
       <c r="F22" s="3">
-        <v>67700</v>
+        <v>69000</v>
       </c>
       <c r="G22" s="3">
-        <v>88500</v>
+        <v>64200</v>
       </c>
       <c r="H22" s="3">
-        <v>80100</v>
+        <v>68700</v>
       </c>
       <c r="I22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K22" s="3">
         <v>84900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>83100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>86200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>56500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>61200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>54200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>51100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>28900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>17000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>15100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>14800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>18100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>19100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>17500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>20500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>18900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>23200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>22600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-378900</v>
+        <v>-1394900</v>
       </c>
       <c r="E23" s="3">
-        <v>27700</v>
+        <v>-824100</v>
       </c>
       <c r="F23" s="3">
-        <v>175700</v>
+        <v>-384100</v>
       </c>
       <c r="G23" s="3">
-        <v>450000</v>
+        <v>28100</v>
       </c>
       <c r="H23" s="3">
-        <v>407300</v>
+        <v>178100</v>
       </c>
       <c r="I23" s="3">
+        <v>456400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>412800</v>
+      </c>
+      <c r="K23" s="3">
         <v>239500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>307600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-41800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-515100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-247700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-534200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-389300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-117100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>196700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>89300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-285600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-80500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>38700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>526900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>732000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>772300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>958100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-96200</v>
+        <v>175400</v>
       </c>
       <c r="E24" s="3">
-        <v>-12500</v>
+        <v>-243600</v>
       </c>
       <c r="F24" s="3">
-        <v>42200</v>
+        <v>-97500</v>
       </c>
       <c r="G24" s="3">
-        <v>107000</v>
+        <v>-12600</v>
       </c>
       <c r="H24" s="3">
-        <v>93500</v>
+        <v>42800</v>
       </c>
       <c r="I24" s="3">
+        <v>108600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K24" s="3">
         <v>42600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-147800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-50400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-127100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-80600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-302500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-140600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>94800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-60100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>68500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>75100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-33200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-39300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>106900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>83700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>160800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>215800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2008,162 +2105,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-282700</v>
+        <v>-1570400</v>
       </c>
       <c r="E26" s="3">
-        <v>40200</v>
+        <v>-580500</v>
       </c>
       <c r="F26" s="3">
-        <v>133500</v>
+        <v>-286500</v>
       </c>
       <c r="G26" s="3">
-        <v>343000</v>
+        <v>40700</v>
       </c>
       <c r="H26" s="3">
-        <v>313900</v>
+        <v>135300</v>
       </c>
       <c r="I26" s="3">
+        <v>347800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>318100</v>
+      </c>
+      <c r="K26" s="3">
         <v>196900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>455400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-387900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-167100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-393600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-484200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-57000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>128200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>14200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-252500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-41100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>38400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>420000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>648300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>611500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>742200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-299400</v>
+        <v>-1423100</v>
       </c>
       <c r="E27" s="3">
-        <v>14800</v>
+        <v>-592100</v>
       </c>
       <c r="F27" s="3">
-        <v>129900</v>
+        <v>-303500</v>
       </c>
       <c r="G27" s="3">
-        <v>310500</v>
+        <v>15000</v>
       </c>
       <c r="H27" s="3">
-        <v>268900</v>
+        <v>131700</v>
       </c>
       <c r="I27" s="3">
+        <v>314900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K27" s="3">
         <v>169000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>416500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>23400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-376600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-167200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-373200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-482600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-55400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>122800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-249800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-49900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>32500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>388900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>607500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>570100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>718200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,8 +2354,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2316,8 +2437,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,8 +2520,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2470,162 +2603,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-54900</v>
+        <v>-397800</v>
       </c>
       <c r="E32" s="3">
-        <v>-63100</v>
+        <v>166800</v>
       </c>
       <c r="F32" s="3">
-        <v>94900</v>
+        <v>-55600</v>
       </c>
       <c r="G32" s="3">
-        <v>-152900</v>
+        <v>-63900</v>
       </c>
       <c r="H32" s="3">
-        <v>25400</v>
+        <v>96100</v>
       </c>
       <c r="I32" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K32" s="3">
         <v>57200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>81900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>52600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-18600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-125700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>35700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-32700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>31000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-25800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-16100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>8200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>47700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-21200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-13500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-32900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-64600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>106000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-159200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-299400</v>
+        <v>-1423100</v>
       </c>
       <c r="E33" s="3">
-        <v>14800</v>
+        <v>-592100</v>
       </c>
       <c r="F33" s="3">
-        <v>129900</v>
+        <v>-303500</v>
       </c>
       <c r="G33" s="3">
-        <v>310500</v>
+        <v>15000</v>
       </c>
       <c r="H33" s="3">
-        <v>268900</v>
+        <v>131700</v>
       </c>
       <c r="I33" s="3">
+        <v>314900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K33" s="3">
         <v>169000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>416500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>23400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-376600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-167200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-373200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-482600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-55400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>122800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-249800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-49900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>32500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>388900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>607500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>570100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>718200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2701,167 +2852,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-299400</v>
+        <v>-1423100</v>
       </c>
       <c r="E35" s="3">
-        <v>14800</v>
+        <v>-592100</v>
       </c>
       <c r="F35" s="3">
-        <v>129900</v>
+        <v>-303500</v>
       </c>
       <c r="G35" s="3">
-        <v>310500</v>
+        <v>15000</v>
       </c>
       <c r="H35" s="3">
-        <v>268900</v>
+        <v>131700</v>
       </c>
       <c r="I35" s="3">
+        <v>314900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K35" s="3">
         <v>169000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>416500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>23400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-376600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-167200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-373200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-482600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-55400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>122800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-249800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-49900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>32500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>388900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>607500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>570100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>718200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2889,8 +3058,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2918,701 +3089,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2028100</v>
+        <v>1368500</v>
       </c>
       <c r="E41" s="3">
-        <v>2490200</v>
+        <v>1155600</v>
       </c>
       <c r="F41" s="3">
-        <v>2620800</v>
+        <v>2055500</v>
       </c>
       <c r="G41" s="3">
-        <v>2573500</v>
+        <v>2523800</v>
       </c>
       <c r="H41" s="3">
-        <v>2674600</v>
+        <v>2656200</v>
       </c>
       <c r="I41" s="3">
+        <v>2608200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2710700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2889000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3121400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2532600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2711000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2989000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2835600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2456100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2132600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2187800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1986600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2235800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2395200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2206400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2290300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1737200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1354700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1210300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1402800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>211600</v>
+        <v>200400</v>
       </c>
       <c r="E42" s="3">
-        <v>1500</v>
+        <v>222200</v>
       </c>
       <c r="F42" s="3">
-        <v>3100</v>
+        <v>214400</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
       </c>
       <c r="H42" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J42" s="3">
         <v>1900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>228500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>669700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>603000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1105000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>870900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>797300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>982200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2209600</v>
+        <v>1924000</v>
       </c>
       <c r="E43" s="3">
-        <v>2889900</v>
+        <v>2379100</v>
       </c>
       <c r="F43" s="3">
-        <v>3497300</v>
+        <v>2239400</v>
       </c>
       <c r="G43" s="3">
-        <v>3253600</v>
+        <v>2928900</v>
       </c>
       <c r="H43" s="3">
-        <v>3194300</v>
+        <v>3544500</v>
       </c>
       <c r="I43" s="3">
+        <v>3297600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3237500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3298900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2735400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3052100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2294900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2506300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3107100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3642900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2552200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3213100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2532300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2751000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3073400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3055600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3965900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4359300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4020800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>4095800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>4598400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3494600</v>
+        <v>2154700</v>
       </c>
       <c r="E44" s="3">
-        <v>3129900</v>
+        <v>3388000</v>
       </c>
       <c r="F44" s="3">
-        <v>2479300</v>
+        <v>3541800</v>
       </c>
       <c r="G44" s="3">
-        <v>2649400</v>
+        <v>3172200</v>
       </c>
       <c r="H44" s="3">
-        <v>2014900</v>
+        <v>2512800</v>
       </c>
       <c r="I44" s="3">
+        <v>2685200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2042100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1740200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1606300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1847800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1570300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1940500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1743500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2427200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2260900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2393200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2260600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2095800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2041500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1974300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2068100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2344300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2062200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2054900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2059000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>928800</v>
+        <v>1435500</v>
       </c>
       <c r="E45" s="3">
-        <v>1210500</v>
+        <v>1689000</v>
       </c>
       <c r="F45" s="3">
-        <v>1158000</v>
+        <v>941400</v>
       </c>
       <c r="G45" s="3">
-        <v>1176300</v>
+        <v>1226900</v>
       </c>
       <c r="H45" s="3">
-        <v>1088400</v>
+        <v>1173600</v>
       </c>
       <c r="I45" s="3">
+        <v>1192200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1103100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1071100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>749200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>975400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>988800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1096300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1023600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1066900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>963600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>859300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>608900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>402500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>423500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>408800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>289600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>428200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>485800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>524200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>393400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8872700</v>
+        <v>7083000</v>
       </c>
       <c r="E46" s="3">
-        <v>9722000</v>
+        <v>8834000</v>
       </c>
       <c r="F46" s="3">
-        <v>9758400</v>
+        <v>8992600</v>
       </c>
       <c r="G46" s="3">
-        <v>9654400</v>
+        <v>9853300</v>
       </c>
       <c r="H46" s="3">
-        <v>8974000</v>
+        <v>9890300</v>
       </c>
       <c r="I46" s="3">
+        <v>9784900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9095300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9000700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8213600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8408900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7566200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8533300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8711100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9593900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7910500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8657400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7392100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7488700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8162200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8314800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>9216900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>9974000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8794500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8682400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>9435800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>446600</v>
+        <v>621100</v>
       </c>
       <c r="E47" s="3">
-        <v>234300</v>
+        <v>580600</v>
       </c>
       <c r="F47" s="3">
-        <v>245300</v>
+        <v>452600</v>
       </c>
       <c r="G47" s="3">
-        <v>262300</v>
+        <v>237500</v>
       </c>
       <c r="H47" s="3">
-        <v>236300</v>
+        <v>248700</v>
       </c>
       <c r="I47" s="3">
+        <v>265800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K47" s="3">
         <v>259600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>285300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>193100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>221000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>293000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>285600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>232300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>188600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>190100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>164300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>158600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>154000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>137700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>149900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>137500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>127800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>149500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>197500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>15864600</v>
+        <v>15731400</v>
       </c>
       <c r="E48" s="3">
-        <v>15316500</v>
+        <v>17084200</v>
       </c>
       <c r="F48" s="3">
-        <v>15213300</v>
+        <v>16079000</v>
       </c>
       <c r="G48" s="3">
-        <v>15035300</v>
+        <v>15523500</v>
       </c>
       <c r="H48" s="3">
-        <v>14972600</v>
+        <v>15418800</v>
       </c>
       <c r="I48" s="3">
+        <v>15238500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>15174900</v>
+      </c>
+      <c r="K48" s="3">
         <v>14950700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>15231100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>16270000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16728400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18739300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18774500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21120200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>21068600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>21027600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>18144100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>16307900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15987500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>14721100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>14257700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>13203600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>12466000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>11656300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>10828300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1283600</v>
+        <v>1314700</v>
       </c>
       <c r="E49" s="3">
-        <v>1202400</v>
+        <v>1388000</v>
       </c>
       <c r="F49" s="3">
-        <v>1217200</v>
+        <v>1301000</v>
       </c>
       <c r="G49" s="3">
-        <v>1142900</v>
+        <v>1218700</v>
       </c>
       <c r="H49" s="3">
-        <v>916000</v>
+        <v>1233700</v>
       </c>
       <c r="I49" s="3">
+        <v>1158400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>928400</v>
+      </c>
+      <c r="K49" s="3">
         <v>931700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>763800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>611500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>652500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>738900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>742400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>864600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>819600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>897600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>829600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>803500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>795000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>766200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>803300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>782000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>744500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>764600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>805400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3688,8 +3915,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3765,85 +3998,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1878500</v>
+        <v>2014300</v>
       </c>
       <c r="E52" s="3">
-        <v>1842500</v>
+        <v>2213700</v>
       </c>
       <c r="F52" s="3">
-        <v>1800100</v>
+        <v>1903900</v>
       </c>
       <c r="G52" s="3">
-        <v>1733600</v>
+        <v>1867400</v>
       </c>
       <c r="H52" s="3">
-        <v>1780600</v>
+        <v>1824400</v>
       </c>
       <c r="I52" s="3">
+        <v>1757100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1804700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1791500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1791700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1849500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1823600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1839400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1724800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1513300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1341400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1430400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1337500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1258100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1314600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1256200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1232800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1239600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1188500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1071800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1128900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3919,85 +4164,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28346000</v>
+        <v>26764500</v>
       </c>
       <c r="E54" s="3">
-        <v>28317700</v>
+        <v>30100500</v>
       </c>
       <c r="F54" s="3">
-        <v>28234300</v>
+        <v>28729100</v>
       </c>
       <c r="G54" s="3">
-        <v>27828600</v>
+        <v>28700400</v>
       </c>
       <c r="H54" s="3">
-        <v>26879500</v>
+        <v>28615900</v>
       </c>
       <c r="I54" s="3">
+        <v>28204600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>27242800</v>
+      </c>
+      <c r="K54" s="3">
         <v>26934200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25948800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>27333000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26991800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30143900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30238400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>33324300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31328700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32203100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>27867600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>26016900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>26413100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>25196000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>25660500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>25336700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>23321100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>22324700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>22395900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4025,8 +4282,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4054,470 +4313,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3323600</v>
+        <v>3046300</v>
       </c>
       <c r="E57" s="3">
-        <v>3900000</v>
+        <v>3771600</v>
       </c>
       <c r="F57" s="3">
-        <v>3562400</v>
+        <v>3368500</v>
       </c>
       <c r="G57" s="3">
-        <v>3203800</v>
+        <v>3952700</v>
       </c>
       <c r="H57" s="3">
-        <v>2765100</v>
+        <v>3610500</v>
       </c>
       <c r="I57" s="3">
+        <v>3247100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2802400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2941400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2796700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3108600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2669000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2412600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2225500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2379300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2477500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2702900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2593500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2573100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2494500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2354400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2530100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2607300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2150400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2193700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2589600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4482900</v>
+        <v>4106100</v>
       </c>
       <c r="E58" s="3">
-        <v>3592900</v>
+        <v>3905700</v>
       </c>
       <c r="F58" s="3">
-        <v>2995300</v>
+        <v>4543500</v>
       </c>
       <c r="G58" s="3">
-        <v>3667100</v>
+        <v>3641400</v>
       </c>
       <c r="H58" s="3">
-        <v>3284400</v>
+        <v>3035800</v>
       </c>
       <c r="I58" s="3">
+        <v>3716600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3328800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2746500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2320800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1982600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2413500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2427500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1680500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1708400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1625800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1454900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1305300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1659500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1833200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1804300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1278600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1072600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>734100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>690200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>601100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3275400</v>
+        <v>3318800</v>
       </c>
       <c r="E59" s="3">
-        <v>3263400</v>
+        <v>3544900</v>
       </c>
       <c r="F59" s="3">
-        <v>3798500</v>
+        <v>3319700</v>
       </c>
       <c r="G59" s="3">
-        <v>3242300</v>
+        <v>3307500</v>
       </c>
       <c r="H59" s="3">
-        <v>3297800</v>
+        <v>3849800</v>
       </c>
       <c r="I59" s="3">
+        <v>3286100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3342400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3190600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3027700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3534600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3511000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4579200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5431200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5382700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4890500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4697300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4463000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3983800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3878000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3862100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4092600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3429700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3088300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3298400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3161700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11081900</v>
+        <v>10471100</v>
       </c>
       <c r="E60" s="3">
-        <v>10756200</v>
+        <v>11222200</v>
       </c>
       <c r="F60" s="3">
-        <v>10356200</v>
+        <v>11231700</v>
       </c>
       <c r="G60" s="3">
-        <v>10113100</v>
+        <v>10901600</v>
       </c>
       <c r="H60" s="3">
-        <v>9347300</v>
+        <v>10496100</v>
       </c>
       <c r="I60" s="3">
+        <v>10249800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9473600</v>
+      </c>
+      <c r="K60" s="3">
         <v>8878600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8145100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8625800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8593500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9419300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9337200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9470400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8993900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8855100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8361800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8216400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8205600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8020800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7901200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7109600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5972800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>6182300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>6352400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>5933800</v>
+        <v>7192000</v>
       </c>
       <c r="E61" s="3">
-        <v>6136000</v>
+        <v>7632700</v>
       </c>
       <c r="F61" s="3">
-        <v>6438300</v>
+        <v>6014000</v>
       </c>
       <c r="G61" s="3">
-        <v>6357900</v>
+        <v>6218900</v>
       </c>
       <c r="H61" s="3">
-        <v>7004200</v>
+        <v>6525300</v>
       </c>
       <c r="I61" s="3">
+        <v>6443800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7098900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7907800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8151900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9159100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8930300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9876300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9853500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>10332500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8500600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>8383100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5884100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4588400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4522600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3850300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3652200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3665600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>3685800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>3525400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>3699800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>503800</v>
+        <v>611900</v>
       </c>
       <c r="E62" s="3">
-        <v>505100</v>
+        <v>532800</v>
       </c>
       <c r="F62" s="3">
-        <v>515600</v>
+        <v>510600</v>
       </c>
       <c r="G62" s="3">
-        <v>544900</v>
+        <v>511900</v>
       </c>
       <c r="H62" s="3">
-        <v>345100</v>
+        <v>522600</v>
       </c>
       <c r="I62" s="3">
+        <v>552300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>349800</v>
+      </c>
+      <c r="K62" s="3">
         <v>350900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>230500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>173800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>150400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>295300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>432600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>771400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>873000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1051400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1117300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1311500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1477300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>871400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>923400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1213500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>823900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>278900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>227600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4593,8 +4890,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4670,8 +4973,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,85 +5056,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18778000</v>
+        <v>19354800</v>
       </c>
       <c r="E66" s="3">
-        <v>18663200</v>
+        <v>20720800</v>
       </c>
       <c r="F66" s="3">
-        <v>18526400</v>
+        <v>19031800</v>
       </c>
       <c r="G66" s="3">
-        <v>18210400</v>
+        <v>18915400</v>
       </c>
       <c r="H66" s="3">
-        <v>17805800</v>
+        <v>18776700</v>
       </c>
       <c r="I66" s="3">
+        <v>18456500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>18046500</v>
+      </c>
+      <c r="K66" s="3">
         <v>18185900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17516200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18916300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18633900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20594100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>20599000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21627400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19428300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19398500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16125100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14841500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>14696300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>13236700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>13011900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12546500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10999900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>10453700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>10735500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4853,8 +5174,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4930,8 +5253,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5007,8 +5336,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5084,8 +5419,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5161,85 +5502,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5974000</v>
+        <v>4019800</v>
       </c>
       <c r="E72" s="3">
-        <v>6160600</v>
+        <v>5458800</v>
       </c>
       <c r="F72" s="3">
-        <v>6320700</v>
+        <v>6054700</v>
       </c>
       <c r="G72" s="3">
-        <v>6309800</v>
+        <v>6243900</v>
       </c>
       <c r="H72" s="3">
-        <v>6000900</v>
+        <v>6406100</v>
       </c>
       <c r="I72" s="3">
+        <v>6395000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6082000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5734100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5563900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5268300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5245500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6134100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6377800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8189400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8467600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>9261100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8601600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8163200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>8465600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>8718500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>9347000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>9312600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>8926100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>8509500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>8103900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5315,8 +5668,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5392,8 +5751,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5469,85 +5834,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9568000</v>
+        <v>7409700</v>
       </c>
       <c r="E76" s="3">
-        <v>9654500</v>
+        <v>9379700</v>
       </c>
       <c r="F76" s="3">
-        <v>9708000</v>
+        <v>9697300</v>
       </c>
       <c r="G76" s="3">
-        <v>9618100</v>
+        <v>9784900</v>
       </c>
       <c r="H76" s="3">
-        <v>9073700</v>
+        <v>9839100</v>
       </c>
       <c r="I76" s="3">
+        <v>9748100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9196300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8748300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8432700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8416700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8357900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9549800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9639400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11696900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11900400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>12804600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11742500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11175400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11716800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11959300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>12648700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>12790200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>12321300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>11871000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>11660400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5623,167 +6000,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-299400</v>
+        <v>-1423100</v>
       </c>
       <c r="E81" s="3">
-        <v>14800</v>
+        <v>-592100</v>
       </c>
       <c r="F81" s="3">
-        <v>129900</v>
+        <v>-303500</v>
       </c>
       <c r="G81" s="3">
-        <v>310500</v>
+        <v>15000</v>
       </c>
       <c r="H81" s="3">
-        <v>268900</v>
+        <v>131700</v>
       </c>
       <c r="I81" s="3">
+        <v>314900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K81" s="3">
         <v>169000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>416500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>23400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-376600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-167200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-373200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-482600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-55400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>122800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-249800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-49900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>32500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>388900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>607500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>570100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>718200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5811,85 +6206,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>851000</v>
+        <v>813300</v>
       </c>
       <c r="E83" s="3">
-        <v>867600</v>
+        <v>862900</v>
       </c>
       <c r="F83" s="3">
-        <v>863800</v>
+        <v>862500</v>
       </c>
       <c r="G83" s="3">
-        <v>863700</v>
+        <v>879400</v>
       </c>
       <c r="H83" s="3">
-        <v>791200</v>
+        <v>875500</v>
       </c>
       <c r="I83" s="3">
+        <v>875400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>801900</v>
+      </c>
+      <c r="K83" s="3">
         <v>811800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>805800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>865500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>715700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>833700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>857000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>866500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>793700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>738200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>718200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>713100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>763600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>764500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>779200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>734000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>685600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>644300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>648000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5965,8 +6368,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6042,8 +6451,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6119,8 +6534,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6196,8 +6617,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6273,85 +6700,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>302100</v>
+        <v>814800</v>
       </c>
       <c r="E89" s="3">
-        <v>514500</v>
+        <v>615800</v>
       </c>
       <c r="F89" s="3">
-        <v>1498700</v>
+        <v>306100</v>
       </c>
       <c r="G89" s="3">
-        <v>975800</v>
+        <v>521500</v>
       </c>
       <c r="H89" s="3">
-        <v>1071000</v>
+        <v>1519000</v>
       </c>
       <c r="I89" s="3">
+        <v>989000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1085500</v>
+      </c>
+      <c r="K89" s="3">
         <v>712000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>813400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>338800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>433500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>155100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1243600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-41400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1290100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-160200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>648900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1193300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1206300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>673900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1444800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1696700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1718000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1117800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1214000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6379,85 +6818,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-814100</v>
+        <v>-925600</v>
       </c>
       <c r="E91" s="3">
-        <v>-826700</v>
+        <v>-1220900</v>
       </c>
       <c r="F91" s="3">
-        <v>-625700</v>
+        <v>-825100</v>
       </c>
       <c r="G91" s="3">
-        <v>-637000</v>
+        <v>-837900</v>
       </c>
       <c r="H91" s="3">
-        <v>-639900</v>
+        <v>-634200</v>
       </c>
       <c r="I91" s="3">
+        <v>-645600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-422100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-322700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-260300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-617100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-863500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-852300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6533,8 +6980,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6610,85 +7063,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1073300</v>
+        <v>-1107300</v>
       </c>
       <c r="E94" s="3">
-        <v>-886000</v>
+        <v>-1932100</v>
       </c>
       <c r="F94" s="3">
-        <v>-730000</v>
+        <v>-1087800</v>
       </c>
       <c r="G94" s="3">
-        <v>-714800</v>
+        <v>-898000</v>
       </c>
       <c r="H94" s="3">
-        <v>-862800</v>
+        <v>-739800</v>
       </c>
       <c r="I94" s="3">
+        <v>-724400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-874500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-847100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-188600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-285000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-680100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-681400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-894100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6716,8 +7181,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6793,8 +7260,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6870,8 +7343,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6947,8 +7426,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7024,235 +7509,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>277800</v>
+        <v>596100</v>
       </c>
       <c r="E100" s="3">
-        <v>203300</v>
+        <v>375800</v>
       </c>
       <c r="F100" s="3">
-        <v>-740800</v>
+        <v>281600</v>
       </c>
       <c r="G100" s="3">
-        <v>-459100</v>
+        <v>206000</v>
       </c>
       <c r="H100" s="3">
-        <v>-454900</v>
+        <v>-750800</v>
       </c>
       <c r="I100" s="3">
+        <v>-465300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-461100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-170100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>132900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-252200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>249300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>635000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>180000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1640500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>564500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2085200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>703200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>373100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>452700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>937500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>329400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>290500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>89200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>50900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-190200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>31300</v>
+        <v>-90700</v>
       </c>
       <c r="E101" s="3">
-        <v>37600</v>
+        <v>40600</v>
       </c>
       <c r="F101" s="3">
-        <v>19400</v>
+        <v>31700</v>
       </c>
       <c r="G101" s="3">
-        <v>97000</v>
+        <v>38100</v>
       </c>
       <c r="H101" s="3">
-        <v>32300</v>
+        <v>19700</v>
       </c>
       <c r="I101" s="3">
+        <v>98300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K101" s="3">
         <v>72800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-70300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>19900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-31700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>78000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-39600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>14900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>55400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-55600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>51600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-78400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>26200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>33000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>100700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-462100</v>
+        <v>212900</v>
       </c>
       <c r="E102" s="3">
-        <v>-130600</v>
+        <v>-899800</v>
       </c>
       <c r="F102" s="3">
-        <v>47300</v>
+        <v>-468400</v>
       </c>
       <c r="G102" s="3">
-        <v>-101100</v>
+        <v>-132400</v>
       </c>
       <c r="H102" s="3">
-        <v>-214400</v>
+        <v>48000</v>
       </c>
       <c r="I102" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-217300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-232400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>687400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-178400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-28900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>186800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>489900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>299300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>16900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>35600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-332000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-73900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>188800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>20300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>553100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>382400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>171400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-192600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>434500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,371 +662,380 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3308300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5476200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5078500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4205500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4853600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6604900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5417400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5224200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5093200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5544600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5188000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4086400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3968400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5458400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5181300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4711000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5349700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5836100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4942900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4713400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4767100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6270900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6136300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5833400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6355900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7142400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3595900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5491300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5040400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3998800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4240300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5618200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4436100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4136300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4181700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4520700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4537100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3987700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3734700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5074000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4912900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4287100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4773900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4838500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4223000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4321400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4311800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5499300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5031500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4501200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4808600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5726100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-287600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-15100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>206700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>613400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>986700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>981300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1087800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>911600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1023800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>650900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>98700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>384400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>268400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>423900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>575800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>997700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>719900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>392100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>455400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>771700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1104800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1332200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1547400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1416200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,91 +1065,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>264700</v>
+      </c>
+      <c r="E12" s="3">
         <v>294000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>262200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>238600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>242000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>250300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>238000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>221300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>204100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>210600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>221400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>224200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>209800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>193800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>373400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>303100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>262900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>265800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>247700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>239500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>291700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>251700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>274200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>255800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>276900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1222,174 +1235,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1038000</v>
       </c>
-      <c r="E14" s="3">
-        <v>8100</v>
-      </c>
       <c r="F14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>79100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1398600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>127100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>38800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>21400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>22700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E15" s="3">
         <v>47800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>50400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>49600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>50000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>50300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>52600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>50100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>38900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>53900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>40100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>37200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>34500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>33400</v>
-      </c>
-      <c r="X15" s="3">
-        <v>30800</v>
       </c>
       <c r="Y15" s="3">
         <v>30800</v>
       </c>
       <c r="Z15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="AA15" s="3">
         <v>29900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>31300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>27900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1438,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4136700</v>
+      </c>
+      <c r="E17" s="3">
         <v>7171000</v>
       </c>
-      <c r="E17" s="3">
-        <v>5656000</v>
-      </c>
       <c r="F17" s="3">
+        <v>5656200</v>
+      </c>
+      <c r="G17" s="3">
         <v>4576100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4825300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6262000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5026300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4704500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4711600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5072000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5091000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4563600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4280500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7215600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5697100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5040400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5475600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5640400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4830600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4933200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4849700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6228300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5621800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5147100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5454500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6321000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-828400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1694800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-577500</v>
-      </c>
       <c r="F18" s="3">
+        <v>-577700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-370700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>342900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>391100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>519700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>381600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>472600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-477200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-312200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-515800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-329400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-125900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>195800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>112300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-219800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-82600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>514500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>686300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>901500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>821400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1613,423 +1642,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="E20" s="3">
         <v>397800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-166800</v>
-      </c>
       <c r="F20" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="G20" s="3">
         <v>55600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>63900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-96100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>155000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-57200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-81900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>125700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-47700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>21200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>13500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>32900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>64600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-106000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>159200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-483700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>118600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>547500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>971600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1122200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1421500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1295900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1136200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1196400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>909900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>257100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>647200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-935800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>383400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>433300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>638200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>930000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>817200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>496100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>703100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>835400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1281400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1436600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1439800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1628600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E22" s="3">
         <v>97900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>79800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>69000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>64200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>68700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>89700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>81200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>84900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>83100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>86200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>20500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>18900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>23200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>22600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1106100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1394900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-824100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-384100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>178100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>456400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>412800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>239500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>307600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-515100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-247700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-534200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-389300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-117100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>196700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-285600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-80500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>526900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>732000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>772300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>958100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="E24" s="3">
         <v>175400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-243600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-97500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-12600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>108600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>94700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-147800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-50400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-127100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-80600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-302500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-140600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>94800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-60100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>68500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>75100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-33200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-39300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>106900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>83700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>160800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>215800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2111,174 +2156,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-864800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1570400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-580500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-286500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>135300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>347800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>318100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>455400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-387900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-167100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-393600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-484200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-57000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>128200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-252500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-41100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>420000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>648300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>611500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>742200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-910300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1423100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-592100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-303500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>131700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>314900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>272500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>169000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>416500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-376600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-167200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-373200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-482600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-55400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>122800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-249800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-49900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>32500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>388900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>607500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>570100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>718200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2360,8 +2414,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2443,8 +2500,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2526,8 +2586,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2609,174 +2672,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-397800</v>
       </c>
-      <c r="E32" s="3">
-        <v>166800</v>
-      </c>
       <c r="F32" s="3">
+        <v>166600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-55600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-63900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>96100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-155000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>57200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>81900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-125700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>47700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-21200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-64600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>106000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-159200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-910300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1423100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-592100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-303500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>131700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>314900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>272500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>169000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>416500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-376600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-167200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-373200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-482600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-55400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>122800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-249800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-49900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>388900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>607500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>570100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>718200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2858,179 +2930,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-910300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1423100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-592100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-303500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>131700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>314900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>272500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>169000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>416500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-376600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-167200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-373200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-482600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-55400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>122800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-249800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-49900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>388900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>607500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>570100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>718200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3060,8 +3141,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3091,755 +3173,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1659500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1368500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1155600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2055500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2523800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2656200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2608200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2710700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2889000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3121400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2532600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2711000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2989000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2835600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2456100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2132600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2187800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1986600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2235800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2395200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2206400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2290300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1737200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1210300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1402800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E42" s="3">
         <v>200400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>222200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>214400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1300</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1100</v>
       </c>
       <c r="N42" s="3">
         <v>1100</v>
       </c>
       <c r="O42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P42" s="3">
         <v>1200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>228500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>669700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>603000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1105000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>870900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>797300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>982200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1971300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1924000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2379100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2239400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2928900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3544500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3297600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3237500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3298900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2735400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3052100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2294900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2506300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3107100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3642900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2552200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3213100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2532300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2751000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3073400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3055600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3965900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4359300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4020800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4095800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4598400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2107900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2154700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3388000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3541800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3172200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2512800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2685200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2042100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1740200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1606300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1847800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1570300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1940500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1743500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2427200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2260900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2393200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2260600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2095800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2041500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1974300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2068100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2344300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2062200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2054900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2059000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1442100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1435500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1689000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>941400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1226900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1173600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1192200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1103100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1071100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>749200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>975400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>988800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1096300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1023600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1066900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>963600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>859300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>608900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>402500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>423500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>408800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>289600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>428200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>485800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>524200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>393400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7390100</v>
+      </c>
+      <c r="E46" s="3">
         <v>7083000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8834000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8992600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9853300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9890300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9784900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9095300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9000700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8213600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8408900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7566200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8533300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8711100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9593900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7910500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8657400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7392100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7488700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8162200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8314800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9216900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9974000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8794500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8682400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9435800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>566300</v>
+      </c>
+      <c r="E47" s="3">
         <v>621100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>580600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>452600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>237500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>248700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>265800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>239500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>259600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>285300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>193100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>221000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>293000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>285600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>232300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>188600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>190100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>164300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>158600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>154000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>137700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>149900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>137500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>127800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>149500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>197500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>15900600</v>
+      </c>
+      <c r="E48" s="3">
         <v>15731400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17084200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16079000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15523500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15418800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15238500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15174900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14950700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15231100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16270000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16728400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18739300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18774500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21120200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21068600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21027600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18144100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16307900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15987500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14721100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14257700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13203600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12466000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11656300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>10828300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1298400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1314700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1388000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1301000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1218700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1233700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1158400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>928400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>931700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>763800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>611500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>652500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>738900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>742400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>864600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>819600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>897600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>829600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>803500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>795000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>766200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>803300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>782000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>744500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>764600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>805400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3921,8 +4031,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4004,91 +4117,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2327700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2014300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2213700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1903900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1867400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1824400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1757100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1804700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1791500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1791700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1849500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1823600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1839400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1724800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1513300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1341400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1430400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1337500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1258100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1314600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1256200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1232800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1239600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1188500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1071800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1128900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4170,91 +4289,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>27483200</v>
+      </c>
+      <c r="E54" s="3">
         <v>26764500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30100500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28729100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28700400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28615900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28204600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27242800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26934200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25948800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27333000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26991800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30143900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30238400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33324300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31328700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32203100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27867600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26016900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26413100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25196000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25660500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25336700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23321100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>22324700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>22395900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4284,8 +4409,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4315,506 +4441,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2951600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3046300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3771600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3368500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3952700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3610500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3247100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2802400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2941400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2796700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3108600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2669000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2412600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2225500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2379300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2477500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2702900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2593500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2573100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2494500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2354400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2530100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2607300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2150400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2193700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2589600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3953100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4106100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3905700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4543500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3641400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3035800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3716600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3328800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2746500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2320800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1982600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2413500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2427500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1680500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1708400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1625800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1454900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1305300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1659500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1833200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1804300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1278600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1072600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>734100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>690200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>601100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2663900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3318800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3544900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3319700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3307500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3849800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3286100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3342400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3190600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3027700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3534600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3511000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4579200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5431200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5382700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4890500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4697300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4463000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3983800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3878000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3862100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4092600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3429700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3088300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3298400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3161700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>9568600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10471100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11222200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11231700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10901600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10496100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10249800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9473600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8878600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8145100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8625800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8593500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9419300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9337200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9470400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8993900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8855100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8361800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8216400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8205600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8020800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7901200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7109600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5972800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6182300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6352400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>9002400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7192000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7632700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6014000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6218900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6525300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6443800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7098900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7907800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8151900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9159100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8930300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9876300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9853500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10332500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8500600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8383100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5884100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4588400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4522600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3850300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3652200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3665600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3685800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3525400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3699800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1015600</v>
+      </c>
+      <c r="E62" s="3">
         <v>611900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>532800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>510600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>511900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>522600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>552300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>349800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>350900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>230500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>295300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>432600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>771400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>873000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1051400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1117300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1311500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1477300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>871400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>923400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1213500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>823900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>278900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>227600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4896,8 +5041,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4979,8 +5127,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5062,91 +5213,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>20757700</v>
+      </c>
+      <c r="E66" s="3">
         <v>19354800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20720800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19031800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18915400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18776700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18456500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18046500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18185900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17516200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18916300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18633900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20594100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20599000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21627400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19428300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19398500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16125100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14841500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14696300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13236700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13011900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12546500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10999900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10453700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10735500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5176,8 +5333,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5259,8 +5417,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5342,8 +5503,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5425,8 +5589,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5508,91 +5675,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3109200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4019800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5458800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6054700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6243900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6406100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6395000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6082000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5734100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5563900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5268300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5245500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6134100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6377800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8189400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8467600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9261100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8601600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8163200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8465600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8718500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9347000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9312600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8926100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8509500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8103900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5674,8 +5847,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5757,8 +5933,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5840,91 +6019,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>6725500</v>
+      </c>
+      <c r="E76" s="3">
         <v>7409700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9379700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9697300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9784900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9839100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9748100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9196300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8748300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8432700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8416700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8357900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9549800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9639400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11696900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11900400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12804600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11742500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11175400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11716800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11959300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12648700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12790200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12321300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11871000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11660400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6006,179 +6191,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-910300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1423100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-592100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-303500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>131700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>314900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>272500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>169000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>416500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-376600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-167200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-373200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-482600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-55400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>122800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-249800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-49900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>388900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>607500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>570100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>718200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6208,91 +6402,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>763600</v>
+      </c>
+      <c r="E83" s="3">
         <v>813300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>862900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>862500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>879400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>875500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>875400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>801900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>811800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>805800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>865500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>715700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>833700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>857000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>866500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>793700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>738200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>718200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>713100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>763600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>764500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>779200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>734000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>685600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>644300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>648000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6374,8 +6572,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6457,8 +6658,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6540,8 +6744,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6623,8 +6830,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6706,91 +6916,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-430100</v>
+      </c>
+      <c r="E89" s="3">
         <v>814800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>615800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>306100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>521500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1519000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>989000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1085500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>712000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>813400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>338800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>433500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>155100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1243600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-41400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1290100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-160200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>648900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1193300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1206300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>673900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1444800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1696700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1718000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1117800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1214000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6820,91 +7036,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-925600</v>
+        <v>-1448976000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1220900</v>
+        <v>-1503826000</v>
       </c>
       <c r="F91" s="3">
-        <v>-825100</v>
+        <v>-1825540000</v>
       </c>
       <c r="G91" s="3">
-        <v>-837900</v>
+        <v>-1291739000</v>
       </c>
       <c r="H91" s="3">
-        <v>-634200</v>
+        <v>-1288757000</v>
       </c>
       <c r="I91" s="3">
-        <v>-645600</v>
+        <v>-1022571000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1032246000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-648500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-422100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-322700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-260300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-617100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-863500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-852300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6986,8 +7206,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7069,91 +7292,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-688300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1107300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1932100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1087800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-898000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-739800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-724400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-874500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-847100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-188600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-285000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-680100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-681400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-894100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7183,8 +7412,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7266,8 +7496,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7349,8 +7582,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7432,8 +7668,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7515,253 +7754,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1371900</v>
+      </c>
+      <c r="E100" s="3">
         <v>596100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>375800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>281600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>206000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-750800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-465300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-461100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-170100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>132900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-252200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>249300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>635000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>180000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1640500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>564500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2085200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>703200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>373100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>452700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>937500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>329400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>290500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>89200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>50900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-190200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-90700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>40600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>31700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>38100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>19700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>98300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>32700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>72800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-70300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-31700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>78000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>14900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>55400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-55600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>51600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-78400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>26200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>33000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-71800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>100700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>291100</v>
+      </c>
+      <c r="E102" s="3">
         <v>212900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-899800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-468400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-132400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>48000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-102500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-217300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-232400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>687400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-178400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>186800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>489900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>299300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-332000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-73900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>188800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>20300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>553100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>382400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>171400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>434500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,380 +662,392 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3553900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3308300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5476200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5078500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4205500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4853600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6604900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5417400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5224200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5093200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5544600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5188000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4086400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3968400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5458400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5181300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4711000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5349700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5836100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4942900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4713400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4767100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6270900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6136300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5833400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6355900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7142400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3683400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3595900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5491300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5040400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3998800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4240300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5618200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4436100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4136300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4181700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4520700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4537100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3987700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3734700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5074000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4912900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4287100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4773900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4838500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4223000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4321400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4311800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5499300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5031500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4501200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4808600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5726100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-287600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-15100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>206700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>613400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>986700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>981300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1087800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>911600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1023800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>650900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>98700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>233600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>384400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>268400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>423900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>575800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>997700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>719900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>392100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>455400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>771700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1104800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1332200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1547400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1416200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,94 +1078,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E12" s="3">
         <v>264700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>294000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>262200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>238600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>242000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>250300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>238000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>221300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>204100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>210600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>221400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>224200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>209800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>193800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>373400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>303100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>262900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>265800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>247700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>239500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>291700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>251700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>274200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>255800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>276900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1238,180 +1254,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E14" s="3">
         <v>4600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1038000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>79100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1398600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>127100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>38800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>28200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>21400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>22700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-7500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E15" s="3">
         <v>49200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>47800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>50400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>49600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>50000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>50300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>52600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>50100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>46700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>38900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>53900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>40100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>37200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>34500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>33400</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>30800</v>
       </c>
       <c r="Z15" s="3">
         <v>30800</v>
       </c>
       <c r="AA15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="AB15" s="3">
         <v>29900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>31300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>27900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1439,180 +1464,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4268200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4136700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7171000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5656200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4576100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4825300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6262000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5026300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4704500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4711600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5072000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5091000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4563600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4280500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7215600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5697100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5040400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5475600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5640400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4830600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4933200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4849700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6228300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5621800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5147100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5454500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6321000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-714300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-828400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1694800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-577700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-370700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>342900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>391100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>519700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>381600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>472600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-477200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-312200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-515800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-329400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-125900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>195800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>112300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-219800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-82600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>42700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>514500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>686300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>901500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>821400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1643,438 +1675,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>180900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-170200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>397800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-166600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>55600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>63900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-96100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>155000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-57200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-81900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-52600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>125700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-31000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-47700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>21200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>13500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>32900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>64600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-106000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>159200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-235000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-483700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>118600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>547500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>971600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1122200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1421500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1295900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1136200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1196400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>909900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>257100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>647200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-935800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>383400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>433300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>638200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>930000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>817200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>496100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>703100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>835400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1281400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1436600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1439800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1628600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E22" s="3">
         <v>107500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>97900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>79800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>69000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>64200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>68700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>89700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>84900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>83100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>86200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>51100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>18100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>20500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>18900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>23200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>22600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-657800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1106100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1394900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-824100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-384100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>178100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>456400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>412800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>239500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>307600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-41800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-515100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-247700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-534200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-389300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-117100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>196700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-285600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-80500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>38700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>526900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>732000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>772300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>958100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-241300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>175400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-243600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-97500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-12600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>108600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-147800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-50400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-127100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-80600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-302500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-140600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>94800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-60100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>68500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>75100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-33200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-39300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>106900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>83700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>160800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>215800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2159,180 +2207,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-524100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-864800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1570400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-580500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-286500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>135300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>347800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>318100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>196900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>455400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-387900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-167100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-393600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-484200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-57000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>128200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-252500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-41100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>420000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>648300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>611500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>742200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-643600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-910300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1423100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-592100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-303500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>131700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>314900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>272500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>169000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>416500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-376600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-167200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-373200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-482600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-55400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>122800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-249800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>388900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>607500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>570100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>718200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2417,8 +2474,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2503,8 +2563,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2589,8 +2652,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2675,180 +2741,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="E32" s="3">
         <v>170200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-397800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>166600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-55600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-63900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>96100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-155000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>57200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>81900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>52600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-125700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>31000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>47700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-21200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-64600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>106000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-159200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-643600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-910300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1423100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-592100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-303500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>131700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>314900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>272500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>169000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>416500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-376600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-167200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-373200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-482600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-55400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>122800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-249800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>388900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>607500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>570100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>718200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2933,185 +3008,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-643600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-910300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1423100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-592100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-303500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>131700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>314900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>272500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>169000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>416500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-376600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-167200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-373200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-482600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-55400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>122800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-249800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>388900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>607500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>570100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>718200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3142,8 +3226,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3174,782 +3259,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1783800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1659500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1368500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1155600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2055500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2523800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2656200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2608200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2710700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2889000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3121400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2532600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2711000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2989000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2835600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2456100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2132600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2187800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1986600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2235800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2395200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2206400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2290300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1737200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1210300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1402800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="3">
         <v>209300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>222200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>214400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1100</v>
       </c>
       <c r="O42" s="3">
         <v>1100</v>
       </c>
       <c r="P42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>228500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>669700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>603000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1105000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>870900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>797300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>982200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2726000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1971300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1924000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2379100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2239400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2928900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3544500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3297600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3237500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3298900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2735400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3052100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2294900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2506300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3107100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3642900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2552200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3213100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2532300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2751000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3073400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3055600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3965900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4359300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4020800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4095800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4598400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2011200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2107900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2154700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3388000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3541800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3172200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2512800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2685200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2042100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1740200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1606300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1847800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1570300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1940500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1743500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2427200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2260900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2393200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2260600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2095800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2041500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1974300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2068100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2344300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2062200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2054900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2059000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1469500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1442100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1435500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1689000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>941400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1226900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1173600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1192200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1103100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1071100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>749200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>975400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>988800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1096300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1023600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1066900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>963600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>859300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>608900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>402500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>423500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>408800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>289600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>428200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>485800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>524200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>393400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7990900</v>
+      </c>
+      <c r="E46" s="3">
         <v>7390100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7083000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8834000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8992600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9853300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9890300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9784900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9095300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9000700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8213600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8408900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7566200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8533300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8711100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9593900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7910500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8657400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7392100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7488700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8162200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8314800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9216900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9974000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8794500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8682400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9435800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>529500</v>
+      </c>
+      <c r="E47" s="3">
         <v>566300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>621100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>580600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>452600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>237500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>248700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>265800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>239500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>259600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>285300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>193100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>221000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>293000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>285600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>232300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>188600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>190100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>164300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>158600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>154000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>137700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>149900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>137500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>127800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>149500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>197500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>15646700</v>
+      </c>
+      <c r="E48" s="3">
         <v>15900600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15731400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17084200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16079000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15523500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15418800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15238500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15174900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14950700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15231100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16270000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16728400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18739300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18774500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21120200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21068600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21027600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18144100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16307900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15987500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14721100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14257700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13203600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12466000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>11656300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>10828300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1301800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1298400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1314700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1388000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1301000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1218700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1233700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1158400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>928400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>931700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>763800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>611500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>652500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>738900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>742400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>864600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>819600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>897600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>829600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>803500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>795000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>766200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>803300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>782000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>744500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>764600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>805400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4034,8 +4147,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4120,94 +4236,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2560100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2327700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2014300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2213700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1903900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1867400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1824400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1757100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1804700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1791500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1791700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1849500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1823600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1839400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1724800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1513300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1341400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1430400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1337500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1258100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1314600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1256200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1232800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1239600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1188500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1071800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1128900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4292,94 +4414,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>28029000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27483200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26764500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30100500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28729100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28700400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28615900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28204600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27242800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26934200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25948800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27333000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26991800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30143900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30238400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33324300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31328700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32203100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27867600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26016900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26413100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25196000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25660500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25336700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23321100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>22324700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>22395900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4410,8 +4538,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4442,524 +4571,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>3360700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2951600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3046300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3771600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3368500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3952700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3610500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3247100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2802400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2941400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2796700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3108600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2669000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2412600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2225500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2379300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2477500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2702900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2593500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2573100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2494500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2354400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2530100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2607300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2150400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2193700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2589600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3743500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3953100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4106100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3905700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4543500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3641400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3035800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3716600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3328800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2746500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2320800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1982600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2413500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2427500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1680500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1708400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1625800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1454900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1305300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1659500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1833200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1804300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1278600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1072600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>734100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>690200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>601100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2797200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2663900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3318800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3544900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3319700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3307500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3849800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3286100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3342400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3190600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3027700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3534600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3511000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4579200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5431200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5382700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4890500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4697300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4463000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3983800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3878000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3862100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4092600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3429700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3088300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3298400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3161700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>9901400</v>
+      </c>
+      <c r="E60" s="3">
         <v>9568600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10471100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11222200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11231700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10901600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10496100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10249800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9473600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8878600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8145100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8625800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8593500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9419300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9337200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9470400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8993900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8855100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8361800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8216400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8205600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8020800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7901200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7109600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5972800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6182300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6352400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>9383100</v>
+      </c>
+      <c r="E61" s="3">
         <v>9002400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7192000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7632700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6014000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6218900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6525300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6443800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7098900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7907800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8151900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9159100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8930300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9876300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9853500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10332500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8500600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8383100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5884100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4588400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4522600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3850300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3652200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3665600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3685800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3525400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3699800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1611300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1015600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>611900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>532800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>510600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>511900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>522600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>552300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>349800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>350900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>230500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>173800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>150400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>295300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>432600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>771400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>873000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1051400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1117300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1311500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1477300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>871400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>923400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1213500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>823900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>278900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>227600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5044,8 +5192,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5130,8 +5281,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5216,94 +5370,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22104600</v>
+      </c>
+      <c r="E66" s="3">
         <v>20757700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19354800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20720800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19031800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18915400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18776700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18456500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18046500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18185900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17516200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18916300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18633900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20594100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20599000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21627400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19428300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19398500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16125100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14841500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14696300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13236700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13011900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12546500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10999900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10453700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10735500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5334,8 +5494,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5420,8 +5581,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5506,8 +5670,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5592,8 +5759,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5678,94 +5848,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2465400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3109200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4019800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5458800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6054700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6243900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6406100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6395000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6082000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5734100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5563900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5268300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5245500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6134100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6377800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8189400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8467600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9261100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8601600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8163200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8465600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8718500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9347000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9312600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8926100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8509500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8103900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5850,8 +6026,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5936,8 +6115,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6022,94 +6204,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>5924400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6725500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7409700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9379700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9697300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9784900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9839100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9748100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9196300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8748300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8432700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8416700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8357900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9549800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9639400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11696900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11900400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12804600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11742500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11175400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11716800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11959300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12648700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12790200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12321300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11871000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11660400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6194,185 +6382,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-643600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-910300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1423100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-592100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-303500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>131700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>314900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>272500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>169000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>416500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-376600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-167200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-373200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-482600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-55400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>122800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-249800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>388900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>607500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>570100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>718200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6403,94 +6600,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>758400</v>
+      </c>
+      <c r="E83" s="3">
         <v>763600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>813300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>862900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>862500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>879400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>875500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>875400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>801900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>811800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>805800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>865500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>715700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>833700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>857000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>866500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>793700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>738200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>718200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>713100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>763600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>764500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>779200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>734000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>685600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>644300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>648000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6575,8 +6776,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6661,8 +6865,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6747,8 +6954,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6833,8 +7043,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6919,94 +7132,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>570600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-430100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>814800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>615800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>306100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>521500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1519000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>989000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1085500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>712000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>813400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>338800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>433500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>155100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1243600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-41400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1290100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-160200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>648900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1193300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1206300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>673900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1444800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1696700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1718000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1117800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1214000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7037,94 +7256,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1081734000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1448976000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1503826000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1825540000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1291739000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1288757000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1022571000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1032246000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-648500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-422100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-322700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-260300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-617100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-863500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-852300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7209,8 +7432,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7295,94 +7521,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-649500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-688300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1107300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1932100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1087800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-898000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-739800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-724400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-874500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-847100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-188600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-285000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-680100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-681400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-894100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7413,8 +7645,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7499,8 +7732,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7585,8 +7821,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7671,8 +7910,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7757,262 +7999,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1371900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>596100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>375800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>281600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>206000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-750800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-465300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-461100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-170100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>132900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-252200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>249300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>635000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>180000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1640500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>564500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2085200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>703200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>373100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>452700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>937500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>329400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>290500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>89200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>50900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-190200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E101" s="3">
         <v>37700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-90700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>40600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>31700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>38100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>19700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>98300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>32700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>72800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-70300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-31700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>78000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>55400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-55600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>51600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-78400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>26200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>33000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-71800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>100700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E102" s="3">
         <v>291100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>212900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-899800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-468400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-132400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-102500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-217300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-232400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>687400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-178400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>186800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>489900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>299300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-332000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-73900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>188800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>20300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>553100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>382400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>171400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>434500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,392 +662,405 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3553900</v>
+        <v>3684700</v>
       </c>
       <c r="E8" s="3">
-        <v>3308300</v>
+        <v>3648700</v>
       </c>
       <c r="F8" s="3">
-        <v>5476200</v>
+        <v>3396500</v>
       </c>
       <c r="G8" s="3">
-        <v>5078500</v>
+        <v>5622300</v>
       </c>
       <c r="H8" s="3">
-        <v>4205500</v>
+        <v>5213900</v>
       </c>
       <c r="I8" s="3">
-        <v>4853600</v>
+        <v>4317600</v>
       </c>
       <c r="J8" s="3">
+        <v>4983000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6604900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5417400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5224200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5093200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5544600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5188000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4086400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3968400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5458400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5181300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4711000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5349700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5836100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4942900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4713400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4767100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6270900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6136300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5833400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6355900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7142400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3683400</v>
+        <v>3655900</v>
       </c>
       <c r="E9" s="3">
-        <v>3595900</v>
+        <v>3781600</v>
       </c>
       <c r="F9" s="3">
-        <v>5491300</v>
+        <v>3691800</v>
       </c>
       <c r="G9" s="3">
-        <v>5040400</v>
+        <v>5637700</v>
       </c>
       <c r="H9" s="3">
-        <v>3998800</v>
+        <v>5174900</v>
       </c>
       <c r="I9" s="3">
-        <v>4240300</v>
+        <v>4105400</v>
       </c>
       <c r="J9" s="3">
+        <v>4353300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5618200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4436100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4136300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4181700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4520700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4537100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3987700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3734700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5074000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4912900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4287100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4773900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4838500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4223000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4321400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4311800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5499300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5031500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4501200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4808600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5726100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-129500</v>
+        <v>28700</v>
       </c>
       <c r="E10" s="3">
-        <v>-287600</v>
+        <v>-132900</v>
       </c>
       <c r="F10" s="3">
-        <v>-15100</v>
+        <v>-295200</v>
       </c>
       <c r="G10" s="3">
-        <v>38100</v>
+        <v>-15500</v>
       </c>
       <c r="H10" s="3">
-        <v>206700</v>
+        <v>39100</v>
       </c>
       <c r="I10" s="3">
-        <v>613400</v>
+        <v>212200</v>
       </c>
       <c r="J10" s="3">
+        <v>629700</v>
+      </c>
+      <c r="K10" s="3">
         <v>986700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>981300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1087800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>911600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1023800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>650900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>98700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>233600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>384400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>268400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>423900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>575800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>997700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>719900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>392100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>455400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>771700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1104800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1332200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1547400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1416200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,97 +1092,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>255000</v>
+        <v>266500</v>
       </c>
       <c r="E12" s="3">
-        <v>264700</v>
+        <v>261800</v>
       </c>
       <c r="F12" s="3">
-        <v>294000</v>
+        <v>271700</v>
       </c>
       <c r="G12" s="3">
-        <v>262200</v>
+        <v>301800</v>
       </c>
       <c r="H12" s="3">
-        <v>238600</v>
+        <v>269200</v>
       </c>
       <c r="I12" s="3">
-        <v>242000</v>
+        <v>245000</v>
       </c>
       <c r="J12" s="3">
+        <v>248500</v>
+      </c>
+      <c r="K12" s="3">
         <v>250300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>238000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>221300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>204100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>210600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>221400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>224200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>209800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>193800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>373400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>303100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>262900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>265800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>247700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>239500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>291700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>251700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>274200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>255800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>276900</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1257,186 +1274,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>53200</v>
+        <v>24500</v>
       </c>
       <c r="E14" s="3">
-        <v>4600</v>
+        <v>54600</v>
       </c>
       <c r="F14" s="3">
-        <v>1038000</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="3">
+        <v>1065700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O14" s="3">
+        <v>29300</v>
+      </c>
+      <c r="P14" s="3">
+        <v>29600</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>79100</v>
+      </c>
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
-      <c r="H14" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>15300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>29300</v>
-      </c>
-      <c r="O14" s="3">
-        <v>29600</v>
-      </c>
-      <c r="P14" s="3">
-        <v>79100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1398600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>127100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>38800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>28200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>21400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>22700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-7500</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>49100</v>
+      </c>
+      <c r="H15" s="3">
         <v>51700</v>
       </c>
-      <c r="E15" s="3">
-        <v>49200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>50400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>49600</v>
-      </c>
       <c r="I15" s="3">
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="J15" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K15" s="3">
         <v>50300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>52600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>46700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>38900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>53900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>49500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>40100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>37200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>34500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>33400</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>30800</v>
       </c>
       <c r="AA15" s="3">
         <v>30800</v>
       </c>
       <c r="AB15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="AC15" s="3">
         <v>29900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>31300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>27900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1465,186 +1491,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4268200</v>
+        <v>4219000</v>
       </c>
       <c r="E17" s="3">
-        <v>4136700</v>
+        <v>4382000</v>
       </c>
       <c r="F17" s="3">
-        <v>7171000</v>
+        <v>4247000</v>
       </c>
       <c r="G17" s="3">
-        <v>5656200</v>
+        <v>7362200</v>
       </c>
       <c r="H17" s="3">
-        <v>4576100</v>
+        <v>5807000</v>
       </c>
       <c r="I17" s="3">
-        <v>4825300</v>
+        <v>4698200</v>
       </c>
       <c r="J17" s="3">
+        <v>4954000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6262000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5026300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4704500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4711600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5072000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5091000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4563600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4280500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7215600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5697100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5040400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5475600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5640400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4830600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4933200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4849700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6228300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5621800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5147100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5454500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6321000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-714300</v>
+        <v>-534300</v>
       </c>
       <c r="E18" s="3">
-        <v>-828400</v>
+        <v>-733300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1694800</v>
+        <v>-850500</v>
       </c>
       <c r="G18" s="3">
-        <v>-577700</v>
+        <v>-1740000</v>
       </c>
       <c r="H18" s="3">
-        <v>-370700</v>
+        <v>-593100</v>
       </c>
       <c r="I18" s="3">
-        <v>28300</v>
+        <v>-380500</v>
       </c>
       <c r="J18" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K18" s="3">
         <v>342900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>391100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>519700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>381600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>472600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-477200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-312200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1757200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-515800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-329400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-125900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>195800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>112300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-219800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-82600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>42700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>514500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>686300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>901500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>821400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1676,453 +1709,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>180900</v>
+        <v>-87200</v>
       </c>
       <c r="E20" s="3">
-        <v>-170200</v>
+        <v>185800</v>
       </c>
       <c r="F20" s="3">
-        <v>397800</v>
+        <v>-174800</v>
       </c>
       <c r="G20" s="3">
-        <v>-166600</v>
+        <v>408400</v>
       </c>
       <c r="H20" s="3">
-        <v>55600</v>
+        <v>-171100</v>
       </c>
       <c r="I20" s="3">
-        <v>63900</v>
+        <v>57100</v>
       </c>
       <c r="J20" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-96100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>155000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-57200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-81900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-52600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>125700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-31000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-47700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>21200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>13500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>32900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>64600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-106000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>159200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>225000</v>
+        <v>182600</v>
       </c>
       <c r="E21" s="3">
-        <v>-235000</v>
+        <v>231000</v>
       </c>
       <c r="F21" s="3">
-        <v>-483700</v>
+        <v>-241300</v>
       </c>
       <c r="G21" s="3">
-        <v>118600</v>
+        <v>-496600</v>
       </c>
       <c r="H21" s="3">
-        <v>547500</v>
+        <v>121700</v>
       </c>
       <c r="I21" s="3">
-        <v>971600</v>
+        <v>562100</v>
       </c>
       <c r="J21" s="3">
+        <v>997500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1122200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1421500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1295900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1136200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1196400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>909900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>257100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>647200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-935800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>383400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>433300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>638200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>930000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>817200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>496100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>703100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>835400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1281400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1436600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1439800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1628600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>124500</v>
+        <v>153500</v>
       </c>
       <c r="E22" s="3">
-        <v>107500</v>
+        <v>127800</v>
       </c>
       <c r="F22" s="3">
-        <v>97900</v>
+        <v>110300</v>
       </c>
       <c r="G22" s="3">
-        <v>79800</v>
+        <v>100500</v>
       </c>
       <c r="H22" s="3">
-        <v>69000</v>
+        <v>81900</v>
       </c>
       <c r="I22" s="3">
-        <v>64200</v>
+        <v>70900</v>
       </c>
       <c r="J22" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K22" s="3">
         <v>68700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>89700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>84900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>83100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>86200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>61200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>51100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>18100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>19100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>20500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>18900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>23200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>22600</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-657800</v>
+        <v>-775000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1106100</v>
+        <v>-675400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1394900</v>
+        <v>-1135600</v>
       </c>
       <c r="G23" s="3">
-        <v>-824100</v>
+        <v>-1432100</v>
       </c>
       <c r="H23" s="3">
-        <v>-384100</v>
+        <v>-846100</v>
       </c>
       <c r="I23" s="3">
-        <v>28100</v>
+        <v>-394300</v>
       </c>
       <c r="J23" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K23" s="3">
         <v>178100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>456400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>412800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>239500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>307600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-41800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-515100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-247700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1847000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-534200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-389300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-117100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>196700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>89300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-285600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-80500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>38700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>526900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>732000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>772300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>958100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-133800</v>
+        <v>-177900</v>
       </c>
       <c r="E24" s="3">
-        <v>-241300</v>
+        <v>-137300</v>
       </c>
       <c r="F24" s="3">
-        <v>175400</v>
+        <v>-247700</v>
       </c>
       <c r="G24" s="3">
-        <v>-243600</v>
+        <v>180100</v>
       </c>
       <c r="H24" s="3">
-        <v>-97500</v>
+        <v>-250100</v>
       </c>
       <c r="I24" s="3">
-        <v>-12600</v>
+        <v>-100100</v>
       </c>
       <c r="J24" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K24" s="3">
         <v>42800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>108600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-147800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-50400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-80600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-302500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-140600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>94800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-60100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>68500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>75100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-33200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-39300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>106900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>83700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>160800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>215800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2210,186 +2259,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-524100</v>
+        <v>-597100</v>
       </c>
       <c r="E26" s="3">
-        <v>-864800</v>
+        <v>-538100</v>
       </c>
       <c r="F26" s="3">
-        <v>-1570400</v>
+        <v>-887900</v>
       </c>
       <c r="G26" s="3">
-        <v>-580500</v>
+        <v>-1612200</v>
       </c>
       <c r="H26" s="3">
-        <v>-286500</v>
+        <v>-596000</v>
       </c>
       <c r="I26" s="3">
-        <v>40700</v>
+        <v>-294200</v>
       </c>
       <c r="J26" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K26" s="3">
         <v>135300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>347800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>318100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>196900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>455400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-387900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-167100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1544500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-393600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-484200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-57000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>128200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-252500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-41100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>420000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>648300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>611500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>742200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-643600</v>
+        <v>-554400</v>
       </c>
       <c r="E27" s="3">
-        <v>-910300</v>
+        <v>-660800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1423100</v>
+        <v>-934600</v>
       </c>
       <c r="G27" s="3">
-        <v>-592100</v>
+        <v>-1461100</v>
       </c>
       <c r="H27" s="3">
-        <v>-303500</v>
+        <v>-607900</v>
       </c>
       <c r="I27" s="3">
-        <v>15000</v>
+        <v>-311500</v>
       </c>
       <c r="J27" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K27" s="3">
         <v>131700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>314900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>272500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>169000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>416500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-376600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-167200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1530900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-373200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-482600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-55400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>122800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-249800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-49900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>32500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>388900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>607500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>570100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>718200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2477,8 +2535,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2566,8 +2627,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2655,8 +2719,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2744,186 +2811,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-180900</v>
+        <v>87200</v>
       </c>
       <c r="E32" s="3">
-        <v>170200</v>
+        <v>-185800</v>
       </c>
       <c r="F32" s="3">
-        <v>-397800</v>
+        <v>174800</v>
       </c>
       <c r="G32" s="3">
-        <v>166600</v>
+        <v>-408400</v>
       </c>
       <c r="H32" s="3">
-        <v>-55600</v>
+        <v>171100</v>
       </c>
       <c r="I32" s="3">
-        <v>-63900</v>
+        <v>-57100</v>
       </c>
       <c r="J32" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K32" s="3">
         <v>96100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-155000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>57200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>81900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>52600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-125700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>31000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>47700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-21200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-32900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-64600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>106000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-159200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-643600</v>
+        <v>-554400</v>
       </c>
       <c r="E33" s="3">
-        <v>-910300</v>
+        <v>-660800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1423100</v>
+        <v>-934600</v>
       </c>
       <c r="G33" s="3">
-        <v>-592100</v>
+        <v>-1461100</v>
       </c>
       <c r="H33" s="3">
-        <v>-303500</v>
+        <v>-607900</v>
       </c>
       <c r="I33" s="3">
-        <v>15000</v>
+        <v>-311500</v>
       </c>
       <c r="J33" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K33" s="3">
         <v>131700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>314900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>272500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>169000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>416500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-376600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-167200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1530900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-373200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-482600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-55400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>122800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-249800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-49900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>32500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>388900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>607500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>570100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>718200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3011,191 +3087,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-643600</v>
+        <v>-554400</v>
       </c>
       <c r="E35" s="3">
-        <v>-910300</v>
+        <v>-660800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1423100</v>
+        <v>-934600</v>
       </c>
       <c r="G35" s="3">
-        <v>-592100</v>
+        <v>-1461100</v>
       </c>
       <c r="H35" s="3">
-        <v>-303500</v>
+        <v>-607900</v>
       </c>
       <c r="I35" s="3">
-        <v>15000</v>
+        <v>-311500</v>
       </c>
       <c r="J35" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K35" s="3">
         <v>131700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>314900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>272500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>169000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>416500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-376600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-167200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1530900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-373200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-482600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-55400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>122800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-249800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-49900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>32500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>388900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>607500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>570100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>718200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3227,8 +3312,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3260,809 +3346,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1783800</v>
+        <v>2314800</v>
       </c>
       <c r="E41" s="3">
-        <v>1659500</v>
+        <v>1831400</v>
       </c>
       <c r="F41" s="3">
-        <v>1368500</v>
+        <v>1703800</v>
       </c>
       <c r="G41" s="3">
-        <v>1155600</v>
+        <v>1405000</v>
       </c>
       <c r="H41" s="3">
-        <v>2055500</v>
+        <v>1186500</v>
       </c>
       <c r="I41" s="3">
-        <v>2523800</v>
+        <v>2110300</v>
       </c>
       <c r="J41" s="3">
+        <v>2591100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2656200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2608200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2710700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2889000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3121400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2532600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2711000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2989000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2835600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2456100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2132600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2187800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1986600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2235800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2395200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2206400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2290300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1737200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1354700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1210300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1402800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3">
-        <v>209300</v>
-      </c>
       <c r="F42" s="3">
-        <v>200400</v>
+        <v>214900</v>
       </c>
       <c r="G42" s="3">
-        <v>222200</v>
+        <v>205700</v>
       </c>
       <c r="H42" s="3">
-        <v>214400</v>
+        <v>228100</v>
       </c>
       <c r="I42" s="3">
+        <v>220100</v>
+      </c>
+      <c r="J42" s="3">
         <v>1600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1300</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1100</v>
       </c>
       <c r="P42" s="3">
         <v>1100</v>
       </c>
       <c r="Q42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R42" s="3">
         <v>1200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>228500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>669700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>603000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1105000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>870900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>797300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>982200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2726000</v>
+        <v>1897700</v>
       </c>
       <c r="E43" s="3">
-        <v>1971300</v>
+        <v>2798600</v>
       </c>
       <c r="F43" s="3">
-        <v>1924000</v>
+        <v>2023800</v>
       </c>
       <c r="G43" s="3">
-        <v>2379100</v>
+        <v>1975300</v>
       </c>
       <c r="H43" s="3">
-        <v>2239400</v>
+        <v>2442600</v>
       </c>
       <c r="I43" s="3">
-        <v>2928900</v>
+        <v>2299200</v>
       </c>
       <c r="J43" s="3">
+        <v>3007000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3544500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3297600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3237500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3298900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2735400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3052100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2294900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2506300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3107100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3642900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2552200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3213100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2532300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2751000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3073400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3055600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3965900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4359300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4020800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4095800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4598400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2011200</v>
+        <v>2578400</v>
       </c>
       <c r="E44" s="3">
-        <v>2107900</v>
+        <v>2064800</v>
       </c>
       <c r="F44" s="3">
-        <v>2154700</v>
+        <v>2164200</v>
       </c>
       <c r="G44" s="3">
-        <v>3388000</v>
+        <v>2212100</v>
       </c>
       <c r="H44" s="3">
-        <v>3541800</v>
+        <v>3478300</v>
       </c>
       <c r="I44" s="3">
-        <v>3172200</v>
+        <v>3636300</v>
       </c>
       <c r="J44" s="3">
+        <v>3256800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2512800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2685200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2042100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1740200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1606300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1847800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1570300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1940500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1743500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2427200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2260900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2393200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2260600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2095800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2041500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1974300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2068100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2344300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2062200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2054900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2059000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1469500</v>
+        <v>1073900</v>
       </c>
       <c r="E45" s="3">
-        <v>1442100</v>
+        <v>1508700</v>
       </c>
       <c r="F45" s="3">
-        <v>1435500</v>
+        <v>1480600</v>
       </c>
       <c r="G45" s="3">
-        <v>1689000</v>
+        <v>1473800</v>
       </c>
       <c r="H45" s="3">
-        <v>941400</v>
+        <v>1734000</v>
       </c>
       <c r="I45" s="3">
-        <v>1226900</v>
+        <v>966500</v>
       </c>
       <c r="J45" s="3">
+        <v>1259600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1173600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1192200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1103100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1071100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>749200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>975400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>988800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1096300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1023600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1066900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>963600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>859300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>608900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>402500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>423500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>408800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>289600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>428200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>485800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>524200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>393400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7990900</v>
+        <v>8089800</v>
       </c>
       <c r="E46" s="3">
-        <v>7390100</v>
+        <v>8204000</v>
       </c>
       <c r="F46" s="3">
-        <v>7083000</v>
+        <v>7587200</v>
       </c>
       <c r="G46" s="3">
-        <v>8834000</v>
+        <v>7271900</v>
       </c>
       <c r="H46" s="3">
-        <v>8992600</v>
+        <v>9069500</v>
       </c>
       <c r="I46" s="3">
-        <v>9853300</v>
+        <v>9232400</v>
       </c>
       <c r="J46" s="3">
+        <v>10116100</v>
+      </c>
+      <c r="K46" s="3">
         <v>9890300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9784900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9095300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9000700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8213600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8408900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7566200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8533300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8711100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9593900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7910500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8657400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7392100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7488700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8162200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8314800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9216900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9974000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8794500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8682400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>9435800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>529500</v>
+        <v>512800</v>
       </c>
       <c r="E47" s="3">
-        <v>566300</v>
+        <v>543600</v>
       </c>
       <c r="F47" s="3">
-        <v>621100</v>
+        <v>581400</v>
       </c>
       <c r="G47" s="3">
-        <v>580600</v>
+        <v>637600</v>
       </c>
       <c r="H47" s="3">
-        <v>452600</v>
+        <v>596100</v>
       </c>
       <c r="I47" s="3">
-        <v>237500</v>
+        <v>464700</v>
       </c>
       <c r="J47" s="3">
+        <v>243800</v>
+      </c>
+      <c r="K47" s="3">
         <v>248700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>265800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>239500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>259600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>285300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>193100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>221000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>293000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>285600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>232300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>188600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>190100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>164300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>158600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>154000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>137700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>149900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>137500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>127800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>149500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>197500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>15646700</v>
+        <v>16160500</v>
       </c>
       <c r="E48" s="3">
-        <v>15900600</v>
+        <v>16063900</v>
       </c>
       <c r="F48" s="3">
-        <v>15731400</v>
+        <v>16324700</v>
       </c>
       <c r="G48" s="3">
-        <v>17084200</v>
+        <v>16150900</v>
       </c>
       <c r="H48" s="3">
-        <v>16079000</v>
+        <v>17539700</v>
       </c>
       <c r="I48" s="3">
-        <v>15523500</v>
+        <v>16507800</v>
       </c>
       <c r="J48" s="3">
+        <v>15937400</v>
+      </c>
+      <c r="K48" s="3">
         <v>15418800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15238500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15174900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14950700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15231100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16270000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16728400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18739300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18774500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21120200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21068600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21027600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18144100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16307900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15987500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14721100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14257700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13203600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12466000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11656300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>10828300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1301800</v>
+        <v>1336200</v>
       </c>
       <c r="E49" s="3">
-        <v>1298400</v>
+        <v>1336500</v>
       </c>
       <c r="F49" s="3">
-        <v>1314700</v>
+        <v>1333100</v>
       </c>
       <c r="G49" s="3">
-        <v>1388000</v>
+        <v>1349800</v>
       </c>
       <c r="H49" s="3">
-        <v>1301000</v>
+        <v>1425100</v>
       </c>
       <c r="I49" s="3">
-        <v>1218700</v>
+        <v>1335700</v>
       </c>
       <c r="J49" s="3">
+        <v>1251200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1233700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1158400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>928400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>931700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>763800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>611500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>652500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>738900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>742400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>864600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>819600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>897600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>829600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>803500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>795000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>766200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>803300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>782000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>744500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>764600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>805400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4150,8 +4264,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4239,97 +4356,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2560100</v>
+        <v>2804800</v>
       </c>
       <c r="E52" s="3">
-        <v>2327700</v>
+        <v>2628400</v>
       </c>
       <c r="F52" s="3">
-        <v>2014300</v>
+        <v>2389800</v>
       </c>
       <c r="G52" s="3">
-        <v>2213700</v>
+        <v>2068000</v>
       </c>
       <c r="H52" s="3">
-        <v>1903900</v>
+        <v>2272800</v>
       </c>
       <c r="I52" s="3">
-        <v>1867400</v>
+        <v>1954700</v>
       </c>
       <c r="J52" s="3">
+        <v>1917200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1824400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1757100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1804700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1791500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1791700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1849500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1823600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1839400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1724800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1513300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1341400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1430400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1337500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1258100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1314600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1256200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1232800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1239600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1188500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1071800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1128900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4417,97 +4540,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28029000</v>
+        <v>28904100</v>
       </c>
       <c r="E54" s="3">
-        <v>27483200</v>
+        <v>28776400</v>
       </c>
       <c r="F54" s="3">
-        <v>26764500</v>
+        <v>28216100</v>
       </c>
       <c r="G54" s="3">
-        <v>30100500</v>
+        <v>27478200</v>
       </c>
       <c r="H54" s="3">
-        <v>28729100</v>
+        <v>30903100</v>
       </c>
       <c r="I54" s="3">
-        <v>28700400</v>
+        <v>29495200</v>
       </c>
       <c r="J54" s="3">
+        <v>29465700</v>
+      </c>
+      <c r="K54" s="3">
         <v>28615900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28204600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27242800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26934200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25948800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27333000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26991800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30143900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30238400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33324300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31328700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32203100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27867600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26016900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26413100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25196000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25660500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25336700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23321100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>22324700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>22395900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4539,8 +4668,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4572,542 +4702,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3360700</v>
+        <v>3620900</v>
       </c>
       <c r="E57" s="3">
-        <v>2951600</v>
+        <v>3450300</v>
       </c>
       <c r="F57" s="3">
-        <v>3046300</v>
+        <v>3030300</v>
       </c>
       <c r="G57" s="3">
-        <v>3771600</v>
+        <v>3127500</v>
       </c>
       <c r="H57" s="3">
-        <v>3368500</v>
+        <v>3872200</v>
       </c>
       <c r="I57" s="3">
-        <v>3952700</v>
+        <v>3458300</v>
       </c>
       <c r="J57" s="3">
+        <v>4058100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3610500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3247100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2802400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2941400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2796700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3108600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2669000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2412600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2225500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2379300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2477500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2702900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2593500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2573100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2494500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2354400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2530100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2607300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2150400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2193700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2589600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3743500</v>
+        <v>4193700</v>
       </c>
       <c r="E58" s="3">
-        <v>3953100</v>
+        <v>3843300</v>
       </c>
       <c r="F58" s="3">
-        <v>4106100</v>
+        <v>4058600</v>
       </c>
       <c r="G58" s="3">
-        <v>3905700</v>
+        <v>4215600</v>
       </c>
       <c r="H58" s="3">
-        <v>4543500</v>
+        <v>4009800</v>
       </c>
       <c r="I58" s="3">
-        <v>3641400</v>
+        <v>4664700</v>
       </c>
       <c r="J58" s="3">
+        <v>3738500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3035800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3716600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3328800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2746500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2320800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1982600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2413500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2427500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1680500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1708400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1625800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1454900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1305300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1659500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1833200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1804300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1278600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1072600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>734100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>690200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>601100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2797200</v>
+        <v>3396400</v>
       </c>
       <c r="E59" s="3">
-        <v>2663900</v>
+        <v>2871800</v>
       </c>
       <c r="F59" s="3">
-        <v>3318800</v>
+        <v>2734900</v>
       </c>
       <c r="G59" s="3">
-        <v>3544900</v>
+        <v>3407300</v>
       </c>
       <c r="H59" s="3">
-        <v>3319700</v>
+        <v>3639400</v>
       </c>
       <c r="I59" s="3">
-        <v>3307500</v>
+        <v>3408200</v>
       </c>
       <c r="J59" s="3">
+        <v>3395600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3849800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3286100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3342400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3190600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3027700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3534600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3511000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4579200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5431200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5382700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4890500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4697300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4463000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3983800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3878000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3862100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4092600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3429700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3088300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3298400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3161700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>9901400</v>
+        <v>11211000</v>
       </c>
       <c r="E60" s="3">
-        <v>9568600</v>
+        <v>10165400</v>
       </c>
       <c r="F60" s="3">
-        <v>10471100</v>
+        <v>9823800</v>
       </c>
       <c r="G60" s="3">
-        <v>11222200</v>
+        <v>10750400</v>
       </c>
       <c r="H60" s="3">
-        <v>11231700</v>
+        <v>11521500</v>
       </c>
       <c r="I60" s="3">
-        <v>10901600</v>
+        <v>11531200</v>
       </c>
       <c r="J60" s="3">
+        <v>11192300</v>
+      </c>
+      <c r="K60" s="3">
         <v>10496100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10249800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9473600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8878600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8145100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8625800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8593500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9419300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9337200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9470400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8993900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8855100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8361800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8216400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8205600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8020800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7901200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7109600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5972800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6182300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6352400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9383100</v>
+        <v>9324700</v>
       </c>
       <c r="E61" s="3">
-        <v>9002400</v>
+        <v>9633300</v>
       </c>
       <c r="F61" s="3">
-        <v>7192000</v>
+        <v>9242500</v>
       </c>
       <c r="G61" s="3">
-        <v>7632700</v>
+        <v>7383800</v>
       </c>
       <c r="H61" s="3">
-        <v>6014000</v>
+        <v>7836300</v>
       </c>
       <c r="I61" s="3">
-        <v>6218900</v>
+        <v>6174400</v>
       </c>
       <c r="J61" s="3">
+        <v>6384800</v>
+      </c>
+      <c r="K61" s="3">
         <v>6525300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6443800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7098900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7907800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8151900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9159100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8930300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9876300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9853500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10332500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8500600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8383100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5884100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4588400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4522600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3850300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3652200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3665600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3685800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3525400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3699800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1611300</v>
+        <v>1522900</v>
       </c>
       <c r="E62" s="3">
-        <v>1015600</v>
+        <v>1654300</v>
       </c>
       <c r="F62" s="3">
-        <v>611900</v>
+        <v>1042700</v>
       </c>
       <c r="G62" s="3">
-        <v>532800</v>
+        <v>628200</v>
       </c>
       <c r="H62" s="3">
-        <v>510600</v>
+        <v>547000</v>
       </c>
       <c r="I62" s="3">
-        <v>511900</v>
+        <v>524200</v>
       </c>
       <c r="J62" s="3">
+        <v>525600</v>
+      </c>
+      <c r="K62" s="3">
         <v>522600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>552300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>349800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>350900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>230500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>150400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>295300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>432600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>771400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>873000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1051400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1117300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1311500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1477300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>871400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>923400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1213500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>823900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>278900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>227600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5195,8 +5344,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5284,8 +5436,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5373,97 +5528,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22104600</v>
+        <v>23278000</v>
       </c>
       <c r="E66" s="3">
-        <v>20757700</v>
+        <v>22694100</v>
       </c>
       <c r="F66" s="3">
-        <v>19354800</v>
+        <v>21311200</v>
       </c>
       <c r="G66" s="3">
-        <v>20720800</v>
+        <v>19871000</v>
       </c>
       <c r="H66" s="3">
-        <v>19031800</v>
+        <v>21273300</v>
       </c>
       <c r="I66" s="3">
-        <v>18915400</v>
+        <v>19539300</v>
       </c>
       <c r="J66" s="3">
+        <v>19419800</v>
+      </c>
+      <c r="K66" s="3">
         <v>18776700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18456500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18046500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18185900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17516200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18916300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18633900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20594100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20599000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21627400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19428300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19398500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16125100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14841500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14696300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13236700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13011900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12546500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10999900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10453700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10735500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5495,8 +5656,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5584,8 +5746,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5673,8 +5838,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5762,8 +5930,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5851,97 +6022,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2465400</v>
+        <v>1976800</v>
       </c>
       <c r="E72" s="3">
-        <v>3109200</v>
+        <v>2531200</v>
       </c>
       <c r="F72" s="3">
-        <v>4019800</v>
+        <v>3192100</v>
       </c>
       <c r="G72" s="3">
-        <v>5458800</v>
+        <v>4127000</v>
       </c>
       <c r="H72" s="3">
-        <v>6054700</v>
+        <v>5604400</v>
       </c>
       <c r="I72" s="3">
-        <v>6243900</v>
+        <v>6216100</v>
       </c>
       <c r="J72" s="3">
+        <v>6410400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6406100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6395000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6082000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5734100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5563900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5268300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5245500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6134100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6377800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8189400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8467600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9261100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8601600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8163200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8465600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8718500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9347000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9312600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8926100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8509500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>8103900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6029,8 +6206,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6118,8 +6298,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6207,97 +6390,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>5924400</v>
+        <v>5626100</v>
       </c>
       <c r="E76" s="3">
-        <v>6725500</v>
+        <v>6082300</v>
       </c>
       <c r="F76" s="3">
-        <v>7409700</v>
+        <v>6904800</v>
       </c>
       <c r="G76" s="3">
-        <v>9379700</v>
+        <v>7607300</v>
       </c>
       <c r="H76" s="3">
-        <v>9697300</v>
+        <v>9629800</v>
       </c>
       <c r="I76" s="3">
-        <v>9784900</v>
+        <v>9955900</v>
       </c>
       <c r="J76" s="3">
+        <v>10045900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9839100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9748100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9196300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8748300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8432700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8416700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8357900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9549800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9639400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11696900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11900400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12804600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11742500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11175400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11716800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11959300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12648700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12790200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12321300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11871000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>11660400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6385,191 +6574,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-643600</v>
+        <v>-554400</v>
       </c>
       <c r="E81" s="3">
-        <v>-910300</v>
+        <v>-660800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1423100</v>
+        <v>-934600</v>
       </c>
       <c r="G81" s="3">
-        <v>-592100</v>
+        <v>-1461100</v>
       </c>
       <c r="H81" s="3">
-        <v>-303500</v>
+        <v>-607900</v>
       </c>
       <c r="I81" s="3">
-        <v>15000</v>
+        <v>-311500</v>
       </c>
       <c r="J81" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K81" s="3">
         <v>131700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>314900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>272500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>169000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>416500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-376600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-167200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1530900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-373200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-482600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-55400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>122800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-249800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-49900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>32500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>388900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>607500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>570100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>718200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6601,97 +6799,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>758400</v>
+        <v>804100</v>
       </c>
       <c r="E83" s="3">
+        <v>778600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>784000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>835000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>885900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>885500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>902800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>875500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>875400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>801900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>811800</v>
+      </c>
+      <c r="O83" s="3">
+        <v>805800</v>
+      </c>
+      <c r="P83" s="3">
+        <v>865500</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>715700</v>
+      </c>
+      <c r="R83" s="3">
+        <v>833700</v>
+      </c>
+      <c r="S83" s="3">
+        <v>857000</v>
+      </c>
+      <c r="T83" s="3">
+        <v>866500</v>
+      </c>
+      <c r="U83" s="3">
+        <v>793700</v>
+      </c>
+      <c r="V83" s="3">
+        <v>738200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>718200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>713100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>763600</v>
       </c>
-      <c r="F83" s="3">
-        <v>813300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>862900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>862500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>879400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>875500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>875400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>801900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>811800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>805800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>865500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>715700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>833700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>857000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>866500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>793700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>738200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>718200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>713100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>763600</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>764500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>779200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>734000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>685600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>644300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>648000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6779,8 +6981,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6868,8 +7073,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6957,8 +7165,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7046,8 +7257,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7135,97 +7349,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>570600</v>
+        <v>761100</v>
       </c>
       <c r="E89" s="3">
-        <v>-430100</v>
+        <v>585800</v>
       </c>
       <c r="F89" s="3">
-        <v>814800</v>
+        <v>-441600</v>
       </c>
       <c r="G89" s="3">
-        <v>615800</v>
+        <v>836500</v>
       </c>
       <c r="H89" s="3">
-        <v>306100</v>
+        <v>632300</v>
       </c>
       <c r="I89" s="3">
-        <v>521500</v>
+        <v>314300</v>
       </c>
       <c r="J89" s="3">
+        <v>535400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1519000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>989000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1085500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>712000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>813400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>338800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>433500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>155100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1243600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-41400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1290100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-160200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>648900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1193300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1206300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>673900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1444800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1696700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1718000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1117800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1214000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7257,97 +7477,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-733740000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1081734000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1448976000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1503826000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1825540000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1291739000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1288757000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1022571000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1032246000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-648500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-422100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-322700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-260300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-617100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-863500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-852300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1433300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1942100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1917300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1586500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1690900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1806400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1525000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7435,8 +7659,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7524,97 +7751,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-649500</v>
+        <v>-189900</v>
       </c>
       <c r="E94" s="3">
-        <v>-688300</v>
+        <v>-666900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1107300</v>
+        <v>-706700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1932100</v>
+        <v>-1136800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1087800</v>
+        <v>-1983600</v>
       </c>
       <c r="I94" s="3">
-        <v>-898000</v>
+        <v>-1116800</v>
       </c>
       <c r="J94" s="3">
+        <v>-921900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-739800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-724400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-874500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-847100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-188600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-285000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-680100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-681400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-894100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1314600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1838600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1944700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1684900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1584800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1476200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1642700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7646,8 +7879,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7735,8 +7969,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7824,8 +8061,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7913,8 +8153,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8002,271 +8245,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>261800</v>
+        <v>-128700</v>
       </c>
       <c r="E100" s="3">
-        <v>1371900</v>
+        <v>268800</v>
       </c>
       <c r="F100" s="3">
-        <v>596100</v>
+        <v>1408400</v>
       </c>
       <c r="G100" s="3">
-        <v>375800</v>
+        <v>612000</v>
       </c>
       <c r="H100" s="3">
-        <v>281600</v>
+        <v>385900</v>
       </c>
       <c r="I100" s="3">
-        <v>206000</v>
+        <v>289100</v>
       </c>
       <c r="J100" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-750800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-465300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-461100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-170100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>132900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-252200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>249300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>635000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>180000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1640500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>564500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2085200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>703200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>373100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>452700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>937500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>329400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>290500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>89200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>50900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-190200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-58600</v>
+        <v>41000</v>
       </c>
       <c r="E101" s="3">
-        <v>37700</v>
+        <v>-60200</v>
       </c>
       <c r="F101" s="3">
-        <v>-90700</v>
+        <v>38700</v>
       </c>
       <c r="G101" s="3">
-        <v>40600</v>
+        <v>-93200</v>
       </c>
       <c r="H101" s="3">
-        <v>31700</v>
+        <v>41600</v>
       </c>
       <c r="I101" s="3">
-        <v>38100</v>
+        <v>32600</v>
       </c>
       <c r="J101" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K101" s="3">
         <v>19700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>98300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>32700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>72800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-70300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>78000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>55400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-55600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>51600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-78400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>26200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>33000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-71800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>100700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>124300</v>
+        <v>483400</v>
       </c>
       <c r="E102" s="3">
-        <v>291100</v>
+        <v>127600</v>
       </c>
       <c r="F102" s="3">
-        <v>212900</v>
+        <v>298800</v>
       </c>
       <c r="G102" s="3">
-        <v>-899800</v>
+        <v>218500</v>
       </c>
       <c r="H102" s="3">
-        <v>-468400</v>
+        <v>-923800</v>
       </c>
       <c r="I102" s="3">
-        <v>-132400</v>
+        <v>-480900</v>
       </c>
       <c r="J102" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="K102" s="3">
         <v>48000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-217300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-232400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>687400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-178400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>186800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>489900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>299300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-332000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-73900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>188800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>20300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>553100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>382400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>171400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-192600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>434500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>90100</v>
       </c>
     </row>
